--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="284">
   <si>
     <t>Put</t>
   </si>
@@ -49,6 +49,15 @@
     <t>mouth</t>
   </si>
   <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -70,6 +79,12 @@
     <t>teeth</t>
   </si>
   <si>
+    <t>teenage</t>
+  </si>
+  <si>
+    <t>brain stroke</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>tongue</t>
   </si>
   <si>
+    <t>youth</t>
+  </si>
+  <si>
+    <t>cardiac arrest</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -118,6 +139,12 @@
     <t>bud</t>
   </si>
   <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>heart failure</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -142,6 +169,12 @@
     <t>cheek</t>
   </si>
   <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>chronic disorder</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -166,6 +199,12 @@
     <t>lip</t>
   </si>
   <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>stress obesity</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
@@ -190,6 +229,12 @@
     <t>palate</t>
   </si>
   <si>
+    <t>amateur</t>
+  </si>
+  <si>
+    <t>vision impairment</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -214,6 +259,12 @@
     <t>chin</t>
   </si>
   <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>organ expansion</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -238,6 +289,12 @@
     <t>gum</t>
   </si>
   <si>
+    <t>newbie</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -262,6 +319,12 @@
     <t>tissue</t>
   </si>
   <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>virus infection</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -286,6 +349,12 @@
     <t>tonsil</t>
   </si>
   <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>jaundice fever</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -307,6 +376,12 @@
     <t>saliva</t>
   </si>
   <si>
+    <t>sportsman</t>
+  </si>
+  <si>
+    <t>sinus infection</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -331,6 +406,12 @@
     <t>throat</t>
   </si>
   <si>
+    <t>housewife</t>
+  </si>
+  <si>
+    <t>gallbladder inflammation</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -355,6 +436,12 @@
     <t>cord</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>brain tumour</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -379,6 +466,12 @@
     <t>thyroid</t>
   </si>
   <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>herpes disease</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -403,6 +496,12 @@
     <t>pituitary</t>
   </si>
   <si>
+    <t>techie</t>
+  </si>
+  <si>
+    <t>body cancer</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -427,6 +526,12 @@
     <t>nostril</t>
   </si>
   <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>HIV positive</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -451,6 +556,12 @@
     <t>dendrite</t>
   </si>
   <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>bed sore</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -475,6 +586,12 @@
     <t>serum</t>
   </si>
   <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>asthma condition</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -499,6 +616,12 @@
     <t>liver</t>
   </si>
   <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>Alzheimer's cell</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -523,6 +646,12 @@
     <t>appendix</t>
   </si>
   <si>
+    <t>gamer</t>
+  </si>
+  <si>
+    <t>pneumonia antibiotics</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -547,6 +676,12 @@
     <t>line</t>
   </si>
   <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>bronchitis bacteria</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
@@ -571,6 +706,12 @@
     <t>lung</t>
   </si>
   <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>viral syndrome</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -595,6 +736,12 @@
     <t>kidney</t>
   </si>
   <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>coma relative</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -619,6 +766,12 @@
     <t>melanin</t>
   </si>
   <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>epilepsy unknown</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -643,6 +796,9 @@
     <t>marrow</t>
   </si>
   <si>
+    <t>electric shock</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -667,6 +823,12 @@
     <t>hip</t>
   </si>
   <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>ulcer tissue</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -692,6 +854,15 @@
   </si>
   <si>
     <t>organ</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>issue</t>
   </si>
 </sst>
 </file>
@@ -1231,6 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1241,19 +1413,25 @@
     <col customWidth="1" min="2" max="2" width="10.0"/>
     <col customWidth="1" min="3" max="3" width="2.38"/>
     <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="2.13"/>
+    <col customWidth="1" min="5" max="5" width="3.0"/>
     <col customWidth="1" min="6" max="6" width="19.63"/>
     <col customWidth="1" min="7" max="7" width="2.13"/>
     <col customWidth="1" min="8" max="8" width="19.63"/>
     <col customWidth="1" min="9" max="9" width="2.13"/>
-    <col customWidth="1" min="10" max="10" width="19.63"/>
-    <col customWidth="1" min="11" max="11" width="3.38"/>
+    <col customWidth="1" min="10" max="10" width="22.63"/>
+    <col customWidth="1" min="11" max="11" width="3.0"/>
     <col customWidth="1" min="12" max="12" width="19.63"/>
     <col customWidth="1" min="13" max="13" width="2.13"/>
     <col customWidth="1" min="14" max="14" width="19.63"/>
     <col customWidth="1" min="15" max="15" width="2.13"/>
-    <col customWidth="1" min="16" max="16" width="19.63"/>
-    <col customWidth="1" min="17" max="17" width="2.75"/>
+    <col customWidth="1" min="16" max="16" width="22.63"/>
+    <col customWidth="1" min="17" max="17" width="3.0"/>
+    <col customWidth="1" min="18" max="18" width="19.63"/>
+    <col customWidth="1" min="19" max="19" width="2.13"/>
+    <col customWidth="1" min="20" max="20" width="19.63"/>
+    <col customWidth="1" min="21" max="21" width="2.13"/>
+    <col customWidth="1" min="22" max="22" width="22.63"/>
+    <col customWidth="1" min="23" max="23" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1273,7 +1451,13 @@
       <c r="N1" s="8"/>
       <c r="O1" s="7"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="10"/>
@@ -1319,45 +1503,63 @@
       <c r="O2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="21">
         <v>1.0</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>5</v>
@@ -1368,1284 +1570,1718 @@
       <c r="O3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="31">
         <v>2.0</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="29"/>
+      <c r="P4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="36"/>
+      <c r="U4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" s="21">
         <v>3.0</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="26"/>
+      <c r="U5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C6" s="31">
         <v>4.0</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="29"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C7" s="21">
         <v>5.0</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C8" s="31">
         <v>6.0</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C9" s="21">
         <v>7.0</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C10" s="31">
         <v>8.0</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="29"/>
+      <c r="P10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C11" s="21">
         <v>9.0</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C12" s="31">
         <v>10.0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="29"/>
+      <c r="P12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="36"/>
+      <c r="U12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C13" s="21">
         <v>11.0</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C14" s="31">
         <v>12.0</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="M14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="29"/>
+      <c r="P14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="36"/>
+      <c r="U14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C15" s="21">
         <v>13.0</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="W15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C16" s="31">
         <v>14.0</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="29"/>
+      <c r="P16" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="36"/>
+      <c r="U16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C17" s="21">
         <v>15.0</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="26"/>
+      <c r="U17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="W17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C18" s="31">
         <v>16.0</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="M18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="29"/>
+      <c r="P18" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="36"/>
+      <c r="U18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="W18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C19" s="21">
         <v>17.0</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="26"/>
+      <c r="U19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="W19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C20" s="31">
         <v>18.0</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" s="29"/>
+      <c r="P20" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="36"/>
+      <c r="U20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="W20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C21" s="21">
         <v>19.0</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="26"/>
+      <c r="U21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="W21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C22" s="31">
         <v>20.0</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="36"/>
+      <c r="U22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="W22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C23" s="21">
         <v>21.0</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q23" s="1"/>
+      <c r="P23" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="26"/>
+      <c r="U23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="W23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="C24" s="31">
         <v>22.0</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="W24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C25" s="21">
         <v>23.0</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="26"/>
+      <c r="U25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="W25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="29"/>
       <c r="B26" s="30" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C26" s="31">
         <v>24.0</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="M26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="O26" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P26" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="36"/>
+      <c r="U26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="W26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="C27" s="21">
         <v>25.0</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="W27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="29"/>
       <c r="B28" s="30" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C28" s="31">
         <v>26.0</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="O28" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="S28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="W28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="M29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="46" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="O29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="39"/>
+      <c r="P29" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="W29" s="39"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -2664,9 +3300,18 @@
       <c r="N30" s="8"/>
       <c r="O30" s="7"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="1"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
   <si>
     <t>Put</t>
   </si>
@@ -82,6 +82,9 @@
     <t>teenage</t>
   </si>
   <si>
+    <t>grammar</t>
+  </si>
+  <si>
     <t>brain stroke</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>youth</t>
   </si>
   <si>
+    <t>graph</t>
+  </si>
+  <si>
     <t>cardiac arrest</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>married</t>
   </si>
   <si>
+    <t>syntax</t>
+  </si>
+  <si>
     <t>heart failure</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>senior</t>
   </si>
   <si>
+    <t>chemistry</t>
+  </si>
+  <si>
     <t>chronic disorder</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
     <t>working</t>
   </si>
   <si>
+    <t>mathematics</t>
+  </si>
+  <si>
     <t>stress obesity</t>
   </si>
   <si>
@@ -232,6 +247,9 @@
     <t>amateur</t>
   </si>
   <si>
+    <t>bakery</t>
+  </si>
+  <si>
     <t>vision impairment</t>
   </si>
   <si>
@@ -262,6 +280,9 @@
     <t>intermediate</t>
   </si>
   <si>
+    <t>physics</t>
+  </si>
+  <si>
     <t>organ expansion</t>
   </si>
   <si>
@@ -292,6 +313,9 @@
     <t>newbie</t>
   </si>
   <si>
+    <t>biology</t>
+  </si>
+  <si>
     <t>abdominal pain</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
     <t>expert</t>
   </si>
   <si>
+    <t>craft</t>
+  </si>
+  <si>
     <t>virus infection</t>
   </si>
   <si>
@@ -352,6 +379,9 @@
     <t>advocate</t>
   </si>
   <si>
+    <t>farm</t>
+  </si>
+  <si>
     <t>jaundice fever</t>
   </si>
   <si>
@@ -379,6 +409,9 @@
     <t>sportsman</t>
   </si>
   <si>
+    <t>sport</t>
+  </si>
+  <si>
     <t>sinus infection</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t>housewife</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>gallbladder inflammation</t>
   </si>
   <si>
@@ -439,6 +475,9 @@
     <t>parent</t>
   </si>
   <si>
+    <t>agriculture</t>
+  </si>
+  <si>
     <t>brain tumour</t>
   </si>
   <si>
@@ -469,6 +508,9 @@
     <t>artist</t>
   </si>
   <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
     <t>herpes disease</t>
   </si>
   <si>
@@ -499,6 +541,9 @@
     <t>techie</t>
   </si>
   <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
     <t>body cancer</t>
   </si>
   <si>
@@ -529,6 +574,9 @@
     <t>anchor</t>
   </si>
   <si>
+    <t>journalism</t>
+  </si>
+  <si>
     <t>HIV positive</t>
   </si>
   <si>
@@ -559,6 +607,9 @@
     <t>executive</t>
   </si>
   <si>
+    <t>raw</t>
+  </si>
+  <si>
     <t>bed sore</t>
   </si>
   <si>
@@ -589,6 +640,9 @@
     <t>driver</t>
   </si>
   <si>
+    <t>material</t>
+  </si>
+  <si>
     <t>asthma condition</t>
   </si>
   <si>
@@ -619,6 +673,9 @@
     <t>pilot</t>
   </si>
   <si>
+    <t>event</t>
+  </si>
+  <si>
     <t>Alzheimer's cell</t>
   </si>
   <si>
@@ -649,6 +706,9 @@
     <t>gamer</t>
   </si>
   <si>
+    <t>logistic</t>
+  </si>
+  <si>
     <t>pneumonia antibiotics</t>
   </si>
   <si>
@@ -679,6 +739,9 @@
     <t>judge</t>
   </si>
   <si>
+    <t>history</t>
+  </si>
+  <si>
     <t>bronchitis bacteria</t>
   </si>
   <si>
@@ -709,6 +772,9 @@
     <t>faculty</t>
   </si>
   <si>
+    <t>medicine</t>
+  </si>
+  <si>
     <t>viral syndrome</t>
   </si>
   <si>
@@ -739,6 +805,9 @@
     <t>doctor</t>
   </si>
   <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>coma relative</t>
   </si>
   <si>
@@ -769,6 +838,9 @@
     <t>engineer</t>
   </si>
   <si>
+    <t>calculus</t>
+  </si>
+  <si>
     <t>epilepsy unknown</t>
   </si>
   <si>
@@ -796,6 +868,9 @@
     <t>marrow</t>
   </si>
   <si>
+    <t>matrix</t>
+  </si>
+  <si>
     <t>electric shock</t>
   </si>
   <si>
@@ -824,6 +899,9 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>letter</t>
   </si>
   <si>
     <t>ulcer tissue</t>
@@ -1582,1704 +1660,1756 @@
       <c r="S3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="26"/>
+      <c r="T3" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="U3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="31">
         <v>2.0</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="21">
         <v>3.0</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="26"/>
+      <c r="T5" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="U5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="31">
         <v>4.0</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="36"/>
+      <c r="T6" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="U6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W6" s="29"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21">
         <v>5.0</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="26"/>
+      <c r="T7" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="U7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="W7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C8" s="31">
         <v>6.0</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="36"/>
+      <c r="T8" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="U8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="38" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="W8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C9" s="21">
         <v>7.0</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="S9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="26"/>
+      <c r="T9" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="U9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="W9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C10" s="31">
         <v>8.0</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="36"/>
+      <c r="T10" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="U10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="W10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C11" s="21">
         <v>9.0</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="S11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="26"/>
+      <c r="T11" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="U11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="W11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C12" s="31">
         <v>10.0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="S12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="36"/>
+      <c r="T12" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="U12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="W12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C13" s="21">
         <v>11.0</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T13" s="26"/>
+      <c r="T13" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="U13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="W13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C14" s="31">
         <v>12.0</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="36"/>
+      <c r="T14" s="36" t="s">
+        <v>143</v>
+      </c>
       <c r="U14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V14" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="W14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C15" s="21">
         <v>13.0</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="24" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="S15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="26"/>
+      <c r="T15" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="U15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="W15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C16" s="31">
         <v>14.0</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="S16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="36"/>
+      <c r="T16" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="U16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="38" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="W16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C17" s="21">
         <v>15.0</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="S17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="26"/>
+      <c r="T17" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="U17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="W17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C18" s="31">
         <v>16.0</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="S18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="36"/>
+      <c r="T18" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="U18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V18" s="38" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="W18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C19" s="21">
         <v>17.0</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="S19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="26"/>
+      <c r="T19" s="26" t="s">
+        <v>198</v>
+      </c>
       <c r="U19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="W19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C20" s="31">
         <v>18.0</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T20" s="36"/>
+      <c r="T20" s="36" t="s">
+        <v>209</v>
+      </c>
       <c r="U20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="W20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C21" s="21">
         <v>19.0</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="S21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="26"/>
+      <c r="T21" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="U21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="W21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C22" s="31">
         <v>20.0</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="S22" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="36"/>
+      <c r="T22" s="36" t="s">
+        <v>231</v>
+      </c>
       <c r="U22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V22" s="38" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="W22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C23" s="21">
         <v>21.0</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="S23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="26"/>
+      <c r="T23" s="26" t="s">
+        <v>242</v>
+      </c>
       <c r="U23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="W23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C24" s="31">
         <v>22.0</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Q24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="S24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="36"/>
+      <c r="T24" s="36" t="s">
+        <v>253</v>
+      </c>
       <c r="U24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="38" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="W24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C25" s="21">
         <v>23.0</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="S25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="26"/>
+      <c r="T25" s="26" t="s">
+        <v>264</v>
+      </c>
       <c r="U25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="W25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="29"/>
       <c r="B26" s="30" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C26" s="31">
         <v>24.0</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="M26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="O26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="Q26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="34" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="S26" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T26" s="36"/>
+      <c r="T26" s="36" t="s">
+        <v>275</v>
+      </c>
       <c r="U26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V26" s="38" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="W26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C27" s="21">
         <v>25.0</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="Q27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="S27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T27" s="26"/>
+      <c r="T27" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="U27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="W27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="29"/>
       <c r="B28" s="30" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C28" s="31">
         <v>26.0</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="S28" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T28" s="36"/>
+      <c r="T28" s="36" t="s">
+        <v>296</v>
+      </c>
       <c r="U28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="V28" s="38" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="W28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="46" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="O29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="P29" s="47" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="S29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="46" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="U29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="V29" s="48" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="W29" s="39"/>
     </row>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="393">
   <si>
     <t>Put</t>
   </si>
@@ -58,6 +58,15 @@
     <t>health</t>
   </si>
   <si>
+    <t>stadium</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>volley</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -88,6 +97,15 @@
     <t>brain stroke</t>
   </si>
   <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>agility</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -121,6 +139,15 @@
     <t>cardiac arrest</t>
   </si>
   <si>
+    <t>syrup</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>versatility</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -154,6 +181,15 @@
     <t>heart failure</t>
   </si>
   <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>reasoning</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -187,6 +223,15 @@
     <t>chronic disorder</t>
   </si>
   <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>jewellery</t>
+  </si>
+  <si>
+    <t>virtually</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -220,15 +265,21 @@
     <t>stress obesity</t>
   </si>
   <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>vulnerably</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>characterisation</t>
   </si>
   <si>
@@ -253,6 +304,15 @@
     <t>vision impairment</t>
   </si>
   <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>vibrantly</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -286,6 +346,15 @@
     <t>organ expansion</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>verbally</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -319,6 +388,15 @@
     <t>abdominal pain</t>
   </si>
   <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -352,6 +430,15 @@
     <t>virus infection</t>
   </si>
   <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>visually</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -385,6 +472,15 @@
     <t>jaundice fever</t>
   </si>
   <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>vigilantly</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -415,6 +511,15 @@
     <t>sinus infection</t>
   </si>
   <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -448,6 +553,15 @@
     <t>gallbladder inflammation</t>
   </si>
   <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>viscosity</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -481,6 +595,15 @@
     <t>brain tumour</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -514,6 +637,15 @@
     <t>herpes disease</t>
   </si>
   <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -547,6 +679,15 @@
     <t>body cancer</t>
   </si>
   <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -580,6 +721,15 @@
     <t>HIV positive</t>
   </si>
   <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>visionary</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -613,6 +763,15 @@
     <t>bed sore</t>
   </si>
   <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>tray</t>
+  </si>
+  <si>
+    <t>vanity</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -646,6 +805,15 @@
     <t>asthma condition</t>
   </si>
   <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -679,6 +847,15 @@
     <t>Alzheimer's cell</t>
   </si>
   <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>vocationally</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -712,6 +889,15 @@
     <t>pneumonia antibiotics</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>variably</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -745,6 +931,15 @@
     <t>bronchitis bacteria</t>
   </si>
   <si>
+    <t>locket</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>viability</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
@@ -778,6 +973,15 @@
     <t>viral syndrome</t>
   </si>
   <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>volatility</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -811,6 +1015,15 @@
     <t>coma relative</t>
   </si>
   <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -844,6 +1057,15 @@
     <t>epilepsy unknown</t>
   </si>
   <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -874,6 +1096,15 @@
     <t>electric shock</t>
   </si>
   <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -907,6 +1138,15 @@
     <t>ulcer tissue</t>
   </si>
   <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>vitality</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -941,6 +1181,15 @@
   </si>
   <si>
     <t>issue</t>
+  </si>
+  <si>
+    <t>pavilion</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>valley</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1758,13 @@
     <col customWidth="1" min="20" max="20" width="19.63"/>
     <col customWidth="1" min="21" max="21" width="2.13"/>
     <col customWidth="1" min="22" max="22" width="22.63"/>
-    <col customWidth="1" min="23" max="23" width="2.75"/>
+    <col customWidth="1" min="23" max="23" width="3.0"/>
+    <col customWidth="1" min="24" max="24" width="19.63"/>
+    <col customWidth="1" min="25" max="25" width="2.13"/>
+    <col customWidth="1" min="26" max="26" width="19.63"/>
+    <col customWidth="1" min="27" max="27" width="2.13"/>
+    <col customWidth="1" min="28" max="28" width="22.63"/>
+    <col customWidth="1" min="29" max="29" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1535,7 +1790,13 @@
       <c r="T1" s="8"/>
       <c r="U1" s="7"/>
       <c r="V1" s="9"/>
-      <c r="W1" s="1"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="10"/>
@@ -1599,45 +1860,63 @@
       <c r="U2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="10"/>
+      <c r="W2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="21">
         <v>1.0</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>5</v>
@@ -1649,1769 +1928,2255 @@
         <v>7</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="1"/>
+      <c r="V3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="31">
         <v>2.0</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="29"/>
+      <c r="V4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" s="21">
         <v>3.0</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="U5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="1"/>
+      <c r="V5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C6" s="31">
         <v>4.0</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="S6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T6" s="36" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="U6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="29"/>
+      <c r="V6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C7" s="21">
         <v>5.0</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="S7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="U7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" s="1"/>
+      <c r="V7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C8" s="31">
         <v>6.0</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="S8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="36" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="U8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="29"/>
+      <c r="V8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9" s="21">
         <v>7.0</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="S9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="U9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="W9" s="1"/>
+      <c r="V9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C10" s="31">
         <v>8.0</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="S10" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="36" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="U10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10" s="29"/>
+      <c r="V10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C11" s="21">
         <v>9.0</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="S11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="W11" s="1"/>
+      <c r="V11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C12" s="31">
         <v>10.0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="S12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="36" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="U12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="29"/>
+      <c r="V12" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="W12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C13" s="21">
         <v>11.0</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="U13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="W13" s="1"/>
+      <c r="V13" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C14" s="31">
         <v>12.0</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="M14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="S14" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="36" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="U14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="W14" s="29"/>
+      <c r="V14" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C15" s="21">
         <v>13.0</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="24" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="S15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="U15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="W15" s="1"/>
+      <c r="V15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C16" s="31">
         <v>14.0</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="S16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="36" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="U16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V16" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="W16" s="29"/>
+      <c r="V16" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="W16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="C17" s="21">
         <v>15.0</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="S17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="U17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V17" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="W17" s="1"/>
+      <c r="V17" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="C18" s="31">
         <v>16.0</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="K18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="M18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="Q18" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="S18" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="36" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="U18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="W18" s="29"/>
+      <c r="V18" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="W18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C19" s="21">
         <v>17.0</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="S19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="U19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V19" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="W19" s="1"/>
+      <c r="V19" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="C20" s="31">
         <v>18.0</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="U20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="W20" s="29"/>
+      <c r="V20" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="C21" s="21">
         <v>19.0</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="S21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="U21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="W21" s="1"/>
+      <c r="V21" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="C22" s="31">
         <v>20.0</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="S22" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="W22" s="29"/>
+      <c r="V22" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="W22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C23" s="21">
         <v>21.0</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="S23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="U23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="W23" s="1"/>
+      <c r="V23" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C24" s="31">
         <v>22.0</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="S24" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="U24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="W24" s="29"/>
+      <c r="V24" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="C25" s="21">
         <v>23.0</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="S25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="U25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V25" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="W25" s="1"/>
+      <c r="V25" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="29"/>
       <c r="B26" s="30" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="C26" s="31">
         <v>24.0</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="M26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="O26" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="34" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="S26" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="36" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="U26" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V26" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="W26" s="29"/>
+      <c r="V26" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="C27" s="21">
         <v>25.0</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="Q27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="S27" s="25" t="s">
         <v>5</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="U27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V27" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="W27" s="1"/>
+      <c r="V27" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="29"/>
       <c r="B28" s="30" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="C28" s="31">
         <v>26.0</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="K28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="O28" s="35" t="s">
         <v>7</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="33" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="S28" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="U28" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V28" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="W28" s="29"/>
+      <c r="V28" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="W28" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y28" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="39"/>
       <c r="B29" s="40" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="M29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="46" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="O29" s="45" t="s">
         <v>7</v>
       </c>
       <c r="P29" s="47" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="44" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="S29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="46" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="U29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="V29" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="W29" s="39"/>
+      <c r="V29" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="W29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA29" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC29" s="39"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -3436,7 +4201,13 @@
       <c r="T30" s="8"/>
       <c r="U30" s="7"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="1"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="476">
   <si>
     <t>Put</t>
   </si>
@@ -1643,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1707,6 +1707,9 @@
     <xf borderId="2" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
@@ -1776,6 +1779,9 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1808,6 +1814,9 @@
     </xf>
     <xf borderId="7" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -2063,7 +2072,19 @@
     <col customWidth="1" min="32" max="32" width="19.63"/>
     <col customWidth="1" min="33" max="33" width="2.13"/>
     <col customWidth="1" min="34" max="34" width="22.63"/>
-    <col customWidth="1" min="35" max="35" width="2.75"/>
+    <col customWidth="1" min="35" max="35" width="3.0"/>
+    <col customWidth="1" min="36" max="36" width="19.63"/>
+    <col customWidth="1" min="37" max="37" width="2.13"/>
+    <col customWidth="1" min="38" max="38" width="19.63"/>
+    <col customWidth="1" min="39" max="39" width="2.13"/>
+    <col customWidth="1" min="40" max="40" width="22.63"/>
+    <col customWidth="1" min="41" max="41" width="3.0"/>
+    <col customWidth="1" min="42" max="42" width="19.63"/>
+    <col customWidth="1" min="43" max="43" width="2.13"/>
+    <col customWidth="1" min="44" max="44" width="19.63"/>
+    <col customWidth="1" min="45" max="45" width="2.13"/>
+    <col customWidth="1" min="46" max="46" width="22.63"/>
+    <col customWidth="1" min="47" max="47" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2101,7 +2122,19 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="7"/>
       <c r="AH1" s="9"/>
-      <c r="AI1" s="1"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="10"/>
@@ -2204,2788 +2237,3460 @@
       <c r="AH2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="10"/>
+      <c r="AI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="24">
         <v>1.0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="29" t="s">
+      <c r="U3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="26" t="s">
+      <c r="W3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AA3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="30" t="s">
+      <c r="AC3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AE3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AG3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="1"/>
+      <c r="AI3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="36">
         <v>2.0</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="41" t="s">
+      <c r="O4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="38" t="s">
+      <c r="Q4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="40" t="s">
+      <c r="S4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="41" t="s">
+      <c r="U4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="38" t="s">
+      <c r="W4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="40" t="s">
+      <c r="Y4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="41" t="s">
+      <c r="AA4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AC4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="40" t="s">
+      <c r="AE4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="39" t="s">
+      <c r="AG4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="33"/>
+      <c r="AI4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="24">
         <v>3.0</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="28" t="s">
+      <c r="M5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="26" t="s">
+      <c r="Q5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="28" t="s">
+      <c r="S5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="29" t="s">
+      <c r="U5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="26" t="s">
+      <c r="W5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="28" t="s">
+      <c r="Y5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AA5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="26" t="s">
+      <c r="AC5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AE5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AE5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AG5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AG5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AI5" s="1"/>
+      <c r="AI5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="36">
         <v>4.0</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="I6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="40" t="s">
+      <c r="M6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="41" t="s">
+      <c r="O6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="38" t="s">
+      <c r="Q6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="40" t="s">
+      <c r="S6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="41" t="s">
+      <c r="U6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X6" s="38" t="s">
+      <c r="W6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="40" t="s">
+      <c r="Y6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="41" t="s">
+      <c r="AA6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="AC6" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AC6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="AE6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="40" t="s">
+      <c r="AE6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="AG6" s="39" t="s">
+      <c r="AG6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH6" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="33"/>
+      <c r="AI6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="34"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="24">
         <v>5.0</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="26" t="s">
+      <c r="K7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="26" t="s">
+      <c r="Q7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="28" t="s">
+      <c r="S7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="29" t="s">
+      <c r="U7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="W7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="26" t="s">
+      <c r="W7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="28" t="s">
+      <c r="Y7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AA7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AA7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="AC7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="26" t="s">
+      <c r="AC7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AE7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="28" t="s">
+      <c r="AE7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AG7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="36">
         <v>6.0</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="41" t="s">
+      <c r="I8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="40" t="s">
+      <c r="M8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="38" t="s">
+      <c r="Q8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="S8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="40" t="s">
+      <c r="S8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="U8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="41" t="s">
+      <c r="U8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="W8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="38" t="s">
+      <c r="W8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="40" t="s">
+      <c r="Y8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="41" t="s">
+      <c r="AA8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="38" t="s">
+      <c r="AC8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="AE8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="40" t="s">
+      <c r="AE8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="AG8" s="39" t="s">
+      <c r="AG8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH8" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AI8" s="33"/>
+      <c r="AI8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="34"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="24">
         <v>7.0</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="I9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="28" t="s">
+      <c r="M9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="29" t="s">
+      <c r="O9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="26" t="s">
+      <c r="Q9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="28" t="s">
+      <c r="S9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="U9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="29" t="s">
+      <c r="U9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="W9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="26" t="s">
+      <c r="W9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="Y9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="28" t="s">
+      <c r="Y9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="AA9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="29" t="s">
+      <c r="AA9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="AC9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AC9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AE9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="28" t="s">
+      <c r="AE9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="AG9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH9" s="32" t="s">
+      <c r="AG9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="AI9" s="1"/>
+      <c r="AI9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="36">
         <v>8.0</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="41" t="s">
+      <c r="I10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="40" t="s">
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="41" t="s">
+      <c r="O10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="Q10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="38" t="s">
+      <c r="Q10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="40" t="s">
+      <c r="S10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="U10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="41" t="s">
+      <c r="U10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="W10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X10" s="38" t="s">
+      <c r="W10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="Y10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="40" t="s">
+      <c r="Y10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="AA10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="41" t="s">
+      <c r="AA10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="AC10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="38" t="s">
+      <c r="AC10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="AE10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="AG10" s="39" t="s">
+      <c r="AG10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH10" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AI10" s="33"/>
+      <c r="AI10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>9.0</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="26" t="s">
+      <c r="K11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="28" t="s">
+      <c r="M11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="29" t="s">
+      <c r="O11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="S11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="28" t="s">
+      <c r="S11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="U11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="29" t="s">
+      <c r="U11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="W11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X11" s="26" t="s">
+      <c r="W11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="28" t="s">
+      <c r="Y11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AA11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="29" t="s">
+      <c r="AA11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="AC11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD11" s="30" t="s">
+      <c r="AC11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="AE11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="28" t="s">
+      <c r="AE11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="AG11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH11" s="32" t="s">
+      <c r="AG11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="AI11" s="1"/>
+      <c r="AI11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="36">
         <v>10.0</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="41" t="s">
+      <c r="I12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="38" t="s">
+      <c r="K12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="40" t="s">
+      <c r="M12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="O12" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="41" t="s">
+      <c r="O12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="38" t="s">
+      <c r="Q12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="40" t="s">
+      <c r="S12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="41" t="s">
+      <c r="U12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="W12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="38" t="s">
+      <c r="W12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="Y12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="40" t="s">
+      <c r="Y12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AA12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AC12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="38" t="s">
+      <c r="AC12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="AE12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="40" t="s">
+      <c r="AE12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" s="39" t="s">
+      <c r="AG12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH12" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AI12" s="33"/>
+      <c r="AI12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="34"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="24">
         <v>11.0</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="I13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="26" t="s">
+      <c r="K13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="M13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="28" t="s">
+      <c r="M13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="29" t="s">
+      <c r="O13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="Q13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="26" t="s">
+      <c r="Q13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="S13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13" s="28" t="s">
+      <c r="S13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="U13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" s="29" t="s">
+      <c r="U13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="W13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X13" s="26" t="s">
+      <c r="W13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="Y13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="28" t="s">
+      <c r="Y13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="AA13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" s="29" t="s">
+      <c r="AA13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AC13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="26" t="s">
+      <c r="AC13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="AE13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="28" t="s">
+      <c r="AE13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AG13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH13" s="32" t="s">
+      <c r="AG13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="36">
         <v>12.0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="41" t="s">
+      <c r="I14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="38" t="s">
+      <c r="K14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="40" t="s">
+      <c r="M14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="O14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="41" t="s">
+      <c r="O14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="Q14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="38" t="s">
+      <c r="Q14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="S14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="40" t="s">
+      <c r="S14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="U14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="41" t="s">
+      <c r="U14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="W14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X14" s="38" t="s">
+      <c r="W14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="Y14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="40" t="s">
+      <c r="Y14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="AA14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="41" t="s">
+      <c r="AA14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="AC14" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="38" t="s">
+      <c r="AC14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="AE14" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="40" t="s">
+      <c r="AE14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="AG14" s="39" t="s">
+      <c r="AG14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH14" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="AI14" s="33"/>
+      <c r="AI14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="34"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="24">
         <v>13.0</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="28" t="s">
+      <c r="G15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="29" t="s">
+      <c r="I15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="26" t="s">
+      <c r="K15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="M15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="28" t="s">
+      <c r="M15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="O15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="29" t="s">
+      <c r="O15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="Q15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="28" t="s">
+      <c r="S15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="U15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V15" s="29" t="s">
+      <c r="U15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="W15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="26" t="s">
+      <c r="W15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="Y15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="28" t="s">
+      <c r="Y15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="AA15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="29" t="s">
+      <c r="AA15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AC15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="26" t="s">
+      <c r="AC15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="AE15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="28" t="s">
+      <c r="AE15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="AG15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH15" s="32" t="s">
+      <c r="AG15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="AI15" s="1"/>
+      <c r="AI15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="36">
         <v>14.0</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="40" t="s">
+      <c r="G16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="41" t="s">
+      <c r="I16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="K16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="38" t="s">
+      <c r="K16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="M16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="40" t="s">
+      <c r="M16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="O16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="41" t="s">
+      <c r="O16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="Q16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" s="38" t="s">
+      <c r="Q16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="S16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="40" t="s">
+      <c r="S16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="U16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="41" t="s">
+      <c r="U16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="W16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="38" t="s">
+      <c r="W16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="40" t="s">
+      <c r="Y16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="AA16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="41" t="s">
+      <c r="AA16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AC16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="38" t="s">
+      <c r="AC16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="AE16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="40" t="s">
+      <c r="AE16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="AG16" s="39" t="s">
+      <c r="AG16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH16" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="AI16" s="33"/>
+      <c r="AI16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="34"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="24">
         <v>15.0</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="29" t="s">
+      <c r="I17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="K17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="26" t="s">
+      <c r="K17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="M17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="28" t="s">
+      <c r="M17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="O17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="29" t="s">
+      <c r="O17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="Q17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="26" t="s">
+      <c r="Q17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="S17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="28" t="s">
+      <c r="S17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="U17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V17" s="29" t="s">
+      <c r="U17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="W17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="26" t="s">
+      <c r="W17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="Y17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="28" t="s">
+      <c r="Y17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="AA17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB17" s="29" t="s">
+      <c r="AA17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AC17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="26" t="s">
+      <c r="AC17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="AE17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="31" t="s">
+      <c r="AE17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="AG17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH17" s="32" t="s">
+      <c r="AG17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AI17" s="1"/>
+      <c r="AI17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="36">
         <v>16.0</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="40" t="s">
+      <c r="G18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="41" t="s">
+      <c r="I18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="K18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="38" t="s">
+      <c r="K18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="40" t="s">
+      <c r="M18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="O18" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="41" t="s">
+      <c r="O18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="38" t="s">
+      <c r="Q18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="S18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="40" t="s">
+      <c r="S18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="U18" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V18" s="41" t="s">
+      <c r="U18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="W18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="38" t="s">
+      <c r="W18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="Y18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="40" t="s">
+      <c r="Y18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="AA18" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="41" t="s">
+      <c r="AA18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="AC18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="38" t="s">
+      <c r="AC18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="AE18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="40" t="s">
+      <c r="AE18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="AG18" s="39" t="s">
+      <c r="AG18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH18" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="AI18" s="33"/>
+      <c r="AI18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="34"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="24">
         <v>17.0</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="I19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="26" t="s">
+      <c r="K19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="28" t="s">
+      <c r="M19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="O19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="29" t="s">
+      <c r="O19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="Q19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="26" t="s">
+      <c r="Q19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="S19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T19" s="28" t="s">
+      <c r="S19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="U19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" s="29" t="s">
+      <c r="U19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="W19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X19" s="26" t="s">
+      <c r="W19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="Y19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="28" t="s">
+      <c r="Y19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="AA19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB19" s="29" t="s">
+      <c r="AA19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="AC19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="26" t="s">
+      <c r="AC19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="AE19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF19" s="28" t="s">
+      <c r="AE19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="AG19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH19" s="32" t="s">
+      <c r="AG19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH19" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="36">
         <v>18.0</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="40" t="s">
+      <c r="G20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="41" t="s">
+      <c r="I20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="K20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="38" t="s">
+      <c r="K20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="40" t="s">
+      <c r="M20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="O20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="41" t="s">
+      <c r="O20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="Q20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="38" t="s">
+      <c r="Q20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="S20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="40" t="s">
+      <c r="S20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="U20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V20" s="41" t="s">
+      <c r="U20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="W20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="38" t="s">
+      <c r="W20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="Y20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="40" t="s">
+      <c r="Y20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="AA20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="41" t="s">
+      <c r="AA20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="AC20" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="43" t="s">
+      <c r="AC20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="AE20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="AG20" s="39" t="s">
+      <c r="AG20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH20" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="AI20" s="33"/>
+      <c r="AI20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="34"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="24">
         <v>19.0</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="I21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="26" t="s">
+      <c r="K21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="28" t="s">
+      <c r="M21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="O21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="29" t="s">
+      <c r="O21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="Q21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="26" t="s">
+      <c r="Q21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="S21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="28" t="s">
+      <c r="S21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="U21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V21" s="29" t="s">
+      <c r="U21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="W21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="26" t="s">
+      <c r="W21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="Y21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="28" t="s">
+      <c r="Y21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="AA21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="29" t="s">
+      <c r="AA21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="AC21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="26" t="s">
+      <c r="AC21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="AE21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF21" s="28" t="s">
+      <c r="AE21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="AG21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH21" s="32" t="s">
+      <c r="AG21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="36">
         <v>20.0</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="38" t="s">
+      <c r="E22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="40" t="s">
+      <c r="G22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="41" t="s">
+      <c r="I22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="K22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="40" t="s">
+      <c r="M22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="O22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="41" t="s">
+      <c r="O22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="Q22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="38" t="s">
+      <c r="Q22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="S22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="40" t="s">
+      <c r="S22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="U22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V22" s="41" t="s">
+      <c r="U22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="W22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="38" t="s">
+      <c r="W22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="Y22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="40" t="s">
+      <c r="Y22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="AA22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="41" t="s">
+      <c r="AA22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="AC22" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD22" s="38" t="s">
+      <c r="AC22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="AE22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF22" s="40" t="s">
+      <c r="AE22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="AG22" s="39" t="s">
+      <c r="AG22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH22" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="AI22" s="33"/>
+      <c r="AI22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="24">
         <v>21.0</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="I23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="29" t="s">
+      <c r="I23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="K23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="26" t="s">
+      <c r="K23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="28" t="s">
+      <c r="M23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="O23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="29" t="s">
+      <c r="O23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="Q23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="26" t="s">
+      <c r="Q23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="S23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="28" t="s">
+      <c r="S23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="U23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V23" s="29" t="s">
+      <c r="U23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="W23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="26" t="s">
+      <c r="W23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="Y23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="28" t="s">
+      <c r="Y23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="AA23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB23" s="29" t="s">
+      <c r="AA23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="AC23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD23" s="26" t="s">
+      <c r="AC23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="AE23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF23" s="28" t="s">
+      <c r="AE23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="AG23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH23" s="32" t="s">
+      <c r="AG23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH23" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="36">
         <v>22.0</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="E24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="38" t="s">
+      <c r="E24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="40" t="s">
+      <c r="G24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="41" t="s">
+      <c r="I24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="K24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="38" t="s">
+      <c r="K24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="M24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="40" t="s">
+      <c r="M24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="O24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="41" t="s">
+      <c r="O24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="Q24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="38" t="s">
+      <c r="Q24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="S24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="40" t="s">
+      <c r="S24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="U24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V24" s="41" t="s">
+      <c r="U24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="W24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="38" t="s">
+      <c r="W24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="Y24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="40" t="s">
+      <c r="Y24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="AA24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB24" s="41" t="s">
+      <c r="AA24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="AC24" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="38" t="s">
+      <c r="AC24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="AE24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="40" t="s">
+      <c r="AE24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="AG24" s="39" t="s">
+      <c r="AG24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH24" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="AI24" s="33"/>
+      <c r="AI24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="24">
         <v>23.0</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="29" t="s">
+      <c r="I25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="K25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="26" t="s">
+      <c r="K25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="M25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="28" t="s">
+      <c r="M25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="O25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="29" t="s">
+      <c r="O25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="Q25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="26" t="s">
+      <c r="Q25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="S25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="28" t="s">
+      <c r="S25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="U25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="29" t="s">
+      <c r="U25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="W25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="26" t="s">
+      <c r="W25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="Y25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="28" t="s">
+      <c r="Y25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="AA25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB25" s="29" t="s">
+      <c r="AA25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="AC25" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="26" t="s">
+      <c r="AC25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="AE25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="28" t="s">
+      <c r="AE25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="AG25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH25" s="32" t="s">
+      <c r="AG25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH25" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="AI25" s="1"/>
+      <c r="AI25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="36">
         <v>24.0</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="E26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="G26" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="40" t="s">
+      <c r="G26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="41" t="s">
+      <c r="I26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="K26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="38" t="s">
+      <c r="K26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="M26" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="40" t="s">
+      <c r="M26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="O26" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P26" s="41" t="s">
+      <c r="O26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="Q26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="38" t="s">
+      <c r="Q26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="S26" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="40" t="s">
+      <c r="S26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="U26" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" s="41" t="s">
+      <c r="U26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="W26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="38" t="s">
+      <c r="W26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="Y26" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="40" t="s">
+      <c r="Y26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="AA26" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="41" t="s">
+      <c r="AA26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="AC26" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="38" t="s">
+      <c r="AC26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="AE26" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF26" s="40" t="s">
+      <c r="AE26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="AG26" s="39" t="s">
+      <c r="AG26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH26" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="AI26" s="33"/>
+      <c r="AI26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="34"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="24">
         <v>25.0</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="I27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="K27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="26" t="s">
+      <c r="K27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="M27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="28" t="s">
+      <c r="M27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="O27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="29" t="s">
+      <c r="O27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="Q27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="26" t="s">
+      <c r="Q27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="S27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="28" t="s">
+      <c r="S27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="U27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="V27" s="29" t="s">
+      <c r="U27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="W27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="26" t="s">
+      <c r="W27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="Y27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="28" t="s">
+      <c r="Y27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="AA27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="29" t="s">
+      <c r="AA27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="AC27" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="26" t="s">
+      <c r="AC27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="AE27" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF27" s="28" t="s">
+      <c r="AE27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="AG27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH27" s="32" t="s">
+      <c r="AG27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH27" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="36">
         <v>26.0</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="38" t="s">
+      <c r="E28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="40" t="s">
+      <c r="G28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="I28" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="41" t="s">
+      <c r="I28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="K28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="38" t="s">
+      <c r="K28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="M28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" s="40" t="s">
+      <c r="M28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="O28" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P28" s="41" t="s">
+      <c r="O28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P28" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="Q28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="R28" s="38" t="s">
+      <c r="Q28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="S28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="40" t="s">
+      <c r="S28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="U28" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V28" s="41" t="s">
+      <c r="U28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="W28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="X28" s="38" t="s">
+      <c r="W28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="Y28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="40" t="s">
+      <c r="Y28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="AA28" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB28" s="41" t="s">
+      <c r="AA28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="AC28" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="38" t="s">
+      <c r="AC28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="AE28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF28" s="40" t="s">
+      <c r="AE28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="AG28" s="39" t="s">
+      <c r="AG28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH28" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="AI28" s="33"/>
+      <c r="AI28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="49" t="s">
+      <c r="E29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="G29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="51" t="s">
+      <c r="G29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="I29" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="52" t="s">
+      <c r="I29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="K29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="49" t="s">
+      <c r="K29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="M29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="51" t="s">
+      <c r="M29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="O29" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="52" t="s">
+      <c r="O29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="Q29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="49" t="s">
+      <c r="Q29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="S29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="51" t="s">
+      <c r="S29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="U29" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="V29" s="52" t="s">
+      <c r="U29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="W29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="X29" s="49" t="s">
+      <c r="W29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="Y29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="51" t="s">
+      <c r="Y29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="AA29" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB29" s="52" t="s">
+      <c r="AA29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="AC29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="53" t="s">
+      <c r="AC29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="AE29" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF29" s="54" t="s">
+      <c r="AE29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="AG29" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH29" s="55" t="s">
+      <c r="AG29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH29" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="AI29" s="44"/>
+      <c r="AI29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT29" s="58"/>
+      <c r="AU29" s="46"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -4994,35 +5699,47 @@
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
       <c r="J30" s="9"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="27"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="8"/>
       <c r="O30" s="7"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="27"/>
+      <c r="S30" s="28"/>
       <c r="T30" s="8"/>
       <c r="U30" s="7"/>
       <c r="V30" s="9"/>
       <c r="W30" s="5"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="27"/>
+      <c r="Y30" s="28"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="27"/>
+      <c r="AE30" s="28"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="9"/>
-      <c r="AI30" s="1"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="636">
   <si>
     <t>Put</t>
   </si>
@@ -76,6 +76,24 @@
     <t>course</t>
   </si>
   <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>medal</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -124,6 +142,24 @@
     <t>original</t>
   </si>
   <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>virgin</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -175,6 +211,24 @@
     <t>graduate</t>
   </si>
   <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>prosecute</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -226,6 +280,24 @@
     <t>bachelor</t>
   </si>
   <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>mica</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -277,6 +349,24 @@
     <t>astronomer</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -328,6 +418,24 @@
     <t>citizen</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
@@ -376,6 +484,24 @@
     <t>correspondent</t>
   </si>
   <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>migrate</t>
+  </si>
+  <si>
+    <t>coil</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>mixture</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -427,6 +553,24 @@
     <t>student</t>
   </si>
   <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pretext</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -478,6 +622,24 @@
     <t>player</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -529,6 +691,21 @@
     <t>general</t>
   </si>
   <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -580,6 +757,24 @@
     <t>builder</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>diode</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -619,15 +814,30 @@
     <t>vary</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>lapse</t>
   </si>
   <si>
     <t>contributor</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -679,6 +889,24 @@
     <t>former</t>
   </si>
   <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -730,6 +958,24 @@
     <t>developer</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>attire</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -781,6 +1027,24 @@
     <t>serious</t>
   </si>
   <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -832,6 +1096,24 @@
     <t>member</t>
   </si>
   <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -883,6 +1165,24 @@
     <t>audience</t>
   </si>
   <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -934,6 +1234,24 @@
     <t>distributor</t>
   </si>
   <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>solder</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -985,6 +1303,21 @@
     <t>stable</t>
   </si>
   <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -1036,6 +1369,24 @@
     <t>national</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>vapour</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1069,9 +1420,6 @@
     <t>pneumonia antibiotics</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -1087,6 +1435,24 @@
     <t>liberal</t>
   </si>
   <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>diagram</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -1123,9 +1489,6 @@
     <t>locket</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>viability</t>
   </si>
   <si>
@@ -1138,6 +1501,24 @@
     <t>consultant</t>
   </si>
   <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
@@ -1189,6 +1570,24 @@
     <t>partner</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>jumper</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -1240,6 +1639,24 @@
     <t>guard</t>
   </si>
   <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -1288,6 +1705,24 @@
     <t>theory</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -1297,9 +1732,6 @@
     <t>mnemonic</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>eye</t>
   </si>
   <si>
@@ -1336,15 +1768,30 @@
     <t>voter</t>
   </si>
   <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Disk</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>validation</t>
   </si>
   <si>
@@ -1387,6 +1834,21 @@
     <t>vendor</t>
   </si>
   <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -1439,6 +1901,24 @@
   </si>
   <si>
     <t>program</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>asterisk</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -2240,63 +2720,75 @@
       <c r="AI2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="19"/>
+      <c r="AJ2" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AK2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="20"/>
+      <c r="AL2" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AM2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="21"/>
+      <c r="AN2" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="AO2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="19"/>
+      <c r="AP2" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="AQ2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="20"/>
+      <c r="AR2" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="AS2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="22"/>
+      <c r="AT2" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="AU2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="24">
         <v>1.0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>5</v>
@@ -2308,606 +2800,666 @@
         <v>7</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AI3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="31"/>
+      <c r="AJ3" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="AK3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="32"/>
+      <c r="AL3" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="AM3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="30"/>
+      <c r="AN3" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="AO3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" s="31"/>
+      <c r="AP3" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="32"/>
+      <c r="AR3" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="AS3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="33"/>
+      <c r="AT3" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="AU3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C4" s="36">
         <v>2.0</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="42" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="U4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="42" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Y4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z4" s="41" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB4" s="42" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AC4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD4" s="39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF4" s="41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AG4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH4" s="42" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AI4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ4" s="39"/>
+      <c r="AJ4" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="AK4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="41"/>
+      <c r="AL4" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="AM4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="42"/>
+      <c r="AN4" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="AO4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP4" s="39"/>
+      <c r="AP4" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="AQ4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR4" s="41"/>
+      <c r="AR4" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="AS4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="43"/>
+      <c r="AT4" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="AU4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C5" s="24">
         <v>3.0</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="W5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AA5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="30" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AE5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF5" s="29" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH5" s="30" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="AI5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ5" s="27"/>
+      <c r="AJ5" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="AK5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL5" s="29"/>
+      <c r="AL5" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="AM5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="30"/>
+      <c r="AN5" s="30" t="s">
+        <v>91</v>
+      </c>
       <c r="AO5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="27"/>
+      <c r="AP5" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="AQ5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR5" s="29"/>
+      <c r="AR5" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="AS5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT5" s="33"/>
+      <c r="AT5" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="AU5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C6" s="36">
         <v>4.0</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="O6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="S6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T6" s="41" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="U6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="42" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="W6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="39" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB6" s="42" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="39" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="AE6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="41" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH6" s="42" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AI6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="39"/>
+      <c r="AJ6" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="AK6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="41"/>
+      <c r="AL6" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="AM6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="42"/>
+      <c r="AN6" s="42" t="s">
+        <v>114</v>
+      </c>
       <c r="AO6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP6" s="39"/>
+      <c r="AP6" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR6" s="41"/>
+      <c r="AR6" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="AS6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT6" s="43"/>
+      <c r="AT6" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="AU6" s="34"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C7" s="24">
         <v>5.0</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AA7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB7" s="30" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AE7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF7" s="29" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AI7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ7" s="27"/>
+      <c r="AJ7" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="AK7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="29"/>
+      <c r="AL7" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="AM7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="30"/>
+      <c r="AN7" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="AO7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP7" s="27"/>
+      <c r="AP7" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="AQ7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR7" s="29"/>
+      <c r="AR7" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="AS7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT7" s="33"/>
+      <c r="AT7" s="33" t="s">
+        <v>140</v>
+      </c>
       <c r="AU7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C8" s="36">
         <v>6.0</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>3</v>
@@ -2919,2777 +3471,3041 @@
         <v>5</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="41" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="U8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="42" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="W8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="AA8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB8" s="42" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="AC8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AE8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="41" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="AG8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH8" s="42" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AI8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ8" s="39"/>
+      <c r="AJ8" s="39" t="s">
+        <v>157</v>
+      </c>
       <c r="AK8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL8" s="41"/>
+      <c r="AL8" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="AM8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="42"/>
+      <c r="AN8" s="42" t="s">
+        <v>159</v>
+      </c>
       <c r="AO8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP8" s="39"/>
+      <c r="AP8" s="39" t="s">
+        <v>160</v>
+      </c>
       <c r="AQ8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR8" s="41"/>
+      <c r="AR8" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="AS8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT8" s="43"/>
+      <c r="AT8" s="43" t="s">
+        <v>162</v>
+      </c>
       <c r="AU8" s="34"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C9" s="24">
         <v>7.0</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="U9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="W9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="Y9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="AC9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD9" s="27" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="AE9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF9" s="29" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="AG9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH9" s="30" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="AI9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ9" s="27"/>
+      <c r="AJ9" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="AK9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL9" s="29"/>
+      <c r="AL9" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="AM9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN9" s="30"/>
+      <c r="AN9" s="30" t="s">
+        <v>182</v>
+      </c>
       <c r="AO9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="27"/>
+      <c r="AP9" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="AQ9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR9" s="29"/>
+      <c r="AR9" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="AS9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT9" s="33"/>
+      <c r="AT9" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="AU9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="34"/>
       <c r="B10" s="35" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="C10" s="36">
         <v>8.0</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="O10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="U10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="42" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="W10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="39" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="Y10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z10" s="41" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB10" s="42" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="AC10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD10" s="39" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="AE10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="41" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="AG10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH10" s="42" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="AI10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ10" s="39"/>
+      <c r="AJ10" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="AK10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="41"/>
+      <c r="AL10" s="41" t="s">
+        <v>204</v>
+      </c>
       <c r="AM10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="42"/>
+      <c r="AN10" s="42" t="s">
+        <v>205</v>
+      </c>
       <c r="AO10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP10" s="39"/>
+      <c r="AP10" s="39" t="s">
+        <v>206</v>
+      </c>
       <c r="AQ10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR10" s="41"/>
+      <c r="AR10" s="41" t="s">
+        <v>207</v>
+      </c>
       <c r="AS10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="43"/>
+      <c r="AT10" s="43" t="s">
+        <v>208</v>
+      </c>
       <c r="AU10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="23" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C11" s="24">
         <v>9.0</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="S11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="W11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="Y11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="AA11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB11" s="30" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="AC11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="AE11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF11" s="29" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="AG11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="AI11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ11" s="31"/>
+      <c r="AJ11" s="31" t="s">
+        <v>226</v>
+      </c>
       <c r="AK11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL11" s="29"/>
+      <c r="AL11" s="29" t="s">
+        <v>227</v>
+      </c>
       <c r="AM11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN11" s="30"/>
+      <c r="AN11" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="AO11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP11" s="31"/>
+      <c r="AP11" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR11" s="29"/>
+      <c r="AR11" s="29" t="s">
+        <v>229</v>
+      </c>
       <c r="AS11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT11" s="33"/>
+      <c r="AT11" s="33" t="s">
+        <v>230</v>
+      </c>
       <c r="AU11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="34"/>
       <c r="B12" s="35" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C12" s="36">
         <v>10.0</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="O12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="41" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="42" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="W12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="39" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="Y12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="AA12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB12" s="42" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="AC12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="39" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="AE12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="41" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="AG12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH12" s="42" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="AI12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ12" s="39"/>
+      <c r="AJ12" s="39" t="s">
+        <v>248</v>
+      </c>
       <c r="AK12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL12" s="41"/>
+      <c r="AL12" s="41" t="s">
+        <v>249</v>
+      </c>
       <c r="AM12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN12" s="42"/>
+      <c r="AN12" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="AO12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP12" s="39"/>
+      <c r="AP12" s="39" t="s">
+        <v>251</v>
+      </c>
       <c r="AQ12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR12" s="41"/>
+      <c r="AR12" s="41" t="s">
+        <v>252</v>
+      </c>
       <c r="AS12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT12" s="43"/>
+      <c r="AT12" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="AU12" s="34"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="23" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="C13" s="24">
         <v>11.0</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="M13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="S13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="U13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V13" s="30" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="W13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="Y13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="AA13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB13" s="30" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="AC13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="AG13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH13" s="30" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="AI13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ13" s="27"/>
+      <c r="AJ13" s="27" t="s">
+        <v>269</v>
+      </c>
       <c r="AK13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL13" s="29"/>
+      <c r="AL13" s="29" t="s">
+        <v>270</v>
+      </c>
       <c r="AM13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN13" s="30"/>
+      <c r="AN13" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="AO13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP13" s="27"/>
+      <c r="AP13" s="27" t="s">
+        <v>272</v>
+      </c>
       <c r="AQ13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR13" s="29"/>
+      <c r="AR13" s="29" t="s">
+        <v>273</v>
+      </c>
       <c r="AS13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT13" s="33"/>
+      <c r="AT13" s="33" t="s">
+        <v>274</v>
+      </c>
       <c r="AU13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="C14" s="36">
         <v>12.0</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="M14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="42" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="S14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="U14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V14" s="42" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="W14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="Y14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="AA14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB14" s="42" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="AC14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD14" s="39" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="AE14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF14" s="41" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AG14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH14" s="42" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="AI14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ14" s="39"/>
+      <c r="AJ14" s="39" t="s">
+        <v>292</v>
+      </c>
       <c r="AK14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL14" s="41"/>
+      <c r="AL14" s="41" t="s">
+        <v>293</v>
+      </c>
       <c r="AM14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN14" s="42"/>
+      <c r="AN14" s="42" t="s">
+        <v>294</v>
+      </c>
       <c r="AO14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP14" s="39"/>
+      <c r="AP14" s="39" t="s">
+        <v>295</v>
+      </c>
       <c r="AQ14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR14" s="41"/>
+      <c r="AR14" s="41" t="s">
+        <v>296</v>
+      </c>
       <c r="AS14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT14" s="43"/>
+      <c r="AT14" s="43" t="s">
+        <v>297</v>
+      </c>
       <c r="AU14" s="34"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="C15" s="24">
         <v>13.0</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="M15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="S15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="U15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V15" s="30" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="W15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="Y15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="AA15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB15" s="30" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="AC15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="AE15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF15" s="29" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="AG15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH15" s="30" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="AI15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ15" s="27"/>
+      <c r="AJ15" s="27" t="s">
+        <v>315</v>
+      </c>
       <c r="AK15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL15" s="29"/>
+      <c r="AL15" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="AM15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN15" s="30"/>
+      <c r="AN15" s="30" t="s">
+        <v>317</v>
+      </c>
       <c r="AO15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP15" s="27"/>
+      <c r="AP15" s="27" t="s">
+        <v>318</v>
+      </c>
       <c r="AQ15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR15" s="29"/>
+      <c r="AR15" s="29" t="s">
+        <v>319</v>
+      </c>
       <c r="AS15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT15" s="33"/>
+      <c r="AT15" s="33" t="s">
+        <v>320</v>
+      </c>
       <c r="AU15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="34"/>
       <c r="B16" s="35" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="C16" s="36">
         <v>14.0</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="S16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="U16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="42" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="W16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="Y16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="AA16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB16" s="42" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="AC16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD16" s="39" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="AE16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF16" s="41" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="AG16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH16" s="42" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="AI16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ16" s="39"/>
+      <c r="AJ16" s="39" t="s">
+        <v>338</v>
+      </c>
       <c r="AK16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL16" s="41"/>
+      <c r="AL16" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="AM16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN16" s="42"/>
+      <c r="AN16" s="42" t="s">
+        <v>340</v>
+      </c>
       <c r="AO16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP16" s="39"/>
+      <c r="AP16" s="39" t="s">
+        <v>341</v>
+      </c>
       <c r="AQ16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR16" s="41"/>
+      <c r="AR16" s="41" t="s">
+        <v>342</v>
+      </c>
       <c r="AS16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT16" s="43"/>
+      <c r="AT16" s="43" t="s">
+        <v>343</v>
+      </c>
       <c r="AU16" s="34"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="23" t="s">
-        <v>256</v>
+        <v>344</v>
       </c>
       <c r="C17" s="24">
         <v>15.0</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="S17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="U17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="W17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="Y17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="AA17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="AC17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="AE17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF17" s="32" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AG17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH17" s="30" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="AI17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ17" s="27"/>
+      <c r="AJ17" s="27" t="s">
+        <v>361</v>
+      </c>
       <c r="AK17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL17" s="32"/>
+      <c r="AL17" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="AM17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN17" s="30"/>
+      <c r="AN17" s="30" t="s">
+        <v>363</v>
+      </c>
       <c r="AO17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP17" s="27"/>
+      <c r="AP17" s="27" t="s">
+        <v>364</v>
+      </c>
       <c r="AQ17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR17" s="32"/>
+      <c r="AR17" s="32" t="s">
+        <v>365</v>
+      </c>
       <c r="AS17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT17" s="33"/>
+      <c r="AT17" s="33" t="s">
+        <v>366</v>
+      </c>
       <c r="AU17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="34"/>
       <c r="B18" s="35" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="C18" s="36">
         <v>16.0</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="M18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="42" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="S18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="U18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V18" s="42" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="39" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="Y18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z18" s="41" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="AA18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB18" s="42" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="AC18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD18" s="39" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="AE18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF18" s="41" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="AG18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH18" s="42" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="AI18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ18" s="39"/>
+      <c r="AJ18" s="39" t="s">
+        <v>384</v>
+      </c>
       <c r="AK18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL18" s="41"/>
+      <c r="AL18" s="41" t="s">
+        <v>385</v>
+      </c>
       <c r="AM18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN18" s="42"/>
+      <c r="AN18" s="42" t="s">
+        <v>386</v>
+      </c>
       <c r="AO18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP18" s="39"/>
+      <c r="AP18" s="39" t="s">
+        <v>387</v>
+      </c>
       <c r="AQ18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR18" s="41"/>
+      <c r="AR18" s="41" t="s">
+        <v>388</v>
+      </c>
       <c r="AS18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT18" s="43"/>
+      <c r="AT18" s="43" t="s">
+        <v>389</v>
+      </c>
       <c r="AU18" s="34"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="C19" s="24">
         <v>17.0</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="M19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="S19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="U19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V19" s="30" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="Y19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="AA19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB19" s="30" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="AC19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="AE19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF19" s="29" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="AG19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH19" s="30" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="AI19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ19" s="27"/>
+      <c r="AJ19" s="27" t="s">
+        <v>407</v>
+      </c>
       <c r="AK19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL19" s="29"/>
+      <c r="AL19" s="29" t="s">
+        <v>408</v>
+      </c>
       <c r="AM19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN19" s="30"/>
+      <c r="AN19" s="30" t="s">
+        <v>409</v>
+      </c>
       <c r="AO19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP19" s="27"/>
+      <c r="AP19" s="27" t="s">
+        <v>410</v>
+      </c>
       <c r="AQ19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR19" s="29"/>
+      <c r="AR19" s="29" t="s">
+        <v>411</v>
+      </c>
       <c r="AS19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT19" s="33"/>
+      <c r="AT19" s="33" t="s">
+        <v>412</v>
+      </c>
       <c r="AU19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C20" s="36">
         <v>18.0</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>311</v>
+        <v>417</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="M20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="S20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T20" s="41" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="U20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="42" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="39" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="Y20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="AA20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB20" s="42" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="AC20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD20" s="44" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="AE20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF20" s="41" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="AG20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH20" s="42" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="AI20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ20" s="45"/>
+      <c r="AJ20" s="45" t="s">
+        <v>430</v>
+      </c>
       <c r="AK20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL20" s="41"/>
+      <c r="AL20" s="41" t="s">
+        <v>431</v>
+      </c>
       <c r="AM20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN20" s="42"/>
+      <c r="AN20" s="42" t="s">
+        <v>234</v>
+      </c>
       <c r="AO20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP20" s="45"/>
+      <c r="AP20" s="45" t="s">
+        <v>432</v>
+      </c>
       <c r="AQ20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR20" s="41"/>
+      <c r="AR20" s="41" t="s">
+        <v>433</v>
+      </c>
       <c r="AS20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT20" s="43"/>
+      <c r="AT20" s="43" t="s">
+        <v>434</v>
+      </c>
       <c r="AU20" s="34"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="C21" s="24">
         <v>19.0</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>325</v>
+        <v>436</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>326</v>
+        <v>437</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="M21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>330</v>
+        <v>441</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="S21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V21" s="30" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="W21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="Y21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>336</v>
+        <v>447</v>
       </c>
       <c r="AA21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB21" s="30" t="s">
-        <v>337</v>
+        <v>448</v>
       </c>
       <c r="AC21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD21" s="27" t="s">
-        <v>338</v>
+        <v>449</v>
       </c>
       <c r="AE21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF21" s="29" t="s">
-        <v>339</v>
+        <v>450</v>
       </c>
       <c r="AG21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH21" s="30" t="s">
-        <v>340</v>
+        <v>451</v>
       </c>
       <c r="AI21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ21" s="27"/>
+      <c r="AJ21" s="27" t="s">
+        <v>452</v>
+      </c>
       <c r="AK21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="29"/>
+      <c r="AL21" s="29" t="s">
+        <v>453</v>
+      </c>
       <c r="AM21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN21" s="30"/>
+      <c r="AN21" s="30" t="s">
+        <v>454</v>
+      </c>
       <c r="AO21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP21" s="27"/>
+      <c r="AP21" s="27" t="s">
+        <v>455</v>
+      </c>
       <c r="AQ21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR21" s="29"/>
+      <c r="AR21" s="29" t="s">
+        <v>456</v>
+      </c>
       <c r="AS21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT21" s="33"/>
+      <c r="AT21" s="33" t="s">
+        <v>457</v>
+      </c>
       <c r="AU21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="34"/>
       <c r="B22" s="35" t="s">
-        <v>341</v>
+        <v>458</v>
       </c>
       <c r="C22" s="36">
         <v>20.0</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>346</v>
+        <v>463</v>
       </c>
       <c r="M22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="42" t="s">
-        <v>348</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>349</v>
+        <v>466</v>
       </c>
       <c r="S22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>350</v>
+        <v>467</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V22" s="42" t="s">
-        <v>351</v>
+        <v>468</v>
       </c>
       <c r="W22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="39" t="s">
-        <v>352</v>
+        <v>70</v>
       </c>
       <c r="Y22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z22" s="41" t="s">
-        <v>353</v>
+        <v>469</v>
       </c>
       <c r="AA22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB22" s="42" t="s">
-        <v>354</v>
+        <v>470</v>
       </c>
       <c r="AC22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>355</v>
+        <v>471</v>
       </c>
       <c r="AE22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF22" s="41" t="s">
-        <v>356</v>
+        <v>472</v>
       </c>
       <c r="AG22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH22" s="42" t="s">
-        <v>357</v>
+        <v>473</v>
       </c>
       <c r="AI22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ22" s="39"/>
+      <c r="AJ22" s="39" t="s">
+        <v>474</v>
+      </c>
       <c r="AK22" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL22" s="41"/>
+      <c r="AL22" s="41" t="s">
+        <v>475</v>
+      </c>
       <c r="AM22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN22" s="42"/>
+      <c r="AN22" s="42" t="s">
+        <v>476</v>
+      </c>
       <c r="AO22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP22" s="39"/>
+      <c r="AP22" s="39" t="s">
+        <v>477</v>
+      </c>
       <c r="AQ22" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR22" s="41"/>
+      <c r="AR22" s="41" t="s">
+        <v>478</v>
+      </c>
       <c r="AS22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT22" s="43"/>
+      <c r="AT22" s="43" t="s">
+        <v>479</v>
+      </c>
       <c r="AU22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
-        <v>358</v>
+        <v>480</v>
       </c>
       <c r="C23" s="24">
         <v>21.0</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>359</v>
+        <v>481</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>360</v>
+        <v>482</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>361</v>
+        <v>483</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>362</v>
+        <v>484</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>363</v>
+        <v>485</v>
       </c>
       <c r="M23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>364</v>
+        <v>486</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>365</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>366</v>
+        <v>488</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="U23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="W23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>369</v>
+        <v>491</v>
       </c>
       <c r="Y23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
       <c r="AA23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="AC23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD23" s="27" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="AE23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF23" s="29" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="AG23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH23" s="30" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="AI23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ23" s="27"/>
+      <c r="AJ23" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="AK23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL23" s="29"/>
+      <c r="AL23" s="29" t="s">
+        <v>497</v>
+      </c>
       <c r="AM23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN23" s="30"/>
+      <c r="AN23" s="30" t="s">
+        <v>498</v>
+      </c>
       <c r="AO23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="27"/>
+      <c r="AP23" s="27" t="s">
+        <v>499</v>
+      </c>
       <c r="AQ23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR23" s="29"/>
+      <c r="AR23" s="29" t="s">
+        <v>500</v>
+      </c>
       <c r="AS23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT23" s="33"/>
+      <c r="AT23" s="33" t="s">
+        <v>501</v>
+      </c>
       <c r="AU23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
       <c r="C24" s="36">
         <v>22.0</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>376</v>
+        <v>503</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>377</v>
+        <v>504</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="K24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>380</v>
+        <v>507</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="42" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>383</v>
+        <v>510</v>
       </c>
       <c r="S24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="42" t="s">
-        <v>385</v>
+        <v>512</v>
       </c>
       <c r="W24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="39" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="Y24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="AA24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB24" s="42" t="s">
-        <v>388</v>
+        <v>515</v>
       </c>
       <c r="AC24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD24" s="39" t="s">
-        <v>389</v>
+        <v>516</v>
       </c>
       <c r="AE24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF24" s="41" t="s">
-        <v>390</v>
+        <v>517</v>
       </c>
       <c r="AG24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH24" s="42" t="s">
-        <v>391</v>
+        <v>518</v>
       </c>
       <c r="AI24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ24" s="39"/>
+      <c r="AJ24" s="39" t="s">
+        <v>519</v>
+      </c>
       <c r="AK24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL24" s="41"/>
+      <c r="AL24" s="41" t="s">
+        <v>520</v>
+      </c>
       <c r="AM24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN24" s="42"/>
+      <c r="AN24" s="42" t="s">
+        <v>521</v>
+      </c>
       <c r="AO24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP24" s="39"/>
+      <c r="AP24" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="AQ24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR24" s="41"/>
+      <c r="AR24" s="41" t="s">
+        <v>523</v>
+      </c>
       <c r="AS24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT24" s="43"/>
+      <c r="AT24" s="43" t="s">
+        <v>524</v>
+      </c>
       <c r="AU24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="23" t="s">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="C25" s="24">
         <v>23.0</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>394</v>
+        <v>527</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>395</v>
+        <v>528</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>396</v>
+        <v>529</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>397</v>
+        <v>530</v>
       </c>
       <c r="M25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="O25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="S25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>401</v>
+        <v>534</v>
       </c>
       <c r="U25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V25" s="30" t="s">
-        <v>402</v>
+        <v>535</v>
       </c>
       <c r="W25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X25" s="27" t="s">
-        <v>403</v>
+        <v>536</v>
       </c>
       <c r="Y25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z25" s="29" t="s">
-        <v>404</v>
+        <v>537</v>
       </c>
       <c r="AA25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB25" s="30" t="s">
-        <v>405</v>
+        <v>538</v>
       </c>
       <c r="AC25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD25" s="27" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="AE25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF25" s="29" t="s">
-        <v>407</v>
+        <v>540</v>
       </c>
       <c r="AG25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH25" s="30" t="s">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="AI25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ25" s="27"/>
+      <c r="AJ25" s="27" t="s">
+        <v>542</v>
+      </c>
       <c r="AK25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL25" s="29"/>
+      <c r="AL25" s="29" t="s">
+        <v>543</v>
+      </c>
       <c r="AM25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN25" s="30"/>
+      <c r="AN25" s="30" t="s">
+        <v>544</v>
+      </c>
       <c r="AO25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP25" s="27"/>
+      <c r="AP25" s="27" t="s">
+        <v>545</v>
+      </c>
       <c r="AQ25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR25" s="29"/>
+      <c r="AR25" s="29" t="s">
+        <v>546</v>
+      </c>
       <c r="AS25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT25" s="33"/>
+      <c r="AT25" s="33" t="s">
+        <v>547</v>
+      </c>
       <c r="AU25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>409</v>
+        <v>548</v>
       </c>
       <c r="C26" s="36">
         <v>24.0</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>410</v>
+        <v>549</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>411</v>
+        <v>550</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>412</v>
+        <v>551</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>413</v>
+        <v>552</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>414</v>
+        <v>553</v>
       </c>
       <c r="M26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="41" t="s">
-        <v>415</v>
+        <v>554</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="42" t="s">
-        <v>416</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="S26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="U26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V26" s="42" t="s">
-        <v>419</v>
+        <v>558</v>
       </c>
       <c r="W26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="39" t="s">
-        <v>420</v>
+        <v>559</v>
       </c>
       <c r="Y26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z26" s="41" t="s">
-        <v>421</v>
+        <v>560</v>
       </c>
       <c r="AA26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB26" s="42" t="s">
-        <v>422</v>
+        <v>561</v>
       </c>
       <c r="AC26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD26" s="39" t="s">
-        <v>423</v>
+        <v>562</v>
       </c>
       <c r="AE26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF26" s="41" t="s">
-        <v>424</v>
+        <v>563</v>
       </c>
       <c r="AG26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH26" s="42" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="AI26" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ26" s="39"/>
+      <c r="AJ26" s="39" t="s">
+        <v>564</v>
+      </c>
       <c r="AK26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL26" s="41"/>
+      <c r="AL26" s="41" t="s">
+        <v>565</v>
+      </c>
       <c r="AM26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN26" s="42"/>
+      <c r="AN26" s="42" t="s">
+        <v>566</v>
+      </c>
       <c r="AO26" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP26" s="39"/>
+      <c r="AP26" s="39" t="s">
+        <v>567</v>
+      </c>
       <c r="AQ26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR26" s="41"/>
+      <c r="AR26" s="41" t="s">
+        <v>568</v>
+      </c>
       <c r="AS26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT26" s="43"/>
+      <c r="AT26" s="43" t="s">
+        <v>569</v>
+      </c>
       <c r="AU26" s="34"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="23" t="s">
-        <v>425</v>
+        <v>570</v>
       </c>
       <c r="C27" s="24">
         <v>25.0</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>428</v>
+        <v>67</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>429</v>
+        <v>573</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>430</v>
+        <v>574</v>
       </c>
       <c r="M27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>433</v>
+        <v>577</v>
       </c>
       <c r="U27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V27" s="30" t="s">
-        <v>434</v>
+        <v>578</v>
       </c>
       <c r="W27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>435</v>
+        <v>579</v>
       </c>
       <c r="Y27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>436</v>
+        <v>580</v>
       </c>
       <c r="AA27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB27" s="30" t="s">
-        <v>437</v>
+        <v>581</v>
       </c>
       <c r="AC27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>438</v>
+        <v>582</v>
       </c>
       <c r="AE27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF27" s="29" t="s">
-        <v>439</v>
+        <v>583</v>
       </c>
       <c r="AG27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH27" s="30" t="s">
-        <v>440</v>
+        <v>584</v>
       </c>
       <c r="AI27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AJ27" s="27"/>
+      <c r="AJ27" s="27" t="s">
+        <v>585</v>
+      </c>
       <c r="AK27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL27" s="29"/>
+      <c r="AL27" s="29" t="s">
+        <v>586</v>
+      </c>
       <c r="AM27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AN27" s="30"/>
+      <c r="AN27" s="30" t="s">
+        <v>587</v>
+      </c>
       <c r="AO27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AP27" s="27"/>
+      <c r="AP27" s="27" t="s">
+        <v>588</v>
+      </c>
       <c r="AQ27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AR27" s="29"/>
+      <c r="AR27" s="29" t="s">
+        <v>589</v>
+      </c>
       <c r="AS27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT27" s="33"/>
+      <c r="AT27" s="33" t="s">
+        <v>590</v>
+      </c>
       <c r="AU27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="C28" s="36">
         <v>26.0</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>442</v>
+        <v>592</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>443</v>
+        <v>319</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="M28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>447</v>
+        <v>596</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P28" s="42" t="s">
-        <v>448</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>449</v>
+        <v>598</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T28" s="41" t="s">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="U28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V28" s="42" t="s">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="W28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X28" s="39" t="s">
-        <v>452</v>
+        <v>601</v>
       </c>
       <c r="Y28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>453</v>
+        <v>602</v>
       </c>
       <c r="AA28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB28" s="42" t="s">
-        <v>454</v>
+        <v>603</v>
       </c>
       <c r="AC28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD28" s="39" t="s">
-        <v>455</v>
+        <v>604</v>
       </c>
       <c r="AE28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF28" s="41" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="AG28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH28" s="42" t="s">
-        <v>457</v>
+        <v>606</v>
       </c>
       <c r="AI28" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ28" s="39"/>
+      <c r="AJ28" s="39" t="s">
+        <v>220</v>
+      </c>
       <c r="AK28" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL28" s="41"/>
+      <c r="AL28" s="41" t="s">
+        <v>607</v>
+      </c>
       <c r="AM28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AN28" s="42"/>
+      <c r="AN28" s="42" t="s">
+        <v>608</v>
+      </c>
       <c r="AO28" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AP28" s="39"/>
+      <c r="AP28" s="39" t="s">
+        <v>609</v>
+      </c>
       <c r="AQ28" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AR28" s="41"/>
+      <c r="AR28" s="41" t="s">
+        <v>610</v>
+      </c>
       <c r="AS28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT28" s="43"/>
+      <c r="AT28" s="43" t="s">
+        <v>611</v>
+      </c>
       <c r="AU28" s="34"/>
     </row>
     <row r="29">
       <c r="A29" s="46"/>
       <c r="B29" s="47" t="s">
-        <v>458</v>
+        <v>612</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>459</v>
+        <v>613</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>460</v>
+        <v>614</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>461</v>
+        <v>615</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>462</v>
+        <v>616</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="54" t="s">
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="K29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="51" t="s">
-        <v>464</v>
+        <v>618</v>
       </c>
       <c r="M29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>465</v>
+        <v>619</v>
       </c>
       <c r="O29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="P29" s="54" t="s">
-        <v>466</v>
+        <v>620</v>
       </c>
       <c r="Q29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>467</v>
+        <v>621</v>
       </c>
       <c r="S29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="53" t="s">
-        <v>468</v>
+        <v>622</v>
       </c>
       <c r="U29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="V29" s="54" t="s">
-        <v>469</v>
+        <v>623</v>
       </c>
       <c r="W29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>470</v>
+        <v>624</v>
       </c>
       <c r="Y29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="53" t="s">
-        <v>471</v>
+        <v>625</v>
       </c>
       <c r="AA29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AB29" s="54" t="s">
-        <v>472</v>
+        <v>626</v>
       </c>
       <c r="AC29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>473</v>
+        <v>627</v>
       </c>
       <c r="AE29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AF29" s="56" t="s">
-        <v>474</v>
+        <v>628</v>
       </c>
       <c r="AG29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AH29" s="57" t="s">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="AI29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AJ29" s="55"/>
+      <c r="AJ29" s="55" t="s">
+        <v>630</v>
+      </c>
       <c r="AK29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL29" s="56"/>
+      <c r="AL29" s="56" t="s">
+        <v>631</v>
+      </c>
       <c r="AM29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AN29" s="57"/>
+      <c r="AN29" s="57" t="s">
+        <v>632</v>
+      </c>
       <c r="AO29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AP29" s="55"/>
+      <c r="AP29" s="55" t="s">
+        <v>633</v>
+      </c>
       <c r="AQ29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AR29" s="56"/>
+      <c r="AR29" s="56" t="s">
+        <v>634</v>
+      </c>
       <c r="AS29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AT29" s="58"/>
+      <c r="AT29" s="58" t="s">
+        <v>635</v>
+      </c>
       <c r="AU29" s="46"/>
     </row>
     <row r="30">

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="769">
   <si>
     <t>Put</t>
   </si>
@@ -94,6 +94,24 @@
     <t>curry</t>
   </si>
   <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>terminology</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -160,6 +178,24 @@
     <t>vitamin</t>
   </si>
   <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -229,6 +265,21 @@
     <t>mineral</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -298,6 +349,21 @@
     <t>mica</t>
   </si>
   <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -367,6 +433,21 @@
     <t>fibre</t>
   </si>
   <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -436,6 +517,21 @@
     <t>juice</t>
   </si>
   <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
@@ -502,6 +598,21 @@
     <t>mixture</t>
   </si>
   <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -571,6 +682,21 @@
     <t>milk</t>
   </si>
   <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -640,6 +766,21 @@
     <t>extract</t>
   </si>
   <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>biscuit</t>
+  </si>
+  <si>
+    <t>dictator</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -706,6 +847,21 @@
     <t>fruit</t>
   </si>
   <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>neighbour</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -775,6 +931,18 @@
     <t>liquid</t>
   </si>
   <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -838,6 +1006,21 @@
     <t>flower</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -907,6 +1090,18 @@
     <t>leaf</t>
   </si>
   <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -946,9 +1141,6 @@
     <t>bill</t>
   </si>
   <si>
-    <t>velocity</t>
-  </si>
-  <si>
     <t>adopted</t>
   </si>
   <si>
@@ -976,6 +1168,21 @@
     <t>fossil</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -1045,6 +1252,21 @@
     <t>powder</t>
   </si>
   <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -1114,6 +1336,21 @@
     <t>pump</t>
   </si>
   <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -1129,9 +1366,6 @@
     <t>retina</t>
   </si>
   <si>
-    <t>layer</t>
-  </si>
-  <si>
     <t>import</t>
   </si>
   <si>
@@ -1177,12 +1411,21 @@
     <t>sink</t>
   </si>
   <si>
-    <t>carbon</t>
-  </si>
-  <si>
     <t>sand</t>
   </si>
   <si>
+    <t>personalise</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -1252,6 +1495,21 @@
     <t>change</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -1318,6 +1576,21 @@
     <t>soil</t>
   </si>
   <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -1387,6 +1660,18 @@
     <t>vapour</t>
   </si>
   <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1453,6 +1738,21 @@
     <t>earth</t>
   </si>
   <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>labour</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -1519,6 +1819,21 @@
     <t>spring</t>
   </si>
   <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>scraper</t>
+  </si>
+  <si>
+    <t>troop</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
@@ -1567,9 +1882,6 @@
     <t>tolerance</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -1588,6 +1900,21 @@
     <t>core</t>
   </si>
   <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -1657,6 +1984,21 @@
     <t>concentrate</t>
   </si>
   <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -1723,6 +2065,21 @@
     <t>dilute</t>
   </si>
   <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -1786,6 +2143,18 @@
     <t>fuse</t>
   </si>
   <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -1849,6 +2218,18 @@
     <t>top</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -1919,6 +2300,24 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>specimen</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2963,19 @@
     <col customWidth="1" min="44" max="44" width="19.63"/>
     <col customWidth="1" min="45" max="45" width="2.13"/>
     <col customWidth="1" min="46" max="46" width="22.63"/>
-    <col customWidth="1" min="47" max="47" width="2.75"/>
+    <col customWidth="1" min="47" max="47" width="3.0"/>
+    <col customWidth="1" min="48" max="48" width="19.63"/>
+    <col customWidth="1" min="49" max="49" width="2.13"/>
+    <col customWidth="1" min="50" max="50" width="19.63"/>
+    <col customWidth="1" min="51" max="51" width="2.13"/>
+    <col customWidth="1" min="52" max="52" width="22.63"/>
+    <col customWidth="1" min="53" max="53" width="3.0"/>
+    <col customWidth="1" min="54" max="54" width="19.63"/>
+    <col customWidth="1" min="55" max="55" width="2.13"/>
+    <col customWidth="1" min="56" max="56" width="19.63"/>
+    <col customWidth="1" min="57" max="57" width="2.13"/>
+    <col customWidth="1" min="58" max="58" width="22.63"/>
+    <col customWidth="1" min="59" max="59" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2614,7 +3025,19 @@
       <c r="AR1" s="8"/>
       <c r="AS1" s="7"/>
       <c r="AT1" s="9"/>
-      <c r="AU1" s="1"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="10"/>
@@ -2750,45 +3173,81 @@
       <c r="AS2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="10"/>
+      <c r="AU2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="24">
         <v>1.0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>5</v>
@@ -2800,666 +3259,846 @@
         <v>7</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AI3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ3" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN3" s="30" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AO3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP3" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR3" s="32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU3" s="1"/>
+      <c r="AT3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C4" s="36">
         <v>2.0</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="42" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="U4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD4" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL4" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN4" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT4" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU4" s="34"/>
+      <c r="BE4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="23" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" s="24">
         <v>3.0</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="W5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AA5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="30" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF5" s="29" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH5" s="30" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="AI5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="27" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="AK5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL5" s="29" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="AM5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN5" s="30" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AO5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP5" s="27" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR5" s="29" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT5" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU5" s="1"/>
+      <c r="AT5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF5" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C6" s="36">
         <v>4.0</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="K6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="S6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T6" s="41" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="U6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="42" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="W6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="39" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AA6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB6" s="42" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AC6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="39" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="AE6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="41" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH6" s="42" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ6" s="39" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AK6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL6" s="41" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AM6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN6" s="42" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="AO6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP6" s="39" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AQ6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR6" s="41" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AS6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT6" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU6" s="34"/>
+      <c r="AT6" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ6" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG6" s="34"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C7" s="24">
         <v>5.0</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AA7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB7" s="30" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AE7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF7" s="29" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="AI7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ7" s="27" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AK7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL7" s="29" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AM7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN7" s="30" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="AO7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP7" s="27" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR7" s="29" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT7" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU7" s="1"/>
+      <c r="AT7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV7" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ7" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB7" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C8" s="36">
         <v>6.0</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>3</v>
@@ -3471,3042 +4110,3834 @@
         <v>5</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="41" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="U8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="42" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="W8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="Y8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="AA8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB8" s="42" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AC8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="AE8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="41" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="AG8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH8" s="42" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="AI8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="39" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="AK8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL8" s="41" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="AM8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN8" s="42" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="AO8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP8" s="39" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AQ8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR8" s="41" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AS8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT8" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU8" s="34"/>
+      <c r="AT8" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX8" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ8" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB8" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD8" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG8" s="34"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C9" s="24">
         <v>7.0</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="U9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="W9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="Y9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AC9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD9" s="27" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="AE9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF9" s="29" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AG9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH9" s="30" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AI9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ9" s="27" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AK9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL9" s="29" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="AM9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN9" s="30" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="AO9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP9" s="27" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AQ9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR9" s="29" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="AS9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT9" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU9" s="1"/>
+      <c r="AT9" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ9" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="34"/>
       <c r="B10" s="35" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C10" s="36">
         <v>8.0</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="O10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="U10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="42" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="W10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="39" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="Y10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z10" s="41" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="AA10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB10" s="42" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="AC10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD10" s="39" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="AE10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="41" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="AG10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH10" s="42" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="AI10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ10" s="39" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="AK10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL10" s="41" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="AM10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN10" s="42" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="AO10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP10" s="39" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="AS10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU10" s="34"/>
+      <c r="AT10" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX10" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ10" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB10" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD10" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="23" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="C11" s="24">
         <v>9.0</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="S11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="W11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="Y11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="AA11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB11" s="30" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="AC11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="AE11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF11" s="29" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="AG11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="AI11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="31" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="AK11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL11" s="29" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="AM11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN11" s="30" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="AO11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP11" s="31" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AQ11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR11" s="29" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="AS11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT11" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AU11" s="1"/>
+      <c r="AT11" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX11" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ11" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB11" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="BC11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF11" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="BG11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="34"/>
       <c r="B12" s="35" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="C12" s="36">
         <v>10.0</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="O12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="41" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="42" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="W12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="39" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="Y12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="AA12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB12" s="42" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="AC12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="39" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="AE12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="41" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="AG12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH12" s="42" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="AI12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="39" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL12" s="41" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="AM12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN12" s="42" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="AO12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP12" s="39" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR12" s="41" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="AS12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT12" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU12" s="34"/>
+      <c r="AT12" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX12" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="AY12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ12" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB12" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG12" s="34"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="23" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="C13" s="24">
         <v>11.0</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="M13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="S13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="U13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V13" s="30" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="W13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="Y13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="AA13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB13" s="30" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="AC13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="AE13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="AG13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH13" s="30" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="AI13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="27" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="AK13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL13" s="29" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="AM13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN13" s="30" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="AO13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP13" s="27" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="AQ13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR13" s="29" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="AS13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT13" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU13" s="1"/>
+      <c r="AT13" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="AU13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV13" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX13" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ13" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="BA13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB13" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF13" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="C14" s="36">
         <v>12.0</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="M14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="42" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="S14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="U14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V14" s="42" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="W14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="Y14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="AA14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB14" s="42" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="AC14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD14" s="39" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="AE14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF14" s="41" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="AG14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH14" s="42" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="AI14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ14" s="39" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL14" s="41" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="AM14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN14" s="42" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="AO14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP14" s="39" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR14" s="41" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="AS14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT14" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU14" s="34"/>
+      <c r="AT14" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="AU14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="AY14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB14" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="BG14" s="34"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="C15" s="24">
         <v>13.0</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="M15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="S15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="U15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V15" s="30" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="W15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="Y15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="AA15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB15" s="30" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AC15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="AE15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF15" s="29" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="AG15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH15" s="30" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="AI15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="27" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="AK15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL15" s="29" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="AM15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN15" s="30" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="AO15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP15" s="27" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="AQ15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR15" s="29" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AS15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT15" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="AU15" s="1"/>
+      <c r="AT15" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX15" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ15" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB15" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="BC15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD15" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF15" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="34"/>
       <c r="B16" s="35" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="C16" s="36">
         <v>14.0</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="S16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="U16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="42" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="W16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="Y16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="AA16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB16" s="42" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="AC16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD16" s="39" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="AE16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF16" s="41" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="AG16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH16" s="42" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="AI16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="39" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="AK16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL16" s="41" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="AM16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN16" s="42" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="AO16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP16" s="39" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR16" s="41" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="AS16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT16" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU16" s="34"/>
+      <c r="AT16" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="AY16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ16" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB16" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="BC16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG16" s="34"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="23" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="C17" s="24">
         <v>15.0</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="S17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="U17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="W17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="Y17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="AA17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="AC17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="AE17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF17" s="32" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="AG17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH17" s="30" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="AI17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="27" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="AK17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="AM17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN17" s="30" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="AO17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP17" s="27" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="AQ17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR17" s="32" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="AS17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT17" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="AU17" s="1"/>
+      <c r="AT17" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="AU17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX17" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ17" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="BA17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB17" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="BC17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF17" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="BG17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="34"/>
       <c r="B18" s="35" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="C18" s="36">
         <v>16.0</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="M18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="42" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="S18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="U18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V18" s="42" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="39" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="Y18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z18" s="41" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="AA18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB18" s="42" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="AC18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD18" s="39" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="AE18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF18" s="41" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="AG18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH18" s="42" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="AI18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="39" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="AK18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL18" s="41" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="AM18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN18" s="42" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="AO18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP18" s="39" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="AQ18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR18" s="41" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="AS18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT18" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="AU18" s="34"/>
+      <c r="AT18" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="AW18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX18" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="AY18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ18" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="BA18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD18" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="BG18" s="34"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>390</v>
+        <v>471</v>
       </c>
       <c r="C19" s="24">
         <v>17.0</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="M19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="S19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="U19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V19" s="30" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="W19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="Y19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="AA19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB19" s="30" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="AC19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>404</v>
+        <v>485</v>
       </c>
       <c r="AE19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF19" s="29" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="AG19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH19" s="30" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="AI19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="27" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="AK19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL19" s="29" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="AM19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN19" s="30" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="AO19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP19" s="27" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="AQ19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR19" s="29" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="AS19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT19" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="AU19" s="1"/>
+      <c r="AT19" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="AU19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="AW19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX19" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="AY19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ19" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="BA19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB19" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF19" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="BG19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="C20" s="36">
         <v>18.0</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="M20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="Q20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="S20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T20" s="41" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="U20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="42" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="39" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="Y20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="AA20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB20" s="42" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="AC20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD20" s="44" t="s">
-        <v>427</v>
+        <v>513</v>
       </c>
       <c r="AE20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF20" s="41" t="s">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="AG20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH20" s="42" t="s">
-        <v>429</v>
+        <v>515</v>
       </c>
       <c r="AI20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ20" s="45" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="AK20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL20" s="41" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="AM20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN20" s="42" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="AO20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP20" s="45" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="AQ20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR20" s="41" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
       <c r="AS20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT20" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="AU20" s="34"/>
+      <c r="AT20" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="AU20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="AW20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX20" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="AY20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ20" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="BA20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB20" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="BC20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF20" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="BG20" s="34"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="C21" s="24">
         <v>19.0</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>436</v>
+        <v>527</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>437</v>
+        <v>528</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>440</v>
+        <v>531</v>
       </c>
       <c r="M21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="S21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V21" s="30" t="s">
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="W21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="Y21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>447</v>
+        <v>538</v>
       </c>
       <c r="AA21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB21" s="30" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
       <c r="AC21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD21" s="27" t="s">
-        <v>449</v>
+        <v>540</v>
       </c>
       <c r="AE21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF21" s="29" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="AG21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH21" s="30" t="s">
-        <v>451</v>
+        <v>542</v>
       </c>
       <c r="AI21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="27" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="AK21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL21" s="29" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="AM21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN21" s="30" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="AO21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP21" s="27" t="s">
-        <v>455</v>
+        <v>546</v>
       </c>
       <c r="AQ21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR21" s="29" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="AS21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT21" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="AU21" s="1"/>
+      <c r="AT21" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="AU21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX21" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="AY21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ21" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="BA21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB21" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="BC21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="BG21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="34"/>
       <c r="B22" s="35" t="s">
-        <v>458</v>
+        <v>553</v>
       </c>
       <c r="C22" s="36">
         <v>20.0</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>459</v>
+        <v>554</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="M22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="42" t="s">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>466</v>
+        <v>561</v>
       </c>
       <c r="S22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>467</v>
+        <v>562</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V22" s="42" t="s">
-        <v>468</v>
+        <v>563</v>
       </c>
       <c r="W22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="39" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Y22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z22" s="41" t="s">
-        <v>469</v>
+        <v>564</v>
       </c>
       <c r="AA22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB22" s="42" t="s">
-        <v>470</v>
+        <v>565</v>
       </c>
       <c r="AC22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
       <c r="AE22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF22" s="41" t="s">
-        <v>472</v>
+        <v>567</v>
       </c>
       <c r="AG22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH22" s="42" t="s">
-        <v>473</v>
+        <v>568</v>
       </c>
       <c r="AI22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>474</v>
+        <v>569</v>
       </c>
       <c r="AK22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL22" s="41" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="AM22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN22" s="42" t="s">
-        <v>476</v>
+        <v>571</v>
       </c>
       <c r="AO22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP22" s="39" t="s">
-        <v>477</v>
+        <v>572</v>
       </c>
       <c r="AQ22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR22" s="41" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="AS22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT22" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU22" s="34"/>
+      <c r="AT22" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="AU22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV22" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="AW22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX22" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ22" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="BA22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB22" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="BC22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD22" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF22" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="BG22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="C23" s="24">
         <v>21.0</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>481</v>
+        <v>581</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>482</v>
+        <v>582</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>484</v>
+        <v>584</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>485</v>
+        <v>585</v>
       </c>
       <c r="M23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>487</v>
+        <v>587</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>488</v>
+        <v>588</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="U23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="W23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>491</v>
+        <v>591</v>
       </c>
       <c r="Y23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="AA23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>492</v>
+        <v>592</v>
       </c>
       <c r="AC23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD23" s="27" t="s">
-        <v>493</v>
+        <v>593</v>
       </c>
       <c r="AE23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF23" s="29" t="s">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="AG23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH23" s="30" t="s">
-        <v>495</v>
+        <v>595</v>
       </c>
       <c r="AI23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ23" s="27" t="s">
-        <v>496</v>
+        <v>596</v>
       </c>
       <c r="AK23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL23" s="29" t="s">
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="AM23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN23" s="30" t="s">
-        <v>498</v>
+        <v>598</v>
       </c>
       <c r="AO23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP23" s="27" t="s">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="AQ23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR23" s="29" t="s">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AS23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT23" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="AU23" s="1"/>
+      <c r="AT23" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="AU23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV23" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX23" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="AY23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ23" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="BA23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB23" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="BC23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF23" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="BG23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>502</v>
+        <v>607</v>
       </c>
       <c r="C24" s="36">
         <v>22.0</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>503</v>
+        <v>608</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>504</v>
+        <v>609</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>505</v>
+        <v>610</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>506</v>
+        <v>611</v>
       </c>
       <c r="K24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>508</v>
+        <v>613</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="42" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="S24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>511</v>
+        <v>616</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="42" t="s">
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="W24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="39" t="s">
-        <v>513</v>
+        <v>618</v>
       </c>
       <c r="Y24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>514</v>
+        <v>619</v>
       </c>
       <c r="AA24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB24" s="42" t="s">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="AC24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD24" s="39" t="s">
-        <v>516</v>
+        <v>621</v>
       </c>
       <c r="AE24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF24" s="41" t="s">
-        <v>517</v>
+        <v>622</v>
       </c>
       <c r="AG24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH24" s="42" t="s">
-        <v>518</v>
+        <v>114</v>
       </c>
       <c r="AI24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>519</v>
+        <v>623</v>
       </c>
       <c r="AK24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL24" s="41" t="s">
-        <v>520</v>
+        <v>624</v>
       </c>
       <c r="AM24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN24" s="42" t="s">
-        <v>521</v>
+        <v>625</v>
       </c>
       <c r="AO24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP24" s="39" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="AQ24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR24" s="41" t="s">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="AS24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT24" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="AU24" s="34"/>
+      <c r="AT24" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="AU24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV24" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="AY24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ24" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB24" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="BC24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF24" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="BG24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="23" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
       <c r="C25" s="24">
         <v>23.0</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>526</v>
+        <v>635</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>527</v>
+        <v>636</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>528</v>
+        <v>637</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>529</v>
+        <v>638</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>530</v>
+        <v>639</v>
       </c>
       <c r="M25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>531</v>
+        <v>640</v>
       </c>
       <c r="O25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>532</v>
+        <v>641</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>533</v>
+        <v>642</v>
       </c>
       <c r="S25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>534</v>
+        <v>643</v>
       </c>
       <c r="U25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V25" s="30" t="s">
-        <v>535</v>
+        <v>644</v>
       </c>
       <c r="W25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X25" s="27" t="s">
-        <v>536</v>
+        <v>645</v>
       </c>
       <c r="Y25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z25" s="29" t="s">
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="AA25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB25" s="30" t="s">
-        <v>538</v>
+        <v>647</v>
       </c>
       <c r="AC25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD25" s="27" t="s">
-        <v>539</v>
+        <v>648</v>
       </c>
       <c r="AE25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF25" s="29" t="s">
-        <v>540</v>
+        <v>649</v>
       </c>
       <c r="AG25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH25" s="30" t="s">
-        <v>541</v>
+        <v>650</v>
       </c>
       <c r="AI25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ25" s="27" t="s">
-        <v>542</v>
+        <v>651</v>
       </c>
       <c r="AK25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL25" s="29" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="AM25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN25" s="30" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="AO25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP25" s="27" t="s">
-        <v>545</v>
+        <v>654</v>
       </c>
       <c r="AQ25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR25" s="29" t="s">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="AS25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT25" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="AU25" s="1"/>
+      <c r="AT25" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV25" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="AW25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX25" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="AY25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ25" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="BA25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB25" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="BC25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="BG25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="C26" s="36">
         <v>24.0</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>550</v>
+        <v>664</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="M26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="41" t="s">
-        <v>554</v>
+        <v>668</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="42" t="s">
-        <v>555</v>
+        <v>669</v>
       </c>
       <c r="Q26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="S26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="U26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V26" s="42" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="W26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="39" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="Y26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z26" s="41" t="s">
-        <v>560</v>
+        <v>674</v>
       </c>
       <c r="AA26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB26" s="42" t="s">
-        <v>561</v>
+        <v>675</v>
       </c>
       <c r="AC26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD26" s="39" t="s">
-        <v>562</v>
+        <v>676</v>
       </c>
       <c r="AE26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF26" s="41" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="AG26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH26" s="42" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="AI26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="AK26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL26" s="41" t="s">
-        <v>565</v>
+        <v>679</v>
       </c>
       <c r="AM26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN26" s="42" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="AO26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP26" s="39" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="AQ26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR26" s="41" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="AS26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT26" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="AU26" s="34"/>
+      <c r="AT26" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="AU26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV26" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AW26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX26" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="AY26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ26" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="BA26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB26" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="BC26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD26" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF26" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="BG26" s="34"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="23" t="s">
-        <v>570</v>
+        <v>689</v>
       </c>
       <c r="C27" s="24">
         <v>25.0</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>571</v>
+        <v>690</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>572</v>
+        <v>691</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>573</v>
+        <v>692</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>574</v>
+        <v>693</v>
       </c>
       <c r="M27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>575</v>
+        <v>694</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>576</v>
+        <v>695</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>577</v>
+        <v>696</v>
       </c>
       <c r="U27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V27" s="30" t="s">
-        <v>578</v>
+        <v>697</v>
       </c>
       <c r="W27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>579</v>
+        <v>698</v>
       </c>
       <c r="Y27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>580</v>
+        <v>699</v>
       </c>
       <c r="AA27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB27" s="30" t="s">
-        <v>581</v>
+        <v>700</v>
       </c>
       <c r="AC27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>582</v>
+        <v>701</v>
       </c>
       <c r="AE27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF27" s="29" t="s">
-        <v>583</v>
+        <v>702</v>
       </c>
       <c r="AG27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH27" s="30" t="s">
-        <v>584</v>
+        <v>703</v>
       </c>
       <c r="AI27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ27" s="27" t="s">
-        <v>585</v>
+        <v>704</v>
       </c>
       <c r="AK27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL27" s="29" t="s">
-        <v>586</v>
+        <v>705</v>
       </c>
       <c r="AM27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN27" s="30" t="s">
-        <v>587</v>
+        <v>706</v>
       </c>
       <c r="AO27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP27" s="27" t="s">
-        <v>588</v>
+        <v>707</v>
       </c>
       <c r="AQ27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR27" s="29" t="s">
-        <v>589</v>
+        <v>708</v>
       </c>
       <c r="AS27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AT27" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="AU27" s="1"/>
+      <c r="AT27" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="AU27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV27" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="AW27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ27" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="BA27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB27" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="BC27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF27" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="BG27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>591</v>
+        <v>714</v>
       </c>
       <c r="C28" s="36">
         <v>26.0</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>593</v>
+        <v>716</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>594</v>
+        <v>717</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>595</v>
+        <v>718</v>
       </c>
       <c r="M28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>596</v>
+        <v>719</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P28" s="42" t="s">
-        <v>597</v>
+        <v>720</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>598</v>
+        <v>721</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T28" s="41" t="s">
-        <v>599</v>
+        <v>722</v>
       </c>
       <c r="U28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V28" s="42" t="s">
-        <v>600</v>
+        <v>723</v>
       </c>
       <c r="W28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X28" s="39" t="s">
-        <v>601</v>
+        <v>724</v>
       </c>
       <c r="Y28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>602</v>
+        <v>725</v>
       </c>
       <c r="AA28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB28" s="42" t="s">
-        <v>603</v>
+        <v>726</v>
       </c>
       <c r="AC28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD28" s="39" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="AE28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF28" s="41" t="s">
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="AG28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH28" s="42" t="s">
-        <v>606</v>
+        <v>729</v>
       </c>
       <c r="AI28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="AK28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL28" s="41" t="s">
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="AM28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN28" s="42" t="s">
-        <v>608</v>
+        <v>731</v>
       </c>
       <c r="AO28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP28" s="39" t="s">
-        <v>609</v>
+        <v>732</v>
       </c>
       <c r="AQ28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR28" s="41" t="s">
-        <v>610</v>
+        <v>733</v>
       </c>
       <c r="AS28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT28" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="AU28" s="34"/>
+      <c r="AT28" s="42" t="s">
+        <v>734</v>
+      </c>
+      <c r="AU28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV28" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="AW28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX28" s="41" t="s">
+        <v>735</v>
+      </c>
+      <c r="AY28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ28" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="BA28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB28" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="BC28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD28" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF28" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="BG28" s="34"/>
     </row>
     <row r="29">
       <c r="A29" s="46"/>
       <c r="B29" s="47" t="s">
-        <v>612</v>
+        <v>739</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>613</v>
+        <v>740</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>615</v>
+        <v>742</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>616</v>
+        <v>743</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="54" t="s">
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="K29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="51" t="s">
-        <v>618</v>
+        <v>745</v>
       </c>
       <c r="M29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>619</v>
+        <v>746</v>
       </c>
       <c r="O29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="P29" s="54" t="s">
-        <v>620</v>
+        <v>747</v>
       </c>
       <c r="Q29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>621</v>
+        <v>748</v>
       </c>
       <c r="S29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="53" t="s">
-        <v>622</v>
+        <v>749</v>
       </c>
       <c r="U29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="V29" s="54" t="s">
-        <v>623</v>
+        <v>750</v>
       </c>
       <c r="W29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>624</v>
+        <v>751</v>
       </c>
       <c r="Y29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="53" t="s">
-        <v>625</v>
+        <v>752</v>
       </c>
       <c r="AA29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AB29" s="54" t="s">
-        <v>626</v>
+        <v>753</v>
       </c>
       <c r="AC29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>627</v>
+        <v>754</v>
       </c>
       <c r="AE29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AF29" s="56" t="s">
-        <v>628</v>
+        <v>755</v>
       </c>
       <c r="AG29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AH29" s="57" t="s">
-        <v>629</v>
+        <v>756</v>
       </c>
       <c r="AI29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AJ29" s="55" t="s">
-        <v>630</v>
+        <v>757</v>
       </c>
       <c r="AK29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AL29" s="56" t="s">
-        <v>631</v>
+        <v>758</v>
       </c>
       <c r="AM29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AN29" s="57" t="s">
-        <v>632</v>
+        <v>759</v>
       </c>
       <c r="AO29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AP29" s="55" t="s">
-        <v>633</v>
+        <v>760</v>
       </c>
       <c r="AQ29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AR29" s="56" t="s">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="AS29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AT29" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="AU29" s="46"/>
+      <c r="AT29" s="57" t="s">
+        <v>762</v>
+      </c>
+      <c r="AU29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="55" t="s">
+        <v>763</v>
+      </c>
+      <c r="AW29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="56" t="s">
+        <v>764</v>
+      </c>
+      <c r="AY29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ29" s="57" t="s">
+        <v>765</v>
+      </c>
+      <c r="BA29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB29" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="BC29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD29" s="56" t="s">
+        <v>767</v>
+      </c>
+      <c r="BE29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF29" s="58" t="s">
+        <v>768</v>
+      </c>
+      <c r="BG29" s="46"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -6555,7 +7986,19 @@
       <c r="AR30" s="8"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="9"/>
-      <c r="AU30" s="1"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="28"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="28"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="28"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="769">
   <si>
     <t>Put</t>
   </si>
@@ -2975,7 +2975,109 @@
     <col customWidth="1" min="56" max="56" width="19.63"/>
     <col customWidth="1" min="57" max="57" width="2.13"/>
     <col customWidth="1" min="58" max="58" width="22.63"/>
-    <col customWidth="1" min="59" max="59" width="2.75"/>
+    <col customWidth="1" min="59" max="59" width="3.0"/>
+    <col customWidth="1" min="60" max="60" width="19.63"/>
+    <col customWidth="1" min="61" max="61" width="2.13"/>
+    <col customWidth="1" min="62" max="62" width="19.63"/>
+    <col customWidth="1" min="63" max="63" width="2.13"/>
+    <col customWidth="1" min="64" max="64" width="22.63"/>
+    <col customWidth="1" min="65" max="65" width="3.0"/>
+    <col customWidth="1" min="66" max="66" width="19.63"/>
+    <col customWidth="1" min="67" max="67" width="2.13"/>
+    <col customWidth="1" min="68" max="68" width="19.63"/>
+    <col customWidth="1" min="69" max="69" width="2.13"/>
+    <col customWidth="1" min="70" max="70" width="22.63"/>
+    <col customWidth="1" min="71" max="71" width="3.0"/>
+    <col customWidth="1" min="72" max="72" width="19.63"/>
+    <col customWidth="1" min="73" max="73" width="2.13"/>
+    <col customWidth="1" min="74" max="74" width="19.63"/>
+    <col customWidth="1" min="75" max="75" width="2.13"/>
+    <col customWidth="1" min="76" max="76" width="22.63"/>
+    <col customWidth="1" min="77" max="77" width="3.0"/>
+    <col customWidth="1" min="78" max="78" width="19.63"/>
+    <col customWidth="1" min="79" max="79" width="2.13"/>
+    <col customWidth="1" min="80" max="80" width="19.63"/>
+    <col customWidth="1" min="81" max="81" width="2.13"/>
+    <col customWidth="1" min="82" max="82" width="22.63"/>
+    <col customWidth="1" min="83" max="83" width="3.0"/>
+    <col customWidth="1" min="84" max="84" width="19.63"/>
+    <col customWidth="1" min="85" max="85" width="2.13"/>
+    <col customWidth="1" min="86" max="86" width="19.63"/>
+    <col customWidth="1" min="87" max="87" width="2.13"/>
+    <col customWidth="1" min="88" max="88" width="22.63"/>
+    <col customWidth="1" min="89" max="89" width="3.0"/>
+    <col customWidth="1" min="90" max="90" width="19.63"/>
+    <col customWidth="1" min="91" max="91" width="2.13"/>
+    <col customWidth="1" min="92" max="92" width="19.63"/>
+    <col customWidth="1" min="93" max="93" width="2.13"/>
+    <col customWidth="1" min="94" max="94" width="22.63"/>
+    <col customWidth="1" min="95" max="95" width="3.0"/>
+    <col customWidth="1" min="96" max="96" width="19.63"/>
+    <col customWidth="1" min="97" max="97" width="2.13"/>
+    <col customWidth="1" min="98" max="98" width="19.63"/>
+    <col customWidth="1" min="99" max="99" width="2.13"/>
+    <col customWidth="1" min="100" max="100" width="22.63"/>
+    <col customWidth="1" min="101" max="101" width="3.0"/>
+    <col customWidth="1" min="102" max="102" width="19.63"/>
+    <col customWidth="1" min="103" max="103" width="2.13"/>
+    <col customWidth="1" min="104" max="104" width="19.63"/>
+    <col customWidth="1" min="105" max="105" width="2.13"/>
+    <col customWidth="1" min="106" max="106" width="22.63"/>
+    <col customWidth="1" min="107" max="107" width="3.0"/>
+    <col customWidth="1" min="108" max="108" width="19.63"/>
+    <col customWidth="1" min="109" max="109" width="2.13"/>
+    <col customWidth="1" min="110" max="110" width="19.63"/>
+    <col customWidth="1" min="111" max="111" width="2.13"/>
+    <col customWidth="1" min="112" max="112" width="22.63"/>
+    <col customWidth="1" min="113" max="113" width="3.0"/>
+    <col customWidth="1" min="114" max="114" width="19.63"/>
+    <col customWidth="1" min="115" max="115" width="2.13"/>
+    <col customWidth="1" min="116" max="116" width="19.63"/>
+    <col customWidth="1" min="117" max="117" width="2.13"/>
+    <col customWidth="1" min="118" max="118" width="22.63"/>
+    <col customWidth="1" min="119" max="119" width="3.0"/>
+    <col customWidth="1" min="120" max="120" width="19.63"/>
+    <col customWidth="1" min="121" max="121" width="2.13"/>
+    <col customWidth="1" min="122" max="122" width="19.63"/>
+    <col customWidth="1" min="123" max="123" width="2.13"/>
+    <col customWidth="1" min="124" max="124" width="22.63"/>
+    <col customWidth="1" min="125" max="125" width="3.0"/>
+    <col customWidth="1" min="126" max="126" width="19.63"/>
+    <col customWidth="1" min="127" max="127" width="2.13"/>
+    <col customWidth="1" min="128" max="128" width="19.63"/>
+    <col customWidth="1" min="129" max="129" width="2.13"/>
+    <col customWidth="1" min="130" max="130" width="22.63"/>
+    <col customWidth="1" min="131" max="131" width="3.0"/>
+    <col customWidth="1" min="132" max="132" width="19.63"/>
+    <col customWidth="1" min="133" max="133" width="2.13"/>
+    <col customWidth="1" min="134" max="134" width="19.63"/>
+    <col customWidth="1" min="135" max="135" width="2.13"/>
+    <col customWidth="1" min="136" max="136" width="22.63"/>
+    <col customWidth="1" min="137" max="137" width="3.0"/>
+    <col customWidth="1" min="138" max="138" width="19.63"/>
+    <col customWidth="1" min="139" max="139" width="2.13"/>
+    <col customWidth="1" min="140" max="140" width="19.63"/>
+    <col customWidth="1" min="141" max="141" width="2.13"/>
+    <col customWidth="1" min="142" max="142" width="22.63"/>
+    <col customWidth="1" min="143" max="143" width="3.0"/>
+    <col customWidth="1" min="144" max="144" width="19.63"/>
+    <col customWidth="1" min="145" max="145" width="2.13"/>
+    <col customWidth="1" min="146" max="146" width="19.63"/>
+    <col customWidth="1" min="147" max="147" width="2.13"/>
+    <col customWidth="1" min="148" max="148" width="22.63"/>
+    <col customWidth="1" min="149" max="149" width="3.0"/>
+    <col customWidth="1" min="150" max="150" width="19.63"/>
+    <col customWidth="1" min="151" max="151" width="2.13"/>
+    <col customWidth="1" min="152" max="152" width="19.63"/>
+    <col customWidth="1" min="153" max="153" width="2.13"/>
+    <col customWidth="1" min="154" max="154" width="22.63"/>
+    <col customWidth="1" min="155" max="155" width="3.0"/>
+    <col customWidth="1" min="156" max="156" width="19.63"/>
+    <col customWidth="1" min="157" max="157" width="2.13"/>
+    <col customWidth="1" min="158" max="158" width="19.63"/>
+    <col customWidth="1" min="159" max="159" width="2.13"/>
+    <col customWidth="1" min="160" max="160" width="22.63"/>
+    <col customWidth="1" min="161" max="161" width="2.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3037,7 +3139,109 @@
       <c r="BD1" s="8"/>
       <c r="BE1" s="7"/>
       <c r="BF1" s="9"/>
-      <c r="BG1" s="1"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="9"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="9"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="7"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="7"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="7"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="7"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="7"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="7"/>
+      <c r="ER1" s="9"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="7"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="7"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="7"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="7"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="10"/>
@@ -3209,10 +3413,214 @@
       <c r="BE2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="22" t="s">
+      <c r="BF2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="BG2" s="10"/>
+      <c r="BG2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV2" s="18"/>
+      <c r="CW2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB2" s="18"/>
+      <c r="DC2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH2" s="18"/>
+      <c r="DI2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN2" s="18"/>
+      <c r="DO2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT2" s="18"/>
+      <c r="DU2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ2" s="18"/>
+      <c r="EA2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF2" s="18"/>
+      <c r="EG2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL2" s="18"/>
+      <c r="EM2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN2" s="15"/>
+      <c r="EO2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER2" s="18"/>
+      <c r="ES2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET2" s="15"/>
+      <c r="EU2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX2" s="18"/>
+      <c r="EY2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ2" s="19"/>
+      <c r="FA2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD2" s="22"/>
+      <c r="FE2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -3384,10 +3792,214 @@
       <c r="BE3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF3" s="33" t="s">
+      <c r="BF3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BG3" s="1"/>
+      <c r="BG3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF3" s="27"/>
+      <c r="CG3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR3" s="27"/>
+      <c r="CS3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV3" s="30"/>
+      <c r="CW3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX3" s="27"/>
+      <c r="CY3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ3" s="29"/>
+      <c r="DA3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD3" s="27"/>
+      <c r="DE3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF3" s="29"/>
+      <c r="DG3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH3" s="30"/>
+      <c r="DI3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ3" s="27"/>
+      <c r="DK3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL3" s="29"/>
+      <c r="DM3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN3" s="30"/>
+      <c r="DO3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP3" s="27"/>
+      <c r="DQ3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR3" s="29"/>
+      <c r="DS3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT3" s="30"/>
+      <c r="DU3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV3" s="27"/>
+      <c r="DW3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX3" s="29"/>
+      <c r="DY3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ3" s="30"/>
+      <c r="EA3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB3" s="27"/>
+      <c r="EC3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED3" s="29"/>
+      <c r="EE3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF3" s="30"/>
+      <c r="EG3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH3" s="27"/>
+      <c r="EI3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ3" s="29"/>
+      <c r="EK3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL3" s="30"/>
+      <c r="EM3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN3" s="27"/>
+      <c r="EO3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP3" s="29"/>
+      <c r="EQ3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER3" s="30"/>
+      <c r="ES3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET3" s="27"/>
+      <c r="EU3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV3" s="29"/>
+      <c r="EW3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX3" s="30"/>
+      <c r="EY3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ3" s="31"/>
+      <c r="FA3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB3" s="32"/>
+      <c r="FC3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD3" s="33"/>
+      <c r="FE3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="34"/>
@@ -3559,10 +4171,214 @@
       <c r="BE4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF4" s="43" t="s">
+      <c r="BF4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="BG4" s="34"/>
+      <c r="BG4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED4" s="41"/>
+      <c r="EE4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP4" s="41"/>
+      <c r="EQ4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB4" s="41"/>
+      <c r="FC4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -3734,10 +4550,214 @@
       <c r="BE5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF5" s="33" t="s">
+      <c r="BF5" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="BG5" s="1"/>
+      <c r="BG5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="29"/>
+      <c r="BK5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="30"/>
+      <c r="BM5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV5" s="29"/>
+      <c r="BW5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ5" s="27"/>
+      <c r="CA5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB5" s="29"/>
+      <c r="CC5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF5" s="27"/>
+      <c r="CG5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH5" s="29"/>
+      <c r="CI5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ5" s="30"/>
+      <c r="CK5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL5" s="27"/>
+      <c r="CM5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN5" s="29"/>
+      <c r="CO5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR5" s="27"/>
+      <c r="CS5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT5" s="29"/>
+      <c r="CU5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV5" s="30"/>
+      <c r="CW5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX5" s="27"/>
+      <c r="CY5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ5" s="29"/>
+      <c r="DA5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB5" s="30"/>
+      <c r="DC5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD5" s="27"/>
+      <c r="DE5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF5" s="29"/>
+      <c r="DG5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH5" s="30"/>
+      <c r="DI5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ5" s="27"/>
+      <c r="DK5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL5" s="29"/>
+      <c r="DM5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN5" s="30"/>
+      <c r="DO5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP5" s="27"/>
+      <c r="DQ5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR5" s="29"/>
+      <c r="DS5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT5" s="30"/>
+      <c r="DU5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV5" s="27"/>
+      <c r="DW5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX5" s="29"/>
+      <c r="DY5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ5" s="30"/>
+      <c r="EA5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB5" s="27"/>
+      <c r="EC5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED5" s="29"/>
+      <c r="EE5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF5" s="30"/>
+      <c r="EG5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH5" s="27"/>
+      <c r="EI5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ5" s="29"/>
+      <c r="EK5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL5" s="30"/>
+      <c r="EM5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN5" s="27"/>
+      <c r="EO5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP5" s="29"/>
+      <c r="EQ5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER5" s="30"/>
+      <c r="ES5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET5" s="27"/>
+      <c r="EU5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV5" s="29"/>
+      <c r="EW5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX5" s="30"/>
+      <c r="EY5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ5" s="27"/>
+      <c r="FA5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB5" s="29"/>
+      <c r="FC5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD5" s="33"/>
+      <c r="FE5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="34"/>
@@ -3909,10 +4929,214 @@
       <c r="BE6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF6" s="43" t="s">
+      <c r="BF6" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="BG6" s="34"/>
+      <c r="BG6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="41"/>
+      <c r="BK6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL6" s="42"/>
+      <c r="BM6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT6" s="39"/>
+      <c r="BU6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX6" s="42"/>
+      <c r="BY6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ6" s="39"/>
+      <c r="CA6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="41"/>
+      <c r="CC6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF6" s="39"/>
+      <c r="CG6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH6" s="41"/>
+      <c r="CI6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL6" s="39"/>
+      <c r="CM6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN6" s="41"/>
+      <c r="CO6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP6" s="42"/>
+      <c r="CQ6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR6" s="39"/>
+      <c r="CS6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT6" s="41"/>
+      <c r="CU6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV6" s="42"/>
+      <c r="CW6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX6" s="39"/>
+      <c r="CY6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ6" s="41"/>
+      <c r="DA6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB6" s="42"/>
+      <c r="DC6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD6" s="39"/>
+      <c r="DE6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="41"/>
+      <c r="DG6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH6" s="42"/>
+      <c r="DI6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ6" s="39"/>
+      <c r="DK6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL6" s="41"/>
+      <c r="DM6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN6" s="42"/>
+      <c r="DO6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP6" s="39"/>
+      <c r="DQ6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR6" s="41"/>
+      <c r="DS6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT6" s="42"/>
+      <c r="DU6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV6" s="39"/>
+      <c r="DW6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX6" s="41"/>
+      <c r="DY6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ6" s="42"/>
+      <c r="EA6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB6" s="39"/>
+      <c r="EC6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED6" s="41"/>
+      <c r="EE6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF6" s="42"/>
+      <c r="EG6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH6" s="39"/>
+      <c r="EI6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ6" s="41"/>
+      <c r="EK6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL6" s="42"/>
+      <c r="EM6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN6" s="39"/>
+      <c r="EO6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP6" s="41"/>
+      <c r="EQ6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER6" s="42"/>
+      <c r="ES6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET6" s="39"/>
+      <c r="EU6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV6" s="41"/>
+      <c r="EW6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX6" s="42"/>
+      <c r="EY6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ6" s="39"/>
+      <c r="FA6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB6" s="41"/>
+      <c r="FC6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD6" s="43"/>
+      <c r="FE6" s="34"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -4084,10 +5308,214 @@
       <c r="BE7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF7" s="33" t="s">
+      <c r="BF7" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="BG7" s="1"/>
+      <c r="BG7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="29"/>
+      <c r="BK7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="30"/>
+      <c r="BM7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN7" s="27"/>
+      <c r="BO7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP7" s="29"/>
+      <c r="BQ7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR7" s="30"/>
+      <c r="BS7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT7" s="27"/>
+      <c r="BU7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV7" s="29"/>
+      <c r="BW7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX7" s="30"/>
+      <c r="BY7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ7" s="27"/>
+      <c r="CA7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB7" s="29"/>
+      <c r="CC7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD7" s="30"/>
+      <c r="CE7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF7" s="27"/>
+      <c r="CG7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="29"/>
+      <c r="CI7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ7" s="30"/>
+      <c r="CK7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="27"/>
+      <c r="CM7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN7" s="29"/>
+      <c r="CO7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP7" s="30"/>
+      <c r="CQ7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR7" s="27"/>
+      <c r="CS7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT7" s="29"/>
+      <c r="CU7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV7" s="30"/>
+      <c r="CW7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX7" s="27"/>
+      <c r="CY7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ7" s="29"/>
+      <c r="DA7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB7" s="30"/>
+      <c r="DC7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD7" s="27"/>
+      <c r="DE7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF7" s="29"/>
+      <c r="DG7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH7" s="30"/>
+      <c r="DI7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ7" s="27"/>
+      <c r="DK7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL7" s="29"/>
+      <c r="DM7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN7" s="30"/>
+      <c r="DO7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP7" s="27"/>
+      <c r="DQ7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR7" s="29"/>
+      <c r="DS7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT7" s="30"/>
+      <c r="DU7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV7" s="27"/>
+      <c r="DW7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX7" s="29"/>
+      <c r="DY7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ7" s="30"/>
+      <c r="EA7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB7" s="27"/>
+      <c r="EC7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED7" s="29"/>
+      <c r="EE7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF7" s="30"/>
+      <c r="EG7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH7" s="27"/>
+      <c r="EI7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ7" s="29"/>
+      <c r="EK7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL7" s="30"/>
+      <c r="EM7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN7" s="27"/>
+      <c r="EO7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP7" s="29"/>
+      <c r="EQ7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER7" s="30"/>
+      <c r="ES7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET7" s="27"/>
+      <c r="EU7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV7" s="29"/>
+      <c r="EW7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX7" s="30"/>
+      <c r="EY7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ7" s="27"/>
+      <c r="FA7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB7" s="29"/>
+      <c r="FC7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD7" s="33"/>
+      <c r="FE7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="34"/>
@@ -4259,10 +5687,214 @@
       <c r="BE8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF8" s="43" t="s">
+      <c r="BF8" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="BG8" s="34"/>
+      <c r="BG8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="41"/>
+      <c r="BK8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN8" s="39"/>
+      <c r="BO8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP8" s="41"/>
+      <c r="BQ8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT8" s="39"/>
+      <c r="BU8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV8" s="41"/>
+      <c r="BW8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD8" s="42"/>
+      <c r="CE8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF8" s="39"/>
+      <c r="CG8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH8" s="41"/>
+      <c r="CI8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ8" s="42"/>
+      <c r="CK8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL8" s="39"/>
+      <c r="CM8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN8" s="41"/>
+      <c r="CO8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR8" s="39"/>
+      <c r="CS8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX8" s="39"/>
+      <c r="CY8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ8" s="41"/>
+      <c r="DA8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB8" s="42"/>
+      <c r="DC8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD8" s="39"/>
+      <c r="DE8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF8" s="41"/>
+      <c r="DG8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH8" s="42"/>
+      <c r="DI8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ8" s="39"/>
+      <c r="DK8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL8" s="41"/>
+      <c r="DM8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN8" s="42"/>
+      <c r="DO8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP8" s="39"/>
+      <c r="DQ8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR8" s="41"/>
+      <c r="DS8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT8" s="42"/>
+      <c r="DU8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV8" s="39"/>
+      <c r="DW8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX8" s="41"/>
+      <c r="DY8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ8" s="42"/>
+      <c r="EA8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB8" s="39"/>
+      <c r="EC8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED8" s="41"/>
+      <c r="EE8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF8" s="42"/>
+      <c r="EG8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH8" s="39"/>
+      <c r="EI8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ8" s="41"/>
+      <c r="EK8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL8" s="42"/>
+      <c r="EM8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN8" s="39"/>
+      <c r="EO8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP8" s="41"/>
+      <c r="EQ8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER8" s="42"/>
+      <c r="ES8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET8" s="39"/>
+      <c r="EU8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV8" s="41"/>
+      <c r="EW8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX8" s="42"/>
+      <c r="EY8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ8" s="39"/>
+      <c r="FA8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB8" s="41"/>
+      <c r="FC8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD8" s="43"/>
+      <c r="FE8" s="34"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -4434,10 +6066,214 @@
       <c r="BE9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF9" s="33" t="s">
+      <c r="BF9" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="BG9" s="1"/>
+      <c r="BG9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="27"/>
+      <c r="BO9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR9" s="30"/>
+      <c r="BS9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV9" s="29"/>
+      <c r="BW9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ9" s="27"/>
+      <c r="CA9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH9" s="29"/>
+      <c r="CI9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL9" s="27"/>
+      <c r="CM9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR9" s="27"/>
+      <c r="CS9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT9" s="29"/>
+      <c r="CU9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX9" s="27"/>
+      <c r="CY9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ9" s="29"/>
+      <c r="DA9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB9" s="30"/>
+      <c r="DC9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD9" s="27"/>
+      <c r="DE9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF9" s="29"/>
+      <c r="DG9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH9" s="30"/>
+      <c r="DI9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ9" s="27"/>
+      <c r="DK9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL9" s="29"/>
+      <c r="DM9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN9" s="30"/>
+      <c r="DO9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP9" s="27"/>
+      <c r="DQ9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR9" s="29"/>
+      <c r="DS9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV9" s="27"/>
+      <c r="DW9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX9" s="29"/>
+      <c r="DY9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ9" s="30"/>
+      <c r="EA9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB9" s="27"/>
+      <c r="EC9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED9" s="29"/>
+      <c r="EE9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH9" s="27"/>
+      <c r="EI9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ9" s="29"/>
+      <c r="EK9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL9" s="30"/>
+      <c r="EM9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN9" s="27"/>
+      <c r="EO9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP9" s="29"/>
+      <c r="EQ9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER9" s="30"/>
+      <c r="ES9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET9" s="27"/>
+      <c r="EU9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV9" s="29"/>
+      <c r="EW9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX9" s="30"/>
+      <c r="EY9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ9" s="27"/>
+      <c r="FA9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB9" s="29"/>
+      <c r="FC9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD9" s="33"/>
+      <c r="FE9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="34"/>
@@ -4609,10 +6445,214 @@
       <c r="BE10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF10" s="43" t="s">
+      <c r="BF10" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="BG10" s="34"/>
+      <c r="BG10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL10" s="42"/>
+      <c r="BM10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="39"/>
+      <c r="BO10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP10" s="41"/>
+      <c r="BQ10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR10" s="42"/>
+      <c r="BS10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT10" s="39"/>
+      <c r="BU10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX10" s="42"/>
+      <c r="BY10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ10" s="39"/>
+      <c r="CA10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD10" s="42"/>
+      <c r="CE10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF10" s="39"/>
+      <c r="CG10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ10" s="42"/>
+      <c r="CK10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL10" s="39"/>
+      <c r="CM10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR10" s="39"/>
+      <c r="CS10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX10" s="39"/>
+      <c r="CY10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ10" s="41"/>
+      <c r="DA10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB10" s="42"/>
+      <c r="DC10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD10" s="39"/>
+      <c r="DE10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF10" s="41"/>
+      <c r="DG10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH10" s="42"/>
+      <c r="DI10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ10" s="39"/>
+      <c r="DK10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL10" s="41"/>
+      <c r="DM10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN10" s="42"/>
+      <c r="DO10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP10" s="39"/>
+      <c r="DQ10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR10" s="41"/>
+      <c r="DS10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT10" s="42"/>
+      <c r="DU10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV10" s="39"/>
+      <c r="DW10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX10" s="41"/>
+      <c r="DY10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ10" s="42"/>
+      <c r="EA10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB10" s="39"/>
+      <c r="EC10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED10" s="41"/>
+      <c r="EE10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF10" s="42"/>
+      <c r="EG10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH10" s="39"/>
+      <c r="EI10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ10" s="41"/>
+      <c r="EK10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL10" s="42"/>
+      <c r="EM10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN10" s="39"/>
+      <c r="EO10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP10" s="41"/>
+      <c r="EQ10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER10" s="42"/>
+      <c r="ES10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET10" s="39"/>
+      <c r="EU10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV10" s="41"/>
+      <c r="EW10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX10" s="42"/>
+      <c r="EY10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ10" s="39"/>
+      <c r="FA10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB10" s="41"/>
+      <c r="FC10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD10" s="43"/>
+      <c r="FE10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -4784,10 +6824,214 @@
       <c r="BE11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF11" s="33" t="s">
+      <c r="BF11" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="BG11" s="1"/>
+      <c r="BG11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ11" s="29"/>
+      <c r="BK11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL11" s="30"/>
+      <c r="BM11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN11" s="27"/>
+      <c r="BO11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP11" s="29"/>
+      <c r="BQ11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT11" s="27"/>
+      <c r="BU11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="29"/>
+      <c r="BW11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ11" s="27"/>
+      <c r="CA11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="29"/>
+      <c r="CC11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH11" s="29"/>
+      <c r="CI11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ11" s="30"/>
+      <c r="CK11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR11" s="27"/>
+      <c r="CS11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT11" s="29"/>
+      <c r="CU11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV11" s="30"/>
+      <c r="CW11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX11" s="27"/>
+      <c r="CY11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ11" s="29"/>
+      <c r="DA11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB11" s="30"/>
+      <c r="DC11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD11" s="27"/>
+      <c r="DE11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF11" s="29"/>
+      <c r="DG11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH11" s="30"/>
+      <c r="DI11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ11" s="27"/>
+      <c r="DK11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL11" s="29"/>
+      <c r="DM11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN11" s="30"/>
+      <c r="DO11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP11" s="27"/>
+      <c r="DQ11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR11" s="29"/>
+      <c r="DS11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT11" s="30"/>
+      <c r="DU11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV11" s="27"/>
+      <c r="DW11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX11" s="29"/>
+      <c r="DY11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ11" s="30"/>
+      <c r="EA11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB11" s="27"/>
+      <c r="EC11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED11" s="29"/>
+      <c r="EE11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF11" s="30"/>
+      <c r="EG11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH11" s="27"/>
+      <c r="EI11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ11" s="29"/>
+      <c r="EK11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL11" s="30"/>
+      <c r="EM11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN11" s="27"/>
+      <c r="EO11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP11" s="29"/>
+      <c r="EQ11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER11" s="30"/>
+      <c r="ES11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET11" s="27"/>
+      <c r="EU11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV11" s="29"/>
+      <c r="EW11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX11" s="30"/>
+      <c r="EY11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ11" s="31"/>
+      <c r="FA11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB11" s="29"/>
+      <c r="FC11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD11" s="33"/>
+      <c r="FE11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="34"/>
@@ -4959,10 +7203,214 @@
       <c r="BE12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF12" s="43" t="s">
+      <c r="BF12" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="BG12" s="34"/>
+      <c r="BG12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN12" s="39"/>
+      <c r="BO12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT12" s="39"/>
+      <c r="BU12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV12" s="41"/>
+      <c r="BW12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ12" s="39"/>
+      <c r="CA12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB12" s="41"/>
+      <c r="CC12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF12" s="39"/>
+      <c r="CG12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH12" s="41"/>
+      <c r="CI12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL12" s="39"/>
+      <c r="CM12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN12" s="41"/>
+      <c r="CO12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR12" s="39"/>
+      <c r="CS12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT12" s="41"/>
+      <c r="CU12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX12" s="39"/>
+      <c r="CY12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ12" s="41"/>
+      <c r="DA12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD12" s="39"/>
+      <c r="DE12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF12" s="41"/>
+      <c r="DG12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ12" s="39"/>
+      <c r="DK12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL12" s="41"/>
+      <c r="DM12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP12" s="39"/>
+      <c r="DQ12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR12" s="41"/>
+      <c r="DS12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV12" s="39"/>
+      <c r="DW12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX12" s="41"/>
+      <c r="DY12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ12" s="42"/>
+      <c r="EA12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB12" s="39"/>
+      <c r="EC12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED12" s="41"/>
+      <c r="EE12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF12" s="42"/>
+      <c r="EG12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH12" s="39"/>
+      <c r="EI12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ12" s="41"/>
+      <c r="EK12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL12" s="42"/>
+      <c r="EM12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN12" s="39"/>
+      <c r="EO12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP12" s="41"/>
+      <c r="EQ12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER12" s="42"/>
+      <c r="ES12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET12" s="39"/>
+      <c r="EU12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV12" s="41"/>
+      <c r="EW12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX12" s="42"/>
+      <c r="EY12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ12" s="39"/>
+      <c r="FA12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB12" s="41"/>
+      <c r="FC12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD12" s="43"/>
+      <c r="FE12" s="34"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -5134,10 +7582,214 @@
       <c r="BE13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF13" s="33" t="s">
+      <c r="BF13" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="BG13" s="1"/>
+      <c r="BG13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL13" s="30"/>
+      <c r="BM13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN13" s="27"/>
+      <c r="BO13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP13" s="29"/>
+      <c r="BQ13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR13" s="30"/>
+      <c r="BS13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT13" s="27"/>
+      <c r="BU13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV13" s="29"/>
+      <c r="BW13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX13" s="30"/>
+      <c r="BY13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ13" s="27"/>
+      <c r="CA13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB13" s="29"/>
+      <c r="CC13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD13" s="30"/>
+      <c r="CE13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF13" s="27"/>
+      <c r="CG13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH13" s="29"/>
+      <c r="CI13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ13" s="30"/>
+      <c r="CK13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL13" s="27"/>
+      <c r="CM13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN13" s="29"/>
+      <c r="CO13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP13" s="30"/>
+      <c r="CQ13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR13" s="27"/>
+      <c r="CS13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT13" s="29"/>
+      <c r="CU13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV13" s="30"/>
+      <c r="CW13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX13" s="27"/>
+      <c r="CY13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ13" s="29"/>
+      <c r="DA13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB13" s="30"/>
+      <c r="DC13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD13" s="27"/>
+      <c r="DE13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF13" s="29"/>
+      <c r="DG13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH13" s="30"/>
+      <c r="DI13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ13" s="27"/>
+      <c r="DK13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL13" s="29"/>
+      <c r="DM13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN13" s="30"/>
+      <c r="DO13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP13" s="27"/>
+      <c r="DQ13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR13" s="29"/>
+      <c r="DS13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT13" s="30"/>
+      <c r="DU13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV13" s="27"/>
+      <c r="DW13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX13" s="29"/>
+      <c r="DY13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ13" s="30"/>
+      <c r="EA13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB13" s="27"/>
+      <c r="EC13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED13" s="29"/>
+      <c r="EE13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF13" s="30"/>
+      <c r="EG13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH13" s="27"/>
+      <c r="EI13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ13" s="29"/>
+      <c r="EK13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL13" s="30"/>
+      <c r="EM13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN13" s="27"/>
+      <c r="EO13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP13" s="29"/>
+      <c r="EQ13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER13" s="30"/>
+      <c r="ES13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET13" s="27"/>
+      <c r="EU13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV13" s="29"/>
+      <c r="EW13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX13" s="30"/>
+      <c r="EY13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ13" s="27"/>
+      <c r="FA13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB13" s="29"/>
+      <c r="FC13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD13" s="33"/>
+      <c r="FE13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="34"/>
@@ -5309,10 +7961,214 @@
       <c r="BE14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF14" s="43" t="s">
+      <c r="BF14" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="BG14" s="34"/>
+      <c r="BG14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ14" s="41"/>
+      <c r="BK14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN14" s="39"/>
+      <c r="BO14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP14" s="41"/>
+      <c r="BQ14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR14" s="42"/>
+      <c r="BS14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT14" s="39"/>
+      <c r="BU14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV14" s="41"/>
+      <c r="BW14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX14" s="42"/>
+      <c r="BY14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ14" s="39"/>
+      <c r="CA14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB14" s="41"/>
+      <c r="CC14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD14" s="42"/>
+      <c r="CE14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF14" s="39"/>
+      <c r="CG14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH14" s="41"/>
+      <c r="CI14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ14" s="42"/>
+      <c r="CK14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL14" s="39"/>
+      <c r="CM14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN14" s="41"/>
+      <c r="CO14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP14" s="42"/>
+      <c r="CQ14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR14" s="39"/>
+      <c r="CS14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT14" s="41"/>
+      <c r="CU14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV14" s="42"/>
+      <c r="CW14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX14" s="39"/>
+      <c r="CY14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ14" s="41"/>
+      <c r="DA14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB14" s="42"/>
+      <c r="DC14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD14" s="39"/>
+      <c r="DE14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF14" s="41"/>
+      <c r="DG14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH14" s="42"/>
+      <c r="DI14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ14" s="39"/>
+      <c r="DK14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL14" s="41"/>
+      <c r="DM14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN14" s="42"/>
+      <c r="DO14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP14" s="39"/>
+      <c r="DQ14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR14" s="41"/>
+      <c r="DS14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT14" s="42"/>
+      <c r="DU14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV14" s="39"/>
+      <c r="DW14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX14" s="41"/>
+      <c r="DY14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ14" s="42"/>
+      <c r="EA14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB14" s="39"/>
+      <c r="EC14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED14" s="41"/>
+      <c r="EE14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF14" s="42"/>
+      <c r="EG14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH14" s="39"/>
+      <c r="EI14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ14" s="41"/>
+      <c r="EK14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL14" s="42"/>
+      <c r="EM14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN14" s="39"/>
+      <c r="EO14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP14" s="41"/>
+      <c r="EQ14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER14" s="42"/>
+      <c r="ES14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET14" s="39"/>
+      <c r="EU14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV14" s="41"/>
+      <c r="EW14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX14" s="42"/>
+      <c r="EY14" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ14" s="39"/>
+      <c r="FA14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB14" s="41"/>
+      <c r="FC14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD14" s="43"/>
+      <c r="FE14" s="34"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -5484,10 +8340,214 @@
       <c r="BE15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF15" s="33" t="s">
+      <c r="BF15" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="BG15" s="1"/>
+      <c r="BG15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ15" s="29"/>
+      <c r="BK15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL15" s="30"/>
+      <c r="BM15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN15" s="27"/>
+      <c r="BO15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP15" s="29"/>
+      <c r="BQ15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR15" s="30"/>
+      <c r="BS15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT15" s="27"/>
+      <c r="BU15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV15" s="29"/>
+      <c r="BW15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX15" s="30"/>
+      <c r="BY15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ15" s="27"/>
+      <c r="CA15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD15" s="30"/>
+      <c r="CE15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF15" s="27"/>
+      <c r="CG15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH15" s="29"/>
+      <c r="CI15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ15" s="30"/>
+      <c r="CK15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL15" s="27"/>
+      <c r="CM15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP15" s="30"/>
+      <c r="CQ15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR15" s="27"/>
+      <c r="CS15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT15" s="29"/>
+      <c r="CU15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV15" s="30"/>
+      <c r="CW15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX15" s="27"/>
+      <c r="CY15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ15" s="29"/>
+      <c r="DA15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB15" s="30"/>
+      <c r="DC15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD15" s="27"/>
+      <c r="DE15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF15" s="29"/>
+      <c r="DG15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH15" s="30"/>
+      <c r="DI15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ15" s="27"/>
+      <c r="DK15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL15" s="29"/>
+      <c r="DM15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN15" s="30"/>
+      <c r="DO15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP15" s="27"/>
+      <c r="DQ15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR15" s="29"/>
+      <c r="DS15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT15" s="30"/>
+      <c r="DU15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV15" s="27"/>
+      <c r="DW15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX15" s="29"/>
+      <c r="DY15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ15" s="30"/>
+      <c r="EA15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB15" s="27"/>
+      <c r="EC15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED15" s="29"/>
+      <c r="EE15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF15" s="30"/>
+      <c r="EG15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH15" s="27"/>
+      <c r="EI15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ15" s="29"/>
+      <c r="EK15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL15" s="30"/>
+      <c r="EM15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN15" s="27"/>
+      <c r="EO15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP15" s="29"/>
+      <c r="EQ15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER15" s="30"/>
+      <c r="ES15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET15" s="27"/>
+      <c r="EU15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV15" s="29"/>
+      <c r="EW15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX15" s="30"/>
+      <c r="EY15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ15" s="27"/>
+      <c r="FA15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB15" s="29"/>
+      <c r="FC15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD15" s="33"/>
+      <c r="FE15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="34"/>
@@ -5659,10 +8719,214 @@
       <c r="BE16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF16" s="43" t="s">
+      <c r="BF16" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="BG16" s="34"/>
+      <c r="BG16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP16" s="41"/>
+      <c r="BQ16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV16" s="41"/>
+      <c r="BW16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB16" s="41"/>
+      <c r="CC16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH16" s="41"/>
+      <c r="CI16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL16" s="39"/>
+      <c r="CM16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN16" s="41"/>
+      <c r="CO16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR16" s="39"/>
+      <c r="CS16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT16" s="41"/>
+      <c r="CU16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV16" s="42"/>
+      <c r="CW16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX16" s="39"/>
+      <c r="CY16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ16" s="41"/>
+      <c r="DA16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB16" s="42"/>
+      <c r="DC16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD16" s="39"/>
+      <c r="DE16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF16" s="41"/>
+      <c r="DG16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH16" s="42"/>
+      <c r="DI16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ16" s="39"/>
+      <c r="DK16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL16" s="41"/>
+      <c r="DM16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN16" s="42"/>
+      <c r="DO16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP16" s="39"/>
+      <c r="DQ16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR16" s="41"/>
+      <c r="DS16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT16" s="42"/>
+      <c r="DU16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV16" s="39"/>
+      <c r="DW16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX16" s="41"/>
+      <c r="DY16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ16" s="42"/>
+      <c r="EA16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB16" s="39"/>
+      <c r="EC16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED16" s="41"/>
+      <c r="EE16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF16" s="42"/>
+      <c r="EG16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH16" s="39"/>
+      <c r="EI16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ16" s="41"/>
+      <c r="EK16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL16" s="42"/>
+      <c r="EM16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN16" s="39"/>
+      <c r="EO16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP16" s="41"/>
+      <c r="EQ16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER16" s="42"/>
+      <c r="ES16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET16" s="39"/>
+      <c r="EU16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV16" s="41"/>
+      <c r="EW16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX16" s="42"/>
+      <c r="EY16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ16" s="39"/>
+      <c r="FA16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB16" s="41"/>
+      <c r="FC16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD16" s="43"/>
+      <c r="FE16" s="34"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -5834,10 +9098,214 @@
       <c r="BE17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF17" s="33" t="s">
+      <c r="BF17" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="BG17" s="1"/>
+      <c r="BG17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL17" s="30"/>
+      <c r="BM17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN17" s="27"/>
+      <c r="BO17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR17" s="30"/>
+      <c r="BS17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT17" s="27"/>
+      <c r="BU17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV17" s="29"/>
+      <c r="BW17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX17" s="30"/>
+      <c r="BY17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ17" s="27"/>
+      <c r="CA17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB17" s="29"/>
+      <c r="CC17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD17" s="30"/>
+      <c r="CE17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF17" s="27"/>
+      <c r="CG17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH17" s="29"/>
+      <c r="CI17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ17" s="30"/>
+      <c r="CK17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN17" s="29"/>
+      <c r="CO17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP17" s="30"/>
+      <c r="CQ17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT17" s="29"/>
+      <c r="CU17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV17" s="30"/>
+      <c r="CW17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX17" s="27"/>
+      <c r="CY17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ17" s="29"/>
+      <c r="DA17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB17" s="30"/>
+      <c r="DC17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD17" s="27"/>
+      <c r="DE17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF17" s="29"/>
+      <c r="DG17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH17" s="30"/>
+      <c r="DI17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ17" s="27"/>
+      <c r="DK17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL17" s="29"/>
+      <c r="DM17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN17" s="30"/>
+      <c r="DO17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP17" s="27"/>
+      <c r="DQ17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR17" s="29"/>
+      <c r="DS17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT17" s="30"/>
+      <c r="DU17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV17" s="27"/>
+      <c r="DW17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX17" s="29"/>
+      <c r="DY17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ17" s="30"/>
+      <c r="EA17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB17" s="27"/>
+      <c r="EC17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED17" s="29"/>
+      <c r="EE17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF17" s="30"/>
+      <c r="EG17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH17" s="27"/>
+      <c r="EI17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ17" s="29"/>
+      <c r="EK17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL17" s="30"/>
+      <c r="EM17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN17" s="27"/>
+      <c r="EO17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP17" s="29"/>
+      <c r="EQ17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER17" s="30"/>
+      <c r="ES17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET17" s="27"/>
+      <c r="EU17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV17" s="29"/>
+      <c r="EW17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX17" s="30"/>
+      <c r="EY17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ17" s="27"/>
+      <c r="FA17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB17" s="32"/>
+      <c r="FC17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD17" s="33"/>
+      <c r="FE17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="34"/>
@@ -6009,10 +9477,214 @@
       <c r="BE18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF18" s="43" t="s">
+      <c r="BF18" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="BG18" s="34"/>
+      <c r="BG18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ18" s="41"/>
+      <c r="BK18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP18" s="41"/>
+      <c r="BQ18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR18" s="42"/>
+      <c r="BS18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV18" s="41"/>
+      <c r="BW18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB18" s="41"/>
+      <c r="CC18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH18" s="41"/>
+      <c r="CI18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL18" s="39"/>
+      <c r="CM18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN18" s="41"/>
+      <c r="CO18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP18" s="42"/>
+      <c r="CQ18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR18" s="39"/>
+      <c r="CS18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT18" s="41"/>
+      <c r="CU18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV18" s="42"/>
+      <c r="CW18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX18" s="39"/>
+      <c r="CY18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ18" s="41"/>
+      <c r="DA18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB18" s="42"/>
+      <c r="DC18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD18" s="39"/>
+      <c r="DE18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF18" s="41"/>
+      <c r="DG18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH18" s="42"/>
+      <c r="DI18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ18" s="39"/>
+      <c r="DK18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL18" s="41"/>
+      <c r="DM18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN18" s="42"/>
+      <c r="DO18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP18" s="39"/>
+      <c r="DQ18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR18" s="41"/>
+      <c r="DS18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT18" s="42"/>
+      <c r="DU18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV18" s="39"/>
+      <c r="DW18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX18" s="41"/>
+      <c r="DY18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ18" s="42"/>
+      <c r="EA18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB18" s="39"/>
+      <c r="EC18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED18" s="41"/>
+      <c r="EE18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF18" s="42"/>
+      <c r="EG18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH18" s="39"/>
+      <c r="EI18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ18" s="41"/>
+      <c r="EK18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL18" s="42"/>
+      <c r="EM18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN18" s="39"/>
+      <c r="EO18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP18" s="41"/>
+      <c r="EQ18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER18" s="42"/>
+      <c r="ES18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET18" s="39"/>
+      <c r="EU18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV18" s="41"/>
+      <c r="EW18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX18" s="42"/>
+      <c r="EY18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ18" s="39"/>
+      <c r="FA18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB18" s="41"/>
+      <c r="FC18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD18" s="43"/>
+      <c r="FE18" s="34"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -6184,10 +9856,214 @@
       <c r="BE19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF19" s="33" t="s">
+      <c r="BF19" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="BG19" s="1"/>
+      <c r="BG19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL19" s="30"/>
+      <c r="BM19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN19" s="27"/>
+      <c r="BO19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP19" s="29"/>
+      <c r="BQ19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR19" s="30"/>
+      <c r="BS19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT19" s="27"/>
+      <c r="BU19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV19" s="29"/>
+      <c r="BW19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX19" s="30"/>
+      <c r="BY19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ19" s="27"/>
+      <c r="CA19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB19" s="29"/>
+      <c r="CC19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD19" s="30"/>
+      <c r="CE19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF19" s="27"/>
+      <c r="CG19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH19" s="29"/>
+      <c r="CI19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ19" s="30"/>
+      <c r="CK19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL19" s="27"/>
+      <c r="CM19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP19" s="30"/>
+      <c r="CQ19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR19" s="27"/>
+      <c r="CS19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT19" s="29"/>
+      <c r="CU19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV19" s="30"/>
+      <c r="CW19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX19" s="27"/>
+      <c r="CY19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ19" s="29"/>
+      <c r="DA19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB19" s="30"/>
+      <c r="DC19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD19" s="27"/>
+      <c r="DE19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF19" s="29"/>
+      <c r="DG19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH19" s="30"/>
+      <c r="DI19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ19" s="27"/>
+      <c r="DK19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL19" s="29"/>
+      <c r="DM19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN19" s="30"/>
+      <c r="DO19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP19" s="27"/>
+      <c r="DQ19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR19" s="29"/>
+      <c r="DS19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT19" s="30"/>
+      <c r="DU19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV19" s="27"/>
+      <c r="DW19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX19" s="29"/>
+      <c r="DY19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ19" s="30"/>
+      <c r="EA19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB19" s="27"/>
+      <c r="EC19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED19" s="29"/>
+      <c r="EE19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF19" s="30"/>
+      <c r="EG19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH19" s="27"/>
+      <c r="EI19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ19" s="29"/>
+      <c r="EK19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL19" s="30"/>
+      <c r="EM19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN19" s="27"/>
+      <c r="EO19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP19" s="29"/>
+      <c r="EQ19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER19" s="30"/>
+      <c r="ES19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET19" s="27"/>
+      <c r="EU19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV19" s="29"/>
+      <c r="EW19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX19" s="30"/>
+      <c r="EY19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ19" s="27"/>
+      <c r="FA19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB19" s="29"/>
+      <c r="FC19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD19" s="33"/>
+      <c r="FE19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="34"/>
@@ -6359,10 +10235,214 @@
       <c r="BE20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF20" s="43" t="s">
+      <c r="BF20" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="BG20" s="34"/>
+      <c r="BG20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ20" s="41"/>
+      <c r="BK20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL20" s="42"/>
+      <c r="BM20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP20" s="41"/>
+      <c r="BQ20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR20" s="42"/>
+      <c r="BS20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT20" s="39"/>
+      <c r="BU20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV20" s="41"/>
+      <c r="BW20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX20" s="42"/>
+      <c r="BY20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ20" s="39"/>
+      <c r="CA20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB20" s="41"/>
+      <c r="CC20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD20" s="42"/>
+      <c r="CE20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ20" s="42"/>
+      <c r="CK20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN20" s="41"/>
+      <c r="CO20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP20" s="42"/>
+      <c r="CQ20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT20" s="41"/>
+      <c r="CU20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV20" s="42"/>
+      <c r="CW20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX20" s="39"/>
+      <c r="CY20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ20" s="41"/>
+      <c r="DA20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB20" s="42"/>
+      <c r="DC20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD20" s="39"/>
+      <c r="DE20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF20" s="41"/>
+      <c r="DG20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH20" s="42"/>
+      <c r="DI20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ20" s="39"/>
+      <c r="DK20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL20" s="41"/>
+      <c r="DM20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN20" s="42"/>
+      <c r="DO20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP20" s="39"/>
+      <c r="DQ20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR20" s="41"/>
+      <c r="DS20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT20" s="42"/>
+      <c r="DU20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV20" s="39"/>
+      <c r="DW20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX20" s="41"/>
+      <c r="DY20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ20" s="42"/>
+      <c r="EA20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB20" s="39"/>
+      <c r="EC20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED20" s="41"/>
+      <c r="EE20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF20" s="42"/>
+      <c r="EG20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH20" s="39"/>
+      <c r="EI20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ20" s="41"/>
+      <c r="EK20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL20" s="42"/>
+      <c r="EM20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN20" s="39"/>
+      <c r="EO20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP20" s="41"/>
+      <c r="EQ20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER20" s="42"/>
+      <c r="ES20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV20" s="41"/>
+      <c r="EW20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX20" s="42"/>
+      <c r="EY20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ20" s="45"/>
+      <c r="FA20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB20" s="41"/>
+      <c r="FC20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD20" s="43"/>
+      <c r="FE20" s="34"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -6534,10 +10614,214 @@
       <c r="BE21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF21" s="33" t="s">
+      <c r="BF21" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="BG21" s="1"/>
+      <c r="BG21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ21" s="29"/>
+      <c r="BK21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL21" s="30"/>
+      <c r="BM21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT21" s="27"/>
+      <c r="BU21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV21" s="29"/>
+      <c r="BW21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX21" s="30"/>
+      <c r="BY21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB21" s="29"/>
+      <c r="CC21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD21" s="30"/>
+      <c r="CE21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF21" s="27"/>
+      <c r="CG21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH21" s="29"/>
+      <c r="CI21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ21" s="30"/>
+      <c r="CK21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN21" s="29"/>
+      <c r="CO21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP21" s="30"/>
+      <c r="CQ21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR21" s="27"/>
+      <c r="CS21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT21" s="29"/>
+      <c r="CU21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV21" s="30"/>
+      <c r="CW21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX21" s="27"/>
+      <c r="CY21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ21" s="29"/>
+      <c r="DA21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB21" s="30"/>
+      <c r="DC21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD21" s="27"/>
+      <c r="DE21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF21" s="29"/>
+      <c r="DG21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH21" s="30"/>
+      <c r="DI21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ21" s="27"/>
+      <c r="DK21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL21" s="29"/>
+      <c r="DM21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN21" s="30"/>
+      <c r="DO21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP21" s="27"/>
+      <c r="DQ21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR21" s="29"/>
+      <c r="DS21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT21" s="30"/>
+      <c r="DU21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV21" s="27"/>
+      <c r="DW21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX21" s="29"/>
+      <c r="DY21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ21" s="30"/>
+      <c r="EA21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB21" s="27"/>
+      <c r="EC21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED21" s="29"/>
+      <c r="EE21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF21" s="30"/>
+      <c r="EG21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH21" s="27"/>
+      <c r="EI21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ21" s="29"/>
+      <c r="EK21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL21" s="30"/>
+      <c r="EM21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN21" s="27"/>
+      <c r="EO21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP21" s="29"/>
+      <c r="EQ21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER21" s="30"/>
+      <c r="ES21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET21" s="27"/>
+      <c r="EU21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV21" s="29"/>
+      <c r="EW21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX21" s="30"/>
+      <c r="EY21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ21" s="27"/>
+      <c r="FA21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB21" s="29"/>
+      <c r="FC21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD21" s="33"/>
+      <c r="FE21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="34"/>
@@ -6709,10 +10993,214 @@
       <c r="BE22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF22" s="43" t="s">
+      <c r="BF22" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="BG22" s="34"/>
+      <c r="BG22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ22" s="41"/>
+      <c r="BK22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL22" s="42"/>
+      <c r="BM22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP22" s="41"/>
+      <c r="BQ22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR22" s="42"/>
+      <c r="BS22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV22" s="41"/>
+      <c r="BW22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX22" s="42"/>
+      <c r="BY22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ22" s="39"/>
+      <c r="CA22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB22" s="41"/>
+      <c r="CC22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD22" s="42"/>
+      <c r="CE22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH22" s="41"/>
+      <c r="CI22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ22" s="42"/>
+      <c r="CK22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN22" s="41"/>
+      <c r="CO22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP22" s="42"/>
+      <c r="CQ22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT22" s="41"/>
+      <c r="CU22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV22" s="42"/>
+      <c r="CW22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ22" s="41"/>
+      <c r="DA22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB22" s="42"/>
+      <c r="DC22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD22" s="39"/>
+      <c r="DE22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF22" s="41"/>
+      <c r="DG22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH22" s="42"/>
+      <c r="DI22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ22" s="39"/>
+      <c r="DK22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL22" s="41"/>
+      <c r="DM22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN22" s="42"/>
+      <c r="DO22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP22" s="39"/>
+      <c r="DQ22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR22" s="41"/>
+      <c r="DS22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT22" s="42"/>
+      <c r="DU22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV22" s="39"/>
+      <c r="DW22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX22" s="41"/>
+      <c r="DY22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ22" s="42"/>
+      <c r="EA22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB22" s="39"/>
+      <c r="EC22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED22" s="41"/>
+      <c r="EE22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF22" s="42"/>
+      <c r="EG22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH22" s="39"/>
+      <c r="EI22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ22" s="41"/>
+      <c r="EK22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL22" s="42"/>
+      <c r="EM22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN22" s="39"/>
+      <c r="EO22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP22" s="41"/>
+      <c r="EQ22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER22" s="42"/>
+      <c r="ES22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET22" s="39"/>
+      <c r="EU22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV22" s="41"/>
+      <c r="EW22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX22" s="42"/>
+      <c r="EY22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ22" s="39"/>
+      <c r="FA22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB22" s="41"/>
+      <c r="FC22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD22" s="43"/>
+      <c r="FE22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
@@ -6884,10 +11372,214 @@
       <c r="BE23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF23" s="33" t="s">
+      <c r="BF23" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="BG23" s="1"/>
+      <c r="BG23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ23" s="29"/>
+      <c r="BK23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL23" s="30"/>
+      <c r="BM23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN23" s="27"/>
+      <c r="BO23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT23" s="27"/>
+      <c r="BU23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV23" s="29"/>
+      <c r="BW23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX23" s="30"/>
+      <c r="BY23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ23" s="27"/>
+      <c r="CA23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB23" s="29"/>
+      <c r="CC23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD23" s="30"/>
+      <c r="CE23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF23" s="27"/>
+      <c r="CG23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH23" s="29"/>
+      <c r="CI23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ23" s="30"/>
+      <c r="CK23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL23" s="27"/>
+      <c r="CM23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN23" s="29"/>
+      <c r="CO23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP23" s="30"/>
+      <c r="CQ23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR23" s="27"/>
+      <c r="CS23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT23" s="29"/>
+      <c r="CU23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV23" s="30"/>
+      <c r="CW23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX23" s="27"/>
+      <c r="CY23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ23" s="29"/>
+      <c r="DA23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB23" s="30"/>
+      <c r="DC23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD23" s="27"/>
+      <c r="DE23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF23" s="29"/>
+      <c r="DG23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH23" s="30"/>
+      <c r="DI23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ23" s="27"/>
+      <c r="DK23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL23" s="29"/>
+      <c r="DM23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN23" s="30"/>
+      <c r="DO23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP23" s="27"/>
+      <c r="DQ23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR23" s="29"/>
+      <c r="DS23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT23" s="30"/>
+      <c r="DU23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV23" s="27"/>
+      <c r="DW23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX23" s="29"/>
+      <c r="DY23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ23" s="30"/>
+      <c r="EA23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB23" s="27"/>
+      <c r="EC23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED23" s="29"/>
+      <c r="EE23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF23" s="30"/>
+      <c r="EG23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH23" s="27"/>
+      <c r="EI23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ23" s="29"/>
+      <c r="EK23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL23" s="30"/>
+      <c r="EM23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN23" s="27"/>
+      <c r="EO23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP23" s="29"/>
+      <c r="EQ23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER23" s="30"/>
+      <c r="ES23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET23" s="27"/>
+      <c r="EU23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV23" s="29"/>
+      <c r="EW23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX23" s="30"/>
+      <c r="EY23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ23" s="27"/>
+      <c r="FA23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB23" s="29"/>
+      <c r="FC23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD23" s="33"/>
+      <c r="FE23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="34"/>
@@ -7059,10 +11751,214 @@
       <c r="BE24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF24" s="43" t="s">
+      <c r="BF24" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="BG24" s="34"/>
+      <c r="BG24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL24" s="42"/>
+      <c r="BM24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR24" s="42"/>
+      <c r="BS24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="41"/>
+      <c r="BW24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX24" s="42"/>
+      <c r="BY24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB24" s="41"/>
+      <c r="CC24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD24" s="42"/>
+      <c r="CE24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH24" s="41"/>
+      <c r="CI24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ24" s="42"/>
+      <c r="CK24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN24" s="41"/>
+      <c r="CO24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP24" s="42"/>
+      <c r="CQ24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="41"/>
+      <c r="CU24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV24" s="42"/>
+      <c r="CW24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX24" s="39"/>
+      <c r="CY24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ24" s="41"/>
+      <c r="DA24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB24" s="42"/>
+      <c r="DC24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD24" s="39"/>
+      <c r="DE24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF24" s="41"/>
+      <c r="DG24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH24" s="42"/>
+      <c r="DI24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ24" s="39"/>
+      <c r="DK24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL24" s="41"/>
+      <c r="DM24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN24" s="42"/>
+      <c r="DO24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP24" s="39"/>
+      <c r="DQ24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR24" s="41"/>
+      <c r="DS24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT24" s="42"/>
+      <c r="DU24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV24" s="39"/>
+      <c r="DW24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX24" s="41"/>
+      <c r="DY24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ24" s="42"/>
+      <c r="EA24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB24" s="39"/>
+      <c r="EC24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED24" s="41"/>
+      <c r="EE24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF24" s="42"/>
+      <c r="EG24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH24" s="39"/>
+      <c r="EI24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ24" s="41"/>
+      <c r="EK24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL24" s="42"/>
+      <c r="EM24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN24" s="39"/>
+      <c r="EO24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP24" s="41"/>
+      <c r="EQ24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER24" s="42"/>
+      <c r="ES24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET24" s="39"/>
+      <c r="EU24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV24" s="41"/>
+      <c r="EW24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX24" s="42"/>
+      <c r="EY24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ24" s="39"/>
+      <c r="FA24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB24" s="41"/>
+      <c r="FC24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD24" s="43"/>
+      <c r="FE24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -7234,10 +12130,214 @@
       <c r="BE25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF25" s="33" t="s">
+      <c r="BF25" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="BG25" s="1"/>
+      <c r="BG25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL25" s="30"/>
+      <c r="BM25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN25" s="27"/>
+      <c r="BO25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP25" s="29"/>
+      <c r="BQ25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR25" s="30"/>
+      <c r="BS25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT25" s="27"/>
+      <c r="BU25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV25" s="29"/>
+      <c r="BW25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX25" s="30"/>
+      <c r="BY25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ25" s="27"/>
+      <c r="CA25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB25" s="29"/>
+      <c r="CC25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD25" s="30"/>
+      <c r="CE25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF25" s="27"/>
+      <c r="CG25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH25" s="29"/>
+      <c r="CI25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ25" s="30"/>
+      <c r="CK25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL25" s="27"/>
+      <c r="CM25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN25" s="29"/>
+      <c r="CO25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP25" s="30"/>
+      <c r="CQ25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR25" s="27"/>
+      <c r="CS25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT25" s="29"/>
+      <c r="CU25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV25" s="30"/>
+      <c r="CW25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX25" s="27"/>
+      <c r="CY25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ25" s="29"/>
+      <c r="DA25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB25" s="30"/>
+      <c r="DC25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD25" s="27"/>
+      <c r="DE25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF25" s="29"/>
+      <c r="DG25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH25" s="30"/>
+      <c r="DI25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ25" s="27"/>
+      <c r="DK25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL25" s="29"/>
+      <c r="DM25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN25" s="30"/>
+      <c r="DO25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP25" s="27"/>
+      <c r="DQ25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR25" s="29"/>
+      <c r="DS25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT25" s="30"/>
+      <c r="DU25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV25" s="27"/>
+      <c r="DW25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX25" s="29"/>
+      <c r="DY25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ25" s="30"/>
+      <c r="EA25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB25" s="27"/>
+      <c r="EC25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED25" s="29"/>
+      <c r="EE25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF25" s="30"/>
+      <c r="EG25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH25" s="27"/>
+      <c r="EI25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ25" s="29"/>
+      <c r="EK25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL25" s="30"/>
+      <c r="EM25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN25" s="27"/>
+      <c r="EO25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP25" s="29"/>
+      <c r="EQ25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER25" s="30"/>
+      <c r="ES25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET25" s="27"/>
+      <c r="EU25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV25" s="29"/>
+      <c r="EW25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX25" s="30"/>
+      <c r="EY25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ25" s="27"/>
+      <c r="FA25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB25" s="29"/>
+      <c r="FC25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD25" s="33"/>
+      <c r="FE25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="34"/>
@@ -7409,10 +12509,214 @@
       <c r="BE26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF26" s="43" t="s">
+      <c r="BF26" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="BG26" s="34"/>
+      <c r="BG26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ26" s="41"/>
+      <c r="BK26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL26" s="42"/>
+      <c r="BM26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN26" s="39"/>
+      <c r="BO26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP26" s="41"/>
+      <c r="BQ26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR26" s="42"/>
+      <c r="BS26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT26" s="39"/>
+      <c r="BU26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV26" s="41"/>
+      <c r="BW26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ26" s="39"/>
+      <c r="CA26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB26" s="41"/>
+      <c r="CC26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD26" s="42"/>
+      <c r="CE26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH26" s="41"/>
+      <c r="CI26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ26" s="42"/>
+      <c r="CK26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL26" s="39"/>
+      <c r="CM26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN26" s="41"/>
+      <c r="CO26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP26" s="42"/>
+      <c r="CQ26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR26" s="39"/>
+      <c r="CS26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT26" s="41"/>
+      <c r="CU26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV26" s="42"/>
+      <c r="CW26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX26" s="39"/>
+      <c r="CY26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ26" s="41"/>
+      <c r="DA26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB26" s="42"/>
+      <c r="DC26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD26" s="39"/>
+      <c r="DE26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF26" s="41"/>
+      <c r="DG26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH26" s="42"/>
+      <c r="DI26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ26" s="39"/>
+      <c r="DK26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL26" s="41"/>
+      <c r="DM26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN26" s="42"/>
+      <c r="DO26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP26" s="39"/>
+      <c r="DQ26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR26" s="41"/>
+      <c r="DS26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT26" s="42"/>
+      <c r="DU26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV26" s="39"/>
+      <c r="DW26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX26" s="41"/>
+      <c r="DY26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ26" s="42"/>
+      <c r="EA26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB26" s="39"/>
+      <c r="EC26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED26" s="41"/>
+      <c r="EE26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF26" s="42"/>
+      <c r="EG26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH26" s="39"/>
+      <c r="EI26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ26" s="41"/>
+      <c r="EK26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL26" s="42"/>
+      <c r="EM26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN26" s="39"/>
+      <c r="EO26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP26" s="41"/>
+      <c r="EQ26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER26" s="42"/>
+      <c r="ES26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET26" s="39"/>
+      <c r="EU26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV26" s="41"/>
+      <c r="EW26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX26" s="42"/>
+      <c r="EY26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ26" s="39"/>
+      <c r="FA26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB26" s="41"/>
+      <c r="FC26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD26" s="43"/>
+      <c r="FE26" s="34"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -7584,10 +12888,214 @@
       <c r="BE27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BF27" s="33" t="s">
+      <c r="BF27" s="30" t="s">
         <v>713</v>
       </c>
-      <c r="BG27" s="1"/>
+      <c r="BG27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ27" s="29"/>
+      <c r="BK27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL27" s="30"/>
+      <c r="BM27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN27" s="27"/>
+      <c r="BO27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP27" s="29"/>
+      <c r="BQ27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR27" s="30"/>
+      <c r="BS27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT27" s="27"/>
+      <c r="BU27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV27" s="29"/>
+      <c r="BW27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX27" s="30"/>
+      <c r="BY27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ27" s="27"/>
+      <c r="CA27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB27" s="29"/>
+      <c r="CC27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD27" s="30"/>
+      <c r="CE27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF27" s="27"/>
+      <c r="CG27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH27" s="29"/>
+      <c r="CI27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ27" s="30"/>
+      <c r="CK27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL27" s="27"/>
+      <c r="CM27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN27" s="29"/>
+      <c r="CO27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP27" s="30"/>
+      <c r="CQ27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR27" s="27"/>
+      <c r="CS27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT27" s="29"/>
+      <c r="CU27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV27" s="30"/>
+      <c r="CW27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX27" s="27"/>
+      <c r="CY27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ27" s="29"/>
+      <c r="DA27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB27" s="30"/>
+      <c r="DC27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD27" s="27"/>
+      <c r="DE27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF27" s="29"/>
+      <c r="DG27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH27" s="30"/>
+      <c r="DI27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ27" s="27"/>
+      <c r="DK27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL27" s="29"/>
+      <c r="DM27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN27" s="30"/>
+      <c r="DO27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP27" s="27"/>
+      <c r="DQ27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR27" s="29"/>
+      <c r="DS27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT27" s="30"/>
+      <c r="DU27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV27" s="27"/>
+      <c r="DW27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX27" s="29"/>
+      <c r="DY27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ27" s="30"/>
+      <c r="EA27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB27" s="27"/>
+      <c r="EC27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED27" s="29"/>
+      <c r="EE27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF27" s="30"/>
+      <c r="EG27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH27" s="27"/>
+      <c r="EI27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ27" s="29"/>
+      <c r="EK27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL27" s="30"/>
+      <c r="EM27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN27" s="27"/>
+      <c r="EO27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP27" s="29"/>
+      <c r="EQ27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER27" s="30"/>
+      <c r="ES27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET27" s="27"/>
+      <c r="EU27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV27" s="29"/>
+      <c r="EW27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX27" s="30"/>
+      <c r="EY27" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ27" s="27"/>
+      <c r="FA27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB27" s="29"/>
+      <c r="FC27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD27" s="33"/>
+      <c r="FE27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="34"/>
@@ -7759,10 +13267,214 @@
       <c r="BE28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF28" s="43" t="s">
+      <c r="BF28" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="BG28" s="34"/>
+      <c r="BG28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN28" s="39"/>
+      <c r="BO28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR28" s="42"/>
+      <c r="BS28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT28" s="39"/>
+      <c r="BU28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV28" s="41"/>
+      <c r="BW28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ28" s="39"/>
+      <c r="CA28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB28" s="41"/>
+      <c r="CC28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD28" s="42"/>
+      <c r="CE28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH28" s="41"/>
+      <c r="CI28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ28" s="42"/>
+      <c r="CK28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL28" s="39"/>
+      <c r="CM28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN28" s="41"/>
+      <c r="CO28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP28" s="42"/>
+      <c r="CQ28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR28" s="39"/>
+      <c r="CS28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT28" s="41"/>
+      <c r="CU28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV28" s="42"/>
+      <c r="CW28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX28" s="39"/>
+      <c r="CY28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ28" s="41"/>
+      <c r="DA28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB28" s="42"/>
+      <c r="DC28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD28" s="39"/>
+      <c r="DE28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF28" s="41"/>
+      <c r="DG28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH28" s="42"/>
+      <c r="DI28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ28" s="39"/>
+      <c r="DK28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL28" s="41"/>
+      <c r="DM28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN28" s="42"/>
+      <c r="DO28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP28" s="39"/>
+      <c r="DQ28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR28" s="41"/>
+      <c r="DS28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT28" s="42"/>
+      <c r="DU28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV28" s="39"/>
+      <c r="DW28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX28" s="41"/>
+      <c r="DY28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ28" s="42"/>
+      <c r="EA28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB28" s="39"/>
+      <c r="EC28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED28" s="41"/>
+      <c r="EE28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF28" s="42"/>
+      <c r="EG28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH28" s="39"/>
+      <c r="EI28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ28" s="41"/>
+      <c r="EK28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL28" s="42"/>
+      <c r="EM28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN28" s="39"/>
+      <c r="EO28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP28" s="41"/>
+      <c r="EQ28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER28" s="42"/>
+      <c r="ES28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET28" s="39"/>
+      <c r="EU28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV28" s="41"/>
+      <c r="EW28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX28" s="42"/>
+      <c r="EY28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ28" s="39"/>
+      <c r="FA28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB28" s="41"/>
+      <c r="FC28" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD28" s="43"/>
+      <c r="FE28" s="34"/>
     </row>
     <row r="29">
       <c r="A29" s="46"/>
@@ -7934,10 +13646,214 @@
       <c r="BE29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BF29" s="58" t="s">
+      <c r="BF29" s="57" t="s">
         <v>768</v>
       </c>
-      <c r="BG29" s="46"/>
+      <c r="BG29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN29" s="51"/>
+      <c r="BO29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP29" s="53"/>
+      <c r="BQ29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT29" s="51"/>
+      <c r="BU29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV29" s="53"/>
+      <c r="BW29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ29" s="51"/>
+      <c r="CA29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB29" s="53"/>
+      <c r="CC29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD29" s="54"/>
+      <c r="CE29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF29" s="51"/>
+      <c r="CG29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH29" s="53"/>
+      <c r="CI29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ29" s="54"/>
+      <c r="CK29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL29" s="51"/>
+      <c r="CM29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP29" s="54"/>
+      <c r="CQ29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR29" s="51"/>
+      <c r="CS29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT29" s="53"/>
+      <c r="CU29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV29" s="54"/>
+      <c r="CW29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX29" s="51"/>
+      <c r="CY29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ29" s="53"/>
+      <c r="DA29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB29" s="54"/>
+      <c r="DC29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD29" s="51"/>
+      <c r="DE29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF29" s="53"/>
+      <c r="DG29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH29" s="54"/>
+      <c r="DI29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ29" s="51"/>
+      <c r="DK29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL29" s="53"/>
+      <c r="DM29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN29" s="54"/>
+      <c r="DO29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="DP29" s="51"/>
+      <c r="DQ29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR29" s="53"/>
+      <c r="DS29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT29" s="54"/>
+      <c r="DU29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV29" s="51"/>
+      <c r="DW29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX29" s="53"/>
+      <c r="DY29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="DZ29" s="54"/>
+      <c r="EA29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB29" s="51"/>
+      <c r="EC29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED29" s="53"/>
+      <c r="EE29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="EF29" s="54"/>
+      <c r="EG29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="EH29" s="51"/>
+      <c r="EI29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ29" s="53"/>
+      <c r="EK29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="EL29" s="54"/>
+      <c r="EM29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="EN29" s="51"/>
+      <c r="EO29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP29" s="53"/>
+      <c r="EQ29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER29" s="54"/>
+      <c r="ES29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="ET29" s="51"/>
+      <c r="EU29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV29" s="53"/>
+      <c r="EW29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX29" s="54"/>
+      <c r="EY29" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ29" s="55"/>
+      <c r="FA29" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB29" s="56"/>
+      <c r="FC29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD29" s="58"/>
+      <c r="FE29" s="46"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -7998,7 +13914,109 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="28"/>
       <c r="BF30" s="9"/>
-      <c r="BG30" s="1"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="28"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="28"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="6"/>
+      <c r="BO30" s="28"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="28"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="5"/>
+      <c r="BT30" s="6"/>
+      <c r="BU30" s="28"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="28"/>
+      <c r="BX30" s="9"/>
+      <c r="BY30" s="5"/>
+      <c r="BZ30" s="6"/>
+      <c r="CA30" s="28"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="28"/>
+      <c r="CD30" s="9"/>
+      <c r="CE30" s="5"/>
+      <c r="CF30" s="6"/>
+      <c r="CG30" s="28"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="28"/>
+      <c r="CJ30" s="9"/>
+      <c r="CK30" s="5"/>
+      <c r="CL30" s="6"/>
+      <c r="CM30" s="28"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="28"/>
+      <c r="CP30" s="9"/>
+      <c r="CQ30" s="5"/>
+      <c r="CR30" s="6"/>
+      <c r="CS30" s="28"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="28"/>
+      <c r="CV30" s="9"/>
+      <c r="CW30" s="5"/>
+      <c r="CX30" s="6"/>
+      <c r="CY30" s="28"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="28"/>
+      <c r="DB30" s="9"/>
+      <c r="DC30" s="5"/>
+      <c r="DD30" s="6"/>
+      <c r="DE30" s="28"/>
+      <c r="DF30" s="8"/>
+      <c r="DG30" s="28"/>
+      <c r="DH30" s="9"/>
+      <c r="DI30" s="5"/>
+      <c r="DJ30" s="6"/>
+      <c r="DK30" s="28"/>
+      <c r="DL30" s="8"/>
+      <c r="DM30" s="28"/>
+      <c r="DN30" s="9"/>
+      <c r="DO30" s="5"/>
+      <c r="DP30" s="6"/>
+      <c r="DQ30" s="28"/>
+      <c r="DR30" s="8"/>
+      <c r="DS30" s="28"/>
+      <c r="DT30" s="9"/>
+      <c r="DU30" s="5"/>
+      <c r="DV30" s="6"/>
+      <c r="DW30" s="28"/>
+      <c r="DX30" s="8"/>
+      <c r="DY30" s="28"/>
+      <c r="DZ30" s="9"/>
+      <c r="EA30" s="5"/>
+      <c r="EB30" s="6"/>
+      <c r="EC30" s="28"/>
+      <c r="ED30" s="8"/>
+      <c r="EE30" s="28"/>
+      <c r="EF30" s="9"/>
+      <c r="EG30" s="5"/>
+      <c r="EH30" s="6"/>
+      <c r="EI30" s="28"/>
+      <c r="EJ30" s="8"/>
+      <c r="EK30" s="28"/>
+      <c r="EL30" s="9"/>
+      <c r="EM30" s="5"/>
+      <c r="EN30" s="6"/>
+      <c r="EO30" s="28"/>
+      <c r="EP30" s="8"/>
+      <c r="EQ30" s="28"/>
+      <c r="ER30" s="9"/>
+      <c r="ES30" s="5"/>
+      <c r="ET30" s="6"/>
+      <c r="EU30" s="28"/>
+      <c r="EV30" s="8"/>
+      <c r="EW30" s="28"/>
+      <c r="EX30" s="9"/>
+      <c r="EY30" s="5"/>
+      <c r="EZ30" s="6"/>
+      <c r="FA30" s="28"/>
+      <c r="FB30" s="8"/>
+      <c r="FC30" s="28"/>
+      <c r="FD30" s="9"/>
+      <c r="FE30" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="fullofform" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="881">
   <si>
     <t>Put</t>
   </si>
@@ -112,6 +113,15 @@
     <t>example</t>
   </si>
   <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -196,6 +206,15 @@
     <t>x</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -280,6 +299,15 @@
     <t>a</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -364,6 +392,15 @@
     <t>b</t>
   </si>
   <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>diary</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -448,6 +485,15 @@
     <t>c</t>
   </si>
   <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>theorem</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -532,6 +578,15 @@
     <t>k</t>
   </si>
   <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
@@ -613,6 +668,15 @@
     <t>l</t>
   </si>
   <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -697,6 +761,15 @@
     <t>f</t>
   </si>
   <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -781,6 +854,15 @@
     <t>u</t>
   </si>
   <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -862,6 +944,15 @@
     <t>p</t>
   </si>
   <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -943,6 +1034,15 @@
     <t>j</t>
   </si>
   <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -1021,6 +1121,15 @@
     <t>q</t>
   </si>
   <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>tweet</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -1102,6 +1211,15 @@
     <t>e</t>
   </si>
   <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -1183,6 +1301,15 @@
     <t>m</t>
   </si>
   <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -1267,6 +1394,15 @@
     <t>n</t>
   </si>
   <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>rhyme</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -1351,6 +1487,15 @@
     <t>g</t>
   </si>
   <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -1426,6 +1571,15 @@
     <t>r</t>
   </si>
   <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -1510,6 +1664,15 @@
     <t>s</t>
   </si>
   <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>radar</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -1591,6 +1754,15 @@
     <t>v</t>
   </si>
   <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -1672,6 +1844,15 @@
     <t>o</t>
   </si>
   <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>pace</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1753,6 +1934,15 @@
     <t>d</t>
   </si>
   <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -1834,15 +2024,15 @@
     <t>w</t>
   </si>
   <si>
+    <t>wine</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
     <t>Park</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>identification</t>
   </si>
   <si>
@@ -1897,9 +2087,6 @@
     <t>jumper</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
     <t>coming</t>
   </si>
   <si>
@@ -1915,6 +2102,9 @@
     <t>i</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -1999,6 +2189,9 @@
     <t>t</t>
   </si>
   <si>
+    <t>thunder</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -2080,6 +2273,9 @@
     <t>h</t>
   </si>
   <si>
+    <t>nest</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -2155,6 +2351,9 @@
     <t>z</t>
   </si>
   <si>
+    <t>fee</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -2230,6 +2429,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>statue</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -2311,13 +2513,148 @@
     <t>account</t>
   </si>
   <si>
-    <t>star</t>
-  </si>
-  <si>
     <t>pattern</t>
   </si>
   <si>
     <t>specimen</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>zero-banner</t>
+  </si>
+  <si>
+    <t>(metric)</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>one-heaven</t>
+  </si>
+  <si>
+    <t>(establishment)</t>
+  </si>
+  <si>
+    <t>two-episode</t>
+  </si>
+  <si>
+    <t>(journal)</t>
+  </si>
+  <si>
+    <t>three-language</t>
+  </si>
+  <si>
+    <t>(diary)</t>
+  </si>
+  <si>
+    <t>four-plan</t>
+  </si>
+  <si>
+    <t>(theorem)</t>
+  </si>
+  <si>
+    <t>five-star</t>
+  </si>
+  <si>
+    <t>(trust)</t>
+  </si>
+  <si>
+    <t>six-lane</t>
+  </si>
+  <si>
+    <t>(tally)</t>
+  </si>
+  <si>
+    <t>seven-shot</t>
+  </si>
+  <si>
+    <t>(basic)</t>
+  </si>
+  <si>
+    <t>eight-core</t>
+  </si>
+  <si>
+    <t>(stuff)</t>
+  </si>
+  <si>
+    <t>nine-month</t>
+  </si>
+  <si>
+    <t>(thing)</t>
+  </si>
+  <si>
+    <t>ten-year</t>
+  </si>
+  <si>
+    <t>(mask)</t>
+  </si>
+  <si>
+    <t>eleven-tweet</t>
+  </si>
+  <si>
+    <t>(sense)</t>
+  </si>
+  <si>
+    <t>twelve-shade</t>
+  </si>
+  <si>
+    <t>(space)</t>
+  </si>
+  <si>
+    <t>thirteen-spot</t>
+  </si>
+  <si>
+    <t>(temporary)</t>
+  </si>
+  <si>
+    <t>fourteen-rhyme</t>
+  </si>
+  <si>
+    <t>fifteen-barricade</t>
+  </si>
+  <si>
+    <t>sixteen-feature</t>
+  </si>
+  <si>
+    <t>seventeen-radar</t>
+  </si>
+  <si>
+    <t>eighteen-flag</t>
+  </si>
+  <si>
+    <t>nineteen-vehicle</t>
+  </si>
+  <si>
+    <t>twenty-ledger</t>
+  </si>
+  <si>
+    <t>twenty-one</t>
+  </si>
+  <si>
+    <t>twenty-two</t>
+  </si>
+  <si>
+    <t>twenty-three</t>
+  </si>
+  <si>
+    <t>twenty-four</t>
+  </si>
+  <si>
+    <t>twenty-five</t>
+  </si>
+  <si>
+    <t>twenty-six</t>
+  </si>
+  <si>
+    <t>twenty-seven</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2859,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2700,6 +3037,9 @@
     <xf borderId="8" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2709,6 +3049,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3419,15 +3763,21 @@
       <c r="BG2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="15"/>
+      <c r="BH2" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="BI2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="17"/>
+      <c r="BJ2" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="BK2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="18"/>
+      <c r="BL2" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="BM2" s="14" t="s">
         <v>3</v>
       </c>
@@ -3625,37 +3975,37 @@
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="24">
         <v>1.0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>5</v>
@@ -3667,146 +4017,152 @@
         <v>7</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AI3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ3" s="31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AK3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AM3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN3" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AO3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP3" s="31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR3" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT3" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AU3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV3" s="31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AW3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX3" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AY3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ3" s="30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BA3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB3" s="31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD3" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF3" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BG3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="27"/>
+      <c r="BH3" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="BI3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ3" s="29"/>
+      <c r="BJ3" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="BK3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="30"/>
+      <c r="BL3" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="BM3" s="26" t="s">
         <v>3</v>
       </c>
@@ -4004,188 +4360,194 @@
     <row r="4">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C4" s="36">
         <v>2.0</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ4" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL4" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN4" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX4" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ4" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD4" s="41" t="s">
-        <v>59</v>
-      </c>
       <c r="BE4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF4" s="42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="BG4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH4" s="39"/>
+      <c r="BH4" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="BI4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ4" s="41"/>
+      <c r="BJ4" s="41" t="s">
+        <v>96</v>
+      </c>
       <c r="BK4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL4" s="42"/>
+      <c r="BL4" s="42" t="s">
+        <v>97</v>
+      </c>
       <c r="BM4" s="38" t="s">
         <v>3</v>
       </c>
@@ -4383,188 +4745,194 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C5" s="24">
         <v>3.0</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="S5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="W5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="30" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AE5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF5" s="29" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH5" s="30" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AI5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="27" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AK5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL5" s="29" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AM5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN5" s="30" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AO5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP5" s="27" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR5" s="29" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT5" s="30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AU5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV5" s="27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AW5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX5" s="29" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AY5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ5" s="30" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="BA5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB5" s="27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD5" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF5" s="30" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="BG5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH5" s="27"/>
+      <c r="BH5" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="BI5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ5" s="29"/>
+      <c r="BJ5" s="29" t="s">
+        <v>127</v>
+      </c>
       <c r="BK5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL5" s="30"/>
+      <c r="BL5" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="BM5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4762,188 +5130,194 @@
     <row r="6">
       <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C6" s="36">
         <v>4.0</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="S6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T6" s="41" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="U6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="42" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="W6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB6" s="42" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AC6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AE6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="41" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH6" s="42" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AI6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ6" s="39" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AK6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL6" s="41" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AM6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN6" s="42" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AO6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP6" s="39" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AQ6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR6" s="41" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AS6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT6" s="42" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AU6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV6" s="39" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AW6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX6" s="41" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AY6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ6" s="42" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="BA6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB6" s="39" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="BC6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD6" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF6" s="42" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="BG6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH6" s="39"/>
+      <c r="BH6" s="39" t="s">
+        <v>157</v>
+      </c>
       <c r="BI6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ6" s="41"/>
+      <c r="BJ6" s="41" t="s">
+        <v>158</v>
+      </c>
       <c r="BK6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="42"/>
+      <c r="BL6" s="42" t="s">
+        <v>159</v>
+      </c>
       <c r="BM6" s="38" t="s">
         <v>3</v>
       </c>
@@ -5141,188 +5515,194 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C7" s="24">
         <v>5.0</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="S7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="W7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AA7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB7" s="30" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="AE7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF7" s="29" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AI7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ7" s="27" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="AK7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL7" s="29" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AM7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN7" s="30" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AO7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP7" s="27" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR7" s="29" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT7" s="30" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AU7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV7" s="27" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AW7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX7" s="29" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="AY7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ7" s="30" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="BA7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB7" s="27" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD7" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF7" s="30" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="BG7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH7" s="27"/>
+      <c r="BH7" s="27" t="s">
+        <v>188</v>
+      </c>
       <c r="BI7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="29"/>
+      <c r="BJ7" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="BK7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL7" s="30"/>
+      <c r="BL7" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="BM7" s="26" t="s">
         <v>3</v>
       </c>
@@ -5520,13 +5900,13 @@
     <row r="8">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C8" s="36">
         <v>6.0</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>3</v>
@@ -5538,170 +5918,176 @@
         <v>5</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="41" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="U8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="42" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="W8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Y8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="AA8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB8" s="42" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="AC8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="AE8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="41" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH8" s="42" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AI8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="39" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AK8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL8" s="41" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AM8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN8" s="42" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AO8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP8" s="39" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AQ8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR8" s="41" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AS8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT8" s="42" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AU8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV8" s="39" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AW8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX8" s="41" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AY8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ8" s="42" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="BA8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB8" s="39" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="BC8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD8" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF8" s="42" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="BG8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH8" s="39"/>
+      <c r="BH8" s="39" t="s">
+        <v>218</v>
+      </c>
       <c r="BI8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ8" s="41"/>
+      <c r="BJ8" s="41" t="s">
+        <v>219</v>
+      </c>
       <c r="BK8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL8" s="42"/>
+      <c r="BL8" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="BM8" s="38" t="s">
         <v>3</v>
       </c>
@@ -5899,188 +6285,194 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C9" s="24">
         <v>7.0</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="S9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="U9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="W9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AC9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD9" s="27" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="AE9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF9" s="29" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AG9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH9" s="30" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="AI9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ9" s="27" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="AK9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL9" s="29" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AM9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN9" s="30" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AO9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP9" s="27" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AQ9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR9" s="29" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AS9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT9" s="30" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AU9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV9" s="27" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="AW9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX9" s="29" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="AY9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ9" s="30" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="BA9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB9" s="27" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="BC9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD9" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF9" s="30" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="BG9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="27"/>
+      <c r="BH9" s="27" t="s">
+        <v>249</v>
+      </c>
       <c r="BI9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ9" s="29"/>
+      <c r="BJ9" s="29" t="s">
+        <v>250</v>
+      </c>
       <c r="BK9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL9" s="30"/>
+      <c r="BL9" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="BM9" s="26" t="s">
         <v>3</v>
       </c>
@@ -6278,188 +6670,194 @@
     <row r="10">
       <c r="A10" s="34"/>
       <c r="B10" s="35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C10" s="36">
         <v>8.0</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="S10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="U10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="42" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="W10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="39" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z10" s="41" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="AA10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB10" s="42" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="AC10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD10" s="39" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="AE10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="41" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AG10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH10" s="42" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AI10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ10" s="39" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AK10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL10" s="41" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="AM10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN10" s="42" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AO10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP10" s="39" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AQ10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AS10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT10" s="42" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="AU10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV10" s="39" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="AW10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX10" s="41" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="AY10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ10" s="42" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BA10" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB10" s="39" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BC10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD10" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE10" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF10" s="42" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BG10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH10" s="39"/>
+      <c r="BH10" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="BI10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ10" s="41"/>
+      <c r="BJ10" s="41" t="s">
+        <v>281</v>
+      </c>
       <c r="BK10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL10" s="42"/>
+      <c r="BL10" s="42" t="s">
+        <v>282</v>
+      </c>
       <c r="BM10" s="38" t="s">
         <v>3</v>
       </c>
@@ -6657,188 +7055,194 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="23" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C11" s="24">
         <v>9.0</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="S11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="W11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="Y11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AA11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB11" s="30" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AC11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AE11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF11" s="29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AG11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AI11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="31" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AK11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL11" s="29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AM11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN11" s="30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AO11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP11" s="31" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AQ11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR11" s="29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AS11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT11" s="30" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AU11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV11" s="31" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AW11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX11" s="29" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AY11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ11" s="30" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="BA11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB11" s="31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="BC11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD11" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF11" s="30" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="BG11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH11" s="27"/>
+      <c r="BH11" s="27" t="s">
+        <v>310</v>
+      </c>
       <c r="BI11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ11" s="29"/>
+      <c r="BJ11" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="BK11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL11" s="30"/>
+      <c r="BL11" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="BM11" s="26" t="s">
         <v>3</v>
       </c>
@@ -7036,188 +7440,194 @@
     <row r="12">
       <c r="A12" s="34"/>
       <c r="B12" s="35" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C12" s="36">
         <v>10.0</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="O12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P12" s="42" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="S12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="41" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="42" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="W12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="39" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="Y12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="AA12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB12" s="42" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="AC12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="39" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="AE12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="41" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AG12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH12" s="42" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="AI12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="39" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AK12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL12" s="41" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AM12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN12" s="42" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="AO12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP12" s="39" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR12" s="41" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AS12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT12" s="42" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="AU12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV12" s="39" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AW12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX12" s="41" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="AY12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ12" s="42" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="BA12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB12" s="39" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="BC12" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD12" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE12" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF12" s="42" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="BG12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH12" s="39"/>
+      <c r="BH12" s="39" t="s">
+        <v>340</v>
+      </c>
       <c r="BI12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ12" s="41"/>
+      <c r="BJ12" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="BK12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL12" s="42"/>
+      <c r="BL12" s="42" t="s">
+        <v>342</v>
+      </c>
       <c r="BM12" s="38" t="s">
         <v>3</v>
       </c>
@@ -7415,188 +7825,194 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="23" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="C13" s="24">
         <v>11.0</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="S13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="U13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V13" s="30" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="W13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Y13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AA13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB13" s="30" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="AC13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AE13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="AG13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH13" s="30" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="AI13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="27" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="AK13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL13" s="29" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AM13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN13" s="30" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="AO13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP13" s="27" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AQ13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR13" s="29" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AS13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT13" s="30" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="AU13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV13" s="27" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AW13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX13" s="29" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AY13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ13" s="30" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="BA13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB13" s="27" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="BC13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD13" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF13" s="30" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="BG13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH13" s="27"/>
+      <c r="BH13" s="27" t="s">
+        <v>369</v>
+      </c>
       <c r="BI13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ13" s="29"/>
+      <c r="BJ13" s="29" t="s">
+        <v>370</v>
+      </c>
       <c r="BK13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL13" s="30"/>
+      <c r="BL13" s="30" t="s">
+        <v>371</v>
+      </c>
       <c r="BM13" s="26" t="s">
         <v>3</v>
       </c>
@@ -7794,139 +8210,139 @@
     <row r="14">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="C14" s="36">
         <v>12.0</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="42" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="S14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="U14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V14" s="42" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="W14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="Y14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="AA14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB14" s="42" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="AC14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD14" s="39" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="AE14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF14" s="41" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AG14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH14" s="42" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AI14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ14" s="39" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="AK14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL14" s="41" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="AM14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN14" s="42" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AO14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP14" s="39" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="AQ14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR14" s="41" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="AS14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT14" s="42" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="AU14" s="38" t="s">
         <v>3</v>
@@ -7938,44 +8354,50 @@
         <v>5</v>
       </c>
       <c r="AX14" s="41" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="AY14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ14" s="42" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="BA14" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB14" s="39" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="BC14" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD14" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE14" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF14" s="42" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="BG14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH14" s="39"/>
+      <c r="BH14" s="39" t="s">
+        <v>399</v>
+      </c>
       <c r="BI14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ14" s="41"/>
+      <c r="BJ14" s="41" t="s">
+        <v>400</v>
+      </c>
       <c r="BK14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL14" s="42"/>
+      <c r="BL14" s="42" t="s">
+        <v>401</v>
+      </c>
       <c r="BM14" s="38" t="s">
         <v>3</v>
       </c>
@@ -8173,188 +8595,194 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="C15" s="24">
         <v>13.0</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="M15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="S15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="U15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V15" s="30" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="W15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="Y15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="AA15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB15" s="30" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AC15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="AE15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF15" s="29" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="AG15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH15" s="30" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="AI15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="27" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="AK15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL15" s="29" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="AM15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN15" s="30" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="AO15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP15" s="27" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="AQ15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR15" s="29" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="AS15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT15" s="30" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="AU15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV15" s="27" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="AW15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX15" s="29" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="AY15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ15" s="30" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="BA15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB15" s="27" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="BC15" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD15" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE15" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF15" s="30" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="BG15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH15" s="27"/>
+      <c r="BH15" s="27" t="s">
+        <v>429</v>
+      </c>
       <c r="BI15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ15" s="29"/>
+      <c r="BJ15" s="29" t="s">
+        <v>430</v>
+      </c>
       <c r="BK15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL15" s="30"/>
+      <c r="BL15" s="30" t="s">
+        <v>431</v>
+      </c>
       <c r="BM15" s="26" t="s">
         <v>3</v>
       </c>
@@ -8552,188 +8980,194 @@
     <row r="16">
       <c r="A16" s="34"/>
       <c r="B16" s="35" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="C16" s="36">
         <v>14.0</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="S16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="U16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V16" s="42" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="W16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="Y16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="AA16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB16" s="42" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="AC16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD16" s="39" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="AE16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF16" s="41" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AG16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH16" s="42" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="AI16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="39" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="AK16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL16" s="41" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="AM16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN16" s="42" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="AO16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP16" s="39" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="AQ16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR16" s="41" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="AS16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT16" s="42" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="AU16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV16" s="39" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="AW16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX16" s="41" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="AY16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ16" s="42" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="BA16" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB16" s="39" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="BC16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD16" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF16" s="42" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="BG16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH16" s="39"/>
+      <c r="BH16" s="39" t="s">
+        <v>460</v>
+      </c>
       <c r="BI16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ16" s="41"/>
+      <c r="BJ16" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="BK16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL16" s="42"/>
+      <c r="BL16" s="42" t="s">
+        <v>462</v>
+      </c>
       <c r="BM16" s="38" t="s">
         <v>3</v>
       </c>
@@ -8931,188 +9365,194 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="23" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="C17" s="24">
         <v>15.0</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="M17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="S17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="U17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="W17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="Y17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="AA17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="AC17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="AE17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF17" s="32" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="AG17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH17" s="30" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="AI17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="27" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="AK17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="AM17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN17" s="30" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="AO17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP17" s="27" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="AQ17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR17" s="32" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="AS17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT17" s="30" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="AU17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV17" s="27" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="AW17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX17" s="32" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="AY17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ17" s="30" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="BA17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB17" s="27" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="BC17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD17" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF17" s="30" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="BG17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH17" s="27"/>
+      <c r="BH17" s="27" t="s">
+        <v>491</v>
+      </c>
       <c r="BI17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ17" s="29"/>
+      <c r="BJ17" s="29" t="s">
+        <v>492</v>
+      </c>
       <c r="BK17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL17" s="30"/>
+      <c r="BL17" s="30" t="s">
+        <v>493</v>
+      </c>
       <c r="BM17" s="26" t="s">
         <v>3</v>
       </c>
@@ -9310,157 +9750,157 @@
     <row r="18">
       <c r="A18" s="34"/>
       <c r="B18" s="35" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="C18" s="36">
         <v>16.0</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="42" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="S18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="U18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V18" s="42" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="39" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="Y18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z18" s="41" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="AA18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB18" s="42" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="AC18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD18" s="39" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="AE18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF18" s="41" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="AG18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH18" s="42" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="AI18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="39" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="AK18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL18" s="41" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="AM18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN18" s="42" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="AO18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP18" s="39" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="AQ18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR18" s="41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT18" s="42" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="AU18" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV18" s="39" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="AW18" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX18" s="41" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="AY18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ18" s="42" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="BA18" s="38" t="s">
         <v>3</v>
@@ -9472,26 +9912,32 @@
         <v>5</v>
       </c>
       <c r="BD18" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE18" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF18" s="42" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="BG18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH18" s="39"/>
+      <c r="BH18" s="39" t="s">
+        <v>519</v>
+      </c>
       <c r="BI18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ18" s="41"/>
+      <c r="BJ18" s="41" t="s">
+        <v>520</v>
+      </c>
       <c r="BK18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL18" s="42"/>
+      <c r="BL18" s="42" t="s">
+        <v>521</v>
+      </c>
       <c r="BM18" s="38" t="s">
         <v>3</v>
       </c>
@@ -9689,188 +10135,194 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="23" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="C19" s="24">
         <v>17.0</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="M19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="S19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="U19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V19" s="30" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="W19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="Y19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="AA19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB19" s="30" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="AC19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="AE19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF19" s="29" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="AG19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH19" s="30" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="AI19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="27" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="AK19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL19" s="29" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="AM19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN19" s="30" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="AO19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP19" s="27" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="AQ19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR19" s="29" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="AS19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT19" s="30" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="AU19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV19" s="27" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AW19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX19" s="29" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="AY19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ19" s="30" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="BA19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB19" s="27" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="BC19" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD19" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF19" s="30" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="BG19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH19" s="27"/>
+      <c r="BH19" s="27" t="s">
+        <v>550</v>
+      </c>
       <c r="BI19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ19" s="29"/>
+      <c r="BJ19" s="29" t="s">
+        <v>551</v>
+      </c>
       <c r="BK19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL19" s="30"/>
+      <c r="BL19" s="30" t="s">
+        <v>552</v>
+      </c>
       <c r="BM19" s="26" t="s">
         <v>3</v>
       </c>
@@ -10068,188 +10520,194 @@
     <row r="20">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="C20" s="36">
         <v>18.0</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="M20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="S20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T20" s="41" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="U20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V20" s="42" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="39" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="Y20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="AA20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB20" s="42" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="AC20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD20" s="44" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="AE20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF20" s="41" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="AG20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH20" s="42" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="AI20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ20" s="45" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="AK20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL20" s="41" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="AM20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN20" s="42" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="AO20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP20" s="45" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="AQ20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR20" s="41" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="AS20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT20" s="42" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="AU20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV20" s="45" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="AW20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX20" s="41" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="AY20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ20" s="42" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="BA20" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB20" s="45" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
       <c r="BC20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD20" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE20" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF20" s="42" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="BG20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH20" s="39"/>
+      <c r="BH20" s="39" t="s">
+        <v>580</v>
+      </c>
       <c r="BI20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ20" s="41"/>
+      <c r="BJ20" s="41" t="s">
+        <v>581</v>
+      </c>
       <c r="BK20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL20" s="42"/>
+      <c r="BL20" s="42" t="s">
+        <v>582</v>
+      </c>
       <c r="BM20" s="38" t="s">
         <v>3</v>
       </c>
@@ -10447,188 +10905,194 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="23" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="C21" s="24">
         <v>19.0</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="M21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="O21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="S21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V21" s="30" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="W21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="Y21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="AA21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB21" s="30" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="AC21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD21" s="27" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="AE21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF21" s="29" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="AG21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH21" s="30" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="AI21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="27" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="AK21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL21" s="29" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="AM21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN21" s="30" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="AO21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP21" s="27" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="AQ21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR21" s="29" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="AS21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT21" s="30" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="AU21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV21" s="27" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="AW21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX21" s="29" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="AY21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ21" s="30" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="BA21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB21" s="27" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="BC21" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD21" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF21" s="30" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="BG21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH21" s="27"/>
+      <c r="BH21" s="27" t="s">
+        <v>610</v>
+      </c>
       <c r="BI21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ21" s="29"/>
+      <c r="BJ21" s="29" t="s">
+        <v>611</v>
+      </c>
       <c r="BK21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL21" s="30"/>
+      <c r="BL21" s="30" t="s">
+        <v>612</v>
+      </c>
       <c r="BM21" s="26" t="s">
         <v>3</v>
       </c>
@@ -10826,188 +11290,194 @@
     <row r="22">
       <c r="A22" s="34"/>
       <c r="B22" s="35" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="C22" s="36">
         <v>20.0</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="M22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="42" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
       <c r="S22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>562</v>
+        <v>622</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V22" s="42" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="W22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Y22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z22" s="41" t="s">
-        <v>564</v>
+        <v>624</v>
       </c>
       <c r="AA22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB22" s="42" t="s">
-        <v>565</v>
+        <v>625</v>
       </c>
       <c r="AC22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="AE22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF22" s="41" t="s">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="AG22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH22" s="42" t="s">
-        <v>568</v>
+        <v>628</v>
       </c>
       <c r="AI22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="AK22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL22" s="41" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="AM22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN22" s="42" t="s">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="AO22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP22" s="39" t="s">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="AQ22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR22" s="41" t="s">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="AS22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT22" s="42" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="AU22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV22" s="39" t="s">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="AW22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX22" s="41" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="AY22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ22" s="42" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="BA22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB22" s="39" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="BC22" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD22" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE22" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF22" s="42" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="BG22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH22" s="39"/>
+      <c r="BH22" s="39" t="s">
+        <v>640</v>
+      </c>
       <c r="BI22" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ22" s="41"/>
+      <c r="BJ22" s="41" t="s">
+        <v>641</v>
+      </c>
       <c r="BK22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL22" s="42"/>
+      <c r="BL22" s="42" t="s">
+        <v>642</v>
+      </c>
       <c r="BM22" s="38" t="s">
         <v>3</v>
       </c>
@@ -11205,188 +11675,194 @@
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="C23" s="24">
         <v>21.0</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="M23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
       <c r="S23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>589</v>
+        <v>652</v>
       </c>
       <c r="U23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="W23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>591</v>
+        <v>654</v>
       </c>
       <c r="Y23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="AA23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>592</v>
+        <v>655</v>
       </c>
       <c r="AC23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD23" s="27" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="AE23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF23" s="29" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="AG23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH23" s="30" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="AI23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ23" s="27" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="AK23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL23" s="29" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="AM23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN23" s="30" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="AO23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP23" s="27" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
       <c r="AQ23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR23" s="29" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="AS23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT23" s="30" t="s">
-        <v>601</v>
+        <v>664</v>
       </c>
       <c r="AU23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV23" s="27" t="s">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="AW23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AX23" s="29" t="s">
-        <v>603</v>
+        <v>666</v>
       </c>
       <c r="AY23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AZ23" s="30" t="s">
-        <v>604</v>
+        <v>667</v>
       </c>
       <c r="BA23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB23" s="27" t="s">
-        <v>605</v>
+        <v>668</v>
       </c>
       <c r="BC23" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD23" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF23" s="30" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="BG23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH23" s="27"/>
+      <c r="BH23" s="27" t="s">
+        <v>640</v>
+      </c>
       <c r="BI23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ23" s="29"/>
+      <c r="BJ23" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="BK23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL23" s="30"/>
+      <c r="BL23" s="30" t="s">
+        <v>670</v>
+      </c>
       <c r="BM23" s="26" t="s">
         <v>3</v>
       </c>
@@ -11584,188 +12060,194 @@
     <row r="24">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="C24" s="36">
         <v>22.0</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>609</v>
+        <v>127</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>610</v>
+        <v>673</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>611</v>
+        <v>674</v>
       </c>
       <c r="K24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>612</v>
+        <v>675</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P24" s="42" t="s">
-        <v>614</v>
+        <v>677</v>
       </c>
       <c r="Q24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>615</v>
+        <v>678</v>
       </c>
       <c r="S24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>616</v>
+        <v>679</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V24" s="42" t="s">
-        <v>617</v>
+        <v>680</v>
       </c>
       <c r="W24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="39" t="s">
-        <v>618</v>
+        <v>681</v>
       </c>
       <c r="Y24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="AA24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB24" s="42" t="s">
-        <v>620</v>
+        <v>683</v>
       </c>
       <c r="AC24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD24" s="39" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="AE24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF24" s="41" t="s">
-        <v>622</v>
+        <v>685</v>
       </c>
       <c r="AG24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH24" s="42" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AI24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>623</v>
+        <v>686</v>
       </c>
       <c r="AK24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL24" s="41" t="s">
-        <v>624</v>
+        <v>687</v>
       </c>
       <c r="AM24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN24" s="42" t="s">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="AO24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP24" s="39" t="s">
-        <v>626</v>
+        <v>689</v>
       </c>
       <c r="AQ24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR24" s="41" t="s">
-        <v>627</v>
+        <v>690</v>
       </c>
       <c r="AS24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT24" s="42" t="s">
-        <v>628</v>
+        <v>281</v>
       </c>
       <c r="AU24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV24" s="39" t="s">
-        <v>629</v>
+        <v>691</v>
       </c>
       <c r="AW24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX24" s="41" t="s">
-        <v>630</v>
+        <v>692</v>
       </c>
       <c r="AY24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ24" s="42" t="s">
-        <v>631</v>
+        <v>693</v>
       </c>
       <c r="BA24" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB24" s="39" t="s">
-        <v>632</v>
+        <v>694</v>
       </c>
       <c r="BC24" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD24" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE24" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF24" s="42" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="BG24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH24" s="39"/>
+      <c r="BH24" s="39" t="s">
+        <v>640</v>
+      </c>
       <c r="BI24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ24" s="41"/>
+      <c r="BJ24" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="BK24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL24" s="42"/>
+      <c r="BL24" s="42" t="s">
+        <v>696</v>
+      </c>
       <c r="BM24" s="38" t="s">
         <v>3</v>
       </c>
@@ -11963,188 +12445,194 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="23" t="s">
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="C25" s="24">
         <v>23.0</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>635</v>
+        <v>698</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>636</v>
+        <v>699</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>637</v>
+        <v>700</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>638</v>
+        <v>701</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="M25" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N25" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="W25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="AC25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="AE25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="AG25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="AI25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="AK25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="AM25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN25" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="AO25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="AQ25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="AS25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT25" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="AU25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV25" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="AW25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX25" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="AY25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ25" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="BA25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB25" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="BC25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="BG25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH25" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="O25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="W25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="Y25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="AA25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB25" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="AC25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="AE25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="AG25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH25" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="AI25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="27" t="s">
-        <v>651</v>
-      </c>
-      <c r="AK25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL25" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="AM25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN25" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="AO25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP25" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="AQ25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR25" s="29" t="s">
-        <v>655</v>
-      </c>
-      <c r="AS25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT25" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="AU25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV25" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="AW25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX25" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="AY25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ25" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="BA25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB25" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="BC25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF25" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="BG25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH25" s="27"/>
       <c r="BI25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ25" s="29"/>
+      <c r="BJ25" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="BK25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL25" s="30"/>
+      <c r="BL25" s="30" t="s">
+        <v>725</v>
+      </c>
       <c r="BM25" s="26" t="s">
         <v>3</v>
       </c>
@@ -12342,188 +12830,194 @@
     <row r="26">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="C26" s="36">
         <v>24.0</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="M26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N26" s="41" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="42" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="Q26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
       <c r="S26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="U26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V26" s="42" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="W26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="39" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
       <c r="Y26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z26" s="41" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
       <c r="AA26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB26" s="42" t="s">
-        <v>675</v>
+        <v>739</v>
       </c>
       <c r="AC26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD26" s="39" t="s">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="AE26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF26" s="41" t="s">
-        <v>677</v>
+        <v>741</v>
       </c>
       <c r="AG26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH26" s="42" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="AI26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
       <c r="AK26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL26" s="41" t="s">
-        <v>679</v>
+        <v>743</v>
       </c>
       <c r="AM26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN26" s="42" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="AO26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP26" s="39" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="AQ26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR26" s="41" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="AS26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT26" s="42" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="AU26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV26" s="39" t="s">
-        <v>684</v>
+        <v>748</v>
       </c>
       <c r="AW26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX26" s="41" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="AY26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ26" s="42" t="s">
-        <v>686</v>
+        <v>750</v>
       </c>
       <c r="BA26" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB26" s="39" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="BC26" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD26" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE26" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF26" s="42" t="s">
-        <v>688</v>
+        <v>752</v>
       </c>
       <c r="BG26" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH26" s="39"/>
+      <c r="BH26" s="39" t="s">
+        <v>640</v>
+      </c>
       <c r="BI26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ26" s="41"/>
+      <c r="BJ26" s="41" t="s">
+        <v>157</v>
+      </c>
       <c r="BK26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL26" s="42"/>
+      <c r="BL26" s="42" t="s">
+        <v>753</v>
+      </c>
       <c r="BM26" s="38" t="s">
         <v>3</v>
       </c>
@@ -12721,145 +13215,145 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="23" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="C27" s="24">
         <v>25.0</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>690</v>
+        <v>755</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="M27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>694</v>
+        <v>759</v>
       </c>
       <c r="O27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>695</v>
+        <v>760</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="27" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="S27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
       <c r="U27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="V27" s="30" t="s">
-        <v>697</v>
+        <v>762</v>
       </c>
       <c r="W27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>698</v>
+        <v>763</v>
       </c>
       <c r="Y27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>699</v>
+        <v>764</v>
       </c>
       <c r="AA27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AB27" s="30" t="s">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="AC27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="AE27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AF27" s="29" t="s">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="AG27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AH27" s="30" t="s">
-        <v>703</v>
+        <v>768</v>
       </c>
       <c r="AI27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AJ27" s="27" t="s">
-        <v>704</v>
+        <v>769</v>
       </c>
       <c r="AK27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AL27" s="29" t="s">
-        <v>705</v>
+        <v>770</v>
       </c>
       <c r="AM27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AN27" s="30" t="s">
-        <v>706</v>
+        <v>771</v>
       </c>
       <c r="AO27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AP27" s="27" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
       <c r="AQ27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AR27" s="29" t="s">
-        <v>708</v>
+        <v>773</v>
       </c>
       <c r="AS27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="AT27" s="30" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="AU27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="AV27" s="27" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="AW27" s="28" t="s">
         <v>5</v>
@@ -12871,38 +13365,44 @@
         <v>7</v>
       </c>
       <c r="AZ27" s="30" t="s">
-        <v>711</v>
+        <v>776</v>
       </c>
       <c r="BA27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="BB27" s="27" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="BC27" s="28" t="s">
         <v>5</v>
       </c>
       <c r="BD27" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE27" s="28" t="s">
         <v>7</v>
       </c>
       <c r="BF27" s="30" t="s">
-        <v>713</v>
+        <v>778</v>
       </c>
       <c r="BG27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BH27" s="27"/>
+      <c r="BH27" s="27" t="s">
+        <v>640</v>
+      </c>
       <c r="BI27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BJ27" s="29"/>
+      <c r="BJ27" s="29" t="s">
+        <v>188</v>
+      </c>
       <c r="BK27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="BL27" s="30"/>
+      <c r="BL27" s="30" t="s">
+        <v>779</v>
+      </c>
       <c r="BM27" s="26" t="s">
         <v>3</v>
       </c>
@@ -13100,188 +13600,194 @@
     <row r="28">
       <c r="A28" s="34"/>
       <c r="B28" s="35" t="s">
-        <v>714</v>
+        <v>780</v>
       </c>
       <c r="C28" s="36">
         <v>26.0</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>716</v>
+        <v>782</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>718</v>
+        <v>784</v>
       </c>
       <c r="M28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>719</v>
+        <v>785</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="P28" s="42" t="s">
-        <v>720</v>
+        <v>786</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="S28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="T28" s="41" t="s">
-        <v>722</v>
+        <v>788</v>
       </c>
       <c r="U28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="V28" s="42" t="s">
-        <v>723</v>
+        <v>789</v>
       </c>
       <c r="W28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="X28" s="39" t="s">
-        <v>724</v>
+        <v>790</v>
       </c>
       <c r="Y28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>725</v>
+        <v>791</v>
       </c>
       <c r="AA28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AB28" s="42" t="s">
-        <v>726</v>
+        <v>792</v>
       </c>
       <c r="AC28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AD28" s="39" t="s">
-        <v>727</v>
+        <v>793</v>
       </c>
       <c r="AE28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AF28" s="41" t="s">
-        <v>728</v>
+        <v>794</v>
       </c>
       <c r="AG28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AH28" s="42" t="s">
-        <v>729</v>
+        <v>795</v>
       </c>
       <c r="AI28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AK28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AL28" s="41" t="s">
-        <v>730</v>
+        <v>796</v>
       </c>
       <c r="AM28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AN28" s="42" t="s">
-        <v>731</v>
+        <v>797</v>
       </c>
       <c r="AO28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AP28" s="39" t="s">
-        <v>732</v>
+        <v>798</v>
       </c>
       <c r="AQ28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AR28" s="41" t="s">
-        <v>733</v>
+        <v>799</v>
       </c>
       <c r="AS28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AT28" s="42" t="s">
-        <v>734</v>
+        <v>800</v>
       </c>
       <c r="AU28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="AV28" s="39" t="s">
-        <v>727</v>
+        <v>793</v>
       </c>
       <c r="AW28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="AX28" s="41" t="s">
-        <v>735</v>
+        <v>801</v>
       </c>
       <c r="AY28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="AZ28" s="42" t="s">
-        <v>736</v>
+        <v>802</v>
       </c>
       <c r="BA28" s="38" t="s">
         <v>3</v>
       </c>
       <c r="BB28" s="39" t="s">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="BC28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="BD28" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BE28" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BF28" s="42" t="s">
-        <v>738</v>
+        <v>804</v>
       </c>
       <c r="BG28" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BH28" s="39"/>
+      <c r="BH28" s="39" t="s">
+        <v>640</v>
+      </c>
       <c r="BI28" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BJ28" s="41"/>
+      <c r="BJ28" s="41" t="s">
+        <v>218</v>
+      </c>
       <c r="BK28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL28" s="42"/>
+      <c r="BL28" s="42" t="s">
+        <v>805</v>
+      </c>
       <c r="BM28" s="38" t="s">
         <v>3</v>
       </c>
@@ -13479,188 +13985,194 @@
     <row r="29">
       <c r="A29" s="46"/>
       <c r="B29" s="47" t="s">
-        <v>739</v>
+        <v>806</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>740</v>
+        <v>807</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>741</v>
+        <v>808</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>742</v>
+        <v>809</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>743</v>
+        <v>810</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="54" t="s">
-        <v>744</v>
+        <v>811</v>
       </c>
       <c r="K29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="51" t="s">
-        <v>745</v>
+        <v>812</v>
       </c>
       <c r="M29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="53" t="s">
-        <v>746</v>
+        <v>813</v>
       </c>
       <c r="O29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="P29" s="54" t="s">
-        <v>747</v>
+        <v>814</v>
       </c>
       <c r="Q29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>748</v>
+        <v>815</v>
       </c>
       <c r="S29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="53" t="s">
-        <v>749</v>
+        <v>816</v>
       </c>
       <c r="U29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="V29" s="54" t="s">
-        <v>750</v>
+        <v>817</v>
       </c>
       <c r="W29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>751</v>
+        <v>818</v>
       </c>
       <c r="Y29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="53" t="s">
-        <v>752</v>
+        <v>819</v>
       </c>
       <c r="AA29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AB29" s="54" t="s">
-        <v>753</v>
+        <v>820</v>
       </c>
       <c r="AC29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>754</v>
+        <v>821</v>
       </c>
       <c r="AE29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AF29" s="56" t="s">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="AG29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AH29" s="57" t="s">
-        <v>756</v>
+        <v>823</v>
       </c>
       <c r="AI29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AJ29" s="55" t="s">
-        <v>757</v>
+        <v>824</v>
       </c>
       <c r="AK29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AL29" s="56" t="s">
-        <v>758</v>
+        <v>825</v>
       </c>
       <c r="AM29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AN29" s="57" t="s">
-        <v>759</v>
+        <v>826</v>
       </c>
       <c r="AO29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AP29" s="55" t="s">
-        <v>760</v>
+        <v>827</v>
       </c>
       <c r="AQ29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AR29" s="56" t="s">
-        <v>761</v>
+        <v>828</v>
       </c>
       <c r="AS29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AT29" s="57" t="s">
-        <v>762</v>
+        <v>829</v>
       </c>
       <c r="AU29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AV29" s="55" t="s">
-        <v>763</v>
+        <v>830</v>
       </c>
       <c r="AW29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="AX29" s="56" t="s">
-        <v>764</v>
+        <v>831</v>
       </c>
       <c r="AY29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="AZ29" s="57" t="s">
-        <v>765</v>
+        <v>832</v>
       </c>
       <c r="BA29" s="50" t="s">
         <v>3</v>
       </c>
       <c r="BB29" s="55" t="s">
-        <v>766</v>
+        <v>189</v>
       </c>
       <c r="BC29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="BD29" s="56" t="s">
-        <v>767</v>
+        <v>833</v>
       </c>
       <c r="BE29" s="52" t="s">
         <v>7</v>
       </c>
       <c r="BF29" s="57" t="s">
-        <v>768</v>
+        <v>834</v>
       </c>
       <c r="BG29" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="BH29" s="51"/>
+      <c r="BH29" s="51" t="s">
+        <v>640</v>
+      </c>
       <c r="BI29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="BJ29" s="53"/>
+      <c r="BJ29" s="53" t="s">
+        <v>249</v>
+      </c>
       <c r="BK29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BL29" s="54"/>
+      <c r="BL29" s="54" t="s">
+        <v>835</v>
+      </c>
       <c r="BM29" s="50" t="s">
         <v>3</v>
       </c>
@@ -14024,4 +14536,1083 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="D1" s="59" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z1" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ1" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO1" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT1" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY1" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD1" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="59" t="s">
+        <v>841</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>842</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y2" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD2" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI2" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN2" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS2" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AX2" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BC2" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="59" t="s">
+        <v>843</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>844</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI3" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN3" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS3" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AX3" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BC3" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="59" t="s">
+        <v>845</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>846</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI4" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN4" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS4" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AX4" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BC4" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="59" t="s">
+        <v>847</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>848</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z5" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ5" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO5" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT5" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY5" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD5" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="59" t="s">
+        <v>849</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>850</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA6" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK6" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP6" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU6" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ6" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE6" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="59" t="s">
+        <v>851</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>852</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA7" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF7" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK7" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP7" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU7" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ7" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE7" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="59" t="s">
+        <v>853</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U8" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z8" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE8" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ8" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO8" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT8" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY8" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD8" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="59" t="s">
+        <v>855</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>856</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z9" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE9" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ9" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO9" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT9" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY9" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD9" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>858</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V10" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA10" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF10" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK10" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP10" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU10" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ10" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE10" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA11" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF11" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK11" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP11" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU11" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ11" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE11" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="59" t="s">
+        <v>861</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P12" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE12" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ12" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO12" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT12" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY12" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD12" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>864</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U13" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z13" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ13" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO13" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT13" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY13" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD13" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="59" t="s">
+        <v>865</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>866</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="T14" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y14" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD14" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI14" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN14" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS14" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AX14" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BC14" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="59" t="s">
+        <v>867</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA15" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF15" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK15" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP15" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU15" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ15" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE15" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="59" t="s">
+        <v>868</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P16" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U16" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z16" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE16" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ16" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO16" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT16" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY16" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD16" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="59" t="s">
+        <v>869</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U17" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z17" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE17" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ17" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO17" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT17" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY17" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD17" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="59" t="s">
+        <v>870</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z18" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE18" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ18" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO18" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT18" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY18" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD18" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="59" t="s">
+        <v>871</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V19" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA19" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF19" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK19" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP19" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU19" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ19" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE19" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="59" t="s">
+        <v>872</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z20" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE20" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ20" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO20" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AT20" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AY20" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BD20" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="59" t="s">
+        <v>873</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V21" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA21" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF21" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK21" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP21" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU21" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ21" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE21" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="59" t="s">
+        <v>874</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V22" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA22" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF22" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK22" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP22" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU22" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ22" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE22" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="59" t="s">
+        <v>875</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V23" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA23" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF23" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK23" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP23" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU23" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ23" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE23" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="59" t="s">
+        <v>876</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V24" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA24" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF24" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK24" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP24" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU24" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ24" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE24" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="59" t="s">
+        <v>877</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V25" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA25" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF25" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK25" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP25" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU25" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ25" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE25" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="59" t="s">
+        <v>878</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V26" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA26" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF26" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK26" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP26" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU26" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ26" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE26" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="59" t="s">
+        <v>879</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q27" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V27" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA27" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF27" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK27" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP27" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU27" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ27" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE27" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="59" t="s">
+        <v>880</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q28" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="V28" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA28" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF28" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK28" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="AP28" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="AU28" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="AZ28" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="BE28" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="992">
   <si>
     <t>π</t>
   </si>
@@ -151,2629 +151,2737 @@
     <t>tube</t>
   </si>
   <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>Together</t>
+  </si>
+  <si>
+    <t>Tolerant</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>teenage</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>brain stroke</t>
+  </si>
+  <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>agility</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>virgin</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>এক</t>
+  </si>
+  <si>
+    <t>Sine</t>
+  </si>
+  <si>
+    <t>Much</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>eardrum</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>youth</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>cardiac arrest</t>
+  </si>
+  <si>
+    <t>syrup</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>versatility</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>faith</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>prosecute</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>দুই</t>
+  </si>
+  <si>
+    <t>Cosine</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>backbone</t>
+  </si>
+  <si>
+    <t>inverse</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>bud</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>syntax</t>
+  </si>
+  <si>
+    <t>heart failure</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>reasoning</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>literacy</t>
+  </si>
+  <si>
+    <t>bachelor</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>mica</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>diary</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>তিন</t>
+  </si>
+  <si>
+    <t>Tangent</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>contextual</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>chronic disorder</t>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>jewellery</t>
+  </si>
+  <si>
+    <t>virtually</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>astronomer</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>theorem</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>cadre</t>
+  </si>
+  <si>
+    <t>চার</t>
+  </si>
+  <si>
+    <t>Cosecant</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>stress obesity</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>vulnerably</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>পাঁচ</t>
+  </si>
+  <si>
+    <t>Secant</t>
+  </si>
+  <si>
+    <t>Linked</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>characterisation</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>palate</t>
+  </si>
+  <si>
+    <t>amateur</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>vision impairment</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>vibrantly</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>diligence</t>
+  </si>
+  <si>
+    <t>correspondent</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>migrate</t>
+  </si>
+  <si>
+    <t>coil</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>mixture</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>ছয়</t>
+  </si>
+  <si>
+    <t>Cotangent</t>
+  </si>
+  <si>
+    <t>With</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>plug-in</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>organ expansion</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>verbally</t>
+  </si>
+  <si>
+    <t>religious</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pretext</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>hyperbola</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>সাত</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>synchronisation</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>gum</t>
+  </si>
+  <si>
+    <t>newbie</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>biscuit</t>
+  </si>
+  <si>
+    <t>dictator</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>আট</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>craft</t>
+  </si>
+  <si>
+    <t>virus infection</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>visually</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>neighbour</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>নয়</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>numerical</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>tonsil</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>jaundice fever</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>vigilantly</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>diode</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>দশ</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>saliva</t>
+  </si>
+  <si>
+    <t>sportsman</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sinus infection</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>lapse</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>tweet</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>এগারো</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>localised</t>
+  </si>
+  <si>
+    <t>beautification</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>throat</t>
+  </si>
+  <si>
+    <t>housewife</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>gallbladder inflammation</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>viscosity</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>tradition</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>বারো</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>deltoid</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>cord</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>brain tumour</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>adopted</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>attire</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>vice</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>তেরো</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>thyroid</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>herpes disease</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>rhyme</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>চৌদ্দ</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>pituitary</t>
+  </si>
+  <si>
+    <t>techie</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>body cancer</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
+    <t>curriculum</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>পনেরো</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>retina</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>nostril</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>journalism</t>
+  </si>
+  <si>
+    <t>HIV positive</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>visionary</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>audience</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>personalise</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>ষোল</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>bed sore</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>tray</t>
+  </si>
+  <si>
+    <t>vanity</t>
+  </si>
+  <si>
+    <t>musical</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>solder</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>radar</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>সতেরো</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>serum</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>asthma condition</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>আঠারো</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>chronological</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Alzheimer's cell</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>vocationally</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>vapour</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>pace</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>hyphen</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>উনিশ</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>gamer</t>
+  </si>
+  <si>
+    <t>logistic</t>
+  </si>
+  <si>
+    <t>pneumonia antibiotics</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>variably</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>liberal</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>diagram</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>labour</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>বিশ</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>bronchitis bacteria</t>
+  </si>
+  <si>
+    <t>locket</t>
+  </si>
+  <si>
+    <t>viability</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>scraper</t>
+  </si>
+  <si>
+    <t>troop</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>একুশ</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>invert</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>viral syndrome</t>
+  </si>
+  <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>volatility</t>
+  </si>
+  <si>
+    <t>sole</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>jumper</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>বাইশ</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>supportive</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>coma relative</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>তেইশ</t>
+  </si>
+  <si>
+    <t>Such</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>melanin</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>calculus</t>
+  </si>
+  <si>
+    <t>epilepsy unknown</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>judgement</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>চব্বিশ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>mnemonic</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>marrow</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>electric shock</t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>voter</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>পঁচিশ</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>ulcer tissue</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>vitality</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>ছাব্বিশ</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>::.</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>pavilion</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>asterisk</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
     <t>scheme</t>
   </si>
   <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>Together</t>
-  </si>
-  <si>
-    <t>Tolerant</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
-  <si>
-    <t>toss</t>
-  </si>
-  <si>
-    <t>teeth</t>
-  </si>
-  <si>
-    <t>teenage</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>brain stroke</t>
-  </si>
-  <si>
-    <t>festival</t>
-  </si>
-  <si>
-    <t>agility</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>virgin</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>vitamin</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>establishment</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>sculpture</t>
-  </si>
-  <si>
-    <t>colour</t>
-  </si>
-  <si>
-    <t>এক</t>
-  </si>
-  <si>
-    <t>Sine</t>
-  </si>
-  <si>
-    <t>Much</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>eardrum</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
-    <t>align</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>youth</t>
-  </si>
-  <si>
-    <t>graph</t>
-  </si>
-  <si>
-    <t>cardiac arrest</t>
-  </si>
-  <si>
-    <t>syrup</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>versatility</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>faith</t>
-  </si>
-  <si>
-    <t>graduate</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>prosecute</t>
-  </si>
-  <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>mineral</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>colleague</t>
-  </si>
-  <si>
-    <t>pixel</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>insect</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>colony</t>
-  </si>
-  <si>
-    <t>দুই</t>
-  </si>
-  <si>
-    <t>Cosine</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
-    <t>backbone</t>
-  </si>
-  <si>
-    <t>inverse</t>
-  </si>
-  <si>
-    <t>mix</t>
-  </si>
-  <si>
-    <t>bud</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>syntax</t>
-  </si>
-  <si>
-    <t>heart failure</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>reasoning</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>literacy</t>
-  </si>
-  <si>
-    <t>bachelor</t>
-  </si>
-  <si>
-    <t>goal</t>
-  </si>
-  <si>
-    <t>mount</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>capacitor</t>
-  </si>
-  <si>
-    <t>friction</t>
-  </si>
-  <si>
-    <t>mica</t>
-  </si>
-  <si>
-    <t>bio</t>
-  </si>
-  <si>
-    <t>diversity</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>diary</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>fashion</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>তিন</t>
-  </si>
-  <si>
-    <t>Tangent</t>
-  </si>
-  <si>
-    <t>Cylinder</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>contextual</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>skull</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>cheek</t>
-  </si>
-  <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>chemistry</t>
-  </si>
-  <si>
-    <t>chronic disorder</t>
-  </si>
-  <si>
-    <t>enzyme</t>
-  </si>
-  <si>
-    <t>jewellery</t>
-  </si>
-  <si>
-    <t>virtually</t>
-  </si>
-  <si>
-    <t>regular</t>
-  </si>
-  <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>astronomer</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>deploy</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>fibre</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>theorem</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>formation</t>
-  </si>
-  <si>
-    <t>cadre</t>
-  </si>
-  <si>
-    <t>চার</t>
-  </si>
-  <si>
-    <t>Cosecant</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>presence</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>lip</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>mathematics</t>
-  </si>
-  <si>
-    <t>stress obesity</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>vulnerably</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>adventure</t>
-  </si>
-  <si>
-    <t>citizen</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>setting</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>juice</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>mentor</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>atom</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
-    <t>chief</t>
-  </si>
-  <si>
-    <t>পাঁচ</t>
-  </si>
-  <si>
-    <t>Secant</t>
-  </si>
-  <si>
-    <t>Linked</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>characterisation</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>palate</t>
-  </si>
-  <si>
-    <t>amateur</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>vision impairment</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>quotation</t>
-  </si>
-  <si>
-    <t>vibrantly</t>
-  </si>
-  <si>
-    <t>monetary</t>
-  </si>
-  <si>
-    <t>diligence</t>
-  </si>
-  <si>
-    <t>correspondent</t>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>migrate</t>
-  </si>
-  <si>
-    <t>coil</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>mixture</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>supervisor</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>lane</t>
-  </si>
-  <si>
-    <t>tally</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>stream</t>
-  </si>
-  <si>
-    <t>cascade</t>
-  </si>
-  <si>
-    <t>ছয়</t>
-  </si>
-  <si>
-    <t>Cotangent</t>
-  </si>
-  <si>
-    <t>With</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
-    <t>plug-in</t>
-  </si>
-  <si>
-    <t>optimisation</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>chin</t>
-  </si>
-  <si>
-    <t>intermediate</t>
-  </si>
-  <si>
-    <t>physics</t>
-  </si>
-  <si>
-    <t>organ expansion</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>verbally</t>
-  </si>
-  <si>
-    <t>religious</t>
-  </si>
-  <si>
-    <t>belief</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pretext</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>premier</t>
-  </si>
-  <si>
-    <t>league</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>shot</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>valve</t>
-  </si>
-  <si>
-    <t>hyperbola</t>
-  </si>
-  <si>
-    <t>comma</t>
-  </si>
-  <si>
-    <t>সাত</t>
-  </si>
-  <si>
-    <t>Equal</t>
-  </si>
-  <si>
-    <t>Entrance</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>synchronisation</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>dimension</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>gum</t>
-  </si>
-  <si>
-    <t>newbie</t>
-  </si>
-  <si>
-    <t>biology</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>rapid</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>extract</t>
-  </si>
-  <si>
-    <t>toast</t>
-  </si>
-  <si>
-    <t>biscuit</t>
-  </si>
-  <si>
-    <t>dictator</t>
-  </si>
-  <si>
-    <t>vowel</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>আট</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>confirmation</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>paste</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>craft</t>
-  </si>
-  <si>
-    <t>virus infection</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>trace</t>
-  </si>
-  <si>
-    <t>visually</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>attach</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>neighbour</t>
-  </si>
-  <si>
-    <t>consonant</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>particle</t>
-  </si>
-  <si>
-    <t>organisation</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>নয়</t>
-  </si>
-  <si>
-    <t>Cause</t>
-  </si>
-  <si>
-    <t>Call</t>
-  </si>
-  <si>
-    <t>numerical</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>palm</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>tonsil</t>
-  </si>
-  <si>
-    <t>advocate</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>jaundice fever</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>vigilantly</t>
-  </si>
-  <si>
-    <t>modern</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>builder</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>diode</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>foundation</t>
-  </si>
-  <si>
-    <t>দশ</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>wrist</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>saliva</t>
-  </si>
-  <si>
-    <t>sportsman</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>sinus infection</t>
-  </si>
-  <si>
-    <t>roof</t>
-  </si>
-  <si>
-    <t>pair</t>
-  </si>
-  <si>
-    <t>vary</t>
-  </si>
-  <si>
-    <t>lapse</t>
-  </si>
-  <si>
-    <t>contributor</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>resistor</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>tourist</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>eleven</t>
-  </si>
-  <si>
-    <t>tweet</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>clip</t>
-  </si>
-  <si>
-    <t>এগারো</t>
-  </si>
-  <si>
-    <t>Band</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>localised</t>
-  </si>
-  <si>
-    <t>beautification</t>
-  </si>
-  <si>
-    <t>shoulder</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>throat</t>
-  </si>
-  <si>
-    <t>housewife</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>gallbladder inflammation</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>viscosity</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>tradition</t>
-  </si>
-  <si>
-    <t>former</t>
-  </si>
-  <si>
-    <t>sketch</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>transformer</t>
-  </si>
-  <si>
-    <t>flux</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>twelve</t>
-  </si>
-  <si>
-    <t>shade</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>বারো</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>subscription</t>
-  </si>
-  <si>
-    <t>conversion</t>
-  </si>
-  <si>
-    <t>deltoid</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>cord</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>brain tumour</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>adopted</t>
-  </si>
-  <si>
-    <t>culture</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>attire</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>thirteen</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>vice</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>cage</t>
-  </si>
-  <si>
-    <t>তেরো</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>verbose</t>
-  </si>
-  <si>
-    <t>mechanic</t>
-  </si>
-  <si>
-    <t>elbow</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>thyroid</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>herpes disease</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>vacancy</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>responsibility</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>paragraph</t>
-  </si>
-  <si>
-    <t>execute</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
-    <t>candidate</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>fourteen</t>
-  </si>
-  <si>
-    <t>rhyme</t>
-  </si>
-  <si>
-    <t>flare</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>চৌদ্দ</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>specification</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>pituitary</t>
-  </si>
-  <si>
-    <t>techie</t>
-  </si>
-  <si>
-    <t>infrastructure</t>
-  </si>
-  <si>
-    <t>body cancer</t>
-  </si>
-  <si>
-    <t>lap</t>
-  </si>
-  <si>
-    <t>alarm</t>
-  </si>
-  <si>
-    <t>voluntary</t>
-  </si>
-  <si>
-    <t>curriculum</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t>associate</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>potential</t>
-  </si>
-  <si>
-    <t>pump</t>
-  </si>
-  <si>
-    <t>crown</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>fifteen</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>পনেরো</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>functional</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>retina</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>nostril</t>
-  </si>
-  <si>
-    <t>anchor</t>
-  </si>
-  <si>
-    <t>journalism</t>
-  </si>
-  <si>
-    <t>HIV positive</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>visionary</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>audience</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>torque</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>personalise</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>sixteen</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>ষোল</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>professional</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>chest</t>
-  </si>
-  <si>
-    <t>dynamic</t>
-  </si>
-  <si>
-    <t>export</t>
-  </si>
-  <si>
-    <t>dendrite</t>
-  </si>
-  <si>
-    <t>executive</t>
-  </si>
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>bed sore</t>
-  </si>
-  <si>
-    <t>scan</t>
-  </si>
-  <si>
-    <t>tray</t>
-  </si>
-  <si>
-    <t>vanity</t>
-  </si>
-  <si>
-    <t>musical</t>
-  </si>
-  <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>distributor</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>sensor</t>
-  </si>
-  <si>
-    <t>finite</t>
-  </si>
-  <si>
-    <t>solder</t>
-  </si>
-  <si>
-    <t>kit</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>alien</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>seventeen</t>
-  </si>
-  <si>
-    <t>radar</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>সতেরো</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Instance</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>connection</t>
-  </si>
-  <si>
-    <t>muscle</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>serum</t>
-  </si>
-  <si>
-    <t>driver</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>asthma condition</t>
-  </si>
-  <si>
-    <t>brush</t>
-  </si>
-  <si>
-    <t>hang</t>
-  </si>
-  <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>socket</t>
-  </si>
-  <si>
-    <t>soil</t>
-  </si>
-  <si>
-    <t>ping</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>era</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>eighteen</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>bracket</t>
-  </si>
-  <si>
-    <t>আঠারো</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>chronological</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>Alzheimer's cell</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>tint</t>
-  </si>
-  <si>
-    <t>vocationally</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>pocket</t>
-  </si>
-  <si>
-    <t>vapour</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>pray</t>
-  </si>
-  <si>
-    <t>crystal</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>nineteen</t>
-  </si>
-  <si>
-    <t>vehicle</t>
-  </si>
-  <si>
-    <t>pace</t>
-  </si>
-  <si>
-    <t>উনিশ</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>appendix</t>
-  </si>
-  <si>
-    <t>gamer</t>
-  </si>
-  <si>
-    <t>logistic</t>
-  </si>
-  <si>
-    <t>pneumonia antibiotics</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>variably</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t>liberal</t>
-  </si>
-  <si>
-    <t>hook</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>circuit</t>
-  </si>
-  <si>
-    <t>diagram</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>golden</t>
-  </si>
-  <si>
-    <t>temple</t>
-  </si>
-  <si>
-    <t>labour</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>twenty</t>
-  </si>
-  <si>
-    <t>ledger</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>বিশ</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Spot</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>bronchitis bacteria</t>
-  </si>
-  <si>
-    <t>locket</t>
-  </si>
-  <si>
-    <t>viability</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>consultant</t>
-  </si>
-  <si>
-    <t>band</t>
-  </si>
-  <si>
-    <t>statement</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>cabinet</t>
-  </si>
-  <si>
-    <t>extend</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>scraper</t>
-  </si>
-  <si>
-    <t>troop</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>একুশ</t>
-  </si>
-  <si>
-    <t>Per</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>identification</t>
-  </si>
-  <si>
-    <t>knee</t>
-  </si>
-  <si>
-    <t>invert</t>
-  </si>
-  <si>
-    <t>preserve</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>faculty</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>viral syndrome</t>
-  </si>
-  <si>
-    <t>rainbow</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>volatility</t>
-  </si>
-  <si>
-    <t>sole</t>
-  </si>
-  <si>
-    <t>tolerance</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>tier</t>
-  </si>
-  <si>
-    <t>aluminium</t>
-  </si>
-  <si>
-    <t>jumper</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>maze</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>বাইশ</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>supportive</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>feet</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>transform</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>coma relative</t>
-  </si>
-  <si>
-    <t>font</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>visibility</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>implement</t>
-  </si>
-  <si>
-    <t>transparent</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>concentrate</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>orchestra</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>thunder</t>
-  </si>
-  <si>
-    <t>তেইশ</t>
-  </si>
-  <si>
-    <t>Such</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>injection</t>
-  </si>
-  <si>
-    <t>leg</t>
-  </si>
-  <si>
-    <t>peer</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>melanin</t>
-  </si>
-  <si>
-    <t>engineer</t>
-  </si>
-  <si>
-    <t>calculus</t>
-  </si>
-  <si>
-    <t>epilepsy unknown</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>very</t>
-  </si>
-  <si>
-    <t>conspiracy</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>dump</t>
-  </si>
-  <si>
-    <t>once</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>dilute</t>
-  </si>
-  <si>
-    <t>tie</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>club</t>
-  </si>
-  <si>
-    <t>mess</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>nest</t>
-  </si>
-  <si>
-    <t>চব্বিশ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>mnemonic</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>badge</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>marrow</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t>electric shock</t>
-  </si>
-  <si>
-    <t>miniature</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>validity</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>voter</t>
-  </si>
-  <si>
-    <t>arc</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>drill</t>
-  </si>
-  <si>
-    <t>pull</t>
-  </si>
-  <si>
-    <t>fuse</t>
-  </si>
-  <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>পঁচিশ</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Disk</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>hip</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>ulcer tissue</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>vitality</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>vendor</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>crowd</t>
-  </si>
-  <si>
-    <t>starting</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>statue</t>
-  </si>
-  <si>
-    <t>ছাব্বিশ</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>::.</t>
-  </si>
-  <si>
-    <t>Bench</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>organ</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>technique</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>pavilion</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>valley</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>perimeter</t>
-  </si>
-  <si>
-    <t>asterisk</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>junction</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>specimen</t>
-  </si>
-  <si>
-    <t>poll</t>
+    <t>cream</t>
   </si>
   <si>
     <t>Σ</t>
@@ -10584,15 +10692,21 @@
       <c r="BN19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO19" s="30"/>
+      <c r="BO19" s="30" t="s">
+        <v>567</v>
+      </c>
       <c r="BP19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ19" s="32"/>
+      <c r="BQ19" s="32" t="s">
+        <v>568</v>
+      </c>
       <c r="BR19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS19" s="33"/>
+      <c r="BS19" s="33" t="s">
+        <v>569</v>
+      </c>
       <c r="BT19" s="29" t="s">
         <v>14</v>
       </c>
@@ -10778,7 +10892,7 @@
       </c>
       <c r="FG19" s="36"/>
       <c r="FH19" s="27" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="FI19" s="37"/>
       <c r="FJ19" s="12"/>
@@ -10786,31 +10900,31 @@
     <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" s="38" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D20" s="39">
         <v>16.0</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>14</v>
@@ -10822,91 +10936,91 @@
         <v>4</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="R20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="T20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="V20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="X20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Z20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="44" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AB20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC20" s="45" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AD20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE20" s="42" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AF20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AH20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AJ20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK20" s="42" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AL20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM20" s="44" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AN20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO20" s="45" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AP20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ20" s="42" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AR20" s="43" t="s">
         <v>4</v>
@@ -10918,25 +11032,25 @@
         <v>6</v>
       </c>
       <c r="AU20" s="45" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AV20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW20" s="42" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AX20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AZ20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA20" s="45" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="BB20" s="41" t="s">
         <v>14</v>
@@ -10954,38 +11068,44 @@
         <v>6</v>
       </c>
       <c r="BG20" s="45" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="BH20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI20" s="42" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="BJ20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK20" s="44" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="BL20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM20" s="45" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="BN20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO20" s="42"/>
+      <c r="BO20" s="42" t="s">
+        <v>599</v>
+      </c>
       <c r="BP20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ20" s="44"/>
+      <c r="BQ20" s="44" t="s">
+        <v>600</v>
+      </c>
       <c r="BR20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS20" s="45"/>
+      <c r="BS20" s="45" t="s">
+        <v>601</v>
+      </c>
       <c r="BT20" s="41" t="s">
         <v>14</v>
       </c>
@@ -11171,7 +11291,7 @@
       </c>
       <c r="FG20" s="46"/>
       <c r="FH20" s="39" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="FI20" s="47"/>
       <c r="FJ20" s="12"/>
@@ -11179,163 +11299,163 @@
     <row r="21">
       <c r="B21" s="4"/>
       <c r="C21" s="26" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D21" s="27">
         <v>17.0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="V21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="X21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y21" s="30" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="Z21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA21" s="32" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="AB21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="AD21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE21" s="30" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AF21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AH21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="33" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="AJ21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="AL21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM21" s="32" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AP21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ21" s="30" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AR21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS21" s="32" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AT21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AV21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW21" s="30" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AX21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AZ21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA21" s="33" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="BB21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC21" s="30" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="BD21" s="31" t="s">
         <v>4</v>
@@ -11347,38 +11467,44 @@
         <v>6</v>
       </c>
       <c r="BG21" s="33" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="BH21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI21" s="30" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="BJ21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK21" s="32" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="BL21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM21" s="33" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="BN21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO21" s="30"/>
+      <c r="BO21" s="30" t="s">
+        <v>634</v>
+      </c>
       <c r="BP21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ21" s="32"/>
+      <c r="BQ21" s="32" t="s">
+        <v>635</v>
+      </c>
       <c r="BR21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS21" s="33"/>
+      <c r="BS21" s="33" t="s">
+        <v>636</v>
+      </c>
       <c r="BT21" s="29" t="s">
         <v>14</v>
       </c>
@@ -11564,7 +11690,7 @@
       </c>
       <c r="FG21" s="36"/>
       <c r="FH21" s="27" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="FI21" s="37"/>
       <c r="FJ21" s="12"/>
@@ -11572,115 +11698,115 @@
     <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D22" s="39">
         <v>18.0</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="T22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="44" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="42" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA22" s="44" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="AB22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="AF22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="AH22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="AJ22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK22" s="49" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="AL22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="AN22" s="43" t="s">
         <v>6</v>
@@ -11692,43 +11818,43 @@
         <v>14</v>
       </c>
       <c r="AQ22" s="49" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="AR22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="AT22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU22" s="45" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="AV22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="AX22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="AZ22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA22" s="45" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="BB22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC22" s="49" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="BD22" s="43" t="s">
         <v>4</v>
@@ -11740,38 +11866,44 @@
         <v>6</v>
       </c>
       <c r="BG22" s="45" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="BH22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI22" s="42" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="BJ22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK22" s="44" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="BL22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM22" s="45" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="BN22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO22" s="42"/>
+      <c r="BO22" s="42" t="s">
+        <v>668</v>
+      </c>
       <c r="BP22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ22" s="44"/>
+      <c r="BQ22" s="44" t="s">
+        <v>669</v>
+      </c>
       <c r="BR22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS22" s="45"/>
+      <c r="BS22" s="45" t="s">
+        <v>670</v>
+      </c>
       <c r="BT22" s="41" t="s">
         <v>14</v>
       </c>
@@ -11957,7 +12089,7 @@
       </c>
       <c r="FG22" s="46"/>
       <c r="FH22" s="39" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="FI22" s="47"/>
       <c r="FJ22" s="12"/>
@@ -11965,139 +12097,139 @@
     <row r="23">
       <c r="B23" s="4"/>
       <c r="C23" s="26" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D23" s="27">
         <v>19.0</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="T23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="V23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="Z23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="AB23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="AF23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG23" s="32" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="AH23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="33" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="AJ23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK23" s="30" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="AL23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AN23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="AP23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ23" s="30" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="AR23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS23" s="32" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="AT23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="AV23" s="29" t="s">
         <v>14</v>
@@ -12109,19 +12241,19 @@
         <v>4</v>
       </c>
       <c r="AY23" s="32" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="AZ23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA23" s="33" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BB23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC23" s="30" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BD23" s="31" t="s">
         <v>4</v>
@@ -12133,38 +12265,44 @@
         <v>6</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BH23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="30" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BJ23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK23" s="32" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BL23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM23" s="33" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BN23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO23" s="30"/>
+      <c r="BO23" s="30" t="s">
+        <v>702</v>
+      </c>
       <c r="BP23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ23" s="32"/>
+      <c r="BQ23" s="32" t="s">
+        <v>703</v>
+      </c>
       <c r="BR23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS23" s="33"/>
+      <c r="BS23" s="33" t="s">
+        <v>704</v>
+      </c>
       <c r="BT23" s="29" t="s">
         <v>14</v>
       </c>
@@ -12350,7 +12488,7 @@
       </c>
       <c r="FG23" s="36"/>
       <c r="FH23" s="27" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="FI23" s="37"/>
       <c r="FJ23" s="12"/>
@@ -12358,67 +12496,67 @@
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" s="38" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D24" s="39">
         <v>20.0</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="V24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="X24" s="41" t="s">
         <v>14</v>
@@ -12430,91 +12568,91 @@
         <v>4</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="AB24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC24" s="45" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE24" s="42" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="AF24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="AH24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="AJ24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK24" s="42" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="AL24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="AN24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO24" s="45" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="AP24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="42" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="AR24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="AT24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="45" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="AV24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW24" s="42" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="AX24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="AZ24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA24" s="45" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="BB24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC24" s="42" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="BD24" s="43" t="s">
         <v>4</v>
@@ -12526,38 +12664,44 @@
         <v>6</v>
       </c>
       <c r="BG24" s="45" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="BH24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI24" s="42" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK24" s="44" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="BL24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM24" s="45" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="BN24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO24" s="42"/>
+      <c r="BO24" s="42" t="s">
+        <v>736</v>
+      </c>
       <c r="BP24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ24" s="44"/>
+      <c r="BQ24" s="44" t="s">
+        <v>737</v>
+      </c>
       <c r="BR24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS24" s="45"/>
+      <c r="BS24" s="45" t="s">
+        <v>738</v>
+      </c>
       <c r="BT24" s="41" t="s">
         <v>14</v>
       </c>
@@ -12743,7 +12887,7 @@
       </c>
       <c r="FG24" s="46"/>
       <c r="FH24" s="39" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="FI24" s="47"/>
       <c r="FJ24" s="12"/>
@@ -12751,163 +12895,163 @@
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" s="26" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="D25" s="27">
         <v>21.0</v>
       </c>
       <c r="E25" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="X25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y25" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="32" t="s">
         <v>723</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>725</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>730</v>
-      </c>
-      <c r="T25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>731</v>
-      </c>
-      <c r="V25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="W25" s="33" t="s">
-        <v>732</v>
-      </c>
-      <c r="X25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y25" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="Z25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="32" t="s">
-        <v>708</v>
-      </c>
       <c r="AB25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE25" s="30" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="AF25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG25" s="32" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="AH25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI25" s="33" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="AJ25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK25" s="30" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="AL25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="AN25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="AP25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ25" s="30" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="AR25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS25" s="32" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="AT25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="AV25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW25" s="30" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="AX25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY25" s="32" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="AZ25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA25" s="33" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="BB25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC25" s="30" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="BD25" s="31" t="s">
         <v>4</v>
@@ -12919,13 +13063,13 @@
         <v>6</v>
       </c>
       <c r="BG25" s="33" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="BH25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI25" s="30" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ25" s="31" t="s">
         <v>4</v>
@@ -12937,20 +13081,26 @@
         <v>6</v>
       </c>
       <c r="BM25" s="33" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="BN25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO25" s="30"/>
+      <c r="BO25" s="30" t="s">
+        <v>768</v>
+      </c>
       <c r="BP25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ25" s="32"/>
+      <c r="BQ25" s="32" t="s">
+        <v>769</v>
+      </c>
       <c r="BR25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS25" s="33"/>
+      <c r="BS25" s="33" t="s">
+        <v>770</v>
+      </c>
       <c r="BT25" s="29" t="s">
         <v>14</v>
       </c>
@@ -13136,7 +13286,7 @@
       </c>
       <c r="FG25" s="36"/>
       <c r="FH25" s="27" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="FI25" s="37"/>
       <c r="FJ25" s="12"/>
@@ -13144,13 +13294,13 @@
     <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" s="38" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="D26" s="39">
         <v>22.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>14</v>
@@ -13162,79 +13312,79 @@
         <v>4</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="T26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U26" s="44" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="V26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="45" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="X26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="42" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="Z26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA26" s="44" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="AB26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC26" s="45" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="AD26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE26" s="42" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="AF26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG26" s="44" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="AH26" s="43" t="s">
         <v>6</v>
@@ -13246,31 +13396,31 @@
         <v>14</v>
       </c>
       <c r="AK26" s="42" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="AL26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="AN26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO26" s="45" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="AP26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ26" s="42" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="AR26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS26" s="44" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="AT26" s="43" t="s">
         <v>6</v>
@@ -13282,25 +13432,25 @@
         <v>14</v>
       </c>
       <c r="AW26" s="42" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="AX26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="AZ26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA26" s="45" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="BB26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC26" s="42" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="BD26" s="43" t="s">
         <v>4</v>
@@ -13312,13 +13462,13 @@
         <v>6</v>
       </c>
       <c r="BG26" s="45" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="BH26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI26" s="42" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ26" s="43" t="s">
         <v>4</v>
@@ -13330,20 +13480,26 @@
         <v>6</v>
       </c>
       <c r="BM26" s="45" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="BN26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO26" s="42"/>
+      <c r="BO26" s="42" t="s">
+        <v>798</v>
+      </c>
       <c r="BP26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ26" s="44"/>
+      <c r="BQ26" s="44" t="s">
+        <v>799</v>
+      </c>
       <c r="BR26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS26" s="45"/>
+      <c r="BS26" s="45" t="s">
+        <v>800</v>
+      </c>
       <c r="BT26" s="41" t="s">
         <v>14</v>
       </c>
@@ -13529,7 +13685,7 @@
       </c>
       <c r="FG26" s="46"/>
       <c r="FH26" s="39" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="FI26" s="47"/>
       <c r="FJ26" s="12"/>
@@ -13537,163 +13693,163 @@
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="26" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="D27" s="27">
         <v>23.0</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="T27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="V27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="Z27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="AB27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="30" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="AF27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="AH27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="33" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="AJ27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK27" s="30" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="AL27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="AN27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="AP27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ27" s="30" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="AR27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS27" s="32" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="AT27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="AV27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW27" s="30" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="AX27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY27" s="32" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="AZ27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA27" s="33" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="BB27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC27" s="30" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="BD27" s="31" t="s">
         <v>4</v>
@@ -13705,13 +13861,13 @@
         <v>6</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="BH27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI27" s="30" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ27" s="31" t="s">
         <v>4</v>
@@ -13723,20 +13879,26 @@
         <v>6</v>
       </c>
       <c r="BM27" s="33" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="BN27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO27" s="30"/>
+      <c r="BO27" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="BP27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ27" s="32"/>
+      <c r="BQ27" s="32" t="s">
+        <v>832</v>
+      </c>
       <c r="BR27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS27" s="33"/>
+      <c r="BS27" s="33" t="s">
+        <v>833</v>
+      </c>
       <c r="BT27" s="29" t="s">
         <v>14</v>
       </c>
@@ -13922,7 +14084,7 @@
       </c>
       <c r="FG27" s="36"/>
       <c r="FH27" s="27" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="FI27" s="37"/>
       <c r="FJ27" s="12"/>
@@ -13930,97 +14092,97 @@
     <row r="28">
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="D28" s="39">
         <v>24.0</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="R28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="T28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="V28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="45" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="X28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y28" s="42" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="44" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="AB28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC28" s="45" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="42" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
       <c r="AF28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG28" s="44" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="AH28" s="43" t="s">
         <v>6</v>
@@ -14032,61 +14194,61 @@
         <v>14</v>
       </c>
       <c r="AK28" s="42" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="AL28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="AN28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO28" s="45" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="AP28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ28" s="42" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="AR28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="44" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU28" s="45" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
       <c r="AV28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW28" s="42" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="AX28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="AZ28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA28" s="45" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="BB28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC28" s="42" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="BD28" s="43" t="s">
         <v>4</v>
@@ -14098,13 +14260,13 @@
         <v>6</v>
       </c>
       <c r="BG28" s="45" t="s">
-        <v>834</v>
+        <v>861</v>
       </c>
       <c r="BH28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI28" s="42" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ28" s="43" t="s">
         <v>4</v>
@@ -14116,20 +14278,26 @@
         <v>6</v>
       </c>
       <c r="BM28" s="45" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
       <c r="BN28" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO28" s="42"/>
+      <c r="BO28" s="42" t="s">
+        <v>863</v>
+      </c>
       <c r="BP28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ28" s="44"/>
+      <c r="BQ28" s="44" t="s">
+        <v>864</v>
+      </c>
       <c r="BR28" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS28" s="45"/>
+      <c r="BS28" s="45" t="s">
+        <v>865</v>
+      </c>
       <c r="BT28" s="41" t="s">
         <v>14</v>
       </c>
@@ -14315,7 +14483,7 @@
       </c>
       <c r="FG28" s="46"/>
       <c r="FH28" s="39" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="FI28" s="47"/>
       <c r="FJ28" s="12"/>
@@ -14323,19 +14491,19 @@
     <row r="29">
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="D29" s="27">
         <v>25.0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>4</v>
@@ -14347,25 +14515,25 @@
         <v>6</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>843</v>
+        <v>873</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>14</v>
@@ -14377,91 +14545,91 @@
         <v>4</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="V29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="X29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="AB29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>848</v>
+        <v>878</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>849</v>
+        <v>879</v>
       </c>
       <c r="AF29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG29" s="32" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="AH29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="33" t="s">
-        <v>851</v>
+        <v>881</v>
       </c>
       <c r="AJ29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK29" s="30" t="s">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="AL29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="AN29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
       <c r="AP29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ29" s="30" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
       <c r="AR29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS29" s="32" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
       <c r="AT29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="AV29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW29" s="30" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="AX29" s="31" t="s">
         <v>4</v>
@@ -14473,13 +14641,13 @@
         <v>6</v>
       </c>
       <c r="BA29" s="33" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
       <c r="BB29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC29" s="30" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="BD29" s="31" t="s">
         <v>4</v>
@@ -14491,13 +14659,13 @@
         <v>6</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="BH29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI29" s="30" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ29" s="31" t="s">
         <v>4</v>
@@ -14509,20 +14677,26 @@
         <v>6</v>
       </c>
       <c r="BM29" s="33" t="s">
-        <v>862</v>
+        <v>892</v>
       </c>
       <c r="BN29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BO29" s="30"/>
+      <c r="BO29" s="30" t="s">
+        <v>893</v>
+      </c>
       <c r="BP29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BQ29" s="32"/>
+      <c r="BQ29" s="32" t="s">
+        <v>894</v>
+      </c>
       <c r="BR29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BS29" s="33"/>
+      <c r="BS29" s="33" t="s">
+        <v>416</v>
+      </c>
       <c r="BT29" s="29" t="s">
         <v>14</v>
       </c>
@@ -14708,7 +14882,7 @@
       </c>
       <c r="FG29" s="36"/>
       <c r="FH29" s="27" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="FI29" s="37"/>
       <c r="FJ29" s="12"/>
@@ -14716,13 +14890,13 @@
     <row r="30">
       <c r="B30" s="4"/>
       <c r="C30" s="38" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="D30" s="39">
         <v>26.0</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>14</v>
@@ -14734,85 +14908,85 @@
         <v>4</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="N30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="P30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="R30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>871</v>
+        <v>903</v>
       </c>
       <c r="T30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>873</v>
+        <v>905</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>874</v>
+        <v>906</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="AB30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC30" s="45" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE30" s="42" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="AF30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG30" s="44" t="s">
-        <v>878</v>
+        <v>910</v>
       </c>
       <c r="AH30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="45" t="s">
-        <v>879</v>
+        <v>911</v>
       </c>
       <c r="AJ30" s="41" t="s">
         <v>14</v>
@@ -14824,55 +14998,55 @@
         <v>4</v>
       </c>
       <c r="AM30" s="44" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="AN30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO30" s="45" t="s">
-        <v>881</v>
+        <v>913</v>
       </c>
       <c r="AP30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ30" s="42" t="s">
-        <v>882</v>
+        <v>914</v>
       </c>
       <c r="AR30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS30" s="44" t="s">
-        <v>883</v>
+        <v>915</v>
       </c>
       <c r="AT30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU30" s="45" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="AV30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW30" s="42" t="s">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="AX30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="AZ30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA30" s="45" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
       <c r="BB30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC30" s="42" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="BD30" s="43" t="s">
         <v>4</v>
@@ -14884,13 +15058,13 @@
         <v>6</v>
       </c>
       <c r="BG30" s="45" t="s">
-        <v>888</v>
+        <v>920</v>
       </c>
       <c r="BH30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI30" s="42" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ30" s="43" t="s">
         <v>4</v>
@@ -14902,20 +15076,26 @@
         <v>6</v>
       </c>
       <c r="BM30" s="45" t="s">
-        <v>889</v>
+        <v>921</v>
       </c>
       <c r="BN30" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BO30" s="42"/>
+      <c r="BO30" s="42" t="s">
+        <v>922</v>
+      </c>
       <c r="BP30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BQ30" s="44"/>
+      <c r="BQ30" s="44" t="s">
+        <v>923</v>
+      </c>
       <c r="BR30" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BS30" s="45"/>
+      <c r="BS30" s="45" t="s">
+        <v>924</v>
+      </c>
       <c r="BT30" s="41" t="s">
         <v>14</v>
       </c>
@@ -15101,7 +15281,7 @@
       </c>
       <c r="FG30" s="46"/>
       <c r="FH30" s="39" t="s">
-        <v>890</v>
+        <v>925</v>
       </c>
       <c r="FI30" s="47"/>
       <c r="FJ30" s="12"/>
@@ -15109,157 +15289,157 @@
     <row r="31">
       <c r="B31" s="4"/>
       <c r="C31" s="50" t="s">
-        <v>891</v>
+        <v>926</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>892</v>
+        <v>927</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>893</v>
+        <v>928</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>895</v>
+        <v>930</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>896</v>
+        <v>931</v>
       </c>
       <c r="L31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>897</v>
+        <v>932</v>
       </c>
       <c r="N31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>898</v>
+        <v>933</v>
       </c>
       <c r="P31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>900</v>
+        <v>935</v>
       </c>
       <c r="T31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>901</v>
+        <v>936</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="57" t="s">
-        <v>902</v>
+        <v>937</v>
       </c>
       <c r="X31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>903</v>
+        <v>938</v>
       </c>
       <c r="Z31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>904</v>
+        <v>939</v>
       </c>
       <c r="AB31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AC31" s="57" t="s">
-        <v>905</v>
+        <v>940</v>
       </c>
       <c r="AD31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="58" t="s">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="AF31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AG31" s="59" t="s">
-        <v>907</v>
+        <v>942</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="60" t="s">
-        <v>908</v>
+        <v>943</v>
       </c>
       <c r="AJ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="58" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="AL31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AM31" s="59" t="s">
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="AN31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AO31" s="60" t="s">
-        <v>911</v>
+        <v>946</v>
       </c>
       <c r="AP31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AQ31" s="58" t="s">
-        <v>912</v>
+        <v>947</v>
       </c>
       <c r="AR31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AS31" s="59" t="s">
-        <v>913</v>
+        <v>948</v>
       </c>
       <c r="AT31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AU31" s="60" t="s">
-        <v>914</v>
+        <v>949</v>
       </c>
       <c r="AV31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="AX31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AY31" s="59" t="s">
-        <v>916</v>
+        <v>769</v>
       </c>
       <c r="AZ31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BA31" s="60" t="s">
-        <v>917</v>
+        <v>951</v>
       </c>
       <c r="BB31" s="53" t="s">
         <v>14</v>
@@ -15271,19 +15451,19 @@
         <v>4</v>
       </c>
       <c r="BE31" s="59" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="BF31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BG31" s="60" t="s">
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="BH31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BI31" s="54" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="BJ31" s="55" t="s">
         <v>4</v>
@@ -15295,20 +15475,26 @@
         <v>6</v>
       </c>
       <c r="BM31" s="57" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
       <c r="BN31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BO31" s="54"/>
+      <c r="BO31" s="54" t="s">
+        <v>182</v>
+      </c>
       <c r="BP31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="BQ31" s="56"/>
+      <c r="BQ31" s="56" t="s">
+        <v>955</v>
+      </c>
       <c r="BR31" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="BS31" s="57"/>
+      <c r="BS31" s="57" t="s">
+        <v>956</v>
+      </c>
       <c r="BT31" s="53" t="s">
         <v>14</v>
       </c>
@@ -15494,7 +15680,7 @@
       </c>
       <c r="FG31" s="61"/>
       <c r="FH31" s="51" t="s">
-        <v>892</v>
+        <v>927</v>
       </c>
       <c r="FI31" s="62"/>
       <c r="FJ31" s="12"/>
@@ -15502,493 +15688,493 @@
     <row r="32">
       <c r="B32" s="4"/>
       <c r="C32" s="63" t="s">
-        <v>921</v>
+        <v>957</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>923</v>
+        <v>959</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="Q32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="T32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="V32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="X32" s="66" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="Y32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="Z32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="AB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AC32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="AD32" s="66" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="AE32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="AF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="AH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="AJ32" s="66" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
       <c r="AK32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="AL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AM32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="AN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AO32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="AP32" s="66" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
       <c r="AQ32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="AR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AS32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="AT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AU32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="AV32" s="66" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="AW32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="AX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AY32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="AZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BA32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="BB32" s="66" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="BC32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="BD32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BE32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="BF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BG32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="BH32" s="66" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="BI32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="BJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BK32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="BL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BM32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="BN32" s="66" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="BO32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="BP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BQ32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="BR32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BS32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="BT32" s="66" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="BU32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="BV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BW32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="BX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BY32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="BZ32" s="66" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
       <c r="CA32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="CB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CC32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="CD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CE32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="CF32" s="66" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
       <c r="CG32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="CH32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CI32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="CJ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CK32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="CL32" s="66" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="CM32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="CN32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CO32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="CP32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CQ32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="CR32" s="66" t="s">
-        <v>941</v>
+        <v>977</v>
       </c>
       <c r="CS32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="CT32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CU32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="CV32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CW32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="CX32" s="66" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="CY32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="CZ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DA32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="DB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DC32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="DD32" s="66" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
       <c r="DE32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="DF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DG32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="DH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DI32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="DK32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="DL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DM32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="DN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DO32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="DP32" s="66" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="DQ32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="DR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DS32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="DT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DU32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="DV32" s="66" t="s">
-        <v>946</v>
+        <v>982</v>
       </c>
       <c r="DW32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="DX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DY32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="DZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EA32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="EB32" s="66" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
       <c r="EC32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="ED32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EE32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="EF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EG32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="EH32" s="66" t="s">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="EI32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="EJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EK32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="EL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EM32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="EN32" s="66" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="EO32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="EP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EQ32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="ER32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="ES32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="ET32" s="66" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="EU32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="EV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EW32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="EX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EY32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="EZ32" s="66" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
       <c r="FA32" s="67" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="FB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="FC32" s="65" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="FD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="FE32" s="68" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="FF32" s="66" t="s">
-        <v>952</v>
+        <v>988</v>
       </c>
       <c r="FG32" s="67" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
       <c r="FH32" s="64" t="s">
-        <v>954</v>
+        <v>990</v>
       </c>
       <c r="FI32" s="69" t="s">
-        <v>955</v>
+        <v>991</v>
       </c>
       <c r="FJ32" s="12"/>
     </row>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="1089">
   <si>
     <t>π</t>
   </si>
@@ -161,6 +161,9 @@
     <t>Omnipresent</t>
   </si>
   <si>
+    <t>One &amp; only</t>
+  </si>
+  <si>
     <t>Together</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
     <t>এক</t>
   </si>
   <si>
+    <t>Solely</t>
+  </si>
+  <si>
     <t>Much</t>
   </si>
   <si>
@@ -377,6 +383,9 @@
     <t>দুই</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>For</t>
   </si>
   <si>
@@ -485,6 +494,9 @@
     <t>তিন</t>
   </si>
   <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -593,6 +605,9 @@
     <t>চার</t>
   </si>
   <si>
+    <t>Classically</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
@@ -701,6 +716,9 @@
     <t>পাঁচ</t>
   </si>
   <si>
+    <t>Separated</t>
+  </si>
+  <si>
     <t>Linked</t>
   </si>
   <si>
@@ -806,6 +824,9 @@
     <t>ছয়</t>
   </si>
   <si>
+    <t>Cares</t>
+  </si>
+  <si>
     <t>With</t>
   </si>
   <si>
@@ -914,6 +935,9 @@
     <t>সাত</t>
   </si>
   <si>
+    <t>Skilful</t>
+  </si>
+  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -1022,6 +1046,9 @@
     <t>আট</t>
   </si>
   <si>
+    <t>Reality</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
@@ -1127,6 +1154,9 @@
     <t>নয়</t>
   </si>
   <si>
+    <t>Gears</t>
+  </si>
+  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -1229,6 +1259,9 @@
     <t>দশ</t>
   </si>
   <si>
+    <t>Matching</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
@@ -1331,6 +1364,9 @@
     <t>এগারো</t>
   </si>
   <si>
+    <t>Preference</t>
+  </si>
+  <si>
     <t>Band</t>
   </si>
   <si>
@@ -1436,6 +1472,9 @@
     <t>বারো</t>
   </si>
   <si>
+    <t>Difference</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -1541,6 +1580,9 @@
     <t>তেরো</t>
   </si>
   <si>
+    <t>Normally</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -1646,6 +1688,9 @@
     <t>চৌদ্দ</t>
   </si>
   <si>
+    <t>Nearer</t>
+  </si>
+  <si>
     <t>Story</t>
   </si>
   <si>
@@ -1751,6 +1796,9 @@
     <t>পনেরো</t>
   </si>
   <si>
+    <t>Dearer</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
@@ -1847,6 +1895,9 @@
     <t>ষোল</t>
   </si>
   <si>
+    <t>Presuming</t>
+  </si>
+  <si>
     <t>Short</t>
   </si>
   <si>
@@ -1952,6 +2003,9 @@
     <t>সতেরো</t>
   </si>
   <si>
+    <t>Mighty</t>
+  </si>
+  <si>
     <t>In</t>
   </si>
   <si>
@@ -2054,6 +2108,9 @@
     <t>আঠারো</t>
   </si>
   <si>
+    <t>Geometrical</t>
+  </si>
+  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -2156,6 +2213,9 @@
     <t>উনিশ</t>
   </si>
   <si>
+    <t>Relevant</t>
+  </si>
+  <si>
     <t>Double</t>
   </si>
   <si>
@@ -2258,6 +2318,9 @@
     <t>বিশ</t>
   </si>
   <si>
+    <t>Serially</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -2354,6 +2417,9 @@
     <t>একুশ</t>
   </si>
   <si>
+    <t>Calculations</t>
+  </si>
+  <si>
     <t>Per</t>
   </si>
   <si>
@@ -2444,6 +2510,9 @@
     <t>বাইশ</t>
   </si>
   <si>
+    <t>Seeks</t>
+  </si>
+  <si>
     <t>Machine</t>
   </si>
   <si>
@@ -2543,6 +2612,9 @@
     <t>তেইশ</t>
   </si>
   <si>
+    <t>Cognitive</t>
+  </si>
+  <si>
     <t>Such</t>
   </si>
   <si>
@@ -2639,6 +2711,9 @@
     <t>চব্বিশ</t>
   </si>
   <si>
+    <t>Tasks</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -2726,6 +2801,9 @@
     <t>পঁচিশ</t>
   </si>
   <si>
+    <t>Claiming</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -2816,6 +2894,9 @@
     <t>ছাব্বিশ</t>
   </si>
   <si>
+    <t>Secret</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
@@ -2910,6 +2991,9 @@
   </si>
   <si>
     <t>Chant</t>
+  </si>
+  <si>
+    <t>Compass</t>
   </si>
   <si>
     <t>Σ</t>
@@ -5205,43 +5289,45 @@
       <c r="FH4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="FI4" s="25"/>
+      <c r="FI4" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="FJ4" s="12"/>
     </row>
     <row r="5">
       <c r="B5" s="4"/>
       <c r="C5" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="27">
         <v>1.0</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>4</v>
@@ -5253,169 +5339,169 @@
         <v>6</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC5" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE5" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI5" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK5" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO5" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ5" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS5" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AT5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AV5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW5" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AX5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY5" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AZ5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA5" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BB5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC5" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BD5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE5" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG5" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BH5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI5" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BJ5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK5" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BL5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM5" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BN5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO5" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BP5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ5" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BR5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS5" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BT5" s="29" t="s">
         <v>14</v>
@@ -5601,222 +5687,224 @@
         <v>14</v>
       </c>
       <c r="FG5" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="FH5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="FI5" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="FI5" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="FJ5" s="12"/>
     </row>
     <row r="6">
       <c r="B6" s="4"/>
       <c r="C6" s="38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="39">
         <v>2.0</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S6" s="42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W6" s="45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y6" s="42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA6" s="44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE6" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG6" s="44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI6" s="45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK6" s="42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AL6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM6" s="44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AN6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO6" s="45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ6" s="42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AR6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS6" s="44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AT6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU6" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AV6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW6" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AX6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY6" s="44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AZ6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA6" s="45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC6" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BD6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE6" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG6" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BH6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI6" s="42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BJ6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK6" s="44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BL6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM6" s="45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BN6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO6" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BP6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ6" s="44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BR6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS6" s="45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BT6" s="41" t="s">
         <v>14</v>
@@ -6002,222 +6090,224 @@
         <v>14</v>
       </c>
       <c r="FG6" s="46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="FH6" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="FI6" s="47"/>
+        <v>122</v>
+      </c>
+      <c r="FI6" s="47" t="s">
+        <v>123</v>
+      </c>
       <c r="FJ6" s="12"/>
     </row>
     <row r="7">
       <c r="B7" s="4"/>
       <c r="C7" s="26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" s="27">
         <v>3.0</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y7" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AB7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC7" s="33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AD7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AH7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI7" s="33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AJ7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK7" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AL7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM7" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AN7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AP7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ7" s="30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AR7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AT7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AV7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW7" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AX7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY7" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AZ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA7" s="33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BB7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC7" s="30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE7" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG7" s="33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BH7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI7" s="30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BJ7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK7" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BL7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM7" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BN7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO7" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BP7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ7" s="32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BR7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS7" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BT7" s="29" t="s">
         <v>14</v>
@@ -6403,222 +6493,224 @@
         <v>14</v>
       </c>
       <c r="FG7" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="FH7" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="FI7" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="FI7" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="FJ7" s="12"/>
     </row>
     <row r="8">
       <c r="B8" s="4"/>
       <c r="C8" s="38" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D8" s="39">
         <v>4.0</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="R8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="T8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W8" s="45" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Z8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="44" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AB8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC8" s="45" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AD8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE8" s="42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AF8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG8" s="44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AH8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI8" s="45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AJ8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK8" s="42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AL8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM8" s="44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AN8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO8" s="45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ8" s="42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AR8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS8" s="44" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AT8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU8" s="45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AV8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW8" s="42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AX8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY8" s="44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AZ8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA8" s="45" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="BB8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC8" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BD8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE8" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG8" s="45" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BH8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI8" s="42" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BJ8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK8" s="44" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="BL8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM8" s="45" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BN8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO8" s="42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BP8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ8" s="44" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BR8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS8" s="45" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BT8" s="41" t="s">
         <v>14</v>
@@ -6804,222 +6896,224 @@
         <v>14</v>
       </c>
       <c r="FG8" s="46" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="FH8" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="FI8" s="47"/>
+        <v>196</v>
+      </c>
+      <c r="FI8" s="47" t="s">
+        <v>197</v>
+      </c>
       <c r="FJ8" s="12"/>
     </row>
     <row r="9">
       <c r="B9" s="4"/>
       <c r="C9" s="26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D9" s="27">
         <v>5.0</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="T9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Z9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AB9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC9" s="33" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AD9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AF9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI9" s="33" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AJ9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK9" s="30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AL9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM9" s="32" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AN9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AP9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ9" s="30" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AR9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AT9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU9" s="33" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AV9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW9" s="30" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AX9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY9" s="32" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AZ9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA9" s="33" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="BB9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC9" s="30" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BD9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE9" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG9" s="33" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="BH9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI9" s="30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="BJ9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK9" s="32" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BL9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM9" s="33" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BN9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO9" s="30" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BP9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ9" s="32" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BR9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS9" s="33" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BT9" s="29" t="s">
         <v>14</v>
@@ -7205,24 +7299,26 @@
         <v>14</v>
       </c>
       <c r="FG9" s="36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="FH9" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="FI9" s="37"/>
+        <v>233</v>
+      </c>
+      <c r="FI9" s="37" t="s">
+        <v>234</v>
+      </c>
       <c r="FJ9" s="12"/>
     </row>
     <row r="10">
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D10" s="39">
         <v>6.0</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>14</v>
@@ -7234,193 +7330,193 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="R10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U10" s="44" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="V10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W10" s="45" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="X10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y10" s="42" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Z10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA10" s="44" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AB10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC10" s="45" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AD10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE10" s="42" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AF10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG10" s="44" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AH10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI10" s="45" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AJ10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK10" s="42" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AL10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM10" s="44" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AN10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO10" s="45" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AP10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ10" s="42" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AR10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS10" s="44" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AT10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU10" s="45" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AV10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW10" s="42" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AX10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY10" s="44" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AZ10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA10" s="45" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="BB10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC10" s="42" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="BD10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE10" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG10" s="45" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="BH10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI10" s="42" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="BJ10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK10" s="44" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="BL10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM10" s="45" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="BN10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO10" s="42" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="BP10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ10" s="44" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="BR10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS10" s="45" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="BT10" s="41" t="s">
         <v>14</v>
@@ -7606,222 +7702,224 @@
         <v>14</v>
       </c>
       <c r="FG10" s="46" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="FH10" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="FI10" s="47"/>
+        <v>269</v>
+      </c>
+      <c r="FI10" s="47" t="s">
+        <v>270</v>
+      </c>
       <c r="FJ10" s="12"/>
     </row>
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" s="26" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D11" s="27">
         <v>7.0</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="T11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Z11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AD11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AF11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI11" s="33" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AJ11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK11" s="30" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AL11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM11" s="32" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AN11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AP11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ11" s="30" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AR11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS11" s="32" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AT11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU11" s="33" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AV11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW11" s="30" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY11" s="32" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AZ11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA11" s="33" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="BB11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC11" s="30" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BD11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE11" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="BH11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI11" s="30" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="BJ11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK11" s="32" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="BL11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM11" s="33" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="BN11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO11" s="30" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="BP11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ11" s="32" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="BR11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS11" s="33" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="BT11" s="29" t="s">
         <v>14</v>
@@ -8007,222 +8105,224 @@
         <v>14</v>
       </c>
       <c r="FG11" s="36" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="FH11" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="FI11" s="37"/>
+        <v>306</v>
+      </c>
+      <c r="FI11" s="37" t="s">
+        <v>307</v>
+      </c>
       <c r="FJ11" s="12"/>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" s="38" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D12" s="39">
         <v>8.0</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q12" s="45" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="R12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="T12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="44" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="V12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="X12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y12" s="42" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Z12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA12" s="44" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AB12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC12" s="45" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AD12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE12" s="42" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AF12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG12" s="44" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AH12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI12" s="45" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AJ12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK12" s="42" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AL12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM12" s="44" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AN12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO12" s="45" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AP12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ12" s="42" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AR12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS12" s="44" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AT12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU12" s="45" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AV12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW12" s="42" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AX12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY12" s="44" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AZ12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA12" s="45" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="BB12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC12" s="42" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="BD12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE12" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG12" s="45" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BH12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI12" s="42" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="BJ12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK12" s="44" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="BL12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM12" s="45" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="BN12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO12" s="42" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BP12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ12" s="44" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="BR12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS12" s="45" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="BT12" s="41" t="s">
         <v>14</v>
@@ -8408,222 +8508,224 @@
         <v>14</v>
       </c>
       <c r="FG12" s="46" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="FH12" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="FI12" s="47"/>
+        <v>343</v>
+      </c>
+      <c r="FI12" s="47" t="s">
+        <v>344</v>
+      </c>
       <c r="FJ12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="4"/>
       <c r="C13" s="26" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D13" s="27">
         <v>9.0</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="X13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Z13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA13" s="32" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AB13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AD13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE13" s="34" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AF13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AH13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI13" s="33" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AJ13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK13" s="34" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AL13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM13" s="32" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AN13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AP13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ13" s="34" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AR13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS13" s="32" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AT13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU13" s="33" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AV13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW13" s="34" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AX13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY13" s="32" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AZ13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA13" s="33" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="BB13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC13" s="34" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="BD13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE13" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG13" s="33" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="BH13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI13" s="30" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="BJ13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK13" s="32" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="BL13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM13" s="33" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="BN13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO13" s="30" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="BP13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ13" s="32" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="BR13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS13" s="33" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="BT13" s="29" t="s">
         <v>14</v>
@@ -8809,222 +8911,224 @@
         <v>14</v>
       </c>
       <c r="FG13" s="36" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="FH13" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="FI13" s="37"/>
+        <v>379</v>
+      </c>
+      <c r="FI13" s="37" t="s">
+        <v>380</v>
+      </c>
       <c r="FJ13" s="12"/>
     </row>
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" s="38" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D14" s="39">
         <v>10.0</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="R14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S14" s="42" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="T14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="44" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="V14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="X14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y14" s="42" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Z14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="44" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AB14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC14" s="45" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AD14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE14" s="42" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AF14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG14" s="44" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AH14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI14" s="45" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AJ14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK14" s="42" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AL14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM14" s="44" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AN14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO14" s="45" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AP14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ14" s="42" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AR14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS14" s="44" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="AT14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU14" s="45" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AV14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW14" s="42" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AX14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AZ14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA14" s="45" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="BB14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC14" s="42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="BD14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE14" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG14" s="45" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="BH14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI14" s="42" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="BJ14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK14" s="44" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="BL14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM14" s="45" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="BN14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO14" s="42" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="BP14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ14" s="44" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="BR14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS14" s="45" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="BT14" s="41" t="s">
         <v>14</v>
@@ -9210,222 +9314,224 @@
         <v>14</v>
       </c>
       <c r="FG14" s="46" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="FH14" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="FI14" s="47"/>
+        <v>414</v>
+      </c>
+      <c r="FI14" s="47" t="s">
+        <v>415</v>
+      </c>
       <c r="FJ14" s="12"/>
     </row>
     <row r="15">
       <c r="B15" s="4"/>
       <c r="C15" s="26" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D15" s="27">
         <v>11.0</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S15" s="30" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="X15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="Z15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA15" s="32" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AB15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC15" s="33" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AD15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE15" s="30" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AF15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG15" s="32" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="AH15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI15" s="33" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AJ15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK15" s="30" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AL15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM15" s="32" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AN15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AP15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ15" s="30" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AR15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS15" s="32" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AT15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU15" s="33" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AV15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW15" s="30" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AX15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY15" s="32" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AZ15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA15" s="33" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="BB15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC15" s="30" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="BD15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE15" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG15" s="33" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="BH15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI15" s="30" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="BJ15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK15" s="32" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="BL15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM15" s="33" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="BN15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO15" s="30" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="BP15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ15" s="32" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="BR15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS15" s="33" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="BT15" s="29" t="s">
         <v>14</v>
@@ -9611,150 +9717,152 @@
         <v>14</v>
       </c>
       <c r="FG15" s="36" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="FH15" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="FI15" s="37"/>
+        <v>449</v>
+      </c>
+      <c r="FI15" s="37" t="s">
+        <v>450</v>
+      </c>
       <c r="FJ15" s="12"/>
     </row>
     <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D16" s="39">
         <v>12.0</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="R16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S16" s="42" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="T16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="V16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="X16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y16" s="42" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="Z16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AB16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC16" s="45" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AD16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE16" s="42" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AF16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG16" s="44" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="AH16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK16" s="42" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="AL16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM16" s="44" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="AN16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO16" s="45" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AP16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ16" s="42" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AR16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS16" s="44" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="AT16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU16" s="45" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="AV16" s="41" t="s">
         <v>14</v>
@@ -9766,67 +9874,67 @@
         <v>4</v>
       </c>
       <c r="AY16" s="44" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="AZ16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA16" s="45" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="BB16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC16" s="42" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="BD16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE16" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG16" s="45" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="BH16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI16" s="42" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="BJ16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK16" s="44" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="BL16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM16" s="45" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="BN16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO16" s="42" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="BP16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ16" s="44" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="BR16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS16" s="45" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="BT16" s="41" t="s">
         <v>14</v>
@@ -10012,222 +10120,224 @@
         <v>14</v>
       </c>
       <c r="FG16" s="46" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="FH16" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="FI16" s="47"/>
+        <v>485</v>
+      </c>
+      <c r="FI16" s="47" t="s">
+        <v>486</v>
+      </c>
       <c r="FJ16" s="12"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
       <c r="C17" s="26" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D17" s="27">
         <v>13.0</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="V17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="Z17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AB17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC17" s="33" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AD17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE17" s="30" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="AF17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG17" s="32" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="AH17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI17" s="33" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="AJ17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK17" s="30" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="AL17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM17" s="32" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="AN17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="AP17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ17" s="30" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="AR17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS17" s="32" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AT17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU17" s="33" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AV17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW17" s="30" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AX17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY17" s="32" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AZ17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA17" s="33" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="BB17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC17" s="30" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="BD17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE17" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG17" s="33" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="BH17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI17" s="30" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="BJ17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK17" s="32" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="BL17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM17" s="33" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="BN17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO17" s="30" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="BP17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ17" s="32" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="BR17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS17" s="33" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="BT17" s="29" t="s">
         <v>14</v>
@@ -10413,222 +10523,224 @@
         <v>14</v>
       </c>
       <c r="FG17" s="36" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="FH17" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="FI17" s="37"/>
+        <v>521</v>
+      </c>
+      <c r="FI17" s="37" t="s">
+        <v>522</v>
+      </c>
       <c r="FJ17" s="12"/>
     </row>
     <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" s="38" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D18" s="39">
         <v>14.0</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="N18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="R18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="42" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="T18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="V18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="X18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y18" s="42" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="Z18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="AB18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC18" s="45" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="AD18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE18" s="42" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AF18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG18" s="44" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="AH18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="AJ18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK18" s="42" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="AL18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM18" s="44" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="AN18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO18" s="45" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="AP18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ18" s="42" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="AR18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS18" s="44" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="AT18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU18" s="45" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AV18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW18" s="42" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AX18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY18" s="44" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="AZ18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA18" s="45" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="BB18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC18" s="42" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="BD18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE18" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG18" s="45" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="BH18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI18" s="42" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="BJ18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK18" s="44" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="BL18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM18" s="45" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="BN18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO18" s="42" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="BP18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ18" s="44" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="BR18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS18" s="45" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="BT18" s="41" t="s">
         <v>14</v>
@@ -10814,222 +10926,224 @@
         <v>14</v>
       </c>
       <c r="FG18" s="46" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="FH18" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="FI18" s="47"/>
+        <v>557</v>
+      </c>
+      <c r="FI18" s="47" t="s">
+        <v>558</v>
+      </c>
       <c r="FJ18" s="12"/>
     </row>
     <row r="19">
       <c r="B19" s="4"/>
       <c r="C19" s="26" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="D19" s="27">
         <v>15.0</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S19" s="30" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="V19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="Z19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="AB19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC19" s="33" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="AD19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE19" s="30" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="AF19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG19" s="35" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="AH19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI19" s="33" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AJ19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK19" s="30" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AL19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM19" s="35" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AN19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AP19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ19" s="30" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="AR19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS19" s="35" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AT19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU19" s="33" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="AV19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW19" s="30" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AX19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY19" s="35" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AZ19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA19" s="33" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="BB19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC19" s="30" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="BD19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE19" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG19" s="33" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="BH19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI19" s="30" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="BJ19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK19" s="32" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="BL19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM19" s="33" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="BN19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO19" s="30" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="BP19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ19" s="32" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="BR19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS19" s="33" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="BT19" s="29" t="s">
         <v>14</v>
@@ -11215,168 +11329,170 @@
         <v>14</v>
       </c>
       <c r="FG19" s="36" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="FH19" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="FI19" s="37"/>
+        <v>593</v>
+      </c>
+      <c r="FI19" s="37" t="s">
+        <v>594</v>
+      </c>
       <c r="FJ19" s="12"/>
     </row>
     <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" s="38" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="D20" s="39">
         <v>16.0</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="R20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="T20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="V20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="X20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="Z20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="44" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="AB20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC20" s="45" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="AD20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE20" s="42" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="AF20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="AH20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="AJ20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK20" s="42" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="AL20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM20" s="44" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="AN20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO20" s="45" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="AP20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ20" s="42" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="AR20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS20" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU20" s="45" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="AV20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW20" s="42" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="AX20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="AZ20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA20" s="45" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="BB20" s="41" t="s">
         <v>14</v>
@@ -11388,49 +11504,49 @@
         <v>4</v>
       </c>
       <c r="BE20" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG20" s="45" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="BH20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI20" s="42" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="BJ20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK20" s="44" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="BL20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM20" s="45" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="BN20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO20" s="42" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="BP20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ20" s="44" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="BR20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS20" s="45" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="BT20" s="41" t="s">
         <v>14</v>
@@ -11616,222 +11732,224 @@
         <v>14</v>
       </c>
       <c r="FG20" s="46" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="FH20" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="FI20" s="47"/>
+        <v>626</v>
+      </c>
+      <c r="FI20" s="47" t="s">
+        <v>627</v>
+      </c>
       <c r="FJ20" s="12"/>
     </row>
     <row r="21">
       <c r="B21" s="4"/>
       <c r="C21" s="26" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="D21" s="27">
         <v>17.0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="V21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="X21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y21" s="30" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="Z21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA21" s="32" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="AB21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="AD21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE21" s="30" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="AF21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="AH21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="33" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="AJ21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="AL21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM21" s="32" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="AP21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ21" s="30" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="AR21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS21" s="32" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="AT21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="AV21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW21" s="30" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="AX21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="AZ21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA21" s="33" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="BB21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC21" s="30" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="BD21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE21" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG21" s="33" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="BH21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI21" s="30" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="BJ21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK21" s="32" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="BL21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM21" s="33" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="BN21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO21" s="30" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="BP21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ21" s="32" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="BR21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS21" s="33" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="BT21" s="29" t="s">
         <v>14</v>
@@ -12017,222 +12135,224 @@
         <v>14</v>
       </c>
       <c r="FG21" s="36" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="FH21" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="FI21" s="37"/>
+        <v>662</v>
+      </c>
+      <c r="FI21" s="37" t="s">
+        <v>663</v>
+      </c>
       <c r="FJ21" s="12"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="D22" s="39">
         <v>18.0</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="T22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="44" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="42" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA22" s="44" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="AB22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="AF22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="AH22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="AJ22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK22" s="49" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="AL22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="AN22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO22" s="45" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AP22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ22" s="49" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="AR22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="AT22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU22" s="45" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="AV22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="AX22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="AZ22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA22" s="45" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="BB22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC22" s="49" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="BD22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE22" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG22" s="45" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="BH22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI22" s="42" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="BJ22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK22" s="44" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="BL22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM22" s="45" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="BN22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO22" s="42" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="BP22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ22" s="44" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="BR22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS22" s="45" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="BT22" s="41" t="s">
         <v>14</v>
@@ -12418,222 +12538,224 @@
         <v>14</v>
       </c>
       <c r="FG22" s="46" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="FH22" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="FI22" s="47"/>
+        <v>697</v>
+      </c>
+      <c r="FI22" s="47" t="s">
+        <v>698</v>
+      </c>
       <c r="FJ22" s="12"/>
     </row>
     <row r="23">
       <c r="B23" s="4"/>
       <c r="C23" s="26" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="D23" s="27">
         <v>19.0</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="T23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="V23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="Z23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="AB23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="AF23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG23" s="32" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="AH23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="33" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="AJ23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK23" s="30" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="AL23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="AN23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="AP23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ23" s="30" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="AR23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS23" s="32" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="AT23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="AV23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW23" s="30" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AX23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY23" s="32" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="AZ23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA23" s="33" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="BB23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC23" s="30" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="BD23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE23" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="BH23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="30" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="BJ23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK23" s="32" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="BL23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM23" s="33" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="BN23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO23" s="30" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="BP23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ23" s="32" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="BR23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS23" s="33" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="BT23" s="29" t="s">
         <v>14</v>
@@ -12819,222 +12941,224 @@
         <v>14</v>
       </c>
       <c r="FG23" s="36" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="FH23" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="FI23" s="37"/>
+        <v>732</v>
+      </c>
+      <c r="FI23" s="37" t="s">
+        <v>733</v>
+      </c>
       <c r="FJ23" s="12"/>
     </row>
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" s="38" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="D24" s="39">
         <v>20.0</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="V24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="X24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y24" s="42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="AB24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC24" s="45" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE24" s="42" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="AF24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="AH24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="AJ24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK24" s="42" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="AL24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="AN24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO24" s="45" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="AP24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="42" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="AR24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="AT24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="45" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="AV24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW24" s="42" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="AX24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="AZ24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA24" s="45" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="BB24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC24" s="42" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="BD24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE24" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG24" s="45" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="BH24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI24" s="42" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK24" s="44" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="BL24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM24" s="45" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="BN24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO24" s="42" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="BP24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ24" s="44" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="BR24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS24" s="45" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="BT24" s="41" t="s">
         <v>14</v>
@@ -13220,222 +13344,224 @@
         <v>14</v>
       </c>
       <c r="FG24" s="46" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="FH24" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="FI24" s="47"/>
+        <v>767</v>
+      </c>
+      <c r="FI24" s="47" t="s">
+        <v>768</v>
+      </c>
       <c r="FJ24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" s="26" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="D25" s="27">
         <v>21.0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="X25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y25" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="32" t="s">
         <v>751</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="T25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="V25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="W25" s="33" t="s">
-        <v>758</v>
-      </c>
-      <c r="X25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y25" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="32" t="s">
-        <v>731</v>
-      </c>
       <c r="AB25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE25" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK25" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="AL25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM25" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="AN25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO25" s="33" t="s">
+        <v>787</v>
+      </c>
+      <c r="AP25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ25" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="AR25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="AT25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU25" s="33" t="s">
+        <v>790</v>
+      </c>
+      <c r="AV25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW25" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="AX25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY25" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="AZ25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA25" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="BB25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC25" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="BD25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG25" s="33" t="s">
+        <v>795</v>
+      </c>
+      <c r="BH25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI25" s="30" t="s">
         <v>761</v>
       </c>
-      <c r="AF25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="32" t="s">
-        <v>762</v>
-      </c>
-      <c r="AH25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI25" s="33" t="s">
-        <v>763</v>
-      </c>
-      <c r="AJ25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK25" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="AL25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM25" s="32" t="s">
-        <v>765</v>
-      </c>
-      <c r="AN25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO25" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="AP25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ25" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="AR25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS25" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="AT25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU25" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="AV25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW25" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="AX25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY25" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="AZ25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA25" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="BB25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC25" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="BD25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE25" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG25" s="33" t="s">
-        <v>774</v>
-      </c>
-      <c r="BH25" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI25" s="30" t="s">
-        <v>741</v>
-      </c>
       <c r="BJ25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK25" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BL25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM25" s="33" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="BN25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO25" s="30" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="BP25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ25" s="32" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="BR25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS25" s="33" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="BT25" s="29" t="s">
         <v>14</v>
@@ -13621,222 +13747,224 @@
         <v>14</v>
       </c>
       <c r="FG25" s="36" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="FH25" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="FI25" s="37"/>
+        <v>800</v>
+      </c>
+      <c r="FI25" s="37" t="s">
+        <v>801</v>
+      </c>
       <c r="FJ25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" s="38" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="D26" s="39">
         <v>22.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="T26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U26" s="44" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="V26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="45" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="X26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="42" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="Z26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA26" s="44" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="AB26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC26" s="45" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="AD26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE26" s="42" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="AF26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG26" s="44" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="AH26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI26" s="45" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK26" s="42" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="AL26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="AN26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO26" s="45" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="AP26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ26" s="42" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="AR26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS26" s="44" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="AT26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU26" s="45" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AV26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW26" s="42" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="AX26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="AZ26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA26" s="45" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="BB26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC26" s="42" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="BD26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE26" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG26" s="45" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="BH26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI26" s="42" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK26" s="44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BL26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM26" s="45" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="BN26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO26" s="42" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="BP26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ26" s="44" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="BR26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS26" s="45" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="BT26" s="41" t="s">
         <v>14</v>
@@ -14022,222 +14150,224 @@
         <v>14</v>
       </c>
       <c r="FG26" s="46" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="FH26" s="39" t="s">
-        <v>809</v>
-      </c>
-      <c r="FI26" s="47"/>
+        <v>831</v>
+      </c>
+      <c r="FI26" s="47" t="s">
+        <v>832</v>
+      </c>
       <c r="FJ26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="26" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="D27" s="27">
         <v>23.0</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="T27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="V27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="Z27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="AB27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="30" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="AF27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="AH27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="33" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="AJ27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK27" s="30" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="AL27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="AN27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="AP27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ27" s="30" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="AR27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS27" s="32" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="AT27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="AV27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW27" s="30" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="AX27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY27" s="32" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="AZ27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA27" s="33" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="BB27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC27" s="30" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="BD27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE27" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="BH27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI27" s="30" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK27" s="32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BL27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM27" s="33" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="BN27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO27" s="30" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="BP27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ27" s="32" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="BR27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS27" s="33" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="BT27" s="29" t="s">
         <v>14</v>
@@ -14423,222 +14553,224 @@
         <v>14</v>
       </c>
       <c r="FG27" s="36" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="FH27" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="FI27" s="37"/>
+        <v>865</v>
+      </c>
+      <c r="FI27" s="37" t="s">
+        <v>866</v>
+      </c>
       <c r="FJ27" s="12"/>
     </row>
     <row r="28">
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="D28" s="39">
         <v>24.0</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="R28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="T28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="V28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="45" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="X28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y28" s="42" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="44" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="AB28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC28" s="45" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="42" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="AF28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG28" s="44" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="AH28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI28" s="45" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK28" s="42" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="AL28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="AN28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO28" s="45" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="AP28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ28" s="42" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="AR28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="44" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU28" s="45" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="AV28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW28" s="42" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="AX28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="AZ28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA28" s="45" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="BB28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC28" s="42" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="BD28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE28" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG28" s="45" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="BH28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI28" s="42" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK28" s="44" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BL28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM28" s="45" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="BN28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO28" s="42" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="BP28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ28" s="44" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="BR28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS28" s="45" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="BT28" s="41" t="s">
         <v>14</v>
@@ -14824,156 +14956,158 @@
         <v>14</v>
       </c>
       <c r="FG28" s="46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="FH28" s="39" t="s">
-        <v>874</v>
-      </c>
-      <c r="FI28" s="47"/>
+        <v>898</v>
+      </c>
+      <c r="FI28" s="47" t="s">
+        <v>899</v>
+      </c>
       <c r="FJ28" s="12"/>
     </row>
     <row r="29">
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="D29" s="27">
         <v>25.0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S29" s="30" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="T29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="V29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="X29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="AB29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="AF29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG29" s="32" t="s">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="AH29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="33" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
       <c r="AJ29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK29" s="30" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="AL29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="AN29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="AP29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ29" s="30" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="AR29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS29" s="32" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="AT29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="AV29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW29" s="30" t="s">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="AX29" s="31" t="s">
         <v>4</v>
@@ -14985,61 +15119,61 @@
         <v>6</v>
       </c>
       <c r="BA29" s="33" t="s">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="BB29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC29" s="30" t="s">
-        <v>898</v>
+        <v>923</v>
       </c>
       <c r="BD29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE29" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>899</v>
+        <v>924</v>
       </c>
       <c r="BH29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI29" s="30" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK29" s="32" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="BL29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM29" s="33" t="s">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="BN29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO29" s="30" t="s">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="BP29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ29" s="32" t="s">
-        <v>902</v>
+        <v>927</v>
       </c>
       <c r="BR29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS29" s="33" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="BT29" s="29" t="s">
         <v>14</v>
@@ -15225,222 +15359,224 @@
         <v>14</v>
       </c>
       <c r="FG29" s="36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="FH29" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="FI29" s="37"/>
+        <v>928</v>
+      </c>
+      <c r="FI29" s="37" t="s">
+        <v>929</v>
+      </c>
       <c r="FJ29" s="12"/>
     </row>
     <row r="30">
       <c r="B30" s="4"/>
       <c r="C30" s="38" t="s">
-        <v>904</v>
+        <v>930</v>
       </c>
       <c r="D30" s="39">
         <v>26.0</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>907</v>
+        <v>933</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
       <c r="N30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="P30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>910</v>
+        <v>936</v>
       </c>
       <c r="R30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="T30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="AB30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC30" s="45" t="s">
-        <v>916</v>
+        <v>942</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE30" s="42" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="AF30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG30" s="44" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="AH30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="45" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
       <c r="AJ30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="42" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AL30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM30" s="44" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="AN30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO30" s="45" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
       <c r="AP30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ30" s="42" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="AR30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS30" s="44" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="AT30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU30" s="45" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="AV30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW30" s="42" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="AX30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>925</v>
+        <v>951</v>
       </c>
       <c r="AZ30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA30" s="45" t="s">
-        <v>926</v>
+        <v>952</v>
       </c>
       <c r="BB30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC30" s="42" t="s">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="BD30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE30" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG30" s="45" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
       <c r="BH30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI30" s="42" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK30" s="44" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="BL30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM30" s="45" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="BN30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO30" s="42" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="BP30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ30" s="44" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
       <c r="BR30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS30" s="45" t="s">
-        <v>932</v>
+        <v>958</v>
       </c>
       <c r="BT30" s="41" t="s">
         <v>14</v>
@@ -15626,222 +15762,224 @@
         <v>14</v>
       </c>
       <c r="FG30" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="FH30" s="39" t="s">
-        <v>933</v>
-      </c>
-      <c r="FI30" s="47"/>
+        <v>959</v>
+      </c>
+      <c r="FI30" s="47" t="s">
+        <v>960</v>
+      </c>
       <c r="FJ30" s="12"/>
     </row>
     <row r="31">
       <c r="B31" s="4"/>
       <c r="C31" s="50" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>937</v>
+        <v>964</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
       <c r="L31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>940</v>
+        <v>967</v>
       </c>
       <c r="N31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="P31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="T31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>944</v>
+        <v>971</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="57" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="X31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
       <c r="Z31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="AB31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AC31" s="57" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
       <c r="AD31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="58" t="s">
-        <v>949</v>
+        <v>976</v>
       </c>
       <c r="AF31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AG31" s="59" t="s">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="60" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="AJ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="58" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="AL31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AM31" s="59" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="AN31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AO31" s="60" t="s">
-        <v>954</v>
+        <v>981</v>
       </c>
       <c r="AP31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AQ31" s="58" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="AR31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AS31" s="59" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="AT31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AU31" s="60" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="AV31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="AX31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AY31" s="59" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="AZ31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BA31" s="60" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="BB31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BC31" s="58" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BD31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BE31" s="59" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="BF31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BG31" s="60" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="BH31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BI31" s="54" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="BJ31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BK31" s="56" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="BL31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BM31" s="57" t="s">
-        <v>962</v>
+        <v>989</v>
       </c>
       <c r="BN31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BO31" s="54" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BP31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BQ31" s="56" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="BR31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BS31" s="57" t="s">
-        <v>964</v>
+        <v>991</v>
       </c>
       <c r="BT31" s="53" t="s">
         <v>14</v>
@@ -16027,504 +16165,506 @@
         <v>14</v>
       </c>
       <c r="FG31" s="61" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="FH31" s="51" t="s">
-        <v>935</v>
-      </c>
-      <c r="FI31" s="62"/>
+        <v>962</v>
+      </c>
+      <c r="FI31" s="62" t="s">
+        <v>993</v>
+      </c>
       <c r="FJ31" s="12"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>
       <c r="C32" s="63" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="Q32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="T32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="V32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="X32" s="66" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="Y32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="Z32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="AB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AC32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="AD32" s="66" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="AE32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="AF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="AH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="AJ32" s="66" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="AK32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="AL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AM32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="AN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AO32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="AP32" s="66" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="AQ32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="AR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AS32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="AT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AU32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="AV32" s="66" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="AW32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="AX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AY32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="AZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BA32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="BB32" s="66" t="s">
-        <v>979</v>
+        <v>1007</v>
       </c>
       <c r="BC32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="BD32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BE32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="BF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BG32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="BH32" s="66" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="BI32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="BJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BK32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="BL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BM32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="BN32" s="66" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="BO32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="BP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BQ32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="BR32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BS32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="BT32" s="66" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="BU32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="BV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BW32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="BX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BY32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="BZ32" s="66" t="s">
-        <v>983</v>
+        <v>1011</v>
       </c>
       <c r="CA32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="CB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CC32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="CD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CE32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="CF32" s="66" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="CG32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="CH32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CI32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="CJ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CK32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="CL32" s="66" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="CM32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="CN32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CO32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="CP32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CQ32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="CR32" s="66" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="CS32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="CT32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CU32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="CV32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CW32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="CX32" s="66" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="CY32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="CZ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DA32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="DB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DC32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="DD32" s="66" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="DE32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="DF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DG32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="DH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DI32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="DK32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="DL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DM32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="DN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DO32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="DP32" s="66" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="DQ32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="DR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DS32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="DT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DU32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="DV32" s="66" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="DW32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="DX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DY32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="DZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EA32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="EB32" s="66" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="EC32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="ED32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EE32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="EF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EG32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="EH32" s="66" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="EI32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="EJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EK32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="EL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EM32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="EN32" s="66" t="s">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="EO32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="EP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EQ32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="ER32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="ES32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="ET32" s="66" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="EU32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="EV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EW32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="EX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EY32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="EZ32" s="66" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="FA32" s="67" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="FB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="FC32" s="65" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="FD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="FE32" s="68" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="FF32" s="66" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="FG32" s="67" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="FH32" s="64" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="FI32" s="69" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="FJ32" s="12"/>
     </row>
@@ -16806,10 +16946,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>9</v>
@@ -16844,10 +16984,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>12</v>
@@ -16884,13 +17024,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
@@ -16899,10 +17039,10 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="82"/>
@@ -16924,13 +17064,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
@@ -16939,10 +17079,10 @@
         <v>2.0</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -16964,13 +17104,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
@@ -16979,10 +17119,10 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
@@ -17004,13 +17144,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -17019,10 +17159,10 @@
         <v>4.0</v>
       </c>
       <c r="I6" s="90" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
@@ -17044,13 +17184,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -17059,10 +17199,10 @@
         <v>5.0</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K7" s="82"/>
       <c r="L7" s="82"/>
@@ -17084,13 +17224,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="89"/>
@@ -17099,10 +17239,10 @@
         <v>6.0</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
@@ -17124,13 +17264,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -17139,10 +17279,10 @@
         <v>7.0</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
@@ -17164,13 +17304,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -17179,10 +17319,10 @@
         <v>8.0</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
@@ -17204,13 +17344,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
@@ -17219,10 +17359,10 @@
         <v>9.0</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
@@ -17244,13 +17384,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -17259,10 +17399,10 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J12" s="91" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="89"/>
@@ -17284,13 +17424,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -17299,10 +17439,10 @@
         <v>11.0</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="82"/>
@@ -17324,13 +17464,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
@@ -17339,10 +17479,10 @@
         <v>12.0</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
@@ -17364,13 +17504,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="82"/>
@@ -17379,10 +17519,10 @@
         <v>13.0</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="82"/>
@@ -17404,13 +17544,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -17419,10 +17559,10 @@
         <v>14.0</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
@@ -17444,13 +17584,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
@@ -17459,10 +17599,10 @@
         <v>15.0</v>
       </c>
       <c r="I17" s="86" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="J17" s="87" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="82"/>
@@ -17484,13 +17624,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
@@ -17499,10 +17639,10 @@
         <v>16.0</v>
       </c>
       <c r="I18" s="90" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
@@ -17524,13 +17664,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82"/>
@@ -17539,10 +17679,10 @@
         <v>17.0</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="J19" s="87" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="82"/>
@@ -17564,13 +17704,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
@@ -17579,10 +17719,10 @@
         <v>18.0</v>
       </c>
       <c r="I20" s="90" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="J20" s="91" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
@@ -17604,13 +17744,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
@@ -17619,10 +17759,10 @@
         <v>19.0</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="J21" s="87" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
@@ -17644,13 +17784,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
@@ -17659,10 +17799,10 @@
         <v>20.0</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K22" s="89"/>
       <c r="L22" s="89"/>
@@ -17684,13 +17824,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
@@ -17699,10 +17839,10 @@
         <v>21.0</v>
       </c>
       <c r="I23" s="86" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="J23" s="87" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="82"/>
@@ -17724,13 +17864,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -17739,10 +17879,10 @@
         <v>22.0</v>
       </c>
       <c r="I24" s="90" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="J24" s="91" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
@@ -17764,13 +17904,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
@@ -17779,10 +17919,10 @@
         <v>23.0</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
@@ -17804,13 +17944,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -17819,10 +17959,10 @@
         <v>24.0</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="89"/>
       <c r="L26" s="89"/>
@@ -17844,13 +17984,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>903</v>
+        <v>928</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
@@ -17859,10 +17999,10 @@
         <v>25.0</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="J27" s="87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="82"/>
@@ -17884,13 +18024,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -17899,10 +18039,10 @@
         <v>26.0</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
@@ -17921,28 +18061,28 @@
     </row>
     <row r="29">
       <c r="A29" s="81" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
       <c r="H29" s="83" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
@@ -17961,26 +18101,26 @@
     </row>
     <row r="30">
       <c r="A30" s="76" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1059</v>
+        <v>1087</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1142">
   <si>
     <t>π</t>
   </si>
@@ -158,6 +158,24 @@
     <t>common</t>
   </si>
   <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
     <t>Omnipresent</t>
   </si>
   <si>
@@ -266,6 +284,15 @@
     <t>colour</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
     <t>Sine</t>
   </si>
   <si>
@@ -377,6 +404,15 @@
     <t>colony</t>
   </si>
   <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
     <t>Cosine</t>
   </si>
   <si>
@@ -488,6 +524,12 @@
     <t>capital</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>baseless</t>
+  </si>
+  <si>
     <t>Tangent</t>
   </si>
   <si>
@@ -599,6 +641,15 @@
     <t>cadre</t>
   </si>
   <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>recycling</t>
+  </si>
+  <si>
     <t>Cosecant</t>
   </si>
   <si>
@@ -710,6 +761,15 @@
     <t>chief</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
     <t>Secant</t>
   </si>
   <si>
@@ -818,6 +878,15 @@
     <t>cascade</t>
   </si>
   <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>creates</t>
+  </si>
+  <si>
     <t>Cotangent</t>
   </si>
   <si>
@@ -929,6 +998,15 @@
     <t>comma</t>
   </si>
   <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>boiled</t>
+  </si>
+  <si>
     <t>Sarwada</t>
   </si>
   <si>
@@ -1001,9 +1079,6 @@
     <t>clock</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>extract</t>
   </si>
   <si>
@@ -1040,6 +1115,15 @@
     <t>compound</t>
   </si>
   <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>punched</t>
+  </si>
+  <si>
     <t>Reet</t>
   </si>
   <si>
@@ -1148,6 +1232,15 @@
     <t>city</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
     <t>Garam</t>
   </si>
   <si>
@@ -1253,6 +1346,15 @@
     <t>foundation</t>
   </si>
   <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
     <t>Maha</t>
   </si>
   <si>
@@ -1358,6 +1460,15 @@
     <t>clip</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
     <t>Palan</t>
   </si>
   <si>
@@ -1466,6 +1577,15 @@
     <t>contrast</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
     <t>Dhadha</t>
   </si>
   <si>
@@ -1511,9 +1631,6 @@
     <t>avatar</t>
   </si>
   <si>
-    <t>bill</t>
-  </si>
-  <si>
     <t>adopted</t>
   </si>
   <si>
@@ -1574,6 +1691,15 @@
     <t>cage</t>
   </si>
   <si>
+    <t>atomic</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
     <t>Niharika</t>
   </si>
   <si>
@@ -1685,6 +1811,15 @@
     <t>component</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
     <t>চৌদ্দ</t>
   </si>
   <si>
@@ -1793,6 +1928,12 @@
     <t>call</t>
   </si>
   <si>
+    <t>civic</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
     <t>পনেরো</t>
   </si>
   <si>
@@ -1808,9 +1949,6 @@
     <t>functional</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>retina</t>
   </si>
   <si>
@@ -1892,6 +2030,15 @@
     <t>chamber</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
     <t>ষোল</t>
   </si>
   <si>
@@ -2168,9 +2315,6 @@
     <t>loop</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>display</t>
   </si>
   <si>
@@ -2465,9 +2609,6 @@
     <t>tolerance</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>quarter</t>
   </si>
   <si>
@@ -2988,6 +3129,24 @@
   </si>
   <si>
     <t>cream</t>
+  </si>
+  <si>
+    <t>vertex</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
   <si>
     <t>Chant</t>
@@ -5103,27 +5262,39 @@
       <c r="BT4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="BU4" s="17"/>
+      <c r="BU4" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="BV4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BW4" s="19"/>
+      <c r="BW4" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="BX4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BY4" s="20"/>
+      <c r="BY4" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="BZ4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="CA4" s="17"/>
+      <c r="CA4" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="CB4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="CC4" s="19"/>
+      <c r="CC4" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="CD4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CE4" s="20"/>
+      <c r="CE4" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="CF4" s="16" t="s">
         <v>14</v>
       </c>
@@ -5284,50 +5455,50 @@
         <v>14</v>
       </c>
       <c r="FG4" s="24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="FH4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="FI4" s="25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="FJ4" s="12"/>
     </row>
     <row r="5">
       <c r="B5" s="4"/>
       <c r="C5" s="26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D5" s="27">
         <v>1.0</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>4</v>
@@ -5339,182 +5510,188 @@
         <v>6</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="X5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AB5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC5" s="33" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AD5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE5" s="34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI5" s="33" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AJ5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK5" s="34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AN5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO5" s="33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AP5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ5" s="34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AR5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS5" s="35" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AT5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AV5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW5" s="34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AX5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY5" s="35" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AZ5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA5" s="33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BB5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC5" s="34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BD5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE5" s="35" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG5" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="BH5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI5" s="30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BJ5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK5" s="32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="BL5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM5" s="33" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BN5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO5" s="30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="BP5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ5" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="BR5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS5" s="33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="BT5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU5" s="30"/>
+      <c r="BU5" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="BV5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW5" s="32"/>
+      <c r="BW5" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="BX5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY5" s="33"/>
+      <c r="BY5" s="33" t="s">
+        <v>92</v>
+      </c>
       <c r="BZ5" s="29" t="s">
         <v>14</v>
       </c>
@@ -5687,237 +5864,243 @@
         <v>14</v>
       </c>
       <c r="FG5" s="36" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="FH5" s="27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="FI5" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="FJ5" s="12"/>
     </row>
     <row r="6">
       <c r="B6" s="4"/>
       <c r="C6" s="38" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="39">
         <v>2.0</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="R6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S6" s="42" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="T6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="V6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W6" s="45" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y6" s="42" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA6" s="44" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE6" s="42" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AF6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG6" s="44" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AH6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI6" s="45" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AJ6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK6" s="42" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AL6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM6" s="44" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AN6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO6" s="45" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ6" s="42" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="AR6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS6" s="44" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AT6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU6" s="45" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AV6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW6" s="42" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AX6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY6" s="44" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AZ6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA6" s="45" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="BB6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC6" s="42" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="BD6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE6" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG6" s="45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="BH6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI6" s="42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="BJ6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK6" s="44" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="BL6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM6" s="45" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="BN6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO6" s="42" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BP6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ6" s="44" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="BR6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS6" s="45" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="BT6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU6" s="42"/>
+      <c r="BU6" s="42" t="s">
+        <v>130</v>
+      </c>
       <c r="BV6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW6" s="44"/>
+      <c r="BW6" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="BX6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY6" s="45"/>
+      <c r="BY6" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="BZ6" s="41" t="s">
         <v>14</v>
       </c>
@@ -6090,237 +6273,243 @@
         <v>14</v>
       </c>
       <c r="FG6" s="46" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="FH6" s="39" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="FI6" s="47" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="FJ6" s="12"/>
     </row>
     <row r="7">
       <c r="B7" s="4"/>
       <c r="C7" s="26" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D7" s="27">
         <v>3.0</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y7" s="30" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Z7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AB7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC7" s="33" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AD7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AF7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AH7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI7" s="33" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="AJ7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK7" s="30" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AL7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM7" s="32" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AN7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AP7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ7" s="30" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="AR7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AT7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AV7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW7" s="30" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AX7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY7" s="32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AZ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA7" s="33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="BB7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC7" s="30" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="BD7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE7" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG7" s="33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="BH7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI7" s="30" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="BJ7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK7" s="32" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="BL7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM7" s="33" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="BN7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO7" s="30" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="BP7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ7" s="32" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="BR7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS7" s="33" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="BT7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU7" s="30"/>
+      <c r="BU7" s="30" t="s">
+        <v>170</v>
+      </c>
       <c r="BV7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW7" s="32"/>
+      <c r="BW7" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="BX7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY7" s="33"/>
+      <c r="BY7" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="BZ7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6493,237 +6682,243 @@
         <v>14</v>
       </c>
       <c r="FG7" s="36" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="FH7" s="27" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="FI7" s="37" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="FJ7" s="12"/>
     </row>
     <row r="8">
       <c r="B8" s="4"/>
       <c r="C8" s="38" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D8" s="39">
         <v>4.0</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="P8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="R8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="T8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="44" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W8" s="45" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Z8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="44" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AB8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC8" s="45" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AD8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE8" s="42" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AF8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG8" s="44" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI8" s="45" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AJ8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK8" s="42" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AL8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM8" s="44" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AN8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO8" s="45" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ8" s="42" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AR8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS8" s="44" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AT8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU8" s="45" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AV8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW8" s="42" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AX8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY8" s="44" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AZ8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA8" s="45" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="BB8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC8" s="42" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="BD8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE8" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG8" s="45" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="BH8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI8" s="42" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="BJ8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK8" s="44" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="BL8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM8" s="45" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="BN8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO8" s="42" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="BP8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ8" s="44" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="BR8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS8" s="45" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="BT8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU8" s="42"/>
+      <c r="BU8" s="42" t="s">
+        <v>209</v>
+      </c>
       <c r="BV8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW8" s="44"/>
+      <c r="BW8" s="44" t="s">
+        <v>210</v>
+      </c>
       <c r="BX8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY8" s="45"/>
+      <c r="BY8" s="45" t="s">
+        <v>211</v>
+      </c>
       <c r="BZ8" s="41" t="s">
         <v>14</v>
       </c>
@@ -6896,237 +7091,243 @@
         <v>14</v>
       </c>
       <c r="FG8" s="46" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="FH8" s="39" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="FI8" s="47" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="FJ8" s="12"/>
     </row>
     <row r="9">
       <c r="B9" s="4"/>
       <c r="C9" s="26" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D9" s="27">
         <v>5.0</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="T9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Z9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="AB9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC9" s="33" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="AD9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="AF9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI9" s="33" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AJ9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK9" s="30" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AL9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM9" s="32" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AN9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AP9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ9" s="30" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AR9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AT9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU9" s="33" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AV9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW9" s="30" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AX9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY9" s="32" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AZ9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA9" s="33" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BB9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC9" s="30" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="BD9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE9" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG9" s="33" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="BH9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI9" s="30" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="BJ9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK9" s="32" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BL9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM9" s="33" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="BN9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO9" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="BP9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ9" s="32" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="BR9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS9" s="33" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="BT9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU9" s="30"/>
+      <c r="BU9" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="BV9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW9" s="32"/>
+      <c r="BW9" s="32" t="s">
+        <v>250</v>
+      </c>
       <c r="BX9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY9" s="33"/>
+      <c r="BY9" s="33" t="s">
+        <v>251</v>
+      </c>
       <c r="BZ9" s="29" t="s">
         <v>14</v>
       </c>
@@ -7299,26 +7500,26 @@
         <v>14</v>
       </c>
       <c r="FG9" s="36" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="FH9" s="27" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="FI9" s="37" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="FJ9" s="12"/>
     </row>
     <row r="10">
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D10" s="39">
         <v>6.0</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>14</v>
@@ -7330,206 +7531,212 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="J10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="R10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U10" s="44" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="V10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W10" s="45" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="X10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y10" s="42" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Z10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA10" s="44" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AB10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC10" s="45" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AD10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE10" s="42" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AF10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG10" s="44" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AH10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI10" s="45" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AJ10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK10" s="42" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AL10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM10" s="44" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AN10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO10" s="45" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AP10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ10" s="42" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AR10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS10" s="44" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AT10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU10" s="45" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AV10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW10" s="42" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AX10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY10" s="44" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AZ10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA10" s="45" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="BB10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC10" s="42" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="BD10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE10" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG10" s="45" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="BH10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI10" s="42" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="BJ10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK10" s="44" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="BL10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM10" s="45" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="BN10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO10" s="42" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="BP10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ10" s="44" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="BR10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS10" s="45" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="BT10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU10" s="42"/>
+      <c r="BU10" s="42" t="s">
+        <v>288</v>
+      </c>
       <c r="BV10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW10" s="44"/>
+      <c r="BW10" s="44" t="s">
+        <v>289</v>
+      </c>
       <c r="BX10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY10" s="45"/>
+      <c r="BY10" s="45" t="s">
+        <v>290</v>
+      </c>
       <c r="BZ10" s="41" t="s">
         <v>14</v>
       </c>
@@ -7702,237 +7909,243 @@
         <v>14</v>
       </c>
       <c r="FG10" s="46" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="FH10" s="39" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="FI10" s="47" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="FJ10" s="12"/>
     </row>
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" s="26" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D11" s="27">
         <v>7.0</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="T11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="Z11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AB11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AD11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AF11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI11" s="33" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AJ11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK11" s="30" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AL11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM11" s="32" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AN11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AP11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ11" s="30" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AR11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS11" s="32" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AT11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU11" s="33" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AV11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW11" s="30" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AX11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY11" s="32" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AZ11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA11" s="33" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="BB11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC11" s="30" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="BD11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE11" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="BH11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI11" s="30" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="BJ11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK11" s="32" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="BL11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM11" s="33" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="BN11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO11" s="30" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="BP11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ11" s="32" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="BR11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS11" s="33" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="BT11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU11" s="30"/>
+      <c r="BU11" s="30" t="s">
+        <v>328</v>
+      </c>
       <c r="BV11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW11" s="32"/>
+      <c r="BW11" s="32" t="s">
+        <v>329</v>
+      </c>
       <c r="BX11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY11" s="33"/>
+      <c r="BY11" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="BZ11" s="29" t="s">
         <v>14</v>
       </c>
@@ -8105,237 +8318,243 @@
         <v>14</v>
       </c>
       <c r="FG11" s="36" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="FH11" s="27" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="FI11" s="37" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="FJ11" s="12"/>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" s="38" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D12" s="39">
         <v>8.0</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q12" s="45" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="R12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="T12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="44" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="V12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="X12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y12" s="42" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="Z12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA12" s="44" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="AB12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC12" s="45" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="AD12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE12" s="42" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="AF12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG12" s="44" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="AH12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI12" s="45" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AJ12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK12" s="42" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="AL12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM12" s="44" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="AN12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO12" s="45" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="AP12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ12" s="42" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="AR12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS12" s="44" t="s">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="AT12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU12" s="45" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="AV12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW12" s="42" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="AX12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY12" s="44" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AZ12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA12" s="45" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="BB12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC12" s="42" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="BD12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE12" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG12" s="45" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="BH12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI12" s="42" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="BJ12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK12" s="44" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="BL12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM12" s="45" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="BN12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO12" s="42" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="BP12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ12" s="44" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="BR12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS12" s="45" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="BT12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU12" s="42"/>
+      <c r="BU12" s="42" t="s">
+        <v>367</v>
+      </c>
       <c r="BV12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW12" s="44"/>
+      <c r="BW12" s="44" t="s">
+        <v>368</v>
+      </c>
       <c r="BX12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY12" s="45"/>
+      <c r="BY12" s="45" t="s">
+        <v>369</v>
+      </c>
       <c r="BZ12" s="41" t="s">
         <v>14</v>
       </c>
@@ -8508,237 +8727,243 @@
         <v>14</v>
       </c>
       <c r="FG12" s="46" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="FH12" s="39" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="FI12" s="47" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="FJ12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="4"/>
       <c r="C13" s="26" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="D13" s="27">
         <v>9.0</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="X13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="Z13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA13" s="32" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="AB13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="AD13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE13" s="34" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="AF13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="AH13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI13" s="33" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AJ13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK13" s="34" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="AL13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM13" s="32" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="AN13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="AP13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ13" s="34" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AR13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS13" s="32" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="AT13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU13" s="33" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="AV13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW13" s="34" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="AX13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY13" s="32" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="AZ13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA13" s="33" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="BB13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC13" s="34" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="BD13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE13" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG13" s="33" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="BH13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI13" s="30" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="BJ13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK13" s="32" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="BL13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM13" s="33" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="BN13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO13" s="30" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="BP13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ13" s="32" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="BR13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS13" s="33" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="BT13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU13" s="30"/>
+      <c r="BU13" s="30" t="s">
+        <v>406</v>
+      </c>
       <c r="BV13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW13" s="32"/>
+      <c r="BW13" s="32" t="s">
+        <v>407</v>
+      </c>
       <c r="BX13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY13" s="33"/>
+      <c r="BY13" s="33" t="s">
+        <v>408</v>
+      </c>
       <c r="BZ13" s="29" t="s">
         <v>14</v>
       </c>
@@ -8911,237 +9136,243 @@
         <v>14</v>
       </c>
       <c r="FG13" s="36" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="FH13" s="27" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="FI13" s="37" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="FJ13" s="12"/>
     </row>
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" s="38" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="D14" s="39">
         <v>10.0</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="X14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK14" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ14" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU14" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW14" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="AZ14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA14" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC14" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="BD14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG14" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="BH14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI14" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="BJ14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK14" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="BL14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM14" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="BN14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO14" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="BP14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ14" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="BR14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS14" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="P14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="R14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="T14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="V14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="W14" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="X14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE14" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG14" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="AH14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI14" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK14" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="AN14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO14" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="AP14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ14" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="AR14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS14" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="AT14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU14" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="AV14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW14" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="AX14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY14" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="AZ14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA14" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="BB14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC14" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="BD14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG14" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="BH14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI14" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="BJ14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK14" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="BL14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM14" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="BN14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="BO14" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="BP14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ14" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="BR14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BS14" s="45" t="s">
-        <v>359</v>
-      </c>
       <c r="BT14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU14" s="42"/>
+      <c r="BU14" s="42" t="s">
+        <v>444</v>
+      </c>
       <c r="BV14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW14" s="44"/>
+      <c r="BW14" s="44" t="s">
+        <v>445</v>
+      </c>
       <c r="BX14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY14" s="45"/>
+      <c r="BY14" s="45" t="s">
+        <v>446</v>
+      </c>
       <c r="BZ14" s="41" t="s">
         <v>14</v>
       </c>
@@ -9314,237 +9545,243 @@
         <v>14</v>
       </c>
       <c r="FG14" s="46" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="FH14" s="39" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="FI14" s="47" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="FJ14" s="12"/>
     </row>
     <row r="15">
       <c r="B15" s="4"/>
       <c r="C15" s="26" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="D15" s="27">
         <v>11.0</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S15" s="30" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="X15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="Z15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA15" s="32" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="AB15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC15" s="33" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="AD15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE15" s="30" t="s">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="AF15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG15" s="32" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="AH15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI15" s="33" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="AJ15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK15" s="30" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="AL15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM15" s="32" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="AN15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="AP15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ15" s="30" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="AR15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS15" s="32" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="AT15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU15" s="33" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="AV15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW15" s="30" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="AX15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY15" s="32" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="AZ15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA15" s="33" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="BB15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC15" s="30" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="BD15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE15" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG15" s="33" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="BH15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI15" s="30" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="BJ15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK15" s="32" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="BL15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM15" s="33" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="BN15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO15" s="30" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="BP15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ15" s="32" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="BR15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS15" s="33" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="BT15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU15" s="30"/>
+      <c r="BU15" s="30" t="s">
+        <v>482</v>
+      </c>
       <c r="BV15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW15" s="32"/>
+      <c r="BW15" s="32" t="s">
+        <v>483</v>
+      </c>
       <c r="BX15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY15" s="33"/>
+      <c r="BY15" s="33" t="s">
+        <v>484</v>
+      </c>
       <c r="BZ15" s="29" t="s">
         <v>14</v>
       </c>
@@ -9717,152 +9954,152 @@
         <v>14</v>
       </c>
       <c r="FG15" s="36" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="FH15" s="27" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="FI15" s="37" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="FJ15" s="12"/>
     </row>
     <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="D16" s="39">
         <v>12.0</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="L16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="R16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S16" s="42" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="T16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="V16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="X16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y16" s="42" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="Z16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="AB16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC16" s="45" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="AD16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE16" s="42" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="AF16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG16" s="44" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="AH16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="AJ16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK16" s="42" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="AL16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM16" s="44" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="AN16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO16" s="45" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="AP16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ16" s="42" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="AR16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS16" s="44" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="AT16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU16" s="45" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="AV16" s="41" t="s">
         <v>14</v>
@@ -9874,80 +10111,86 @@
         <v>4</v>
       </c>
       <c r="AY16" s="44" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="AZ16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA16" s="45" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="BB16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC16" s="42" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="BD16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE16" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG16" s="45" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="BH16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI16" s="42" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="BJ16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK16" s="44" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="BL16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM16" s="45" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="BN16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO16" s="42" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="BP16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ16" s="44" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="BR16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS16" s="45" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="BT16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU16" s="42"/>
+      <c r="BU16" s="42" t="s">
+        <v>521</v>
+      </c>
       <c r="BV16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW16" s="44"/>
+      <c r="BW16" s="44" t="s">
+        <v>522</v>
+      </c>
       <c r="BX16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY16" s="45"/>
+      <c r="BY16" s="45" t="s">
+        <v>523</v>
+      </c>
       <c r="BZ16" s="41" t="s">
         <v>14</v>
       </c>
@@ -10120,237 +10363,243 @@
         <v>14</v>
       </c>
       <c r="FG16" s="46" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="FH16" s="39" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="FI16" s="47" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="FJ16" s="12"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
       <c r="C17" s="26" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="D17" s="27">
         <v>13.0</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="V17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="Z17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>499</v>
+        <v>328</v>
       </c>
       <c r="AB17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC17" s="33" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="AD17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE17" s="30" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="AF17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG17" s="32" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="AH17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI17" s="33" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="AJ17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK17" s="30" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="AL17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM17" s="32" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="AN17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="AP17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ17" s="30" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="AR17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS17" s="32" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="AT17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU17" s="33" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="AV17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW17" s="30" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="AX17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY17" s="32" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="AZ17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA17" s="33" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="BB17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC17" s="30" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="BD17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE17" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG17" s="33" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="BH17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI17" s="30" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="BJ17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK17" s="32" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="BL17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM17" s="33" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="BN17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO17" s="30" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="BP17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ17" s="32" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="BR17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS17" s="33" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="BT17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU17" s="30"/>
+      <c r="BU17" s="30" t="s">
+        <v>559</v>
+      </c>
       <c r="BV17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW17" s="32"/>
+      <c r="BW17" s="32" t="s">
+        <v>560</v>
+      </c>
       <c r="BX17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY17" s="33"/>
+      <c r="BY17" s="33" t="s">
+        <v>561</v>
+      </c>
       <c r="BZ17" s="29" t="s">
         <v>14</v>
       </c>
@@ -10523,237 +10772,243 @@
         <v>14</v>
       </c>
       <c r="FG17" s="36" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="FH17" s="27" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="FI17" s="37" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="FJ17" s="12"/>
     </row>
     <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" s="38" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="D18" s="39">
         <v>14.0</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="N18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="R18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="42" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="T18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="V18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="X18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y18" s="42" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="Z18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="AB18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC18" s="45" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="AD18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE18" s="42" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="AF18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG18" s="44" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="AH18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="AJ18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK18" s="42" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="AL18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM18" s="44" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="AN18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO18" s="45" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="AP18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ18" s="42" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="AR18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS18" s="44" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="AT18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU18" s="45" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="AV18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW18" s="42" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
       <c r="AX18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY18" s="44" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="AZ18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA18" s="45" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="BB18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC18" s="42" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="BD18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE18" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG18" s="45" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="BH18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI18" s="42" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="BJ18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK18" s="44" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="BL18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM18" s="45" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="BN18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO18" s="42" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="BP18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ18" s="44" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="BR18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS18" s="45" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="BT18" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU18" s="42"/>
+      <c r="BU18" s="42" t="s">
+        <v>599</v>
+      </c>
       <c r="BV18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW18" s="44"/>
+      <c r="BW18" s="44" t="s">
+        <v>600</v>
+      </c>
       <c r="BX18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY18" s="45"/>
+      <c r="BY18" s="45" t="s">
+        <v>601</v>
+      </c>
       <c r="BZ18" s="41" t="s">
         <v>14</v>
       </c>
@@ -10926,237 +11181,243 @@
         <v>14</v>
       </c>
       <c r="FG18" s="46" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="FH18" s="39" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="FI18" s="47" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="FJ18" s="12"/>
     </row>
     <row r="19">
       <c r="B19" s="4"/>
       <c r="C19" s="26" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="D19" s="27">
         <v>15.0</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S19" s="30" t="s">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="V19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="Z19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>571</v>
+        <v>616</v>
       </c>
       <c r="AB19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC19" s="33" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="AD19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE19" s="30" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="AF19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG19" s="35" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="AH19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI19" s="33" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="AJ19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK19" s="30" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="AL19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM19" s="35" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="AN19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="AP19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ19" s="30" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="AR19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS19" s="35" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="AT19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU19" s="33" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="AV19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW19" s="30" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="AX19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY19" s="35" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="AZ19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA19" s="33" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="BB19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC19" s="30" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="BD19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE19" s="35" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG19" s="33" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="BH19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI19" s="30" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="BJ19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK19" s="32" t="s">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="BL19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM19" s="33" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="BN19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO19" s="30" t="s">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c r="BP19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ19" s="32" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="BR19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS19" s="33" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="BT19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU19" s="30"/>
+      <c r="BU19" s="30" t="s">
+        <v>638</v>
+      </c>
       <c r="BV19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW19" s="32"/>
+      <c r="BW19" s="32" t="s">
+        <v>478</v>
+      </c>
       <c r="BX19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY19" s="33"/>
+      <c r="BY19" s="33" t="s">
+        <v>639</v>
+      </c>
       <c r="BZ19" s="29" t="s">
         <v>14</v>
       </c>
@@ -11329,170 +11590,170 @@
         <v>14</v>
       </c>
       <c r="FG19" s="36" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="FH19" s="27" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="FI19" s="37" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="FJ19" s="12"/>
     </row>
     <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" s="38" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
       <c r="D20" s="39">
         <v>16.0</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>598</v>
+        <v>406</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="N20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="R20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="T20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="V20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="X20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="Z20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="44" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="AB20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC20" s="45" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="AD20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE20" s="42" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="AF20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="AH20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="AJ20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK20" s="42" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="AL20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM20" s="44" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="AN20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO20" s="45" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="AP20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ20" s="42" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="AR20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS20" s="44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AT20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU20" s="45" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="AV20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW20" s="42" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="AX20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="AZ20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA20" s="45" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="BB20" s="41" t="s">
         <v>14</v>
@@ -11504,62 +11765,68 @@
         <v>4</v>
       </c>
       <c r="BE20" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG20" s="45" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="BH20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI20" s="42" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="BJ20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK20" s="44" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="BL20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM20" s="45" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="BN20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO20" s="42" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="BP20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ20" s="44" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="BR20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS20" s="45" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="BT20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU20" s="42"/>
+      <c r="BU20" s="42" t="s">
+        <v>672</v>
+      </c>
       <c r="BV20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW20" s="44"/>
+      <c r="BW20" s="44" t="s">
+        <v>673</v>
+      </c>
       <c r="BX20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY20" s="45"/>
+      <c r="BY20" s="45" t="s">
+        <v>674</v>
+      </c>
       <c r="BZ20" s="41" t="s">
         <v>14</v>
       </c>
@@ -11732,224 +11999,224 @@
         <v>14</v>
       </c>
       <c r="FG20" s="46" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="FH20" s="39" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="FI20" s="47" t="s">
-        <v>627</v>
+        <v>676</v>
       </c>
       <c r="FJ20" s="12"/>
     </row>
     <row r="21">
       <c r="B21" s="4"/>
       <c r="C21" s="26" t="s">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="D21" s="27">
         <v>17.0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>629</v>
+        <v>678</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>630</v>
+        <v>679</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>631</v>
+        <v>680</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
       <c r="V21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="X21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y21" s="30" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="Z21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA21" s="32" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="AB21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="AD21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE21" s="30" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="AF21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="AH21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="33" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="AJ21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="AL21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM21" s="32" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="AP21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ21" s="30" t="s">
-        <v>648</v>
+        <v>697</v>
       </c>
       <c r="AR21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS21" s="32" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
       <c r="AT21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="AV21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW21" s="30" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="AX21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="AZ21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA21" s="33" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="BB21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC21" s="30" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="BD21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE21" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG21" s="33" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="BH21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI21" s="30" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="BJ21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK21" s="32" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="BL21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM21" s="33" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="BN21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO21" s="30" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="BP21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ21" s="32" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="BR21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS21" s="33" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
       <c r="BT21" s="29" t="s">
         <v>14</v>
@@ -12135,224 +12402,224 @@
         <v>14</v>
       </c>
       <c r="FG21" s="36" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="FH21" s="27" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="FI21" s="37" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="FJ21" s="12"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="D22" s="39">
         <v>18.0</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="T22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="44" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="42" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA22" s="44" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="AB22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>678</v>
+        <v>727</v>
       </c>
       <c r="AF22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>679</v>
+        <v>728</v>
       </c>
       <c r="AH22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="AJ22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK22" s="49" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="AL22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="AN22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO22" s="45" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="AP22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ22" s="49" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="AR22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="AT22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU22" s="45" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="AV22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="AX22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="AZ22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA22" s="45" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
       <c r="BB22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC22" s="49" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="BD22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE22" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG22" s="45" t="s">
-        <v>690</v>
+        <v>739</v>
       </c>
       <c r="BH22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI22" s="42" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="BJ22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK22" s="44" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="BL22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM22" s="45" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="BN22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO22" s="42" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="BP22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ22" s="44" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="BR22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS22" s="45" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="BT22" s="41" t="s">
         <v>14</v>
@@ -12538,224 +12805,224 @@
         <v>14</v>
       </c>
       <c r="FG22" s="46" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="FH22" s="39" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="FI22" s="47" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="FJ22" s="12"/>
     </row>
     <row r="23">
       <c r="B23" s="4"/>
       <c r="C23" s="26" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="D23" s="27">
         <v>19.0</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="T23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="V23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="Z23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="AB23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>712</v>
+        <v>761</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="AF23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG23" s="32" t="s">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="AH23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="33" t="s">
-        <v>715</v>
+        <v>764</v>
       </c>
       <c r="AJ23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK23" s="30" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="AL23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>717</v>
+        <v>766</v>
       </c>
       <c r="AN23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>718</v>
+        <v>407</v>
       </c>
       <c r="AP23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ23" s="30" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="AR23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS23" s="32" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="AT23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="AV23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW23" s="30" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="AX23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY23" s="32" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="AZ23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA23" s="33" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="BB23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC23" s="30" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="BD23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE23" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="BH23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="30" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="BJ23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK23" s="32" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="BL23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM23" s="33" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="BN23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO23" s="30" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="BP23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ23" s="32" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="BR23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS23" s="33" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="BT23" s="29" t="s">
         <v>14</v>
@@ -12941,224 +13208,224 @@
         <v>14</v>
       </c>
       <c r="FG23" s="36" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="FH23" s="27" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="FI23" s="37" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="FJ23" s="12"/>
     </row>
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" s="38" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="D24" s="39">
         <v>20.0</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="V24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="X24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y24" s="42" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Z24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>745</v>
+        <v>793</v>
       </c>
       <c r="AB24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC24" s="45" t="s">
-        <v>746</v>
+        <v>794</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE24" s="42" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
       <c r="AF24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="AH24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="AJ24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK24" s="42" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="AL24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="AN24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO24" s="45" t="s">
-        <v>752</v>
+        <v>800</v>
       </c>
       <c r="AP24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="42" t="s">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="AR24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="AT24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="45" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
       <c r="AV24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW24" s="42" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
       <c r="AX24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>757</v>
+        <v>805</v>
       </c>
       <c r="AZ24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA24" s="45" t="s">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="BB24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC24" s="42" t="s">
-        <v>759</v>
+        <v>807</v>
       </c>
       <c r="BD24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE24" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG24" s="45" t="s">
-        <v>760</v>
+        <v>808</v>
       </c>
       <c r="BH24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI24" s="42" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK24" s="44" t="s">
-        <v>762</v>
+        <v>810</v>
       </c>
       <c r="BL24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM24" s="45" t="s">
-        <v>763</v>
+        <v>811</v>
       </c>
       <c r="BN24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO24" s="42" t="s">
-        <v>764</v>
+        <v>812</v>
       </c>
       <c r="BP24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ24" s="44" t="s">
-        <v>765</v>
+        <v>813</v>
       </c>
       <c r="BR24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS24" s="45" t="s">
-        <v>766</v>
+        <v>814</v>
       </c>
       <c r="BT24" s="41" t="s">
         <v>14</v>
@@ -13344,224 +13611,224 @@
         <v>14</v>
       </c>
       <c r="FG24" s="46" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="FH24" s="39" t="s">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="FI24" s="47" t="s">
-        <v>768</v>
+        <v>816</v>
       </c>
       <c r="FJ24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" s="26" t="s">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="D25" s="27">
         <v>21.0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>770</v>
+        <v>818</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>777</v>
+        <v>825</v>
       </c>
       <c r="T25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>778</v>
+        <v>826</v>
       </c>
       <c r="V25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>779</v>
+        <v>827</v>
       </c>
       <c r="X25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="30" t="s">
-        <v>780</v>
+        <v>828</v>
       </c>
       <c r="Z25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA25" s="32" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="AB25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE25" s="30" t="s">
-        <v>782</v>
+        <v>830</v>
       </c>
       <c r="AF25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG25" s="32" t="s">
-        <v>783</v>
+        <v>831</v>
       </c>
       <c r="AH25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI25" s="33" t="s">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="AJ25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK25" s="30" t="s">
-        <v>785</v>
+        <v>833</v>
       </c>
       <c r="AL25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>786</v>
+        <v>834</v>
       </c>
       <c r="AN25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="AP25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ25" s="30" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
       <c r="AR25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS25" s="32" t="s">
-        <v>789</v>
+        <v>837</v>
       </c>
       <c r="AT25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>790</v>
+        <v>838</v>
       </c>
       <c r="AV25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW25" s="30" t="s">
-        <v>791</v>
+        <v>839</v>
       </c>
       <c r="AX25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY25" s="32" t="s">
-        <v>792</v>
+        <v>840</v>
       </c>
       <c r="AZ25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA25" s="33" t="s">
-        <v>793</v>
+        <v>841</v>
       </c>
       <c r="BB25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC25" s="30" t="s">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="BD25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE25" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG25" s="33" t="s">
-        <v>795</v>
+        <v>843</v>
       </c>
       <c r="BH25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI25" s="30" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK25" s="32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BL25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM25" s="33" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="BN25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO25" s="30" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="BP25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ25" s="32" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="BR25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS25" s="33" t="s">
-        <v>799</v>
+        <v>847</v>
       </c>
       <c r="BT25" s="29" t="s">
         <v>14</v>
@@ -13747,224 +14014,224 @@
         <v>14</v>
       </c>
       <c r="FG25" s="36" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="FH25" s="27" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="FI25" s="37" t="s">
-        <v>801</v>
+        <v>849</v>
       </c>
       <c r="FJ25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" s="38" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="D26" s="39">
         <v>22.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>805</v>
+        <v>853</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>806</v>
+        <v>854</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>807</v>
+        <v>855</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S26" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="44" t="s">
+        <v>858</v>
+      </c>
+      <c r="V26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W26" s="45" t="s">
+        <v>859</v>
+      </c>
+      <c r="X26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="Z26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="44" t="s">
+        <v>861</v>
+      </c>
+      <c r="AB26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="AD26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE26" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="AF26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="AH26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK26" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM26" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="AN26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="45" t="s">
+        <v>866</v>
+      </c>
+      <c r="AP26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ26" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="AR26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS26" s="44" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU26" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW26" s="42" t="s">
+        <v>869</v>
+      </c>
+      <c r="AX26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY26" s="44" t="s">
+        <v>870</v>
+      </c>
+      <c r="AZ26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA26" s="45" t="s">
+        <v>871</v>
+      </c>
+      <c r="BB26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC26" s="42" t="s">
+        <v>872</v>
+      </c>
+      <c r="BD26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG26" s="45" t="s">
+        <v>873</v>
+      </c>
+      <c r="BH26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI26" s="42" t="s">
         <v>809</v>
       </c>
-      <c r="T26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="44" t="s">
-        <v>810</v>
-      </c>
-      <c r="V26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="W26" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="X26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y26" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="Z26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="44" t="s">
-        <v>813</v>
-      </c>
-      <c r="AB26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="45" t="s">
-        <v>814</v>
-      </c>
-      <c r="AD26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE26" s="42" t="s">
-        <v>815</v>
-      </c>
-      <c r="AF26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG26" s="44" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI26" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK26" s="42" t="s">
-        <v>817</v>
-      </c>
-      <c r="AL26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM26" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="AN26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO26" s="45" t="s">
-        <v>819</v>
-      </c>
-      <c r="AP26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ26" s="42" t="s">
-        <v>820</v>
-      </c>
-      <c r="AR26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS26" s="44" t="s">
-        <v>821</v>
-      </c>
-      <c r="AT26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU26" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW26" s="42" t="s">
-        <v>822</v>
-      </c>
-      <c r="AX26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY26" s="44" t="s">
-        <v>823</v>
-      </c>
-      <c r="AZ26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA26" s="45" t="s">
-        <v>824</v>
-      </c>
-      <c r="BB26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC26" s="42" t="s">
-        <v>825</v>
-      </c>
-      <c r="BD26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE26" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG26" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="BH26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI26" s="42" t="s">
-        <v>761</v>
-      </c>
       <c r="BJ26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK26" s="44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="BL26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM26" s="45" t="s">
-        <v>827</v>
+        <v>874</v>
       </c>
       <c r="BN26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO26" s="42" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
       <c r="BP26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ26" s="44" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
       <c r="BR26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS26" s="45" t="s">
-        <v>830</v>
+        <v>877</v>
       </c>
       <c r="BT26" s="41" t="s">
         <v>14</v>
@@ -14150,224 +14417,224 @@
         <v>14</v>
       </c>
       <c r="FG26" s="46" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="FH26" s="39" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
       <c r="FI26" s="47" t="s">
-        <v>832</v>
+        <v>879</v>
       </c>
       <c r="FJ26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="26" t="s">
-        <v>833</v>
+        <v>880</v>
       </c>
       <c r="D27" s="27">
         <v>23.0</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>834</v>
+        <v>881</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>835</v>
+        <v>882</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>836</v>
+        <v>883</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>837</v>
+        <v>884</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>838</v>
+        <v>885</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>839</v>
+        <v>886</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>840</v>
+        <v>887</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>841</v>
+        <v>888</v>
       </c>
       <c r="T27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>842</v>
+        <v>889</v>
       </c>
       <c r="V27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>843</v>
+        <v>890</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>844</v>
+        <v>891</v>
       </c>
       <c r="Z27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>845</v>
+        <v>892</v>
       </c>
       <c r="AB27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>846</v>
+        <v>893</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="30" t="s">
-        <v>847</v>
+        <v>894</v>
       </c>
       <c r="AF27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>848</v>
+        <v>895</v>
       </c>
       <c r="AH27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="33" t="s">
-        <v>849</v>
+        <v>896</v>
       </c>
       <c r="AJ27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK27" s="30" t="s">
-        <v>850</v>
+        <v>897</v>
       </c>
       <c r="AL27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>851</v>
+        <v>898</v>
       </c>
       <c r="AN27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>852</v>
+        <v>899</v>
       </c>
       <c r="AP27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ27" s="30" t="s">
-        <v>853</v>
+        <v>900</v>
       </c>
       <c r="AR27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS27" s="32" t="s">
-        <v>854</v>
+        <v>901</v>
       </c>
       <c r="AT27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>855</v>
+        <v>902</v>
       </c>
       <c r="AV27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW27" s="30" t="s">
-        <v>856</v>
+        <v>903</v>
       </c>
       <c r="AX27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY27" s="32" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="AZ27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA27" s="33" t="s">
-        <v>858</v>
+        <v>905</v>
       </c>
       <c r="BB27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC27" s="30" t="s">
-        <v>859</v>
+        <v>906</v>
       </c>
       <c r="BD27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE27" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>860</v>
+        <v>907</v>
       </c>
       <c r="BH27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI27" s="30" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK27" s="32" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="BL27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM27" s="33" t="s">
-        <v>861</v>
+        <v>908</v>
       </c>
       <c r="BN27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO27" s="30" t="s">
-        <v>862</v>
+        <v>909</v>
       </c>
       <c r="BP27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ27" s="32" t="s">
-        <v>863</v>
+        <v>910</v>
       </c>
       <c r="BR27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS27" s="33" t="s">
-        <v>864</v>
+        <v>911</v>
       </c>
       <c r="BT27" s="29" t="s">
         <v>14</v>
@@ -14553,224 +14820,224 @@
         <v>14</v>
       </c>
       <c r="FG27" s="36" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="FH27" s="27" t="s">
-        <v>865</v>
+        <v>912</v>
       </c>
       <c r="FI27" s="37" t="s">
-        <v>866</v>
+        <v>913</v>
       </c>
       <c r="FJ27" s="12"/>
     </row>
     <row r="28">
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>867</v>
+        <v>914</v>
       </c>
       <c r="D28" s="39">
         <v>24.0</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>868</v>
+        <v>915</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>870</v>
+        <v>917</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>871</v>
+        <v>918</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>872</v>
+        <v>919</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
       <c r="R28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
       <c r="T28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>876</v>
+        <v>923</v>
       </c>
       <c r="V28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="45" t="s">
-        <v>877</v>
+        <v>924</v>
       </c>
       <c r="X28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y28" s="42" t="s">
-        <v>878</v>
+        <v>925</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="44" t="s">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="AB28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC28" s="45" t="s">
-        <v>880</v>
+        <v>927</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="42" t="s">
-        <v>881</v>
+        <v>928</v>
       </c>
       <c r="AF28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG28" s="44" t="s">
-        <v>882</v>
+        <v>929</v>
       </c>
       <c r="AH28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI28" s="45" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="AJ28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK28" s="42" t="s">
-        <v>883</v>
+        <v>930</v>
       </c>
       <c r="AL28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>884</v>
+        <v>931</v>
       </c>
       <c r="AN28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO28" s="45" t="s">
-        <v>885</v>
+        <v>932</v>
       </c>
       <c r="AP28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ28" s="42" t="s">
-        <v>886</v>
+        <v>933</v>
       </c>
       <c r="AR28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="44" t="s">
-        <v>887</v>
+        <v>934</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU28" s="45" t="s">
-        <v>888</v>
+        <v>935</v>
       </c>
       <c r="AV28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW28" s="42" t="s">
-        <v>889</v>
+        <v>936</v>
       </c>
       <c r="AX28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>890</v>
+        <v>937</v>
       </c>
       <c r="AZ28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA28" s="45" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="BB28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC28" s="42" t="s">
-        <v>892</v>
+        <v>939</v>
       </c>
       <c r="BD28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE28" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG28" s="45" t="s">
-        <v>893</v>
+        <v>940</v>
       </c>
       <c r="BH28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI28" s="42" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK28" s="44" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="BL28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM28" s="45" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="BN28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO28" s="42" t="s">
-        <v>895</v>
+        <v>942</v>
       </c>
       <c r="BP28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ28" s="44" t="s">
-        <v>896</v>
+        <v>943</v>
       </c>
       <c r="BR28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS28" s="45" t="s">
-        <v>897</v>
+        <v>944</v>
       </c>
       <c r="BT28" s="41" t="s">
         <v>14</v>
@@ -14956,158 +15223,158 @@
         <v>14</v>
       </c>
       <c r="FG28" s="46" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="FH28" s="39" t="s">
-        <v>898</v>
+        <v>945</v>
       </c>
       <c r="FI28" s="47" t="s">
-        <v>899</v>
+        <v>946</v>
       </c>
       <c r="FJ28" s="12"/>
     </row>
     <row r="29">
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>900</v>
+        <v>947</v>
       </c>
       <c r="D29" s="27">
         <v>25.0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>901</v>
+        <v>948</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>902</v>
+        <v>949</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>903</v>
+        <v>950</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>904</v>
+        <v>951</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>906</v>
+        <v>953</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S29" s="30" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="T29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>907</v>
+        <v>954</v>
       </c>
       <c r="V29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>908</v>
+        <v>955</v>
       </c>
       <c r="X29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>909</v>
+        <v>956</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>910</v>
+        <v>957</v>
       </c>
       <c r="AB29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>911</v>
+        <v>958</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>912</v>
+        <v>959</v>
       </c>
       <c r="AF29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG29" s="32" t="s">
-        <v>913</v>
+        <v>960</v>
       </c>
       <c r="AH29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="33" t="s">
-        <v>914</v>
+        <v>961</v>
       </c>
       <c r="AJ29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK29" s="30" t="s">
-        <v>915</v>
+        <v>962</v>
       </c>
       <c r="AL29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="AN29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>917</v>
+        <v>964</v>
       </c>
       <c r="AP29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ29" s="30" t="s">
-        <v>918</v>
+        <v>965</v>
       </c>
       <c r="AR29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS29" s="32" t="s">
-        <v>919</v>
+        <v>966</v>
       </c>
       <c r="AT29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>920</v>
+        <v>967</v>
       </c>
       <c r="AV29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW29" s="30" t="s">
-        <v>921</v>
+        <v>968</v>
       </c>
       <c r="AX29" s="31" t="s">
         <v>4</v>
@@ -15119,61 +15386,61 @@
         <v>6</v>
       </c>
       <c r="BA29" s="33" t="s">
-        <v>922</v>
+        <v>969</v>
       </c>
       <c r="BB29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC29" s="30" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
       <c r="BD29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BE29" s="32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>924</v>
+        <v>971</v>
       </c>
       <c r="BH29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI29" s="30" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK29" s="32" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="BL29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM29" s="33" t="s">
-        <v>925</v>
+        <v>972</v>
       </c>
       <c r="BN29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO29" s="30" t="s">
-        <v>926</v>
+        <v>973</v>
       </c>
       <c r="BP29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ29" s="32" t="s">
-        <v>927</v>
+        <v>974</v>
       </c>
       <c r="BR29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS29" s="33" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="BT29" s="29" t="s">
         <v>14</v>
@@ -15359,224 +15626,224 @@
         <v>14</v>
       </c>
       <c r="FG29" s="36" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="FH29" s="27" t="s">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="FI29" s="37" t="s">
-        <v>929</v>
+        <v>976</v>
       </c>
       <c r="FJ29" s="12"/>
     </row>
     <row r="30">
       <c r="B30" s="4"/>
       <c r="C30" s="38" t="s">
-        <v>930</v>
+        <v>977</v>
       </c>
       <c r="D30" s="39">
         <v>26.0</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>931</v>
+        <v>978</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>932</v>
+        <v>979</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>933</v>
+        <v>980</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>934</v>
+        <v>981</v>
       </c>
       <c r="N30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>935</v>
+        <v>982</v>
       </c>
       <c r="P30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>936</v>
+        <v>983</v>
       </c>
       <c r="R30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>937</v>
+        <v>984</v>
       </c>
       <c r="T30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>938</v>
+        <v>985</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>939</v>
+        <v>986</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>940</v>
+        <v>987</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>941</v>
+        <v>988</v>
       </c>
       <c r="AB30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC30" s="45" t="s">
-        <v>942</v>
+        <v>989</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE30" s="42" t="s">
-        <v>943</v>
+        <v>990</v>
       </c>
       <c r="AF30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG30" s="44" t="s">
-        <v>944</v>
+        <v>991</v>
       </c>
       <c r="AH30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="45" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
       <c r="AJ30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="42" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="AL30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM30" s="44" t="s">
-        <v>946</v>
+        <v>993</v>
       </c>
       <c r="AN30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO30" s="45" t="s">
-        <v>947</v>
+        <v>994</v>
       </c>
       <c r="AP30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ30" s="42" t="s">
-        <v>948</v>
+        <v>995</v>
       </c>
       <c r="AR30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS30" s="44" t="s">
-        <v>949</v>
+        <v>996</v>
       </c>
       <c r="AT30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU30" s="45" t="s">
-        <v>950</v>
+        <v>997</v>
       </c>
       <c r="AV30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW30" s="42" t="s">
-        <v>943</v>
+        <v>990</v>
       </c>
       <c r="AX30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>951</v>
+        <v>998</v>
       </c>
       <c r="AZ30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA30" s="45" t="s">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="BB30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC30" s="42" t="s">
-        <v>953</v>
+        <v>1000</v>
       </c>
       <c r="BD30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BE30" s="44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BF30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BG30" s="45" t="s">
-        <v>954</v>
+        <v>1001</v>
       </c>
       <c r="BH30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI30" s="42" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK30" s="44" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="BL30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM30" s="45" t="s">
-        <v>955</v>
+        <v>1002</v>
       </c>
       <c r="BN30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO30" s="42" t="s">
-        <v>956</v>
+        <v>1003</v>
       </c>
       <c r="BP30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ30" s="44" t="s">
-        <v>957</v>
+        <v>1004</v>
       </c>
       <c r="BR30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS30" s="45" t="s">
-        <v>958</v>
+        <v>1005</v>
       </c>
       <c r="BT30" s="41" t="s">
         <v>14</v>
@@ -15762,249 +16029,261 @@
         <v>14</v>
       </c>
       <c r="FG30" s="46" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="FH30" s="39" t="s">
-        <v>959</v>
+        <v>1006</v>
       </c>
       <c r="FI30" s="47" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
       <c r="FJ30" s="12"/>
     </row>
     <row r="31">
       <c r="B31" s="4"/>
       <c r="C31" s="50" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>963</v>
+        <v>1010</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>964</v>
+        <v>1011</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>966</v>
+        <v>1013</v>
       </c>
       <c r="L31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>967</v>
+        <v>1014</v>
       </c>
       <c r="N31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>968</v>
+        <v>1015</v>
       </c>
       <c r="P31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>970</v>
+        <v>1017</v>
       </c>
       <c r="T31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>971</v>
+        <v>1018</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="57" t="s">
-        <v>972</v>
+        <v>1019</v>
       </c>
       <c r="X31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>973</v>
+        <v>1020</v>
       </c>
       <c r="Z31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>974</v>
+        <v>1021</v>
       </c>
       <c r="AB31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AC31" s="57" t="s">
-        <v>975</v>
+        <v>1022</v>
       </c>
       <c r="AD31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="58" t="s">
-        <v>976</v>
+        <v>1023</v>
       </c>
       <c r="AF31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AG31" s="59" t="s">
-        <v>977</v>
+        <v>1024</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="60" t="s">
-        <v>978</v>
+        <v>1025</v>
       </c>
       <c r="AJ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="58" t="s">
-        <v>979</v>
+        <v>1026</v>
       </c>
       <c r="AL31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AM31" s="59" t="s">
-        <v>980</v>
+        <v>1027</v>
       </c>
       <c r="AN31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AO31" s="60" t="s">
-        <v>981</v>
+        <v>1028</v>
       </c>
       <c r="AP31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AQ31" s="58" t="s">
-        <v>982</v>
+        <v>1029</v>
       </c>
       <c r="AR31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AS31" s="59" t="s">
-        <v>983</v>
+        <v>1030</v>
       </c>
       <c r="AT31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AU31" s="60" t="s">
-        <v>984</v>
+        <v>1031</v>
       </c>
       <c r="AV31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>985</v>
+        <v>1032</v>
       </c>
       <c r="AX31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AY31" s="59" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="AZ31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BA31" s="60" t="s">
-        <v>986</v>
+        <v>1033</v>
       </c>
       <c r="BB31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BC31" s="58" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BD31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BE31" s="59" t="s">
-        <v>987</v>
+        <v>1034</v>
       </c>
       <c r="BF31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BG31" s="60" t="s">
-        <v>988</v>
+        <v>1035</v>
       </c>
       <c r="BH31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BI31" s="54" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
       <c r="BJ31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BK31" s="56" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="BL31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BM31" s="57" t="s">
-        <v>989</v>
+        <v>1036</v>
       </c>
       <c r="BN31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BO31" s="54" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="BP31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BQ31" s="56" t="s">
-        <v>990</v>
+        <v>1037</v>
       </c>
       <c r="BR31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BS31" s="57" t="s">
-        <v>991</v>
+        <v>1038</v>
       </c>
       <c r="BT31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BU31" s="54"/>
+      <c r="BU31" s="54" t="s">
+        <v>1039</v>
+      </c>
       <c r="BV31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="BW31" s="56"/>
+      <c r="BW31" s="56" t="s">
+        <v>1040</v>
+      </c>
       <c r="BX31" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="BY31" s="57"/>
+      <c r="BY31" s="57" t="s">
+        <v>1041</v>
+      </c>
       <c r="BZ31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CA31" s="54"/>
+      <c r="CA31" s="54" t="s">
+        <v>1042</v>
+      </c>
       <c r="CB31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="CC31" s="56"/>
+      <c r="CC31" s="56" t="s">
+        <v>1043</v>
+      </c>
       <c r="CD31" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="CE31" s="57"/>
+      <c r="CE31" s="57" t="s">
+        <v>1044</v>
+      </c>
       <c r="CF31" s="53" t="s">
         <v>14</v>
       </c>
@@ -16165,506 +16444,506 @@
         <v>14</v>
       </c>
       <c r="FG31" s="61" t="s">
-        <v>992</v>
+        <v>1045</v>
       </c>
       <c r="FH31" s="51" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
       <c r="FI31" s="62" t="s">
-        <v>993</v>
+        <v>1046</v>
       </c>
       <c r="FJ31" s="12"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>
       <c r="C32" s="63" t="s">
-        <v>994</v>
+        <v>1047</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>995</v>
+        <v>1048</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>996</v>
+        <v>1049</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>900</v>
+        <v>947</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>1000</v>
+        <v>1053</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="Q32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>1001</v>
+        <v>1054</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="T32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="V32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="X32" s="66" t="s">
-        <v>1002</v>
+        <v>1055</v>
       </c>
       <c r="Y32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="Z32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="AB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AC32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="AD32" s="66" t="s">
-        <v>1003</v>
+        <v>1056</v>
       </c>
       <c r="AE32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="AF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="AH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="AJ32" s="66" t="s">
-        <v>1004</v>
+        <v>1057</v>
       </c>
       <c r="AK32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="AL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AM32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="AN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AO32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="AP32" s="66" t="s">
-        <v>1005</v>
+        <v>1058</v>
       </c>
       <c r="AQ32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="AR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AS32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="AT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AU32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="AV32" s="66" t="s">
-        <v>1006</v>
+        <v>1059</v>
       </c>
       <c r="AW32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="AX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AY32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="AZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BA32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="BB32" s="66" t="s">
-        <v>1007</v>
+        <v>1060</v>
       </c>
       <c r="BC32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="BD32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BE32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="BF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BG32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="BH32" s="66" t="s">
-        <v>1008</v>
+        <v>1061</v>
       </c>
       <c r="BI32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="BJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BK32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="BL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BM32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="BN32" s="66" t="s">
-        <v>1009</v>
+        <v>1062</v>
       </c>
       <c r="BO32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="BP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BQ32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="BR32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BS32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="BT32" s="66" t="s">
-        <v>1010</v>
+        <v>1063</v>
       </c>
       <c r="BU32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="BV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BW32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="BX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BY32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="BZ32" s="66" t="s">
-        <v>1011</v>
+        <v>1064</v>
       </c>
       <c r="CA32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="CB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CC32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="CD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CE32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="CF32" s="66" t="s">
-        <v>1012</v>
+        <v>1065</v>
       </c>
       <c r="CG32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="CH32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CI32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="CJ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CK32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="CL32" s="66" t="s">
-        <v>1013</v>
+        <v>1066</v>
       </c>
       <c r="CM32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="CN32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CO32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="CP32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CQ32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="CR32" s="66" t="s">
-        <v>1014</v>
+        <v>1067</v>
       </c>
       <c r="CS32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="CT32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CU32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="CV32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CW32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="CX32" s="66" t="s">
-        <v>1015</v>
+        <v>1068</v>
       </c>
       <c r="CY32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="CZ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DA32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="DB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DC32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="DD32" s="66" t="s">
-        <v>1016</v>
+        <v>1069</v>
       </c>
       <c r="DE32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="DF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DG32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="DH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DI32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>1017</v>
+        <v>1070</v>
       </c>
       <c r="DK32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="DL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DM32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="DN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DO32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="DP32" s="66" t="s">
-        <v>1018</v>
+        <v>1071</v>
       </c>
       <c r="DQ32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="DR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DS32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="DT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DU32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="DV32" s="66" t="s">
-        <v>1019</v>
+        <v>1072</v>
       </c>
       <c r="DW32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="DX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DY32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="DZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EA32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="EB32" s="66" t="s">
-        <v>1020</v>
+        <v>1073</v>
       </c>
       <c r="EC32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="ED32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EE32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="EF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EG32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="EH32" s="66" t="s">
-        <v>1021</v>
+        <v>1074</v>
       </c>
       <c r="EI32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="EJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EK32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="EL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EM32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="EN32" s="66" t="s">
-        <v>1022</v>
+        <v>1075</v>
       </c>
       <c r="EO32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="EP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EQ32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="ER32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="ES32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="ET32" s="66" t="s">
-        <v>1023</v>
+        <v>1076</v>
       </c>
       <c r="EU32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="EV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EW32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="EX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EY32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="EZ32" s="66" t="s">
-        <v>1024</v>
+        <v>1077</v>
       </c>
       <c r="FA32" s="67" t="s">
-        <v>997</v>
+        <v>1050</v>
       </c>
       <c r="FB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="FC32" s="65" t="s">
-        <v>998</v>
+        <v>1051</v>
       </c>
       <c r="FD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="FE32" s="68" t="s">
-        <v>999</v>
+        <v>1052</v>
       </c>
       <c r="FF32" s="66" t="s">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="FG32" s="67" t="s">
-        <v>1026</v>
+        <v>1079</v>
       </c>
       <c r="FH32" s="64" t="s">
-        <v>1027</v>
+        <v>1080</v>
       </c>
       <c r="FI32" s="69" t="s">
-        <v>1028</v>
+        <v>1081</v>
       </c>
       <c r="FJ32" s="12"/>
     </row>
@@ -16946,10 +17225,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1029</v>
+        <v>1082</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1030</v>
+        <v>1083</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>9</v>
@@ -16984,10 +17263,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>1031</v>
+        <v>1084</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>1032</v>
+        <v>1085</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>12</v>
@@ -17002,7 +17281,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="84" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K2" s="82"/>
       <c r="L2" s="82"/>
@@ -17024,13 +17303,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>1033</v>
+        <v>1086</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>1034</v>
+        <v>1087</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
@@ -17039,10 +17318,10 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="82"/>
@@ -17064,13 +17343,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1035</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1036</v>
+        <v>1089</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
@@ -17079,10 +17358,10 @@
         <v>2.0</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -17104,13 +17383,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>1037</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1038</v>
+        <v>1091</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
@@ -17119,10 +17398,10 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
@@ -17144,13 +17423,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1039</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1040</v>
+        <v>1093</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -17159,10 +17438,10 @@
         <v>4.0</v>
       </c>
       <c r="I6" s="90" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
@@ -17184,13 +17463,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1041</v>
+        <v>1094</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>1042</v>
+        <v>1095</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -17199,10 +17478,10 @@
         <v>5.0</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="K7" s="82"/>
       <c r="L7" s="82"/>
@@ -17224,13 +17503,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1043</v>
+        <v>1096</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>1044</v>
+        <v>1097</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="89"/>
@@ -17239,10 +17518,10 @@
         <v>6.0</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
@@ -17264,13 +17543,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>1045</v>
+        <v>1098</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1046</v>
+        <v>1099</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -17279,10 +17558,10 @@
         <v>7.0</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
@@ -17304,13 +17583,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1047</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1048</v>
+        <v>1101</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -17319,10 +17598,10 @@
         <v>8.0</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
@@ -17344,13 +17623,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>1049</v>
+        <v>1102</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>1050</v>
+        <v>1103</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
@@ -17359,10 +17638,10 @@
         <v>9.0</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
@@ -17384,13 +17663,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1051</v>
+        <v>1104</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>1052</v>
+        <v>1105</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -17399,10 +17678,10 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="J12" s="91" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="89"/>
@@ -17424,13 +17703,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1053</v>
+        <v>1106</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1054</v>
+        <v>1107</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -17439,10 +17718,10 @@
         <v>11.0</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="82"/>
@@ -17464,13 +17743,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1055</v>
+        <v>1108</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>1056</v>
+        <v>1109</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
@@ -17479,10 +17758,10 @@
         <v>12.0</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
@@ -17504,13 +17783,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>1057</v>
+        <v>1110</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1058</v>
+        <v>1111</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="82"/>
@@ -17519,10 +17798,10 @@
         <v>13.0</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="82"/>
@@ -17544,13 +17823,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1059</v>
+        <v>1112</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>1060</v>
+        <v>1113</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -17559,10 +17838,10 @@
         <v>14.0</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
@@ -17584,13 +17863,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1061</v>
+        <v>1114</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1062</v>
+        <v>1115</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
@@ -17599,10 +17878,10 @@
         <v>15.0</v>
       </c>
       <c r="I17" s="86" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="J17" s="87" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="82"/>
@@ -17624,13 +17903,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1063</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>1064</v>
+        <v>1117</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
@@ -17639,10 +17918,10 @@
         <v>16.0</v>
       </c>
       <c r="I18" s="90" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
@@ -17664,13 +17943,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>1065</v>
+        <v>1118</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>1066</v>
+        <v>1119</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82"/>
@@ -17679,10 +17958,10 @@
         <v>17.0</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>629</v>
+        <v>678</v>
       </c>
       <c r="J19" s="87" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="82"/>
@@ -17704,13 +17983,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1067</v>
+        <v>1120</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1068</v>
+        <v>1121</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
@@ -17719,10 +17998,10 @@
         <v>18.0</v>
       </c>
       <c r="I20" s="90" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
       <c r="J20" s="91" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
@@ -17744,13 +18023,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>1069</v>
+        <v>1122</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1070</v>
+        <v>1123</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
@@ -17759,10 +18038,10 @@
         <v>19.0</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="J21" s="87" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
@@ -17784,13 +18063,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>1071</v>
+        <v>1124</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>1072</v>
+        <v>1125</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
@@ -17799,10 +18078,10 @@
         <v>20.0</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="K22" s="89"/>
       <c r="L22" s="89"/>
@@ -17824,13 +18103,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>1073</v>
+        <v>1126</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1074</v>
+        <v>1127</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
@@ -17839,10 +18118,10 @@
         <v>21.0</v>
       </c>
       <c r="I23" s="86" t="s">
-        <v>770</v>
+        <v>818</v>
       </c>
       <c r="J23" s="87" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="82"/>
@@ -17864,13 +18143,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1075</v>
+        <v>1128</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>1076</v>
+        <v>1129</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -17879,10 +18158,10 @@
         <v>22.0</v>
       </c>
       <c r="I24" s="90" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="J24" s="91" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
@@ -17904,13 +18183,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1077</v>
+        <v>1130</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1078</v>
+        <v>1131</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>865</v>
+        <v>912</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
@@ -17919,10 +18198,10 @@
         <v>23.0</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>834</v>
+        <v>881</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
@@ -17944,13 +18223,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>1079</v>
+        <v>1132</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>1080</v>
+        <v>1133</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>898</v>
+        <v>945</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -17959,10 +18238,10 @@
         <v>24.0</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>868</v>
+        <v>915</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K26" s="89"/>
       <c r="L26" s="89"/>
@@ -17984,13 +18263,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>1081</v>
+        <v>1134</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>1082</v>
+        <v>1135</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
@@ -17999,10 +18278,10 @@
         <v>25.0</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>901</v>
+        <v>948</v>
       </c>
       <c r="J27" s="87" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="82"/>
@@ -18024,13 +18303,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>1083</v>
+        <v>1136</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>1084</v>
+        <v>1137</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>959</v>
+        <v>1006</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -18039,10 +18318,10 @@
         <v>26.0</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>931</v>
+        <v>978</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
@@ -18061,28 +18340,28 @@
     </row>
     <row r="29">
       <c r="A29" s="81" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>1085</v>
+        <v>1138</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>1086</v>
+        <v>1139</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
       <c r="H29" s="83" t="s">
-        <v>962</v>
+        <v>1009</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>963</v>
+        <v>1010</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>992</v>
+        <v>1045</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
@@ -18101,26 +18380,26 @@
     </row>
     <row r="30">
       <c r="A30" s="76" t="s">
-        <v>995</v>
+        <v>1048</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1087</v>
+        <v>1140</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1088</v>
+        <v>1141</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1027</v>
+        <v>1080</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79" t="s">
-        <v>996</v>
+        <v>1049</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>1026</v>
+        <v>1079</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="1170">
   <si>
     <t>π</t>
   </si>
@@ -2147,6 +2147,15 @@
     <t>cash</t>
   </si>
   <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
     <t>সতেরো</t>
   </si>
   <si>
@@ -2252,6 +2261,15 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
     <t>আঠারো</t>
   </si>
   <si>
@@ -2354,6 +2372,12 @@
     <t>commerce</t>
   </si>
   <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
     <t>উনিশ</t>
   </si>
   <si>
@@ -2459,6 +2483,15 @@
     <t>complex</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
     <t>বিশ</t>
   </si>
   <si>
@@ -2558,6 +2591,15 @@
     <t>control</t>
   </si>
   <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>একুশ</t>
   </si>
   <si>
@@ -2648,6 +2690,15 @@
     <t>class</t>
   </si>
   <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
     <t>বাইশ</t>
   </si>
   <si>
@@ -2750,6 +2801,15 @@
     <t>centre</t>
   </si>
   <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
     <t>তেইশ</t>
   </si>
   <si>
@@ -2780,9 +2840,6 @@
     <t>melanin</t>
   </si>
   <si>
-    <t>engineer</t>
-  </si>
-  <si>
     <t>calculus</t>
   </si>
   <si>
@@ -2849,6 +2906,15 @@
     <t>close</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
     <t>চব্বিশ</t>
   </si>
   <si>
@@ -2939,6 +3005,15 @@
     <t>justice</t>
   </si>
   <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>ribbon</t>
+  </si>
+  <si>
     <t>পঁচিশ</t>
   </si>
   <si>
@@ -3030,6 +3105,15 @@
   </si>
   <si>
     <t>cycle</t>
+  </si>
+  <si>
+    <t>magical</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>foam</t>
   </si>
   <si>
     <t>ছাব্বিশ</t>
@@ -12221,15 +12305,21 @@
       <c r="BT21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU21" s="30"/>
+      <c r="BU21" s="30" t="s">
+        <v>711</v>
+      </c>
       <c r="BV21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW21" s="32"/>
+      <c r="BW21" s="32" t="s">
+        <v>712</v>
+      </c>
       <c r="BX21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY21" s="33"/>
+      <c r="BY21" s="33" t="s">
+        <v>713</v>
+      </c>
       <c r="BZ21" s="29" t="s">
         <v>14</v>
       </c>
@@ -12405,125 +12495,125 @@
         <v>447</v>
       </c>
       <c r="FH21" s="27" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="FI21" s="37" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="FJ21" s="12"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D22" s="39">
         <v>18.0</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="T22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="44" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="42" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA22" s="44" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="AB22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="AF22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="AH22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AJ22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK22" s="49" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AL22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AN22" s="43" t="s">
         <v>6</v>
@@ -12535,43 +12625,43 @@
         <v>14</v>
       </c>
       <c r="AQ22" s="49" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AR22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AT22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU22" s="45" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AV22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AX22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="AZ22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA22" s="45" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="BB22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC22" s="49" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="BD22" s="43" t="s">
         <v>4</v>
@@ -12583,56 +12673,62 @@
         <v>6</v>
       </c>
       <c r="BG22" s="45" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="BH22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI22" s="42" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="BJ22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK22" s="44" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="BL22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM22" s="45" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="BN22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO22" s="42" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="BP22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ22" s="44" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="BR22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS22" s="45" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="BT22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU22" s="42"/>
+      <c r="BU22" s="42" t="s">
+        <v>749</v>
+      </c>
       <c r="BV22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW22" s="44"/>
+      <c r="BW22" s="44" t="s">
+        <v>750</v>
+      </c>
       <c r="BX22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY22" s="45"/>
+      <c r="BY22" s="45" t="s">
+        <v>751</v>
+      </c>
       <c r="BZ22" s="41" t="s">
         <v>14</v>
       </c>
@@ -12808,125 +12904,125 @@
         <v>409</v>
       </c>
       <c r="FH22" s="39" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="FI22" s="47" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="FJ22" s="12"/>
     </row>
     <row r="23">
       <c r="B23" s="4"/>
       <c r="C23" s="26" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D23" s="27">
         <v>19.0</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="T23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="V23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="Z23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="AB23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="AF23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG23" s="32" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="AH23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="33" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="AJ23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK23" s="30" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="AL23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="AN23" s="31" t="s">
         <v>6</v>
@@ -12938,19 +13034,19 @@
         <v>14</v>
       </c>
       <c r="AQ23" s="30" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="AR23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS23" s="32" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="AT23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="AV23" s="29" t="s">
         <v>14</v>
@@ -12962,19 +13058,19 @@
         <v>4</v>
       </c>
       <c r="AY23" s="32" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="AZ23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA23" s="33" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="BB23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC23" s="30" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="BD23" s="31" t="s">
         <v>4</v>
@@ -12986,56 +13082,62 @@
         <v>6</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="BH23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="30" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="BJ23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK23" s="32" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="BL23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM23" s="33" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="BN23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO23" s="30" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="BP23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ23" s="32" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="BR23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS23" s="33" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="BT23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU23" s="30"/>
+      <c r="BU23" s="30" t="s">
+        <v>786</v>
+      </c>
       <c r="BV23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW23" s="32"/>
+      <c r="BW23" s="32" t="s">
+        <v>460</v>
+      </c>
       <c r="BX23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY23" s="33"/>
+      <c r="BY23" s="33" t="s">
+        <v>787</v>
+      </c>
       <c r="BZ23" s="29" t="s">
         <v>14</v>
       </c>
@@ -13211,77 +13313,77 @@
         <v>370</v>
       </c>
       <c r="FH23" s="27" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="FI23" s="37" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="FJ23" s="12"/>
     </row>
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" s="38" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D24" s="39">
         <v>20.0</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="V24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="X24" s="41" t="s">
         <v>14</v>
@@ -13293,91 +13395,91 @@
         <v>4</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="AB24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC24" s="45" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE24" s="42" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="AF24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="AH24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="AJ24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK24" s="42" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="AL24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="AN24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO24" s="45" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="AP24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="42" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="AR24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="AT24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="45" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="AV24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW24" s="42" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="AX24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="AZ24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA24" s="45" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="BB24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC24" s="42" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="BD24" s="43" t="s">
         <v>4</v>
@@ -13389,56 +13491,62 @@
         <v>6</v>
       </c>
       <c r="BG24" s="45" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="BH24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI24" s="42" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK24" s="44" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="BL24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM24" s="45" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="BN24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO24" s="42" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="BP24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ24" s="44" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="BR24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS24" s="45" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="BT24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU24" s="42"/>
+      <c r="BU24" s="42" t="s">
+        <v>823</v>
+      </c>
       <c r="BV24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW24" s="44"/>
+      <c r="BW24" s="44" t="s">
+        <v>824</v>
+      </c>
       <c r="BX24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY24" s="45"/>
+      <c r="BY24" s="45" t="s">
+        <v>825</v>
+      </c>
       <c r="BZ24" s="41" t="s">
         <v>14</v>
       </c>
@@ -13614,173 +13722,173 @@
         <v>331</v>
       </c>
       <c r="FH24" s="39" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="FI24" s="47" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="FJ24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" s="26" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="D25" s="27">
         <v>21.0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="T25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="V25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="X25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="30" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="Z25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA25" s="32" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="AB25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE25" s="30" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="AF25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG25" s="32" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="AH25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI25" s="33" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="AJ25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK25" s="30" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="AL25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="AN25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="AP25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ25" s="30" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="AR25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS25" s="32" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="AT25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="AV25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW25" s="30" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="AX25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY25" s="32" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="AZ25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA25" s="33" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="BB25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC25" s="30" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="BD25" s="31" t="s">
         <v>4</v>
@@ -13792,13 +13900,13 @@
         <v>6</v>
       </c>
       <c r="BG25" s="33" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="BH25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI25" s="30" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ25" s="31" t="s">
         <v>4</v>
@@ -13810,38 +13918,44 @@
         <v>6</v>
       </c>
       <c r="BM25" s="33" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="BN25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO25" s="30" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="BP25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ25" s="32" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="BR25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS25" s="33" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="BT25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU25" s="30"/>
+      <c r="BU25" s="30" t="s">
+        <v>859</v>
+      </c>
       <c r="BV25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW25" s="32"/>
+      <c r="BW25" s="32" t="s">
+        <v>860</v>
+      </c>
       <c r="BX25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY25" s="33"/>
+      <c r="BY25" s="33" t="s">
+        <v>861</v>
+      </c>
       <c r="BZ25" s="29" t="s">
         <v>14</v>
       </c>
@@ -14017,23 +14131,23 @@
         <v>291</v>
       </c>
       <c r="FH25" s="27" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="FI25" s="37" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="FJ25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" s="38" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="D26" s="39">
         <v>22.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>14</v>
@@ -14045,79 +14159,79 @@
         <v>4</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="T26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U26" s="44" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="V26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="45" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="X26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="42" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="Z26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA26" s="44" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="AB26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC26" s="45" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="AD26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE26" s="42" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="AF26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG26" s="44" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="AH26" s="43" t="s">
         <v>6</v>
@@ -14135,25 +14249,25 @@
         <v>4</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="AN26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO26" s="45" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="AP26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ26" s="42" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="AR26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS26" s="44" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="AT26" s="43" t="s">
         <v>6</v>
@@ -14165,25 +14279,25 @@
         <v>14</v>
       </c>
       <c r="AW26" s="42" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="AX26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="AZ26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA26" s="45" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="BB26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC26" s="42" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="BD26" s="43" t="s">
         <v>4</v>
@@ -14195,13 +14309,13 @@
         <v>6</v>
       </c>
       <c r="BG26" s="45" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="BH26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI26" s="42" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ26" s="43" t="s">
         <v>4</v>
@@ -14213,38 +14327,44 @@
         <v>6</v>
       </c>
       <c r="BM26" s="45" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="BN26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO26" s="42" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="BP26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ26" s="44" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="BR26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS26" s="45" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="BT26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU26" s="42"/>
+      <c r="BU26" s="42" t="s">
+        <v>892</v>
+      </c>
       <c r="BV26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW26" s="44"/>
+      <c r="BW26" s="44" t="s">
+        <v>893</v>
+      </c>
       <c r="BX26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY26" s="45"/>
+      <c r="BY26" s="45" t="s">
+        <v>894</v>
+      </c>
       <c r="BZ26" s="41" t="s">
         <v>14</v>
       </c>
@@ -14420,173 +14540,173 @@
         <v>252</v>
       </c>
       <c r="FH26" s="39" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="FI26" s="47" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="FJ26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="26" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="D27" s="27">
         <v>23.0</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="T27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="V27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="Z27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="AB27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="30" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="AF27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="AH27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="33" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="AJ27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK27" s="30" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="AL27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="AN27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="AP27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ27" s="30" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="AR27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS27" s="32" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="AT27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="AV27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW27" s="30" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="AX27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY27" s="32" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="AZ27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA27" s="33" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="BB27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC27" s="30" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="BD27" s="31" t="s">
         <v>4</v>
@@ -14598,13 +14718,13 @@
         <v>6</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="BH27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI27" s="30" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ27" s="31" t="s">
         <v>4</v>
@@ -14616,38 +14736,44 @@
         <v>6</v>
       </c>
       <c r="BM27" s="33" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="BN27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO27" s="30" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="BP27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ27" s="32" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="BR27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS27" s="33" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="BT27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU27" s="30"/>
+      <c r="BU27" s="30" t="s">
+        <v>929</v>
+      </c>
       <c r="BV27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW27" s="32"/>
+      <c r="BW27" s="32" t="s">
+        <v>930</v>
+      </c>
       <c r="BX27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY27" s="33"/>
+      <c r="BY27" s="33" t="s">
+        <v>931</v>
+      </c>
       <c r="BZ27" s="29" t="s">
         <v>14</v>
       </c>
@@ -14823,107 +14949,107 @@
         <v>212</v>
       </c>
       <c r="FH27" s="27" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="FI27" s="37" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="FJ27" s="12"/>
     </row>
     <row r="28">
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D28" s="39">
         <v>24.0</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="R28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>922</v>
+        <v>712</v>
       </c>
       <c r="T28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="V28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="45" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="X28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y28" s="42" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="44" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="AB28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC28" s="45" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="42" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="AF28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG28" s="44" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="AH28" s="43" t="s">
         <v>6</v>
@@ -14935,61 +15061,61 @@
         <v>14</v>
       </c>
       <c r="AK28" s="42" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="AL28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="AN28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO28" s="45" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="AP28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ28" s="42" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="AR28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="44" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU28" s="45" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="AV28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW28" s="42" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="AX28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="AZ28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA28" s="45" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="BB28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC28" s="42" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="BD28" s="43" t="s">
         <v>4</v>
@@ -15001,13 +15127,13 @@
         <v>6</v>
       </c>
       <c r="BG28" s="45" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="BH28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI28" s="42" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ28" s="43" t="s">
         <v>4</v>
@@ -15019,38 +15145,44 @@
         <v>6</v>
       </c>
       <c r="BM28" s="45" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="BN28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO28" s="42" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="BP28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ28" s="44" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="BR28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS28" s="45" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="BT28" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU28" s="42"/>
+      <c r="BU28" s="42" t="s">
+        <v>964</v>
+      </c>
       <c r="BV28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW28" s="44"/>
+      <c r="BW28" s="44" t="s">
+        <v>965</v>
+      </c>
       <c r="BX28" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY28" s="45"/>
+      <c r="BY28" s="45" t="s">
+        <v>966</v>
+      </c>
       <c r="BZ28" s="41" t="s">
         <v>14</v>
       </c>
@@ -15226,29 +15358,29 @@
         <v>172</v>
       </c>
       <c r="FH28" s="39" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="FI28" s="47" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="FJ28" s="12"/>
     </row>
     <row r="29">
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="D29" s="27">
         <v>25.0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>4</v>
@@ -15260,25 +15392,25 @@
         <v>6</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>14</v>
@@ -15290,91 +15422,91 @@
         <v>4</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="V29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="X29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="AB29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="AF29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG29" s="32" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="AH29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="33" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="AJ29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK29" s="30" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="AL29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="AN29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="AP29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ29" s="30" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="AR29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS29" s="32" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="AT29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="AV29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW29" s="30" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="AX29" s="31" t="s">
         <v>4</v>
@@ -15386,13 +15518,13 @@
         <v>6</v>
       </c>
       <c r="BA29" s="33" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="BB29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC29" s="30" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="BD29" s="31" t="s">
         <v>4</v>
@@ -15404,13 +15536,13 @@
         <v>6</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="BH29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI29" s="30" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ29" s="31" t="s">
         <v>4</v>
@@ -15422,19 +15554,19 @@
         <v>6</v>
       </c>
       <c r="BM29" s="33" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="BN29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO29" s="30" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="BP29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ29" s="32" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="BR29" s="31" t="s">
         <v>6</v>
@@ -15445,15 +15577,21 @@
       <c r="BT29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BU29" s="30"/>
+      <c r="BU29" s="30" t="s">
+        <v>997</v>
+      </c>
       <c r="BV29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="BW29" s="32"/>
+      <c r="BW29" s="32" t="s">
+        <v>998</v>
+      </c>
       <c r="BX29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BY29" s="33"/>
+      <c r="BY29" s="33" t="s">
+        <v>999</v>
+      </c>
       <c r="BZ29" s="29" t="s">
         <v>14</v>
       </c>
@@ -15629,23 +15767,23 @@
         <v>133</v>
       </c>
       <c r="FH29" s="27" t="s">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="FI29" s="37" t="s">
-        <v>976</v>
+        <v>1001</v>
       </c>
       <c r="FJ29" s="12"/>
     </row>
     <row r="30">
       <c r="B30" s="4"/>
       <c r="C30" s="38" t="s">
-        <v>977</v>
+        <v>1002</v>
       </c>
       <c r="D30" s="39">
         <v>26.0</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>14</v>
@@ -15657,85 +15795,85 @@
         <v>4</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>979</v>
+        <v>1004</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="N30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>982</v>
+        <v>1007</v>
       </c>
       <c r="P30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="R30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
       <c r="T30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>986</v>
+        <v>1011</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="AB30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC30" s="45" t="s">
-        <v>989</v>
+        <v>1014</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE30" s="42" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="AF30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG30" s="44" t="s">
-        <v>991</v>
+        <v>1016</v>
       </c>
       <c r="AH30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="45" t="s">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="AJ30" s="41" t="s">
         <v>14</v>
@@ -15747,55 +15885,55 @@
         <v>4</v>
       </c>
       <c r="AM30" s="44" t="s">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="AN30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO30" s="45" t="s">
-        <v>994</v>
+        <v>1019</v>
       </c>
       <c r="AP30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ30" s="42" t="s">
-        <v>995</v>
+        <v>1020</v>
       </c>
       <c r="AR30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS30" s="44" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
       <c r="AT30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU30" s="45" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
       <c r="AV30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW30" s="42" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="AX30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
       <c r="AZ30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA30" s="45" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
       <c r="BB30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC30" s="42" t="s">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="BD30" s="43" t="s">
         <v>4</v>
@@ -15807,13 +15945,13 @@
         <v>6</v>
       </c>
       <c r="BG30" s="45" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="BH30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI30" s="42" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ30" s="43" t="s">
         <v>4</v>
@@ -15825,38 +15963,44 @@
         <v>6</v>
       </c>
       <c r="BM30" s="45" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="BN30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO30" s="42" t="s">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="BP30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ30" s="44" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="BR30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS30" s="45" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="BT30" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BU30" s="42"/>
+      <c r="BU30" s="42" t="s">
+        <v>1031</v>
+      </c>
       <c r="BV30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BW30" s="44"/>
+      <c r="BW30" s="44" t="s">
+        <v>1032</v>
+      </c>
       <c r="BX30" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BY30" s="45"/>
+      <c r="BY30" s="45" t="s">
+        <v>1033</v>
+      </c>
       <c r="BZ30" s="41" t="s">
         <v>14</v>
       </c>
@@ -16032,167 +16176,167 @@
         <v>93</v>
       </c>
       <c r="FH30" s="39" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="FI30" s="47" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="FJ30" s="12"/>
     </row>
     <row r="31">
       <c r="B31" s="4"/>
       <c r="C31" s="50" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="L31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="N31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="P31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
       <c r="T31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="57" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="X31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="Z31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="AB31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AC31" s="57" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="AD31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="58" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="AF31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AG31" s="59" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="60" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="AJ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="58" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="AL31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AM31" s="59" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="AN31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AO31" s="60" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="AP31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AQ31" s="58" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="AR31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AS31" s="59" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="AT31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AU31" s="60" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="AV31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="AX31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AY31" s="59" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="AZ31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BA31" s="60" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="BB31" s="53" t="s">
         <v>14</v>
@@ -16204,19 +16348,19 @@
         <v>4</v>
       </c>
       <c r="BE31" s="59" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="BF31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BG31" s="60" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="BH31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BI31" s="54" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="BJ31" s="55" t="s">
         <v>4</v>
@@ -16228,7 +16372,7 @@
         <v>6</v>
       </c>
       <c r="BM31" s="57" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="BN31" s="53" t="s">
         <v>14</v>
@@ -16240,49 +16384,49 @@
         <v>4</v>
       </c>
       <c r="BQ31" s="56" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="BR31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BS31" s="57" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="BT31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BU31" s="54" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="BV31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BW31" s="56" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="BX31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BY31" s="57" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="BZ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="CA31" s="54" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="CB31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="CC31" s="56" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="CD31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="CE31" s="57" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="CF31" s="53" t="s">
         <v>14</v>
@@ -16444,506 +16588,506 @@
         <v>14</v>
       </c>
       <c r="FG31" s="61" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="FH31" s="51" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="FI31" s="62" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="FJ31" s="12"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>
       <c r="C32" s="63" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="Q32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="T32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="V32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="X32" s="66" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="Y32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="Z32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="AB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AC32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="AD32" s="66" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="AE32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="AF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="AH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="AJ32" s="66" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="AK32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="AL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AM32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="AN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AO32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="AP32" s="66" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="AQ32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="AR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AS32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="AT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AU32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="AV32" s="66" t="s">
-        <v>1059</v>
+        <v>1087</v>
       </c>
       <c r="AW32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="AX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AY32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="AZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BA32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="BB32" s="66" t="s">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="BC32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="BD32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BE32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="BF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BG32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="BH32" s="66" t="s">
-        <v>1061</v>
+        <v>1089</v>
       </c>
       <c r="BI32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="BJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BK32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="BL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BM32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="BN32" s="66" t="s">
-        <v>1062</v>
+        <v>1090</v>
       </c>
       <c r="BO32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="BP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BQ32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="BR32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BS32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="BT32" s="66" t="s">
-        <v>1063</v>
+        <v>1091</v>
       </c>
       <c r="BU32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="BV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BW32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="BX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BY32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="BZ32" s="66" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="CA32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="CB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CC32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="CD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CE32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="CF32" s="66" t="s">
-        <v>1065</v>
+        <v>1093</v>
       </c>
       <c r="CG32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="CH32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CI32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="CJ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CK32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="CL32" s="66" t="s">
-        <v>1066</v>
+        <v>1094</v>
       </c>
       <c r="CM32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="CN32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CO32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="CP32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CQ32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="CR32" s="66" t="s">
-        <v>1067</v>
+        <v>1095</v>
       </c>
       <c r="CS32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="CT32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CU32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="CV32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CW32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="CX32" s="66" t="s">
-        <v>1068</v>
+        <v>1096</v>
       </c>
       <c r="CY32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="CZ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DA32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="DB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DC32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="DD32" s="66" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
       <c r="DE32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="DF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DG32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="DH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DI32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>1070</v>
+        <v>1098</v>
       </c>
       <c r="DK32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="DL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DM32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="DN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DO32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="DP32" s="66" t="s">
-        <v>1071</v>
+        <v>1099</v>
       </c>
       <c r="DQ32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="DR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DS32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="DT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DU32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="DV32" s="66" t="s">
-        <v>1072</v>
+        <v>1100</v>
       </c>
       <c r="DW32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="DX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DY32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="DZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EA32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="EB32" s="66" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="EC32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="ED32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EE32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="EF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EG32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="EH32" s="66" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="EI32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="EJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EK32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="EL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EM32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="EN32" s="66" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="EO32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="EP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EQ32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="ER32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="ES32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="ET32" s="66" t="s">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="EU32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="EV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EW32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="EX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EY32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="EZ32" s="66" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="FA32" s="67" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="FB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="FC32" s="65" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="FD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="FE32" s="68" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="FF32" s="66" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="FG32" s="67" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="FH32" s="64" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="FI32" s="69" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="FJ32" s="12"/>
     </row>
@@ -17225,10 +17369,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1082</v>
+        <v>1110</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>9</v>
@@ -17263,10 +17407,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>1084</v>
+        <v>1112</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>12</v>
@@ -17303,10 +17447,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>1087</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="85" t="s">
         <v>94</v>
@@ -17343,10 +17487,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1089</v>
+        <v>1117</v>
       </c>
       <c r="D4" s="88" t="s">
         <v>134</v>
@@ -17383,10 +17527,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1091</v>
+        <v>1119</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>173</v>
@@ -17423,10 +17567,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1092</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1093</v>
+        <v>1121</v>
       </c>
       <c r="D6" s="88" t="s">
         <v>213</v>
@@ -17463,10 +17607,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1094</v>
+        <v>1122</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>1095</v>
+        <v>1123</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>253</v>
@@ -17503,10 +17647,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>1097</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="88" t="s">
         <v>292</v>
@@ -17543,10 +17687,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>1098</v>
+        <v>1126</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>332</v>
@@ -17583,10 +17727,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1100</v>
+        <v>1128</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1101</v>
+        <v>1129</v>
       </c>
       <c r="D10" s="88" t="s">
         <v>371</v>
@@ -17623,10 +17767,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>1102</v>
+        <v>1130</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>1103</v>
+        <v>1131</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>410</v>
@@ -17663,10 +17807,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1104</v>
+        <v>1132</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>1105</v>
+        <v>1133</v>
       </c>
       <c r="D12" s="88" t="s">
         <v>448</v>
@@ -17703,10 +17847,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1106</v>
+        <v>1134</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1107</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>486</v>
@@ -17743,10 +17887,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1108</v>
+        <v>1136</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>1109</v>
+        <v>1137</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>525</v>
@@ -17783,10 +17927,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>1110</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1111</v>
+        <v>1139</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>563</v>
@@ -17823,10 +17967,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1112</v>
+        <v>1140</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>1113</v>
+        <v>1141</v>
       </c>
       <c r="D16" s="88" t="s">
         <v>602</v>
@@ -17863,10 +18007,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1114</v>
+        <v>1142</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>640</v>
@@ -17903,10 +18047,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1116</v>
+        <v>1144</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>1117</v>
+        <v>1145</v>
       </c>
       <c r="D18" s="88" t="s">
         <v>675</v>
@@ -17943,13 +18087,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>1118</v>
+        <v>1146</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82"/>
@@ -17983,13 +18127,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1120</v>
+        <v>1148</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1121</v>
+        <v>1149</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
@@ -17998,7 +18142,7 @@
         <v>18.0</v>
       </c>
       <c r="I20" s="90" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J20" s="91" t="s">
         <v>409</v>
@@ -18023,13 +18167,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>1122</v>
+        <v>1150</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1123</v>
+        <v>1151</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
@@ -18038,7 +18182,7 @@
         <v>19.0</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="J21" s="87" t="s">
         <v>370</v>
@@ -18063,13 +18207,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>1124</v>
+        <v>1152</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>1125</v>
+        <v>1153</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
@@ -18078,7 +18222,7 @@
         <v>20.0</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="J22" s="91" t="s">
         <v>331</v>
@@ -18103,13 +18247,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>1126</v>
+        <v>1154</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1127</v>
+        <v>1155</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
@@ -18118,7 +18262,7 @@
         <v>21.0</v>
       </c>
       <c r="I23" s="86" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="J23" s="87" t="s">
         <v>291</v>
@@ -18143,13 +18287,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1128</v>
+        <v>1156</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>1129</v>
+        <v>1157</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -18158,7 +18302,7 @@
         <v>22.0</v>
       </c>
       <c r="I24" s="90" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="J24" s="91" t="s">
         <v>252</v>
@@ -18183,13 +18327,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1130</v>
+        <v>1158</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
@@ -18198,7 +18342,7 @@
         <v>23.0</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="J25" s="87" t="s">
         <v>212</v>
@@ -18223,13 +18367,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>1132</v>
+        <v>1160</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -18238,7 +18382,7 @@
         <v>24.0</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="J26" s="91" t="s">
         <v>172</v>
@@ -18263,13 +18407,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
@@ -18278,7 +18422,7 @@
         <v>25.0</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="J27" s="87" t="s">
         <v>133</v>
@@ -18303,13 +18447,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>1137</v>
+        <v>1165</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -18318,7 +18462,7 @@
         <v>26.0</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="J28" s="91" t="s">
         <v>93</v>
@@ -18340,28 +18484,28 @@
     </row>
     <row r="29">
       <c r="A29" s="81" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>1138</v>
+        <v>1166</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>1139</v>
+        <v>1167</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
       <c r="H29" s="83" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
@@ -18380,26 +18524,26 @@
     </row>
     <row r="30">
       <c r="A30" s="76" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1140</v>
+        <v>1168</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1141</v>
+        <v>1169</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>

--- a/fullofform/fullofform.xlsx
+++ b/fullofform/fullofform.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1245">
   <si>
     <t>π</t>
   </si>
@@ -293,6 +293,15 @@
     <t>monotonous</t>
   </si>
   <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
     <t>Sine</t>
   </si>
   <si>
@@ -413,6 +422,15 @@
     <t>regional</t>
   </si>
   <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>Cosine</t>
   </si>
   <si>
@@ -530,6 +548,15 @@
     <t>baseless</t>
   </si>
   <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
     <t>Tangent</t>
   </si>
   <si>
@@ -650,6 +677,15 @@
     <t>recycling</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
     <t>Cosecant</t>
   </si>
   <si>
@@ -770,6 +806,15 @@
     <t>permanent</t>
   </si>
   <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
     <t>Secant</t>
   </si>
   <si>
@@ -887,6 +932,15 @@
     <t>creates</t>
   </si>
   <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
     <t>Cotangent</t>
   </si>
   <si>
@@ -1007,6 +1061,15 @@
     <t>boiled</t>
   </si>
   <si>
+    <t>rupee</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
     <t>Sarwada</t>
   </si>
   <si>
@@ -1124,6 +1187,15 @@
     <t>punched</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>intranet</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>Reet</t>
   </si>
   <si>
@@ -1241,6 +1313,15 @@
     <t>ward</t>
   </si>
   <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
     <t>Garam</t>
   </si>
   <si>
@@ -1355,6 +1436,15 @@
     <t>cursor</t>
   </si>
   <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
     <t>Maha</t>
   </si>
   <si>
@@ -1469,6 +1559,15 @@
     <t>alternate</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
     <t>Palan</t>
   </si>
   <si>
@@ -1586,6 +1685,15 @@
     <t>bowl</t>
   </si>
   <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
     <t>Dhadha</t>
   </si>
   <si>
@@ -1700,6 +1808,15 @@
     <t>mode</t>
   </si>
   <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
     <t>Niharika</t>
   </si>
   <si>
@@ -1820,6 +1937,15 @@
     <t>album</t>
   </si>
   <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
+  <si>
     <t>চৌদ্দ</t>
   </si>
   <si>
@@ -1934,6 +2060,15 @@
     <t>desire</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
     <t>পনেরো</t>
   </si>
   <si>
@@ -2039,6 +2174,15 @@
     <t>click</t>
   </si>
   <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
     <t>ষোল</t>
   </si>
   <si>
@@ -2129,9 +2273,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>seventeen</t>
-  </si>
-  <si>
     <t>radar</t>
   </si>
   <si>
@@ -2156,6 +2297,15 @@
     <t>show</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
     <t>সতেরো</t>
   </si>
   <si>
@@ -2270,6 +2420,15 @@
     <t>thesis</t>
   </si>
   <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
     <t>আঠারো</t>
   </si>
   <si>
@@ -2378,6 +2537,15 @@
     <t>agency</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>fry</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
     <t>উনিশ</t>
   </si>
   <si>
@@ -2465,9 +2633,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>twenty</t>
-  </si>
-  <si>
     <t>ledger</t>
   </si>
   <si>
@@ -2492,6 +2657,15 @@
     <t>chat</t>
   </si>
   <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
     <t>বিশ</t>
   </si>
   <si>
@@ -2600,6 +2774,15 @@
     <t>cute</t>
   </si>
   <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>blueprint</t>
+  </si>
+  <si>
     <t>একুশ</t>
   </si>
   <si>
@@ -2699,6 +2882,12 @@
     <t>financial</t>
   </si>
   <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
     <t>বাইশ</t>
   </si>
   <si>
@@ -2810,6 +2999,15 @@
     <t>cool</t>
   </si>
   <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>hatch</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
     <t>তেইশ</t>
   </si>
   <si>
@@ -2915,6 +3113,15 @@
     <t>phrase</t>
   </si>
   <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
     <t>চব্বিশ</t>
   </si>
   <si>
@@ -3014,6 +3221,15 @@
     <t>ribbon</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
     <t>পঁচিশ</t>
   </si>
   <si>
@@ -3114,6 +3330,15 @@
   </si>
   <si>
     <t>foam</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>mission</t>
   </si>
   <si>
     <t>ছাব্বিশ</t>
@@ -5779,15 +6004,21 @@
       <c r="BZ5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA5" s="30"/>
+      <c r="CA5" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="CB5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC5" s="32"/>
+      <c r="CC5" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="CD5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE5" s="33"/>
+      <c r="CE5" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="CF5" s="29" t="s">
         <v>14</v>
       </c>
@@ -5948,176 +6179,176 @@
         <v>14</v>
       </c>
       <c r="FG5" s="36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="FH5" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="FI5" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="FJ5" s="12"/>
     </row>
     <row r="6">
       <c r="B6" s="4"/>
       <c r="C6" s="38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="39">
         <v>2.0</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S6" s="42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="T6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W6" s="45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y6" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA6" s="44" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AD6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE6" s="42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG6" s="44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI6" s="45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AJ6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK6" s="42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM6" s="44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AN6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO6" s="45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ6" s="42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AR6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS6" s="44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AT6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU6" s="45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AV6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW6" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AX6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY6" s="44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AZ6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA6" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BB6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC6" s="42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BD6" s="43" t="s">
         <v>4</v>
@@ -6129,74 +6360,80 @@
         <v>6</v>
       </c>
       <c r="BG6" s="45" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BH6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI6" s="42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BJ6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK6" s="44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BL6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM6" s="45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BN6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO6" s="42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="BP6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ6" s="44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BR6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS6" s="45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BT6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU6" s="42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BV6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW6" s="44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BX6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY6" s="45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BZ6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA6" s="42"/>
+      <c r="CA6" s="42" t="s">
+        <v>136</v>
+      </c>
       <c r="CB6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC6" s="44"/>
+      <c r="CC6" s="44" t="s">
+        <v>137</v>
+      </c>
       <c r="CD6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE6" s="45"/>
+      <c r="CE6" s="45" t="s">
+        <v>138</v>
+      </c>
       <c r="CF6" s="41" t="s">
         <v>14</v>
       </c>
@@ -6357,176 +6594,176 @@
         <v>14</v>
       </c>
       <c r="FG6" s="46" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="FH6" s="39" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="FI6" s="47" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="FJ6" s="12"/>
     </row>
     <row r="7">
       <c r="B7" s="4"/>
       <c r="C7" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D7" s="27">
         <v>3.0</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y7" s="30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Z7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA7" s="32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AB7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC7" s="33" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AD7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AF7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG7" s="32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI7" s="33" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AJ7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK7" s="30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM7" s="32" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AN7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AP7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ7" s="30" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AR7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS7" s="32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AT7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AV7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW7" s="30" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AX7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY7" s="32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AZ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA7" s="33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="BB7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC7" s="30" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="BD7" s="31" t="s">
         <v>4</v>
@@ -6538,49 +6775,49 @@
         <v>6</v>
       </c>
       <c r="BG7" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="BH7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI7" s="30" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="BJ7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK7" s="32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="BL7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM7" s="33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="BN7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO7" s="30" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="BP7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ7" s="32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="BR7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS7" s="33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BT7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU7" s="30" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="BV7" s="31" t="s">
         <v>4</v>
@@ -6592,20 +6829,26 @@
         <v>6</v>
       </c>
       <c r="BY7" s="33" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="BZ7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA7" s="30"/>
+      <c r="CA7" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="CB7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC7" s="32"/>
+      <c r="CC7" s="32" t="s">
+        <v>179</v>
+      </c>
       <c r="CD7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE7" s="33"/>
+      <c r="CE7" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="CF7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6766,176 +7009,176 @@
         <v>14</v>
       </c>
       <c r="FG7" s="36" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="FH7" s="27" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="FI7" s="37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="FJ7" s="12"/>
     </row>
     <row r="8">
       <c r="B8" s="4"/>
       <c r="C8" s="38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D8" s="39">
         <v>4.0</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="R8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="T8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="44" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="V8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W8" s="45" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Z8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="44" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AB8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC8" s="45" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AD8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE8" s="42" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AF8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG8" s="44" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AH8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI8" s="45" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AJ8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK8" s="42" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AL8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM8" s="44" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AN8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO8" s="45" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ8" s="42" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AR8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS8" s="44" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AT8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU8" s="45" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AV8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW8" s="42" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY8" s="44" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AZ8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA8" s="45" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="BB8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC8" s="42" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BD8" s="43" t="s">
         <v>4</v>
@@ -6947,74 +7190,80 @@
         <v>6</v>
       </c>
       <c r="BG8" s="45" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="BH8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI8" s="42" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="BJ8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK8" s="44" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="BL8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM8" s="45" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BN8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO8" s="42" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="BP8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ8" s="44" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="BR8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS8" s="45" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="BT8" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU8" s="42" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BV8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW8" s="44" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="BX8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY8" s="45" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="BZ8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA8" s="42"/>
+      <c r="CA8" s="42" t="s">
+        <v>221</v>
+      </c>
       <c r="CB8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC8" s="44"/>
+      <c r="CC8" s="44" t="s">
+        <v>222</v>
+      </c>
       <c r="CD8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE8" s="45"/>
+      <c r="CE8" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="CF8" s="41" t="s">
         <v>14</v>
       </c>
@@ -7175,176 +7424,176 @@
         <v>14</v>
       </c>
       <c r="FG8" s="46" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="FH8" s="39" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="FI8" s="47" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FJ8" s="12"/>
     </row>
     <row r="9">
       <c r="B9" s="4"/>
       <c r="C9" s="26" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D9" s="27">
         <v>5.0</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="T9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Z9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AB9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC9" s="33" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AD9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AF9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI9" s="33" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AJ9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK9" s="30" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AL9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM9" s="32" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AN9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AP9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ9" s="30" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AR9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS9" s="32" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AT9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU9" s="33" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AV9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW9" s="30" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AX9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY9" s="32" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AZ9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA9" s="33" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="BB9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC9" s="30" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="BD9" s="31" t="s">
         <v>4</v>
@@ -7356,74 +7605,80 @@
         <v>6</v>
       </c>
       <c r="BG9" s="33" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="BH9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI9" s="30" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="BJ9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK9" s="32" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="BL9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM9" s="33" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="BN9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO9" s="30" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="BP9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ9" s="32" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="BR9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS9" s="33" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BT9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU9" s="30" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="BV9" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW9" s="32" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="BX9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="BZ9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA9" s="30"/>
+      <c r="CA9" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="CB9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC9" s="32"/>
+      <c r="CC9" s="32" t="s">
+        <v>265</v>
+      </c>
       <c r="CD9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE9" s="33"/>
+      <c r="CE9" s="33" t="s">
+        <v>266</v>
+      </c>
       <c r="CF9" s="29" t="s">
         <v>14</v>
       </c>
@@ -7584,26 +7839,26 @@
         <v>14</v>
       </c>
       <c r="FG9" s="36" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="FH9" s="27" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="FI9" s="37" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="FJ9" s="12"/>
     </row>
     <row r="10">
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D10" s="39">
         <v>6.0</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>14</v>
@@ -7615,145 +7870,145 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="J10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="R10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U10" s="44" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="V10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W10" s="45" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="X10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y10" s="42" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Z10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA10" s="44" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="AB10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC10" s="45" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="AD10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE10" s="42" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="AF10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG10" s="44" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="AH10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI10" s="45" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="AJ10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK10" s="42" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="AL10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM10" s="44" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="AN10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO10" s="45" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AP10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ10" s="42" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AR10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS10" s="44" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AT10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU10" s="45" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AV10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW10" s="42" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AX10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY10" s="44" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AZ10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA10" s="45" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="BB10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC10" s="42" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="BD10" s="43" t="s">
         <v>4</v>
@@ -7765,74 +8020,80 @@
         <v>6</v>
       </c>
       <c r="BG10" s="45" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="BH10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI10" s="42" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="BJ10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK10" s="44" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="BL10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM10" s="45" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="BN10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO10" s="42" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="BP10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ10" s="44" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="BR10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS10" s="45" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="BT10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU10" s="42" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="BV10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW10" s="44" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="BX10" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY10" s="45" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="BZ10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA10" s="42"/>
+      <c r="CA10" s="42" t="s">
+        <v>306</v>
+      </c>
       <c r="CB10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC10" s="44"/>
+      <c r="CC10" s="44" t="s">
+        <v>307</v>
+      </c>
       <c r="CD10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE10" s="45"/>
+      <c r="CE10" s="45" t="s">
+        <v>308</v>
+      </c>
       <c r="CF10" s="41" t="s">
         <v>14</v>
       </c>
@@ -7993,176 +8254,176 @@
         <v>14</v>
       </c>
       <c r="FG10" s="46" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="FH10" s="39" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="FI10" s="47" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="FJ10" s="12"/>
     </row>
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" s="26" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D11" s="27">
         <v>7.0</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="T11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="Z11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA11" s="32" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="AB11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AD11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="AF11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI11" s="33" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="AJ11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK11" s="30" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="AL11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM11" s="32" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="AN11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="AP11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ11" s="30" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="AR11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS11" s="32" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="AT11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU11" s="33" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="AV11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW11" s="30" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AX11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY11" s="32" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="AZ11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA11" s="33" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="BB11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC11" s="30" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="BD11" s="31" t="s">
         <v>4</v>
@@ -8174,74 +8435,80 @@
         <v>6</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="BH11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI11" s="30" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="BJ11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK11" s="32" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="BL11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM11" s="33" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="BN11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO11" s="30" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="BP11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ11" s="32" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="BR11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS11" s="33" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="BT11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU11" s="30" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="BV11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW11" s="32" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="BX11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="BZ11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA11" s="30"/>
+      <c r="CA11" s="30" t="s">
+        <v>349</v>
+      </c>
       <c r="CB11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC11" s="32"/>
+      <c r="CC11" s="32" t="s">
+        <v>350</v>
+      </c>
       <c r="CD11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE11" s="33"/>
+      <c r="CE11" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="CF11" s="29" t="s">
         <v>14</v>
       </c>
@@ -8402,140 +8669,140 @@
         <v>14</v>
       </c>
       <c r="FG11" s="36" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="FH11" s="27" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="FI11" s="37" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="FJ11" s="12"/>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" s="38" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D12" s="39">
         <v>8.0</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="N12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="P12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q12" s="45" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="R12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="T12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="44" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="V12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="X12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y12" s="42" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="Z12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA12" s="44" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AB12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC12" s="45" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AD12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE12" s="42" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AF12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG12" s="44" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AH12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI12" s="45" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AJ12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK12" s="42" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="AL12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM12" s="44" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="AN12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO12" s="45" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AP12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ12" s="42" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="AR12" s="43" t="s">
         <v>4</v>
@@ -8547,31 +8814,31 @@
         <v>6</v>
       </c>
       <c r="AU12" s="45" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="AV12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW12" s="42" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="AX12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY12" s="44" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="AZ12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA12" s="45" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="BB12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC12" s="42" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="BD12" s="43" t="s">
         <v>4</v>
@@ -8583,74 +8850,80 @@
         <v>6</v>
       </c>
       <c r="BG12" s="45" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="BH12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI12" s="42" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="BJ12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK12" s="44" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="BL12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM12" s="45" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="BN12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO12" s="42" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="BP12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ12" s="44" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="BR12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS12" s="45" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="BT12" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU12" s="42" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="BV12" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW12" s="44" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="BX12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY12" s="45" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="BZ12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA12" s="42"/>
+      <c r="CA12" s="42" t="s">
+        <v>391</v>
+      </c>
       <c r="CB12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC12" s="44"/>
+      <c r="CC12" s="44" t="s">
+        <v>392</v>
+      </c>
       <c r="CD12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE12" s="45"/>
+      <c r="CE12" s="45" t="s">
+        <v>393</v>
+      </c>
       <c r="CF12" s="41" t="s">
         <v>14</v>
       </c>
@@ -8811,176 +9084,176 @@
         <v>14</v>
       </c>
       <c r="FG12" s="46" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="FH12" s="39" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="FI12" s="47" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="FJ12" s="12"/>
     </row>
     <row r="13">
       <c r="B13" s="4"/>
       <c r="C13" s="26" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D13" s="27">
         <v>9.0</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="T13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="V13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="X13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA13" s="32" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="AB13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="AD13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE13" s="34" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="AF13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="AH13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI13" s="33" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="AJ13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK13" s="34" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="AL13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM13" s="32" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="AN13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="AP13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ13" s="34" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AR13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS13" s="32" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AT13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU13" s="33" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AV13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW13" s="34" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="AX13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY13" s="32" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AZ13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA13" s="33" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="BB13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC13" s="34" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="BD13" s="31" t="s">
         <v>4</v>
@@ -8992,74 +9265,80 @@
         <v>6</v>
       </c>
       <c r="BG13" s="33" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="BH13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI13" s="30" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="BJ13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK13" s="32" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="BL13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM13" s="33" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="BN13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO13" s="30" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="BP13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ13" s="32" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="BR13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS13" s="33" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="BT13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU13" s="30" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="BV13" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW13" s="32" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="BX13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="BZ13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA13" s="30"/>
+      <c r="CA13" s="30" t="s">
+        <v>433</v>
+      </c>
       <c r="CB13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC13" s="32"/>
+      <c r="CC13" s="32" t="s">
+        <v>434</v>
+      </c>
       <c r="CD13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE13" s="33"/>
+      <c r="CE13" s="33" t="s">
+        <v>435</v>
+      </c>
       <c r="CF13" s="29" t="s">
         <v>14</v>
       </c>
@@ -9220,176 +9499,176 @@
         <v>14</v>
       </c>
       <c r="FG13" s="36" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="FH13" s="27" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="FI13" s="37" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="FJ13" s="12"/>
     </row>
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" s="38" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="D14" s="39">
         <v>10.0</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="N14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="R14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S14" s="42" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="T14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="44" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="V14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="X14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y14" s="42" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="Z14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="44" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="AB14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC14" s="45" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="AD14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE14" s="42" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="AF14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG14" s="44" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="AH14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI14" s="45" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="AJ14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK14" s="42" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AL14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM14" s="44" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="AN14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO14" s="45" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="AP14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ14" s="42" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="AR14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS14" s="44" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="AT14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU14" s="45" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="AV14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW14" s="42" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="AX14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY14" s="44" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="AZ14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA14" s="45" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="BB14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC14" s="42" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="BD14" s="43" t="s">
         <v>4</v>
@@ -9401,74 +9680,80 @@
         <v>6</v>
       </c>
       <c r="BG14" s="45" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="BH14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI14" s="42" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="BJ14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK14" s="44" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="BL14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM14" s="45" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="BN14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO14" s="42" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="BP14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ14" s="44" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="BR14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS14" s="45" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="BT14" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU14" s="42" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="BV14" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW14" s="44" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="BX14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY14" s="45" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="BZ14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA14" s="42"/>
+      <c r="CA14" s="42" t="s">
+        <v>474</v>
+      </c>
       <c r="CB14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC14" s="44"/>
+      <c r="CC14" s="44" t="s">
+        <v>475</v>
+      </c>
       <c r="CD14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE14" s="45"/>
+      <c r="CE14" s="45" t="s">
+        <v>476</v>
+      </c>
       <c r="CF14" s="41" t="s">
         <v>14</v>
       </c>
@@ -9629,98 +9914,98 @@
         <v>14</v>
       </c>
       <c r="FG14" s="46" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="FH14" s="39" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="FI14" s="47" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="FJ14" s="12"/>
     </row>
     <row r="15">
       <c r="B15" s="4"/>
       <c r="C15" s="26" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="D15" s="27">
         <v>11.0</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S15" s="30" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="V15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="X15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="Z15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA15" s="32" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="AB15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC15" s="33" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="AD15" s="29" t="s">
         <v>14</v>
@@ -9732,73 +10017,73 @@
         <v>4</v>
       </c>
       <c r="AG15" s="32" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="AH15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI15" s="33" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="AJ15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK15" s="30" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="AL15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM15" s="32" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="AN15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO15" s="33" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="AP15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ15" s="30" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="AR15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS15" s="32" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="AT15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU15" s="33" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="AV15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW15" s="30" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="AX15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY15" s="32" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="AZ15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA15" s="33" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="BB15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC15" s="30" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="BD15" s="31" t="s">
         <v>4</v>
@@ -9810,74 +10095,80 @@
         <v>6</v>
       </c>
       <c r="BG15" s="33" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="BH15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI15" s="30" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="BJ15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK15" s="32" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="BL15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM15" s="33" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="BN15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO15" s="30" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="BP15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ15" s="32" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="BR15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS15" s="33" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="BT15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU15" s="30" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="BV15" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW15" s="32" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="BX15" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="BZ15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA15" s="30"/>
+      <c r="CA15" s="30" t="s">
+        <v>515</v>
+      </c>
       <c r="CB15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC15" s="32"/>
+      <c r="CC15" s="32" t="s">
+        <v>516</v>
+      </c>
       <c r="CD15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE15" s="33"/>
+      <c r="CE15" s="33" t="s">
+        <v>517</v>
+      </c>
       <c r="CF15" s="29" t="s">
         <v>14</v>
       </c>
@@ -10038,152 +10329,152 @@
         <v>14</v>
       </c>
       <c r="FG15" s="36" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="FH15" s="27" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="FI15" s="37" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="FJ15" s="12"/>
     </row>
     <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="D16" s="39">
         <v>12.0</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="L16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="N16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="R16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S16" s="42" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="T16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="V16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="X16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y16" s="42" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="Z16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="AB16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC16" s="45" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="AD16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE16" s="42" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="AF16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG16" s="44" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="AH16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="AJ16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK16" s="42" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="AL16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM16" s="44" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="AN16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO16" s="45" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="AP16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ16" s="42" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="AR16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS16" s="44" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="AT16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU16" s="45" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="AV16" s="41" t="s">
         <v>14</v>
@@ -10195,19 +10486,19 @@
         <v>4</v>
       </c>
       <c r="AY16" s="44" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="AZ16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA16" s="45" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="BB16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC16" s="42" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="BD16" s="43" t="s">
         <v>4</v>
@@ -10219,74 +10510,80 @@
         <v>6</v>
       </c>
       <c r="BG16" s="45" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="BH16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI16" s="42" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="BJ16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK16" s="44" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="BL16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM16" s="45" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="BN16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO16" s="42" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="BP16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ16" s="44" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="BR16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS16" s="45" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="BT16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU16" s="42" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="BV16" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW16" s="44" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="BX16" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY16" s="45" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="BZ16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA16" s="42"/>
+      <c r="CA16" s="42" t="s">
+        <v>557</v>
+      </c>
       <c r="CB16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC16" s="44"/>
+      <c r="CC16" s="44" t="s">
+        <v>558</v>
+      </c>
       <c r="CD16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE16" s="45"/>
+      <c r="CE16" s="45" t="s">
+        <v>559</v>
+      </c>
       <c r="CF16" s="41" t="s">
         <v>14</v>
       </c>
@@ -10447,176 +10744,176 @@
         <v>14</v>
       </c>
       <c r="FG16" s="46" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="FH16" s="39" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="FI16" s="47" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="FJ16" s="12"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
       <c r="C17" s="26" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="D17" s="27">
         <v>13.0</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="V17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="Z17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="AB17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC17" s="33" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AD17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE17" s="30" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="AF17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG17" s="32" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="AH17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI17" s="33" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="AJ17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK17" s="30" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="AL17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM17" s="32" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="AN17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="AP17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ17" s="30" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="AR17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS17" s="32" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="AT17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU17" s="33" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="AV17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW17" s="30" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="AX17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY17" s="32" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="AZ17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA17" s="33" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="BB17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC17" s="30" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="BD17" s="31" t="s">
         <v>4</v>
@@ -10628,74 +10925,80 @@
         <v>6</v>
       </c>
       <c r="BG17" s="33" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="BH17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI17" s="30" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="BJ17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK17" s="32" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="BL17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM17" s="33" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="BN17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO17" s="30" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="BP17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ17" s="32" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="BR17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS17" s="33" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="BT17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU17" s="30" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="BV17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW17" s="32" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="BX17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY17" s="33" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="BZ17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA17" s="30"/>
+      <c r="CA17" s="30" t="s">
+        <v>598</v>
+      </c>
       <c r="CB17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC17" s="32"/>
+      <c r="CC17" s="32" t="s">
+        <v>599</v>
+      </c>
       <c r="CD17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE17" s="33"/>
+      <c r="CE17" s="33" t="s">
+        <v>600</v>
+      </c>
       <c r="CF17" s="29" t="s">
         <v>14</v>
       </c>
@@ -10856,176 +11159,176 @@
         <v>14</v>
       </c>
       <c r="FG17" s="36" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="FH17" s="27" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="FI17" s="37" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="FJ17" s="12"/>
     </row>
     <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" s="38" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="D18" s="39">
         <v>14.0</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="N18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="R18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="42" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="T18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="V18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="X18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y18" s="42" t="s">
-        <v>576</v>
+        <v>615</v>
       </c>
       <c r="Z18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="44" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="AB18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC18" s="45" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="AD18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE18" s="42" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="AF18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG18" s="44" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
       <c r="AH18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="AJ18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK18" s="42" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="AL18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM18" s="44" t="s">
-        <v>583</v>
+        <v>622</v>
       </c>
       <c r="AN18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO18" s="45" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="AP18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ18" s="42" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="AR18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS18" s="44" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="AT18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU18" s="45" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="AV18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW18" s="42" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="AX18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY18" s="44" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="AZ18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA18" s="45" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="BB18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC18" s="42" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="BD18" s="43" t="s">
         <v>4</v>
@@ -11037,74 +11340,80 @@
         <v>6</v>
       </c>
       <c r="BG18" s="45" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="BH18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI18" s="42" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="BJ18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK18" s="44" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="BL18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM18" s="45" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="BN18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO18" s="42" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="BP18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ18" s="44" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="BR18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS18" s="45" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="BT18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU18" s="42" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="BV18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW18" s="44" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="BX18" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY18" s="45" t="s">
-        <v>601</v>
+        <v>640</v>
       </c>
       <c r="BZ18" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA18" s="42"/>
+      <c r="CA18" s="42" t="s">
+        <v>641</v>
+      </c>
       <c r="CB18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC18" s="44"/>
+      <c r="CC18" s="44" t="s">
+        <v>642</v>
+      </c>
       <c r="CD18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE18" s="45"/>
+      <c r="CE18" s="45" t="s">
+        <v>643</v>
+      </c>
       <c r="CF18" s="41" t="s">
         <v>14</v>
       </c>
@@ -11265,176 +11574,176 @@
         <v>14</v>
       </c>
       <c r="FG18" s="46" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="FH18" s="39" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="FI18" s="47" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="FJ18" s="12"/>
     </row>
     <row r="19">
       <c r="B19" s="4"/>
       <c r="C19" s="26" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="D19" s="27">
         <v>15.0</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S19" s="30" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="T19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="V19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="Z19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="AB19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC19" s="33" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="AD19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE19" s="30" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="AF19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG19" s="35" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="AH19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI19" s="33" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="AJ19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK19" s="30" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="AL19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM19" s="35" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="AN19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="AP19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ19" s="30" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="AR19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS19" s="35" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="AT19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU19" s="33" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="AV19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW19" s="30" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="AX19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY19" s="35" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="AZ19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA19" s="33" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="BB19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC19" s="30" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="BD19" s="31" t="s">
         <v>4</v>
@@ -11446,74 +11755,80 @@
         <v>6</v>
       </c>
       <c r="BG19" s="33" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="BH19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI19" s="30" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="BJ19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK19" s="32" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="BL19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM19" s="33" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="BN19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO19" s="30" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="BP19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ19" s="32" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="BR19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS19" s="33" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="BT19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU19" s="30" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="BV19" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW19" s="32" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="BX19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY19" s="33" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="BZ19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA19" s="30"/>
+      <c r="CA19" s="30" t="s">
+        <v>682</v>
+      </c>
       <c r="CB19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC19" s="32"/>
+      <c r="CC19" s="32" t="s">
+        <v>683</v>
+      </c>
       <c r="CD19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE19" s="33"/>
+      <c r="CE19" s="33" t="s">
+        <v>684</v>
+      </c>
       <c r="CF19" s="29" t="s">
         <v>14</v>
       </c>
@@ -11674,140 +11989,140 @@
         <v>14</v>
       </c>
       <c r="FG19" s="36" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="FH19" s="27" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="FI19" s="37" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="FJ19" s="12"/>
     </row>
     <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" s="38" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="D20" s="39">
         <v>16.0</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="R20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="T20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="V20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="X20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="Z20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA20" s="44" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="AB20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC20" s="45" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="AD20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE20" s="42" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="AF20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG20" s="44" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="AH20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="AJ20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK20" s="42" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="AL20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM20" s="44" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="AN20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO20" s="45" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="AP20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ20" s="42" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="AR20" s="43" t="s">
         <v>4</v>
@@ -11819,25 +12134,25 @@
         <v>6</v>
       </c>
       <c r="AU20" s="45" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="AV20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW20" s="42" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="AX20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="AZ20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA20" s="45" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="BB20" s="41" t="s">
         <v>14</v>
@@ -11855,74 +12170,80 @@
         <v>6</v>
       </c>
       <c r="BG20" s="45" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="BH20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI20" s="42" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="BJ20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK20" s="44" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="BL20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM20" s="45" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="BN20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO20" s="42" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="BP20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ20" s="44" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="BR20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS20" s="45" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="BT20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU20" s="42" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="BV20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW20" s="44" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="BX20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY20" s="45" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="BZ20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA20" s="42"/>
+      <c r="CA20" s="42" t="s">
+        <v>720</v>
+      </c>
       <c r="CB20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC20" s="44"/>
+      <c r="CC20" s="44" t="s">
+        <v>721</v>
+      </c>
       <c r="CD20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE20" s="45"/>
+      <c r="CE20" s="45" t="s">
+        <v>722</v>
+      </c>
       <c r="CF20" s="41" t="s">
         <v>14</v>
       </c>
@@ -12083,176 +12404,176 @@
         <v>14</v>
       </c>
       <c r="FG20" s="46" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="FH20" s="39" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="FI20" s="47" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="FJ20" s="12"/>
     </row>
     <row r="21">
       <c r="B21" s="4"/>
       <c r="C21" s="26" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="D21" s="27">
         <v>17.0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="T21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="V21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="X21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y21" s="30" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="Z21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA21" s="32" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="AB21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="AD21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE21" s="30" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="AF21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="AH21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="33" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="AJ21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="AL21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM21" s="32" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="AN21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="AP21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ21" s="30" t="s">
-        <v>697</v>
+        <v>745</v>
       </c>
       <c r="AR21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS21" s="32" t="s">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="AT21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU21" s="33" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
       <c r="AV21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW21" s="30" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="AX21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY21" s="32" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="AZ21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA21" s="33" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="BB21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC21" s="30" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="BD21" s="31" t="s">
         <v>4</v>
@@ -12264,74 +12585,80 @@
         <v>6</v>
       </c>
       <c r="BG21" s="33" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="BH21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI21" s="30" t="s">
-        <v>705</v>
+        <v>599</v>
       </c>
       <c r="BJ21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK21" s="32" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="BL21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM21" s="33" t="s">
-        <v>707</v>
+        <v>754</v>
       </c>
       <c r="BN21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO21" s="30" t="s">
-        <v>708</v>
+        <v>755</v>
       </c>
       <c r="BP21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ21" s="32" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="BR21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS21" s="33" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="BT21" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU21" s="30" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
       <c r="BV21" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW21" s="32" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="BX21" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY21" s="33" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
       <c r="BZ21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA21" s="30"/>
+      <c r="CA21" s="30" t="s">
+        <v>761</v>
+      </c>
       <c r="CB21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC21" s="32"/>
+      <c r="CC21" s="32" t="s">
+        <v>762</v>
+      </c>
       <c r="CD21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE21" s="33"/>
+      <c r="CE21" s="33" t="s">
+        <v>763</v>
+      </c>
       <c r="CF21" s="29" t="s">
         <v>14</v>
       </c>
@@ -12492,176 +12819,176 @@
         <v>14</v>
       </c>
       <c r="FG21" s="36" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="FH21" s="27" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="FI21" s="37" t="s">
-        <v>715</v>
+        <v>765</v>
       </c>
       <c r="FJ21" s="12"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="D22" s="39">
         <v>18.0</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>719</v>
+        <v>769</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>721</v>
+        <v>771</v>
       </c>
       <c r="N22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="P22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S22" s="42" t="s">
-        <v>724</v>
+        <v>774</v>
       </c>
       <c r="T22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="44" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>726</v>
+        <v>776</v>
       </c>
       <c r="X22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="42" t="s">
-        <v>727</v>
+        <v>777</v>
       </c>
       <c r="Z22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA22" s="44" t="s">
-        <v>728</v>
+        <v>778</v>
       </c>
       <c r="AB22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>729</v>
+        <v>779</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="48" t="s">
-        <v>730</v>
+        <v>780</v>
       </c>
       <c r="AF22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>731</v>
+        <v>781</v>
       </c>
       <c r="AH22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="AJ22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK22" s="49" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="AL22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM22" s="44" t="s">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="AN22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO22" s="45" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="AP22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ22" s="49" t="s">
-        <v>735</v>
+        <v>785</v>
       </c>
       <c r="AR22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>736</v>
+        <v>786</v>
       </c>
       <c r="AT22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU22" s="45" t="s">
-        <v>737</v>
+        <v>787</v>
       </c>
       <c r="AV22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="AX22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY22" s="44" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
       <c r="AZ22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA22" s="45" t="s">
-        <v>740</v>
+        <v>790</v>
       </c>
       <c r="BB22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC22" s="49" t="s">
-        <v>741</v>
+        <v>791</v>
       </c>
       <c r="BD22" s="43" t="s">
         <v>4</v>
@@ -12673,74 +13000,80 @@
         <v>6</v>
       </c>
       <c r="BG22" s="45" t="s">
-        <v>742</v>
+        <v>792</v>
       </c>
       <c r="BH22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI22" s="42" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="BJ22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK22" s="44" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
       <c r="BL22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM22" s="45" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="BN22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO22" s="42" t="s">
-        <v>746</v>
+        <v>796</v>
       </c>
       <c r="BP22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ22" s="44" t="s">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="BR22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS22" s="45" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="BT22" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU22" s="42" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="BV22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW22" s="44" t="s">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="BX22" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY22" s="45" t="s">
-        <v>751</v>
+        <v>801</v>
       </c>
       <c r="BZ22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA22" s="42"/>
+      <c r="CA22" s="42" t="s">
+        <v>802</v>
+      </c>
       <c r="CB22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC22" s="44"/>
+      <c r="CC22" s="44" t="s">
+        <v>803</v>
+      </c>
       <c r="CD22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE22" s="45"/>
+      <c r="CE22" s="45" t="s">
+        <v>804</v>
+      </c>
       <c r="CF22" s="41" t="s">
         <v>14</v>
       </c>
@@ -12901,176 +13234,176 @@
         <v>14</v>
       </c>
       <c r="FG22" s="46" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="FH22" s="39" t="s">
-        <v>752</v>
+        <v>805</v>
       </c>
       <c r="FI22" s="47" t="s">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c r="FJ22" s="12"/>
     </row>
     <row r="23">
       <c r="B23" s="4"/>
       <c r="C23" s="26" t="s">
-        <v>754</v>
+        <v>807</v>
       </c>
       <c r="D23" s="27">
         <v>19.0</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>756</v>
+        <v>809</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>757</v>
+        <v>810</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>758</v>
+        <v>811</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>759</v>
+        <v>812</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>762</v>
+        <v>815</v>
       </c>
       <c r="T23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>763</v>
+        <v>816</v>
       </c>
       <c r="V23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>764</v>
+        <v>817</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="Z23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="AB23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="AF23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG23" s="32" t="s">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="AH23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="33" t="s">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="AJ23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK23" s="30" t="s">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="AL23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="AN23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="AP23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ23" s="30" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="AR23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS23" s="32" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="AT23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU23" s="33" t="s">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="AV23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW23" s="30" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AX23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY23" s="32" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="AZ23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA23" s="33" t="s">
-        <v>777</v>
+        <v>830</v>
       </c>
       <c r="BB23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC23" s="30" t="s">
-        <v>778</v>
+        <v>831</v>
       </c>
       <c r="BD23" s="31" t="s">
         <v>4</v>
@@ -13082,74 +13415,80 @@
         <v>6</v>
       </c>
       <c r="BG23" s="33" t="s">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c r="BH23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI23" s="30" t="s">
-        <v>780</v>
+        <v>833</v>
       </c>
       <c r="BJ23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK23" s="32" t="s">
-        <v>781</v>
+        <v>834</v>
       </c>
       <c r="BL23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM23" s="33" t="s">
-        <v>782</v>
+        <v>835</v>
       </c>
       <c r="BN23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO23" s="30" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="BP23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ23" s="32" t="s">
-        <v>784</v>
+        <v>837</v>
       </c>
       <c r="BR23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS23" s="33" t="s">
-        <v>785</v>
+        <v>838</v>
       </c>
       <c r="BT23" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU23" s="30" t="s">
-        <v>786</v>
+        <v>839</v>
       </c>
       <c r="BV23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW23" s="32" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="BX23" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY23" s="33" t="s">
-        <v>787</v>
+        <v>840</v>
       </c>
       <c r="BZ23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA23" s="30"/>
+      <c r="CA23" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="CB23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC23" s="32"/>
+      <c r="CC23" s="32" t="s">
+        <v>842</v>
+      </c>
       <c r="CD23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE23" s="33"/>
+      <c r="CE23" s="33" t="s">
+        <v>843</v>
+      </c>
       <c r="CF23" s="29" t="s">
         <v>14</v>
       </c>
@@ -13310,176 +13649,176 @@
         <v>14</v>
       </c>
       <c r="FG23" s="36" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="FH23" s="27" t="s">
-        <v>788</v>
+        <v>844</v>
       </c>
       <c r="FI23" s="37" t="s">
-        <v>789</v>
+        <v>845</v>
       </c>
       <c r="FJ23" s="12"/>
     </row>
     <row r="24">
       <c r="B24" s="4"/>
       <c r="C24" s="38" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="D24" s="39">
         <v>20.0</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>791</v>
+        <v>847</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>792</v>
+        <v>848</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>793</v>
+        <v>849</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>794</v>
+        <v>850</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>795</v>
+        <v>851</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>797</v>
+        <v>853</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="42" t="s">
-        <v>798</v>
+        <v>854</v>
       </c>
       <c r="T24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>799</v>
+        <v>855</v>
       </c>
       <c r="V24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>800</v>
+        <v>856</v>
       </c>
       <c r="X24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y24" s="42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA24" s="44" t="s">
-        <v>801</v>
+        <v>857</v>
       </c>
       <c r="AB24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC24" s="45" t="s">
-        <v>802</v>
+        <v>858</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE24" s="42" t="s">
-        <v>803</v>
+        <v>859</v>
       </c>
       <c r="AF24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG24" s="44" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="AH24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="AJ24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK24" s="42" t="s">
-        <v>806</v>
+        <v>862</v>
       </c>
       <c r="AL24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM24" s="44" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="AN24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO24" s="45" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="AP24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="42" t="s">
-        <v>809</v>
+        <v>865</v>
       </c>
       <c r="AR24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS24" s="44" t="s">
-        <v>810</v>
+        <v>866</v>
       </c>
       <c r="AT24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU24" s="45" t="s">
-        <v>811</v>
+        <v>867</v>
       </c>
       <c r="AV24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW24" s="42" t="s">
-        <v>812</v>
+        <v>868</v>
       </c>
       <c r="AX24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY24" s="44" t="s">
-        <v>813</v>
+        <v>869</v>
       </c>
       <c r="AZ24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA24" s="45" t="s">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="BB24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC24" s="42" t="s">
-        <v>815</v>
+        <v>871</v>
       </c>
       <c r="BD24" s="43" t="s">
         <v>4</v>
@@ -13491,74 +13830,80 @@
         <v>6</v>
       </c>
       <c r="BG24" s="45" t="s">
-        <v>816</v>
+        <v>872</v>
       </c>
       <c r="BH24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI24" s="42" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK24" s="44" t="s">
-        <v>818</v>
+        <v>873</v>
       </c>
       <c r="BL24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM24" s="45" t="s">
-        <v>819</v>
+        <v>874</v>
       </c>
       <c r="BN24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO24" s="42" t="s">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="BP24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ24" s="44" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="BR24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS24" s="45" t="s">
-        <v>822</v>
+        <v>877</v>
       </c>
       <c r="BT24" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU24" s="42" t="s">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="BV24" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="44" t="s">
-        <v>824</v>
+        <v>879</v>
       </c>
       <c r="BX24" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY24" s="45" t="s">
-        <v>825</v>
+        <v>880</v>
       </c>
       <c r="BZ24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA24" s="42"/>
+      <c r="CA24" s="42" t="s">
+        <v>881</v>
+      </c>
       <c r="CB24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC24" s="44"/>
+      <c r="CC24" s="44" t="s">
+        <v>882</v>
+      </c>
       <c r="CD24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE24" s="45"/>
+      <c r="CE24" s="45" t="s">
+        <v>883</v>
+      </c>
       <c r="CF24" s="41" t="s">
         <v>14</v>
       </c>
@@ -13719,176 +14064,176 @@
         <v>14</v>
       </c>
       <c r="FG24" s="46" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="FH24" s="39" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="FI24" s="47" t="s">
-        <v>827</v>
+        <v>885</v>
       </c>
       <c r="FJ24" s="12"/>
     </row>
     <row r="25">
       <c r="B25" s="4"/>
       <c r="C25" s="26" t="s">
-        <v>828</v>
+        <v>886</v>
       </c>
       <c r="D25" s="27">
         <v>21.0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>829</v>
+        <v>887</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>830</v>
+        <v>888</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>831</v>
+        <v>889</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>833</v>
+        <v>891</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>834</v>
+        <v>892</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>836</v>
+        <v>894</v>
       </c>
       <c r="T25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="V25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="X25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="30" t="s">
-        <v>839</v>
+        <v>897</v>
       </c>
       <c r="Z25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA25" s="32" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="AB25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE25" s="30" t="s">
-        <v>841</v>
+        <v>899</v>
       </c>
       <c r="AF25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG25" s="32" t="s">
-        <v>842</v>
+        <v>900</v>
       </c>
       <c r="AH25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI25" s="33" t="s">
-        <v>843</v>
+        <v>901</v>
       </c>
       <c r="AJ25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK25" s="30" t="s">
-        <v>844</v>
+        <v>902</v>
       </c>
       <c r="AL25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="AN25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="AP25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ25" s="30" t="s">
-        <v>847</v>
+        <v>905</v>
       </c>
       <c r="AR25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS25" s="32" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="AT25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU25" s="33" t="s">
-        <v>849</v>
+        <v>907</v>
       </c>
       <c r="AV25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW25" s="30" t="s">
-        <v>850</v>
+        <v>908</v>
       </c>
       <c r="AX25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY25" s="32" t="s">
-        <v>851</v>
+        <v>909</v>
       </c>
       <c r="AZ25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA25" s="33" t="s">
-        <v>852</v>
+        <v>910</v>
       </c>
       <c r="BB25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC25" s="30" t="s">
-        <v>853</v>
+        <v>911</v>
       </c>
       <c r="BD25" s="31" t="s">
         <v>4</v>
@@ -13900,13 +14245,13 @@
         <v>6</v>
       </c>
       <c r="BG25" s="33" t="s">
-        <v>854</v>
+        <v>912</v>
       </c>
       <c r="BH25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI25" s="30" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ25" s="31" t="s">
         <v>4</v>
@@ -13918,56 +14263,62 @@
         <v>6</v>
       </c>
       <c r="BM25" s="33" t="s">
-        <v>855</v>
+        <v>913</v>
       </c>
       <c r="BN25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO25" s="30" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="BP25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ25" s="32" t="s">
-        <v>857</v>
+        <v>915</v>
       </c>
       <c r="BR25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS25" s="33" t="s">
-        <v>858</v>
+        <v>916</v>
       </c>
       <c r="BT25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU25" s="30" t="s">
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="BV25" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW25" s="32" t="s">
-        <v>860</v>
+        <v>918</v>
       </c>
       <c r="BX25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY25" s="33" t="s">
-        <v>861</v>
+        <v>919</v>
       </c>
       <c r="BZ25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA25" s="30"/>
+      <c r="CA25" s="30" t="s">
+        <v>920</v>
+      </c>
       <c r="CB25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC25" s="32"/>
+      <c r="CC25" s="32" t="s">
+        <v>921</v>
+      </c>
       <c r="CD25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE25" s="33"/>
+      <c r="CE25" s="33" t="s">
+        <v>922</v>
+      </c>
       <c r="CF25" s="29" t="s">
         <v>14</v>
       </c>
@@ -14128,176 +14479,176 @@
         <v>14</v>
       </c>
       <c r="FG25" s="36" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="FH25" s="27" t="s">
-        <v>862</v>
+        <v>923</v>
       </c>
       <c r="FI25" s="37" t="s">
-        <v>863</v>
+        <v>924</v>
       </c>
       <c r="FJ25" s="12"/>
     </row>
     <row r="26">
       <c r="B26" s="4"/>
       <c r="C26" s="38" t="s">
-        <v>864</v>
+        <v>925</v>
       </c>
       <c r="D26" s="39">
         <v>22.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>865</v>
+        <v>926</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>866</v>
+        <v>927</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>867</v>
+        <v>928</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="44" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
       <c r="P26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>870</v>
+        <v>931</v>
       </c>
       <c r="R26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S26" s="42" t="s">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="T26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U26" s="44" t="s">
-        <v>872</v>
+        <v>933</v>
       </c>
       <c r="V26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W26" s="45" t="s">
-        <v>873</v>
+        <v>934</v>
       </c>
       <c r="X26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="42" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="Z26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA26" s="44" t="s">
-        <v>875</v>
+        <v>936</v>
       </c>
       <c r="AB26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC26" s="45" t="s">
-        <v>876</v>
+        <v>937</v>
       </c>
       <c r="AD26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE26" s="42" t="s">
-        <v>877</v>
+        <v>938</v>
       </c>
       <c r="AF26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG26" s="44" t="s">
-        <v>878</v>
+        <v>939</v>
       </c>
       <c r="AH26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI26" s="45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AJ26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK26" s="42" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AL26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>879</v>
+        <v>940</v>
       </c>
       <c r="AN26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO26" s="45" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="AP26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ26" s="42" t="s">
-        <v>881</v>
+        <v>942</v>
       </c>
       <c r="AR26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS26" s="44" t="s">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="AT26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU26" s="45" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="AV26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW26" s="42" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="AX26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY26" s="44" t="s">
-        <v>884</v>
+        <v>945</v>
       </c>
       <c r="AZ26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA26" s="45" t="s">
-        <v>885</v>
+        <v>946</v>
       </c>
       <c r="BB26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC26" s="42" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="BD26" s="43" t="s">
         <v>4</v>
@@ -14309,74 +14660,80 @@
         <v>6</v>
       </c>
       <c r="BG26" s="45" t="s">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="BH26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI26" s="42" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK26" s="44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BL26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM26" s="45" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
       <c r="BN26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO26" s="42" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="BP26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ26" s="44" t="s">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="BR26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS26" s="45" t="s">
-        <v>891</v>
+        <v>952</v>
       </c>
       <c r="BT26" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU26" s="42" t="s">
-        <v>892</v>
+        <v>953</v>
       </c>
       <c r="BV26" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW26" s="44" t="s">
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="BX26" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY26" s="45" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="BZ26" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA26" s="42"/>
+      <c r="CA26" s="42" t="s">
+        <v>956</v>
+      </c>
       <c r="CB26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC26" s="44"/>
+      <c r="CC26" s="44" t="s">
+        <v>576</v>
+      </c>
       <c r="CD26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE26" s="45"/>
+      <c r="CE26" s="45" t="s">
+        <v>957</v>
+      </c>
       <c r="CF26" s="41" t="s">
         <v>14</v>
       </c>
@@ -14537,176 +14894,176 @@
         <v>14</v>
       </c>
       <c r="FG26" s="46" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="FH26" s="39" t="s">
-        <v>895</v>
+        <v>958</v>
       </c>
       <c r="FI26" s="47" t="s">
-        <v>896</v>
+        <v>959</v>
       </c>
       <c r="FJ26" s="12"/>
     </row>
     <row r="27">
       <c r="B27" s="4"/>
       <c r="C27" s="26" t="s">
-        <v>897</v>
+        <v>960</v>
       </c>
       <c r="D27" s="27">
         <v>23.0</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>898</v>
+        <v>961</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>899</v>
+        <v>962</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>900</v>
+        <v>963</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>901</v>
+        <v>964</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>902</v>
+        <v>965</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>904</v>
+        <v>967</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S27" s="30" t="s">
-        <v>905</v>
+        <v>968</v>
       </c>
       <c r="T27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>906</v>
+        <v>969</v>
       </c>
       <c r="V27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>907</v>
+        <v>970</v>
       </c>
       <c r="X27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="Z27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>909</v>
+        <v>972</v>
       </c>
       <c r="AB27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>910</v>
+        <v>973</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="30" t="s">
-        <v>911</v>
+        <v>974</v>
       </c>
       <c r="AF27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>912</v>
+        <v>975</v>
       </c>
       <c r="AH27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="33" t="s">
-        <v>913</v>
+        <v>976</v>
       </c>
       <c r="AJ27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK27" s="30" t="s">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="AL27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="AN27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>916</v>
+        <v>979</v>
       </c>
       <c r="AP27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ27" s="30" t="s">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="AR27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS27" s="32" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
       <c r="AT27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU27" s="33" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
       <c r="AV27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW27" s="30" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="AX27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AY27" s="32" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="AZ27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BA27" s="33" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="BB27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC27" s="30" t="s">
-        <v>923</v>
+        <v>986</v>
       </c>
       <c r="BD27" s="31" t="s">
         <v>4</v>
@@ -14718,74 +15075,80 @@
         <v>6</v>
       </c>
       <c r="BG27" s="33" t="s">
-        <v>924</v>
+        <v>987</v>
       </c>
       <c r="BH27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI27" s="30" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK27" s="32" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="BL27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM27" s="33" t="s">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="BN27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO27" s="30" t="s">
-        <v>926</v>
+        <v>989</v>
       </c>
       <c r="BP27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ27" s="32" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="BR27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS27" s="33" t="s">
-        <v>928</v>
+        <v>991</v>
       </c>
       <c r="BT27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU27" s="30" t="s">
-        <v>929</v>
+        <v>992</v>
       </c>
       <c r="BV27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW27" s="32" t="s">
-        <v>930</v>
+        <v>993</v>
       </c>
       <c r="BX27" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY27" s="33" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="BZ27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA27" s="30"/>
+      <c r="CA27" s="30" t="s">
+        <v>995</v>
+      </c>
       <c r="CB27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC27" s="32"/>
+      <c r="CC27" s="32" t="s">
+        <v>996</v>
+      </c>
       <c r="CD27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE27" s="33"/>
+      <c r="CE27" s="33" t="s">
+        <v>997</v>
+      </c>
       <c r="CF27" s="29" t="s">
         <v>14</v>
       </c>
@@ -14946,176 +15309,176 @@
         <v>14</v>
       </c>
       <c r="FG27" s="36" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="FH27" s="27" t="s">
-        <v>932</v>
+        <v>998</v>
       </c>
       <c r="FI27" s="37" t="s">
-        <v>933</v>
+        <v>999</v>
       </c>
       <c r="FJ27" s="12"/>
     </row>
     <row r="28">
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>934</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="39">
         <v>24.0</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>935</v>
+        <v>1001</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>936</v>
+        <v>1002</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>937</v>
+        <v>1003</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>938</v>
+        <v>1004</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>939</v>
+        <v>1005</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>940</v>
+        <v>1006</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>941</v>
+        <v>1007</v>
       </c>
       <c r="R28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="T28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>942</v>
+        <v>1008</v>
       </c>
       <c r="V28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W28" s="45" t="s">
-        <v>943</v>
+        <v>1009</v>
       </c>
       <c r="X28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y28" s="42" t="s">
-        <v>944</v>
+        <v>1010</v>
       </c>
       <c r="Z28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="44" t="s">
-        <v>945</v>
+        <v>1011</v>
       </c>
       <c r="AB28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC28" s="45" t="s">
-        <v>946</v>
+        <v>1012</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="42" t="s">
-        <v>947</v>
+        <v>1013</v>
       </c>
       <c r="AF28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG28" s="44" t="s">
-        <v>948</v>
+        <v>1014</v>
       </c>
       <c r="AH28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI28" s="45" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AJ28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK28" s="42" t="s">
-        <v>949</v>
+        <v>1015</v>
       </c>
       <c r="AL28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM28" s="44" t="s">
-        <v>950</v>
+        <v>1016</v>
       </c>
       <c r="AN28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO28" s="45" t="s">
-        <v>951</v>
+        <v>1017</v>
       </c>
       <c r="AP28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ28" s="42" t="s">
-        <v>952</v>
+        <v>1018</v>
       </c>
       <c r="AR28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="44" t="s">
-        <v>953</v>
+        <v>1019</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU28" s="45" t="s">
-        <v>954</v>
+        <v>1020</v>
       </c>
       <c r="AV28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW28" s="42" t="s">
-        <v>955</v>
+        <v>1021</v>
       </c>
       <c r="AX28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY28" s="44" t="s">
-        <v>956</v>
+        <v>1022</v>
       </c>
       <c r="AZ28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA28" s="45" t="s">
-        <v>957</v>
+        <v>1023</v>
       </c>
       <c r="BB28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC28" s="42" t="s">
-        <v>958</v>
+        <v>1024</v>
       </c>
       <c r="BD28" s="43" t="s">
         <v>4</v>
@@ -15127,74 +15490,80 @@
         <v>6</v>
       </c>
       <c r="BG28" s="45" t="s">
-        <v>959</v>
+        <v>1025</v>
       </c>
       <c r="BH28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI28" s="42" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK28" s="44" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="BL28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM28" s="45" t="s">
-        <v>960</v>
+        <v>1026</v>
       </c>
       <c r="BN28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO28" s="42" t="s">
-        <v>961</v>
+        <v>1027</v>
       </c>
       <c r="BP28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ28" s="44" t="s">
-        <v>962</v>
+        <v>1028</v>
       </c>
       <c r="BR28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS28" s="45" t="s">
-        <v>963</v>
+        <v>1029</v>
       </c>
       <c r="BT28" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU28" s="42" t="s">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="BV28" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW28" s="44" t="s">
-        <v>965</v>
+        <v>1031</v>
       </c>
       <c r="BX28" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY28" s="45" t="s">
-        <v>966</v>
+        <v>1032</v>
       </c>
       <c r="BZ28" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA28" s="42"/>
+      <c r="CA28" s="42" t="s">
+        <v>1033</v>
+      </c>
       <c r="CB28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC28" s="44"/>
+      <c r="CC28" s="44" t="s">
+        <v>1034</v>
+      </c>
       <c r="CD28" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE28" s="45"/>
+      <c r="CE28" s="45" t="s">
+        <v>1035</v>
+      </c>
       <c r="CF28" s="41" t="s">
         <v>14</v>
       </c>
@@ -15355,158 +15724,158 @@
         <v>14</v>
       </c>
       <c r="FG28" s="46" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="FH28" s="39" t="s">
-        <v>967</v>
+        <v>1036</v>
       </c>
       <c r="FI28" s="47" t="s">
-        <v>968</v>
+        <v>1037</v>
       </c>
       <c r="FJ28" s="12"/>
     </row>
     <row r="29">
       <c r="B29" s="4"/>
       <c r="C29" s="26" t="s">
-        <v>969</v>
+        <v>1038</v>
       </c>
       <c r="D29" s="27">
         <v>25.0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>970</v>
+        <v>1039</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>971</v>
+        <v>1040</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>972</v>
+        <v>1041</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>973</v>
+        <v>1042</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>974</v>
+        <v>1043</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>975</v>
+        <v>1044</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S29" s="30" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="T29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>976</v>
+        <v>1045</v>
       </c>
       <c r="V29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>977</v>
+        <v>1046</v>
       </c>
       <c r="X29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>978</v>
+        <v>1047</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>979</v>
+        <v>1048</v>
       </c>
       <c r="AB29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>980</v>
+        <v>1049</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>981</v>
+        <v>1050</v>
       </c>
       <c r="AF29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AG29" s="32" t="s">
-        <v>982</v>
+        <v>1051</v>
       </c>
       <c r="AH29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="33" t="s">
-        <v>983</v>
+        <v>1052</v>
       </c>
       <c r="AJ29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AK29" s="30" t="s">
-        <v>984</v>
+        <v>1053</v>
       </c>
       <c r="AL29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>985</v>
+        <v>1054</v>
       </c>
       <c r="AN29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AO29" s="33" t="s">
-        <v>986</v>
+        <v>1055</v>
       </c>
       <c r="AP29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AQ29" s="30" t="s">
-        <v>987</v>
+        <v>1056</v>
       </c>
       <c r="AR29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AS29" s="32" t="s">
-        <v>988</v>
+        <v>1057</v>
       </c>
       <c r="AT29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AU29" s="33" t="s">
-        <v>989</v>
+        <v>1058</v>
       </c>
       <c r="AV29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="AW29" s="30" t="s">
-        <v>990</v>
+        <v>1059</v>
       </c>
       <c r="AX29" s="31" t="s">
         <v>4</v>
@@ -15518,13 +15887,13 @@
         <v>6</v>
       </c>
       <c r="BA29" s="33" t="s">
-        <v>991</v>
+        <v>1060</v>
       </c>
       <c r="BB29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BC29" s="30" t="s">
-        <v>992</v>
+        <v>1061</v>
       </c>
       <c r="BD29" s="31" t="s">
         <v>4</v>
@@ -15536,74 +15905,80 @@
         <v>6</v>
       </c>
       <c r="BG29" s="33" t="s">
-        <v>993</v>
+        <v>1062</v>
       </c>
       <c r="BH29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BI29" s="30" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BK29" s="32" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="BL29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BM29" s="33" t="s">
-        <v>994</v>
+        <v>1063</v>
       </c>
       <c r="BN29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BO29" s="30" t="s">
-        <v>995</v>
+        <v>1064</v>
       </c>
       <c r="BP29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BQ29" s="32" t="s">
-        <v>996</v>
+        <v>1065</v>
       </c>
       <c r="BR29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BS29" s="33" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="BT29" s="29" t="s">
         <v>14</v>
       </c>
       <c r="BU29" s="30" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="BV29" s="31" t="s">
         <v>4</v>
       </c>
       <c r="BW29" s="32" t="s">
-        <v>998</v>
+        <v>1067</v>
       </c>
       <c r="BX29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="BY29" s="33" t="s">
-        <v>999</v>
+        <v>1068</v>
       </c>
       <c r="BZ29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CA29" s="30"/>
+      <c r="CA29" s="30" t="s">
+        <v>1069</v>
+      </c>
       <c r="CB29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="CC29" s="32"/>
+      <c r="CC29" s="32" t="s">
+        <v>1070</v>
+      </c>
       <c r="CD29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CE29" s="33"/>
+      <c r="CE29" s="33" t="s">
+        <v>1071</v>
+      </c>
       <c r="CF29" s="29" t="s">
         <v>14</v>
       </c>
@@ -15764,176 +16139,176 @@
         <v>14</v>
       </c>
       <c r="FG29" s="36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="FH29" s="27" t="s">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="FI29" s="37" t="s">
-        <v>1001</v>
+        <v>1073</v>
       </c>
       <c r="FJ29" s="12"/>
     </row>
     <row r="30">
       <c r="B30" s="4"/>
       <c r="C30" s="38" t="s">
-        <v>1002</v>
+        <v>1074</v>
       </c>
       <c r="D30" s="39">
         <v>26.0</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>1005</v>
+        <v>1077</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>1006</v>
+        <v>1078</v>
       </c>
       <c r="N30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>1007</v>
+        <v>1079</v>
       </c>
       <c r="P30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>1008</v>
+        <v>1080</v>
       </c>
       <c r="R30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="S30" s="42" t="s">
-        <v>1009</v>
+        <v>1081</v>
       </c>
       <c r="T30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>1010</v>
+        <v>1082</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>1011</v>
+        <v>1083</v>
       </c>
       <c r="X30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="Y30" s="42" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="Z30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA30" s="44" t="s">
-        <v>1013</v>
+        <v>1085</v>
       </c>
       <c r="AB30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AC30" s="45" t="s">
-        <v>1014</v>
+        <v>1086</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AE30" s="42" t="s">
-        <v>1015</v>
+        <v>1087</v>
       </c>
       <c r="AF30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AG30" s="44" t="s">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="AH30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="45" t="s">
-        <v>1017</v>
+        <v>1089</v>
       </c>
       <c r="AJ30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="42" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="AL30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AM30" s="44" t="s">
-        <v>1018</v>
+        <v>1090</v>
       </c>
       <c r="AN30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AO30" s="45" t="s">
-        <v>1019</v>
+        <v>1091</v>
       </c>
       <c r="AP30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AQ30" s="42" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="AR30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AS30" s="44" t="s">
-        <v>1021</v>
+        <v>1093</v>
       </c>
       <c r="AT30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AU30" s="45" t="s">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="AV30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="AW30" s="42" t="s">
-        <v>1015</v>
+        <v>1087</v>
       </c>
       <c r="AX30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AY30" s="44" t="s">
-        <v>1023</v>
+        <v>1095</v>
       </c>
       <c r="AZ30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BA30" s="45" t="s">
-        <v>1024</v>
+        <v>1096</v>
       </c>
       <c r="BB30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BC30" s="42" t="s">
-        <v>1025</v>
+        <v>1097</v>
       </c>
       <c r="BD30" s="43" t="s">
         <v>4</v>
@@ -15945,74 +16320,80 @@
         <v>6</v>
       </c>
       <c r="BG30" s="45" t="s">
-        <v>1026</v>
+        <v>1098</v>
       </c>
       <c r="BH30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BI30" s="42" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BK30" s="44" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="BL30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BM30" s="45" t="s">
-        <v>1027</v>
+        <v>1099</v>
       </c>
       <c r="BN30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BO30" s="42" t="s">
-        <v>1028</v>
+        <v>1100</v>
       </c>
       <c r="BP30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BQ30" s="44" t="s">
-        <v>1029</v>
+        <v>1101</v>
       </c>
       <c r="BR30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BS30" s="45" t="s">
-        <v>1030</v>
+        <v>1102</v>
       </c>
       <c r="BT30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="BU30" s="42" t="s">
-        <v>1031</v>
+        <v>1103</v>
       </c>
       <c r="BV30" s="43" t="s">
         <v>4</v>
       </c>
       <c r="BW30" s="44" t="s">
-        <v>1032</v>
+        <v>1104</v>
       </c>
       <c r="BX30" s="43" t="s">
         <v>6</v>
       </c>
       <c r="BY30" s="45" t="s">
-        <v>1033</v>
+        <v>1105</v>
       </c>
       <c r="BZ30" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CA30" s="42"/>
+      <c r="CA30" s="42" t="s">
+        <v>1106</v>
+      </c>
       <c r="CB30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CC30" s="44"/>
+      <c r="CC30" s="44" t="s">
+        <v>1107</v>
+      </c>
       <c r="CD30" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="CE30" s="45"/>
+      <c r="CE30" s="45" t="s">
+        <v>1108</v>
+      </c>
       <c r="CF30" s="41" t="s">
         <v>14</v>
       </c>
@@ -16173,260 +16554,260 @@
         <v>14</v>
       </c>
       <c r="FG30" s="46" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="FH30" s="39" t="s">
-        <v>1034</v>
+        <v>1109</v>
       </c>
       <c r="FI30" s="47" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
       <c r="FJ30" s="12"/>
     </row>
     <row r="31">
       <c r="B31" s="4"/>
       <c r="C31" s="50" t="s">
-        <v>1036</v>
+        <v>1111</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>1038</v>
+        <v>1113</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>1039</v>
+        <v>1114</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>1040</v>
+        <v>1115</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>1041</v>
+        <v>1116</v>
       </c>
       <c r="L31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="54" t="s">
-        <v>1042</v>
+        <v>1117</v>
       </c>
       <c r="N31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="O31" s="56" t="s">
-        <v>1043</v>
+        <v>1118</v>
       </c>
       <c r="P31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>1044</v>
+        <v>1119</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>1045</v>
+        <v>1120</v>
       </c>
       <c r="T31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="U31" s="56" t="s">
-        <v>1046</v>
+        <v>1121</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="W31" s="57" t="s">
-        <v>1047</v>
+        <v>1122</v>
       </c>
       <c r="X31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>1048</v>
+        <v>1123</v>
       </c>
       <c r="Z31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AA31" s="56" t="s">
-        <v>1049</v>
+        <v>1124</v>
       </c>
       <c r="AB31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AC31" s="57" t="s">
-        <v>1050</v>
+        <v>1125</v>
       </c>
       <c r="AD31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="58" t="s">
-        <v>1051</v>
+        <v>1126</v>
       </c>
       <c r="AF31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AG31" s="59" t="s">
-        <v>1052</v>
+        <v>1127</v>
       </c>
       <c r="AH31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="60" t="s">
-        <v>1053</v>
+        <v>1128</v>
       </c>
       <c r="AJ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="58" t="s">
-        <v>1054</v>
+        <v>1129</v>
       </c>
       <c r="AL31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AM31" s="59" t="s">
-        <v>1055</v>
+        <v>1130</v>
       </c>
       <c r="AN31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AO31" s="60" t="s">
-        <v>1056</v>
+        <v>1131</v>
       </c>
       <c r="AP31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AQ31" s="58" t="s">
-        <v>1057</v>
+        <v>1132</v>
       </c>
       <c r="AR31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AS31" s="59" t="s">
-        <v>1058</v>
+        <v>1133</v>
       </c>
       <c r="AT31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="AU31" s="60" t="s">
-        <v>1059</v>
+        <v>1134</v>
       </c>
       <c r="AV31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="AW31" s="58" t="s">
-        <v>1060</v>
+        <v>1135</v>
       </c>
       <c r="AX31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="AY31" s="59" t="s">
-        <v>857</v>
+        <v>915</v>
       </c>
       <c r="AZ31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BA31" s="60" t="s">
-        <v>1061</v>
+        <v>1136</v>
       </c>
       <c r="BB31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BC31" s="58" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="BD31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BE31" s="59" t="s">
-        <v>1062</v>
+        <v>1137</v>
       </c>
       <c r="BF31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BG31" s="60" t="s">
-        <v>1063</v>
+        <v>1138</v>
       </c>
       <c r="BH31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BI31" s="54" t="s">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="BJ31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BK31" s="56" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="BL31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BM31" s="57" t="s">
-        <v>1064</v>
+        <v>1139</v>
       </c>
       <c r="BN31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BO31" s="54" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BP31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BQ31" s="56" t="s">
-        <v>1065</v>
+        <v>1140</v>
       </c>
       <c r="BR31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BS31" s="57" t="s">
-        <v>1066</v>
+        <v>1141</v>
       </c>
       <c r="BT31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="BU31" s="54" t="s">
-        <v>1067</v>
+        <v>1142</v>
       </c>
       <c r="BV31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="BW31" s="56" t="s">
-        <v>1068</v>
+        <v>1143</v>
       </c>
       <c r="BX31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="BY31" s="57" t="s">
-        <v>1069</v>
+        <v>1144</v>
       </c>
       <c r="BZ31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="CA31" s="54" t="s">
-        <v>1070</v>
+        <v>1145</v>
       </c>
       <c r="CB31" s="55" t="s">
         <v>4</v>
       </c>
       <c r="CC31" s="56" t="s">
-        <v>1071</v>
+        <v>1146</v>
       </c>
       <c r="CD31" s="55" t="s">
         <v>6</v>
       </c>
       <c r="CE31" s="57" t="s">
-        <v>1072</v>
+        <v>1147</v>
       </c>
       <c r="CF31" s="53" t="s">
         <v>14</v>
@@ -16588,506 +16969,506 @@
         <v>14</v>
       </c>
       <c r="FG31" s="61" t="s">
-        <v>1073</v>
+        <v>1148</v>
       </c>
       <c r="FH31" s="51" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="FI31" s="62" t="s">
-        <v>1074</v>
+        <v>1149</v>
       </c>
       <c r="FJ31" s="12"/>
     </row>
     <row r="32">
       <c r="B32" s="4"/>
       <c r="C32" s="63" t="s">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>1076</v>
+        <v>1151</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>1077</v>
+        <v>1152</v>
       </c>
       <c r="F32" s="66" t="s">
-        <v>969</v>
+        <v>1038</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="H32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="J32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="L32" s="66" t="s">
-        <v>1081</v>
+        <v>1156</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="P32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="Q32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="R32" s="66" t="s">
-        <v>1082</v>
+        <v>1157</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="T32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="V32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="W32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="X32" s="66" t="s">
-        <v>1083</v>
+        <v>1158</v>
       </c>
       <c r="Y32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="Z32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AA32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="AB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AC32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="AD32" s="66" t="s">
-        <v>1084</v>
+        <v>1159</v>
       </c>
       <c r="AE32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="AF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AG32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="AH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="AJ32" s="66" t="s">
-        <v>1085</v>
+        <v>1160</v>
       </c>
       <c r="AK32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="AL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AM32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="AN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AO32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="AP32" s="66" t="s">
-        <v>1086</v>
+        <v>1161</v>
       </c>
       <c r="AQ32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="AR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AS32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="AT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="AU32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="AV32" s="66" t="s">
-        <v>1087</v>
+        <v>1162</v>
       </c>
       <c r="AW32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="AX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="AY32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="AZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BA32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="BB32" s="66" t="s">
-        <v>1088</v>
+        <v>1163</v>
       </c>
       <c r="BC32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="BD32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BE32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="BF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BG32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="BH32" s="66" t="s">
-        <v>1089</v>
+        <v>1164</v>
       </c>
       <c r="BI32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="BJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BK32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="BL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BM32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="BN32" s="66" t="s">
-        <v>1090</v>
+        <v>1165</v>
       </c>
       <c r="BO32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="BP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BQ32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="BR32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BS32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="BT32" s="66" t="s">
-        <v>1091</v>
+        <v>1166</v>
       </c>
       <c r="BU32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="BV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="BW32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="BX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="BY32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="BZ32" s="66" t="s">
-        <v>1092</v>
+        <v>1167</v>
       </c>
       <c r="CA32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="CB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CC32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="CD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CE32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="CF32" s="66" t="s">
-        <v>1093</v>
+        <v>1168</v>
       </c>
       <c r="CG32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="CH32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CI32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="CJ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CK32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="CL32" s="66" t="s">
-        <v>1094</v>
+        <v>1169</v>
       </c>
       <c r="CM32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="CN32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CO32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="CP32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CQ32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="CR32" s="66" t="s">
-        <v>1095</v>
+        <v>1170</v>
       </c>
       <c r="CS32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="CT32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="CU32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="CV32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="CW32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="CX32" s="66" t="s">
-        <v>1096</v>
+        <v>1171</v>
       </c>
       <c r="CY32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="CZ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DA32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="DB32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DC32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="DD32" s="66" t="s">
-        <v>1097</v>
+        <v>1172</v>
       </c>
       <c r="DE32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="DF32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DG32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="DH32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DI32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>1098</v>
+        <v>1173</v>
       </c>
       <c r="DK32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="DL32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DM32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="DN32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DO32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="DP32" s="66" t="s">
-        <v>1099</v>
+        <v>1174</v>
       </c>
       <c r="DQ32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="DR32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DS32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="DT32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="DU32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="DV32" s="66" t="s">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="DW32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="DX32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="DY32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="DZ32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EA32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="EB32" s="66" t="s">
-        <v>1101</v>
+        <v>1176</v>
       </c>
       <c r="EC32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="ED32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EE32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="EF32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EG32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="EH32" s="66" t="s">
-        <v>1102</v>
+        <v>1177</v>
       </c>
       <c r="EI32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="EJ32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EK32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="EL32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EM32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="EN32" s="66" t="s">
-        <v>1103</v>
+        <v>1178</v>
       </c>
       <c r="EO32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="EP32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EQ32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="ER32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="ES32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="ET32" s="66" t="s">
-        <v>1104</v>
+        <v>1179</v>
       </c>
       <c r="EU32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="EV32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="EW32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="EX32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="EY32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="EZ32" s="66" t="s">
-        <v>1105</v>
+        <v>1180</v>
       </c>
       <c r="FA32" s="67" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
       <c r="FB32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="FC32" s="65" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="FD32" s="64" t="s">
         <v>6</v>
       </c>
       <c r="FE32" s="68" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
       <c r="FF32" s="66" t="s">
-        <v>1106</v>
+        <v>1181</v>
       </c>
       <c r="FG32" s="67" t="s">
-        <v>1107</v>
+        <v>1182</v>
       </c>
       <c r="FH32" s="64" t="s">
-        <v>1108</v>
+        <v>1183</v>
       </c>
       <c r="FI32" s="69" t="s">
-        <v>1109</v>
+        <v>1184</v>
       </c>
       <c r="FJ32" s="12"/>
     </row>
@@ -17369,10 +17750,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>1110</v>
+        <v>1185</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>1111</v>
+        <v>1186</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>9</v>
@@ -17407,10 +17788,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>1112</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>1113</v>
+        <v>1188</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>12</v>
@@ -17447,13 +17828,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>1114</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>1115</v>
+        <v>1190</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
@@ -17465,7 +17846,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="82"/>
@@ -17487,13 +17868,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1116</v>
+        <v>1191</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1117</v>
+        <v>1192</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
@@ -17502,10 +17883,10 @@
         <v>2.0</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -17527,13 +17908,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>1118</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1119</v>
+        <v>1194</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
@@ -17542,10 +17923,10 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K5" s="82"/>
       <c r="L5" s="82"/>
@@ -17567,13 +17948,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>1120</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1121</v>
+        <v>1196</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -17582,10 +17963,10 @@
         <v>4.0</v>
       </c>
       <c r="I6" s="90" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
@@ -17607,13 +17988,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>1122</v>
+        <v>1197</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>1123</v>
+        <v>1198</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -17622,10 +18003,10 @@
         <v>5.0</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K7" s="82"/>
       <c r="L7" s="82"/>
@@ -17647,13 +18028,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1124</v>
+        <v>1199</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="89"/>
@@ -17662,10 +18043,10 @@
         <v>6.0</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
@@ -17687,13 +18068,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>1126</v>
+        <v>1201</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1127</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -17702,10 +18083,10 @@
         <v>7.0</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
@@ -17727,13 +18108,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1128</v>
+        <v>1203</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1129</v>
+        <v>1204</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -17742,10 +18123,10 @@
         <v>8.0</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="J10" s="91" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
@@ -17767,13 +18148,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>1130</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>1131</v>
+        <v>1206</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
@@ -17782,10 +18163,10 @@
         <v>9.0</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
@@ -17807,13 +18188,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>1132</v>
+        <v>1207</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>1133</v>
+        <v>1208</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -17822,10 +18203,10 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="J12" s="91" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="89"/>
@@ -17847,13 +18228,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1134</v>
+        <v>1209</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1135</v>
+        <v>1210</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -17862,10 +18243,10 @@
         <v>11.0</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="82"/>
@@ -17887,13 +18268,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>1136</v>
+        <v>1211</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>1137</v>
+        <v>1212</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
@@ -17902,10 +18283,10 @@
         <v>12.0</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
@@ -17927,13 +18308,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>1138</v>
+        <v>1213</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1139</v>
+        <v>1214</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="E15" s="82"/>
       <c r="F15" s="82"/>
@@ -17942,10 +18323,10 @@
         <v>13.0</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="82"/>
@@ -17967,13 +18348,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1140</v>
+        <v>1215</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>1141</v>
+        <v>1216</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -17982,10 +18363,10 @@
         <v>14.0</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
@@ -18007,13 +18388,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>1142</v>
+        <v>1217</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1143</v>
+        <v>1218</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
@@ -18022,10 +18403,10 @@
         <v>15.0</v>
       </c>
       <c r="I17" s="86" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="J17" s="87" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="82"/>
@@ -18047,13 +18428,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>1144</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>1145</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
@@ -18062,10 +18443,10 @@
         <v>16.0</v>
       </c>
       <c r="I18" s="90" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="J18" s="91" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
@@ -18087,13 +18468,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>1146</v>
+        <v>1221</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>1147</v>
+        <v>1222</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="E19" s="82"/>
       <c r="F19" s="82"/>
@@ -18102,10 +18483,10 @@
         <v>17.0</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="J19" s="87" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="82"/>
@@ -18127,13 +18508,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1148</v>
+        <v>1223</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1149</v>
+        <v>1224</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>752</v>
+        <v>805</v>
       </c>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
@@ -18142,10 +18523,10 @@
         <v>18.0</v>
       </c>
       <c r="I20" s="90" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="J20" s="91" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
@@ -18167,13 +18548,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>1150</v>
+        <v>1225</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>1151</v>
+        <v>1226</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>788</v>
+        <v>844</v>
       </c>
       <c r="E21" s="82"/>
       <c r="F21" s="82"/>
@@ -18182,10 +18563,10 @@
         <v>19.0</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
       <c r="J21" s="87" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
@@ -18207,13 +18588,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>1152</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>1153</v>
+        <v>1228</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>826</v>
+        <v>884</v>
       </c>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
@@ -18222,10 +18603,10 @@
         <v>20.0</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>791</v>
+        <v>847</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="K22" s="89"/>
       <c r="L22" s="89"/>
@@ -18247,13 +18628,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>1154</v>
+        <v>1229</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1155</v>
+        <v>1230</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>862</v>
+        <v>923</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
@@ -18262,10 +18643,10 @@
         <v>21.0</v>
       </c>
       <c r="I23" s="86" t="s">
-        <v>829</v>
+        <v>887</v>
       </c>
       <c r="J23" s="87" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="82"/>
@@ -18287,13 +18668,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1156</v>
+        <v>1231</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>1157</v>
+        <v>1232</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>895</v>
+        <v>958</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -18302,10 +18683,10 @@
         <v>22.0</v>
       </c>
       <c r="I24" s="90" t="s">
-        <v>865</v>
+        <v>926</v>
       </c>
       <c r="J24" s="91" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
@@ -18327,13 +18708,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1158</v>
+        <v>1233</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1159</v>
+        <v>1234</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>932</v>
+        <v>998</v>
       </c>
       <c r="E25" s="82"/>
       <c r="F25" s="82"/>
@@ -18342,10 +18723,10 @@
         <v>23.0</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>898</v>
+        <v>961</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="82"/>
@@ -18367,13 +18748,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>1160</v>
+        <v>1235</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>1161</v>
+        <v>1236</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>967</v>
+        <v>1036</v>
       </c>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -18382,10 +18763,10 @@
         <v>24.0</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>935</v>
+        <v>1001</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K26" s="89"/>
       <c r="L26" s="89"/>
@@ -18407,13 +18788,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>1162</v>
+        <v>1237</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>1163</v>
+        <v>1238</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="E27" s="82"/>
       <c r="F27" s="82"/>
@@ -18422,10 +18803,10 @@
         <v>25.0</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>970</v>
+        <v>1039</v>
       </c>
       <c r="J27" s="87" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="82"/>
@@ -18447,13 +18828,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>1164</v>
+        <v>1239</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>1165</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>1034</v>
+        <v>1109</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -18462,10 +18843,10 @@
         <v>26.0</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
@@ -18484,28 +18865,28 @@
     </row>
     <row r="29">
       <c r="A29" s="81" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>1166</v>
+        <v>1241</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>1167</v>
+        <v>1242</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="82"/>
       <c r="H29" s="83" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
       <c r="I29" s="83" t="s">
-        <v>1038</v>
+        <v>1113</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>1073</v>
+        <v>1148</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
@@ -18524,26 +18905,26 @@
     </row>
     <row r="30">
       <c r="A30" s="76" t="s">
-        <v>1076</v>
+        <v>1151</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>1168</v>
+        <v>1243</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>1169</v>
+        <v>1244</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1108</v>
+        <v>1183</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="78"/>
       <c r="I30" s="79" t="s">
-        <v>1077</v>
+        <v>1152</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>1107</v>
+        <v>1182</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
